--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -13,14 +13,15 @@
     <sheet name="Upside" sheetId="4" r:id="rId4"/>
     <sheet name="Deal Call Months 2.0" sheetId="5" r:id="rId5"/>
     <sheet name="WA Cost of Funds" sheetId="6" r:id="rId6"/>
-    <sheet name="sample" sheetId="7" r:id="rId7"/>
+    <sheet name="Equity Yield" sheetId="7" r:id="rId7"/>
+    <sheet name="WA Adv Rate" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Sims</t>
   </si>
@@ -37,7 +38,79 @@
     <t>Deal Call Months</t>
   </si>
   <si>
-    <t>WA CoF</t>
+    <t>[3.7-3.8]</t>
+  </si>
+  <si>
+    <t>[3.8-3.8]</t>
+  </si>
+  <si>
+    <t>[3.8-3.9]</t>
+  </si>
+  <si>
+    <t>[3.9-4.0]</t>
+  </si>
+  <si>
+    <t>[4.0-4.1]</t>
+  </si>
+  <si>
+    <t>[4.1-4.1]</t>
+  </si>
+  <si>
+    <t>[4.1-4.2]</t>
+  </si>
+  <si>
+    <t>[4.2-4.3]</t>
+  </si>
+  <si>
+    <t>[4.3-4.3]</t>
+  </si>
+  <si>
+    <t>[4.3-4.4]</t>
+  </si>
+  <si>
+    <t>[9.0-9.8]</t>
+  </si>
+  <si>
+    <t>[9.8-10.5]</t>
+  </si>
+  <si>
+    <t>[10.5-11.2]</t>
+  </si>
+  <si>
+    <t>[11.2-12.0]</t>
+  </si>
+  <si>
+    <t>[12.0-12.8]</t>
+  </si>
+  <si>
+    <t>[12.8-13.5]</t>
+  </si>
+  <si>
+    <t>[13.5-14.2]</t>
+  </si>
+  <si>
+    <t>[14.2-15.0]</t>
+  </si>
+  <si>
+    <t>[0.7-0.7]</t>
+  </si>
+  <si>
+    <t>[0.7-0.8]</t>
+  </si>
+  <si>
+    <t>[0.8-0.8]</t>
+  </si>
+  <si>
+    <t>[0.8-0.9]</t>
+  </si>
+  <si>
+    <t>[0.9-0.9]</t>
+  </si>
+  <si>
+    <t>[0.9-1.0]</t>
+  </si>
+  <si>
+    <t>[1.0-1.0]</t>
   </si>
 </sst>
 </file>
@@ -108,7 +181,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Results of CLO Simulation</a:t>
+              <a:t>Deal Call Months for All Scenarios</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -140,10 +213,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$A$2:$A$6</c:f>
+              <c:f>'Deal Call Months'!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -158,30 +231,600 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$B$2:$B$6</c:f>
+              <c:f>'Deal Call Months'!$B$2:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>27</c:v>
+                <c:pt idx="56">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -208,10 +851,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$A$2:$A$6</c:f>
+              <c:f>'Deal Call Months'!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -226,29 +869,599 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$C$2:$C$6</c:f>
+              <c:f>'Deal Call Months'!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
@@ -276,10 +1489,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$A$2:$A$6</c:f>
+              <c:f>'Deal Call Months'!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -294,29 +1507,599 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$D$2:$D$6</c:f>
+              <c:f>'Deal Call Months'!$D$2:$D$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="19">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
@@ -419,7 +2202,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Results of CLO Simulation</a:t>
+              <a:t>Deal Call Months for Base Scenario</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -451,10 +2234,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Base!$A$2:$A$6</c:f>
+              <c:f>Base!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -469,30 +2252,600 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Base!$B$2:$B$6</c:f>
+              <c:f>Base!$B$2:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>27</c:v>
+                <c:pt idx="56">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -535,6 +2888,7 @@
         <c:axId val="50020002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="20"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -593,7 +2947,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Results of CLO Simulation</a:t>
+              <a:t>Deal Call Months for Downside Scenario</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -622,10 +2976,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Downside!$A$2:$A$6</c:f>
+              <c:f>Downside!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -640,29 +2994,599 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Downside!$B$2:$B$6</c:f>
+              <c:f>Downside!$B$2:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
@@ -706,6 +3630,7 @@
         <c:axId val="50030002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="20"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -764,7 +3689,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Results of CLO Simulation</a:t>
+              <a:t>Deal Call Months for Upside Scenario</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -793,10 +3718,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Upside!$A$2:$A$6</c:f>
+              <c:f>Upside!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -811,29 +3736,599 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Upside!$B$2:$B$6</c:f>
+              <c:f>Upside!$B$2:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="19">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
@@ -877,6 +4372,7 @@
         <c:axId val="50040002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="20"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -935,7 +4431,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Results of CLO Simulation</a:t>
+              <a:t>Deal Call Month Frequency</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -955,18 +4451,15 @@
               <c:f>'Deal Call Months 2.0'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sims</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Deal Call Months 2.0'!$A$2:$A$6</c:f>
+              <c:f>'Deal Call Months 2.0'!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -974,30 +4467,60 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deal Call Months 2.0'!$B$2:$B$6</c:f>
+              <c:f>'Deal Call Months 2.0'!$B$2:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1057,7 +4580,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Sim Number</a:t>
+                  <a:t>Frequency</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1101,7 +4624,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Results of CLO Simulation</a:t>
+              <a:t>Weighted Average Cost of Funds Frequency</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1110,80 +4633,94 @@
     </c:title>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:cat>
             <c:strRef>
-              <c:f>'WA Cost of Funds'!$B$1</c:f>
+              <c:f>'WA Cost of Funds'!$A$1:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Sims</c:v>
+                  <c:v>[3.7-3.8]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[3.8-3.8]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[3.8-3.9]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[3.9-4.0]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[4.0-4.1]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[4.1-4.1]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[4.1-4.2]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[4.2-4.3]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[4.3-4.3]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'WA Cost of Funds'!$A$2:$A$6</c:f>
+              <c:f>'WA Cost of Funds'!$B$1:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.915565548070127</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.983164307061913</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.904131110331554</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.848409852730519</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.903830836282072</c:v>
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'WA Cost of Funds'!$B$2:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
+          </c:val>
         </c:ser>
         <c:axId val="50060001"/>
         <c:axId val="50060002"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:barChart>
+      <c:catAx>
         <c:axId val="50060001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1207,12 +4744,14 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50060002"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="50060002"/>
         <c:scaling>
@@ -1223,7 +4762,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1231,7 +4770,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Sim Number</a:t>
+                  <a:t>Frequency</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1242,7 +4781,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50060001"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1262,6 +4801,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
+  <c:style val="1"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1274,7 +4814,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Histogram</a:t>
+              <a:t>Equity Yield Frequency</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1293,16 +4833,64 @@
             <c:v>Frequency</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>sample</c:f>
-            </c:numRef>
+            <c:strRef>
+              <c:f>'Equity Yield'!$A$1:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>[9.0-9.8]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[9.8-10.5]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[10.5-11.2]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[11.2-12.0]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[12.0-12.8]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[12.8-13.5]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[13.5-14.2]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sample</c:f>
+              <c:f>'Equity Yield'!$B$1:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="0"/>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1327,14 +4915,14 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Values</a:t>
+                  <a:t>Equity Yield</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50070002"/>
         <c:crosses val="autoZero"/>
@@ -1388,6 +4976,196 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="7"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>WA Adv Rate Frequency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'WA Adv Rate'!$A$1:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>[0.7-0.7]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[0.7-0.8]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[0.8-0.8]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[0.8-0.8]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[0.8-0.8]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[0.8-0.9]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0.9-0.9]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[0.9-0.9]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[0.9-1.0]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'WA Adv Rate'!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50080001"/>
+        <c:axId val="50080002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50080001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>WA Adv Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50080002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50080002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50080001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1398,10 +5176,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1433,10 +5211,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1468,10 +5246,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1503,10 +5281,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1538,10 +5316,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1573,10 +5351,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1602,16 +5380,51 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1918,7 +5731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1943,13 +5756,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1960,10 +5773,10 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1971,13 +5784,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1985,13 +5798,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>25</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1999,12 +5812,1342 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>25</v>
       </c>
       <c r="D6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>25</v>
+      </c>
+      <c r="D29">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>27</v>
+      </c>
+      <c r="C31">
+        <v>25</v>
+      </c>
+      <c r="D31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>25</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <v>25</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>27</v>
+      </c>
+      <c r="C34">
+        <v>25</v>
+      </c>
+      <c r="D34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <v>25</v>
+      </c>
+      <c r="D35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>27</v>
+      </c>
+      <c r="C36">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>25</v>
+      </c>
+      <c r="C37">
+        <v>27</v>
+      </c>
+      <c r="D37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>28</v>
+      </c>
+      <c r="C38">
+        <v>25</v>
+      </c>
+      <c r="D38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>25</v>
+      </c>
+      <c r="C39">
+        <v>25</v>
+      </c>
+      <c r="D39">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <v>24</v>
+      </c>
+      <c r="D40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>25</v>
+      </c>
+      <c r="C41">
+        <v>25</v>
+      </c>
+      <c r="D41">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>30</v>
+      </c>
+      <c r="C42">
+        <v>29</v>
+      </c>
+      <c r="D42">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>27</v>
+      </c>
+      <c r="C43">
+        <v>25</v>
+      </c>
+      <c r="D43">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>27</v>
+      </c>
+      <c r="C44">
+        <v>29</v>
+      </c>
+      <c r="D44">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>25</v>
+      </c>
+      <c r="C45">
+        <v>25</v>
+      </c>
+      <c r="D45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>26</v>
+      </c>
+      <c r="C46">
+        <v>28</v>
+      </c>
+      <c r="D46">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>25</v>
+      </c>
+      <c r="C47">
+        <v>24</v>
+      </c>
+      <c r="D47">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>25</v>
+      </c>
+      <c r="C48">
+        <v>25</v>
+      </c>
+      <c r="D48">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>26</v>
+      </c>
+      <c r="C49">
+        <v>29</v>
+      </c>
+      <c r="D49">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>27</v>
+      </c>
+      <c r="C50">
+        <v>25</v>
+      </c>
+      <c r="D50">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>28</v>
+      </c>
+      <c r="C51">
+        <v>26</v>
+      </c>
+      <c r="D51">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>28</v>
+      </c>
+      <c r="C52">
+        <v>27</v>
+      </c>
+      <c r="D52">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>25</v>
+      </c>
+      <c r="D53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>25</v>
+      </c>
+      <c r="C54">
+        <v>25</v>
+      </c>
+      <c r="D54">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>27</v>
+      </c>
+      <c r="C55">
+        <v>27</v>
+      </c>
+      <c r="D55">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>28</v>
+      </c>
+      <c r="C56">
+        <v>25</v>
+      </c>
+      <c r="D56">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>33</v>
+      </c>
+      <c r="C57">
+        <v>25</v>
+      </c>
+      <c r="D57">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>25</v>
+      </c>
+      <c r="C58">
+        <v>25</v>
+      </c>
+      <c r="D58">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>26</v>
+      </c>
+      <c r="C59">
+        <v>25</v>
+      </c>
+      <c r="D59">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>27</v>
+      </c>
+      <c r="C60">
+        <v>26</v>
+      </c>
+      <c r="D60">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>27</v>
+      </c>
+      <c r="C61">
+        <v>27</v>
+      </c>
+      <c r="D61">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>25</v>
+      </c>
+      <c r="C62">
+        <v>25</v>
+      </c>
+      <c r="D62">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>25</v>
+      </c>
+      <c r="C63">
+        <v>25</v>
+      </c>
+      <c r="D63">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>28</v>
+      </c>
+      <c r="C64">
+        <v>25</v>
+      </c>
+      <c r="D64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>27</v>
+      </c>
+      <c r="C65">
+        <v>25</v>
+      </c>
+      <c r="D65">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>27</v>
+      </c>
+      <c r="C66">
+        <v>25</v>
+      </c>
+      <c r="D66">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>26</v>
+      </c>
+      <c r="C67">
+        <v>25</v>
+      </c>
+      <c r="D67">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>25</v>
+      </c>
+      <c r="C68">
+        <v>27</v>
+      </c>
+      <c r="D68">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>27</v>
+      </c>
+      <c r="C69">
+        <v>24</v>
+      </c>
+      <c r="D69">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>28</v>
+      </c>
+      <c r="C70">
+        <v>29</v>
+      </c>
+      <c r="D70">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>27</v>
+      </c>
+      <c r="C71">
+        <v>25</v>
+      </c>
+      <c r="D71">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>25</v>
+      </c>
+      <c r="C72">
+        <v>25</v>
+      </c>
+      <c r="D72">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>26</v>
+      </c>
+      <c r="C73">
+        <v>25</v>
+      </c>
+      <c r="D73">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>27</v>
+      </c>
+      <c r="C74">
+        <v>25</v>
+      </c>
+      <c r="D74">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>28</v>
+      </c>
+      <c r="C75">
+        <v>25</v>
+      </c>
+      <c r="D75">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>25</v>
+      </c>
+      <c r="C76">
+        <v>25</v>
+      </c>
+      <c r="D76">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>27</v>
+      </c>
+      <c r="C77">
+        <v>26</v>
+      </c>
+      <c r="D77">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>25</v>
+      </c>
+      <c r="C78">
+        <v>25</v>
+      </c>
+      <c r="D78">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>27</v>
+      </c>
+      <c r="C79">
+        <v>26</v>
+      </c>
+      <c r="D79">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>25</v>
+      </c>
+      <c r="C80">
+        <v>24</v>
+      </c>
+      <c r="D80">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>25</v>
+      </c>
+      <c r="C81">
+        <v>25</v>
+      </c>
+      <c r="D81">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>25</v>
+      </c>
+      <c r="C82">
+        <v>25</v>
+      </c>
+      <c r="D82">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>26</v>
+      </c>
+      <c r="C83">
+        <v>25</v>
+      </c>
+      <c r="D83">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>27</v>
+      </c>
+      <c r="C84">
+        <v>25</v>
+      </c>
+      <c r="D84">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>30</v>
+      </c>
+      <c r="C85">
+        <v>27</v>
+      </c>
+      <c r="D85">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>25</v>
+      </c>
+      <c r="C86">
+        <v>25</v>
+      </c>
+      <c r="D86">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>25</v>
+      </c>
+      <c r="C87">
+        <v>25</v>
+      </c>
+      <c r="D87">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>29</v>
+      </c>
+      <c r="C88">
+        <v>26</v>
+      </c>
+      <c r="D88">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>27</v>
+      </c>
+      <c r="C89">
+        <v>26</v>
+      </c>
+      <c r="D89">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>29</v>
+      </c>
+      <c r="C90">
+        <v>25</v>
+      </c>
+      <c r="D90">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>28</v>
+      </c>
+      <c r="C91">
+        <v>25</v>
+      </c>
+      <c r="D91">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>27</v>
+      </c>
+      <c r="C92">
+        <v>25</v>
+      </c>
+      <c r="D92">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>25</v>
+      </c>
+      <c r="C93">
+        <v>30</v>
+      </c>
+      <c r="D93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>27</v>
+      </c>
+      <c r="C94">
+        <v>25</v>
+      </c>
+      <c r="D94">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>30</v>
+      </c>
+      <c r="C95">
+        <v>25</v>
+      </c>
+      <c r="D95">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>29</v>
+      </c>
+      <c r="C96">
+        <v>25</v>
+      </c>
+      <c r="D96">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>27</v>
+      </c>
+      <c r="C97">
+        <v>25</v>
+      </c>
+      <c r="D97">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>27</v>
+      </c>
+      <c r="C98">
+        <v>24</v>
+      </c>
+      <c r="D98">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>27</v>
+      </c>
+      <c r="C99">
+        <v>25</v>
+      </c>
+      <c r="D99">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>28</v>
+      </c>
+      <c r="C100">
+        <v>25</v>
+      </c>
+      <c r="D100">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>25</v>
+      </c>
+      <c r="C101">
+        <v>25</v>
+      </c>
+      <c r="D101">
         <v>30</v>
       </c>
     </row>
@@ -2016,7 +7159,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2035,7 +7178,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2051,7 +7194,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2059,7 +7202,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2067,7 +7210,767 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2078,7 +7981,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2097,7 +8000,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2105,7 +8008,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2113,7 +8016,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2129,6 +8032,766 @@
         <v>5</v>
       </c>
       <c r="B6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
         <v>25</v>
       </c>
     </row>
@@ -2140,7 +8803,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2159,7 +8822,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2167,7 +8830,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2175,7 +8838,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2183,7 +8846,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2191,6 +8854,766 @@
         <v>5</v>
       </c>
       <c r="B6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
         <v>30</v>
       </c>
     </row>
@@ -2202,7 +9625,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2212,16 +9635,13 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
         <v>25</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2229,22 +9649,62 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>30</v>
       </c>
-      <c r="B5">
+      <c r="B7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>34</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
     </row>
@@ -2256,7 +9716,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2266,128 +9726,80 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+      <c r="B1">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>3.915565548070127</v>
+      <c r="A2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
-        <v>3.983164307061913</v>
+      <c r="A3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3.904131110331554</v>
+      <c r="A4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
-        <v>3.848409852730519</v>
+      <c r="A5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6">
-        <v>3.903830836282072</v>
+      <c r="A6" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7">
-        <v>4.079418525824878</v>
+      <c r="A7" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8">
-        <v>4.068355432985859</v>
+      <c r="A8" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9">
-        <v>4.081745490700571</v>
+      <c r="A9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10">
-        <v>4.034336218831128</v>
+      <c r="A10" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>4.055626080139717</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>3.857176799468449</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>3.914141850667484</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>3.97459379034661</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>3.937396991202312</v>
-      </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>3.847022284217038</v>
-      </c>
-      <c r="B16">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2398,70 +9810,168 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <v>20</v>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Sims</t>
   </si>
@@ -68,49 +68,55 @@
     <t>[4.3-4.4]</t>
   </si>
   <si>
-    <t>[9.0-9.8]</t>
+    <t>[8.5-9.1]</t>
   </si>
   <si>
-    <t>[9.8-10.5]</t>
+    <t>[9.1-9.6]</t>
   </si>
   <si>
-    <t>[10.5-11.2]</t>
+    <t>[9.6-10.2]</t>
   </si>
   <si>
-    <t>[11.2-12.0]</t>
+    <t>[10.2-10.8]</t>
   </si>
   <si>
-    <t>[12.0-12.8]</t>
+    <t>[10.8-11.3]</t>
   </si>
   <si>
-    <t>[12.8-13.5]</t>
+    <t>[11.3-11.9]</t>
   </si>
   <si>
-    <t>[13.5-14.2]</t>
+    <t>[11.9-12.4]</t>
   </si>
   <si>
-    <t>[14.2-15.0]</t>
+    <t>[12.4-13.0]</t>
   </si>
   <si>
-    <t>[0.7-0.7]</t>
+    <t>[0.81-0.8144444444444445]</t>
   </si>
   <si>
-    <t>[0.7-0.8]</t>
+    <t>[0.8144444444444445-0.8188888888888889]</t>
   </si>
   <si>
-    <t>[0.8-0.8]</t>
+    <t>[0.8188888888888889-0.8233333333333334]</t>
   </si>
   <si>
-    <t>[0.8-0.9]</t>
+    <t>[0.8233333333333334-0.8277777777777778]</t>
   </si>
   <si>
-    <t>[0.9-0.9]</t>
+    <t>[0.8277777777777778-0.8322222222222222]</t>
   </si>
   <si>
-    <t>[0.9-1.0]</t>
+    <t>[0.8322222222222222-0.8366666666666667]</t>
   </si>
   <si>
-    <t>[1.0-1.0]</t>
+    <t>[0.8366666666666667-0.8411111111111111]</t>
+  </si>
+  <si>
+    <t>[0.8411111111111111-0.8455555555555555]</t>
+  </si>
+  <si>
+    <t>[0.8455555555555555-0.85]</t>
   </si>
 </sst>
 </file>
@@ -527,85 +533,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>25</c:v>
-                </c:pt>
                 <c:pt idx="13">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>27</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>30</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>30</c:v>
@@ -614,22 +620,22 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>27</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>25</c:v>
@@ -641,187 +647,187 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>25</c:v>
-                </c:pt>
                 <c:pt idx="40">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="56">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>27</c:v>
-                </c:pt>
                 <c:pt idx="59">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="66">
-                  <c:v>25</c:v>
-                </c:pt>
                 <c:pt idx="67">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="68">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="69">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="77">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="72">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="86">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>30</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>28</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>25</c:v>
@@ -1165,10 +1171,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>25</c:v>
@@ -1180,22 +1186,22 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>24</c:v>
@@ -1204,22 +1210,22 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>25</c:v>
@@ -1234,7 +1240,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>24</c:v>
@@ -1243,202 +1249,202 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="45">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="51">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="86">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>25</c:v>
-                </c:pt>
                 <c:pt idx="91">
-                  <c:v>30</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>25</c:v>
@@ -1447,13 +1453,13 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>25</c:v>
@@ -1806,88 +1812,88 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>27</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>28</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>30</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>30</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>25</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>33</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>28</c:v>
@@ -1896,121 +1902,121 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>27</c:v>
-                </c:pt>
                 <c:pt idx="36">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>34</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>29</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>26</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>27</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>27</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="57">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="58">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="68">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>28</c:v>
@@ -2019,88 +2025,88 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>27</c:v>
-                </c:pt>
                 <c:pt idx="75">
-                  <c:v>25</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="77">
-                  <c:v>27</c:v>
-                </c:pt>
                 <c:pt idx="78">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="79">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="80">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="89">
                   <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>28</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>28</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>26</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>30</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2548,85 +2554,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>25</c:v>
-                </c:pt>
                 <c:pt idx="13">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>27</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>30</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>30</c:v>
@@ -2635,22 +2641,22 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>27</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>25</c:v>
@@ -2662,187 +2668,187 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>25</c:v>
-                </c:pt>
                 <c:pt idx="40">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="56">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>27</c:v>
-                </c:pt>
                 <c:pt idx="59">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="66">
-                  <c:v>25</c:v>
-                </c:pt>
                 <c:pt idx="67">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="68">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="69">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="77">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="72">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="86">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>30</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>28</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>25</c:v>
@@ -3290,10 +3296,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>25</c:v>
@@ -3305,22 +3311,22 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>24</c:v>
@@ -3329,22 +3335,22 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>25</c:v>
@@ -3359,7 +3365,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>24</c:v>
@@ -3368,202 +3374,202 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="45">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="51">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="86">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>25</c:v>
-                </c:pt>
                 <c:pt idx="91">
-                  <c:v>30</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>25</c:v>
@@ -3572,13 +3578,13 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>25</c:v>
@@ -4035,88 +4041,88 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>27</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>28</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>30</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>30</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>25</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>33</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>28</c:v>
@@ -4125,121 +4131,121 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>27</c:v>
-                </c:pt>
                 <c:pt idx="36">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>34</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>29</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>26</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>27</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>27</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="57">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="58">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="68">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>28</c:v>
@@ -4248,88 +4254,88 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>27</c:v>
-                </c:pt>
                 <c:pt idx="75">
-                  <c:v>25</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="77">
-                  <c:v>27</c:v>
-                </c:pt>
                 <c:pt idx="78">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="79">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="80">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="89">
                   <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>28</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>28</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>26</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>30</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4479,12 +4485,9 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
@@ -4497,30 +4500,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4684,28 +4684,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>140</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -4801,7 +4801,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="1"/>
+  <c:style val="8"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4838,25 +4838,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>[9.0-9.8]</c:v>
+                  <c:v>[8.5-9.1]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[9.8-10.5]</c:v>
+                  <c:v>[9.1-9.6]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[10.5-11.2]</c:v>
+                  <c:v>[9.6-10.2]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[11.2-12.0]</c:v>
+                  <c:v>[10.2-10.8]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[12.0-12.8]</c:v>
+                  <c:v>[10.8-11.3]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[12.8-13.5]</c:v>
+                  <c:v>[11.3-11.9]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[13.5-14.2]</c:v>
+                  <c:v>[11.9-12.4]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4868,22 +4868,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>170</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -5012,45 +5012,42 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'WA Adv Rate'!$A$1:$A$9</c:f>
+              <c:f>'WA Adv Rate'!$A$1:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>[0.7-0.7]</c:v>
+                  <c:v>[0.81-0.8144444444444445]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[0.7-0.8]</c:v>
+                  <c:v>[0.8144444444444445-0.8188888888888889]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[0.8-0.8]</c:v>
+                  <c:v>[0.8188888888888889-0.8233333333333334]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[0.8-0.8]</c:v>
+                  <c:v>[0.8233333333333334-0.8277777777777778]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[0.8-0.8]</c:v>
+                  <c:v>[0.8277777777777778-0.8322222222222222]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[0.8-0.9]</c:v>
+                  <c:v>[0.8322222222222222-0.8366666666666667]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[0.9-0.9]</c:v>
+                  <c:v>[0.8366666666666667-0.8411111111111111]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[0.9-0.9]</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>[0.9-1.0]</c:v>
+                  <c:v>[0.8411111111111111-0.8455555555555555]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WA Adv Rate'!$B$1:$B$10</c:f>
+              <c:f>'WA Adv Rate'!$B$1:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5061,25 +5058,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5756,10 +5750,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>27</v>
@@ -5773,10 +5767,10 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5784,13 +5778,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>25</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5798,13 +5792,13 @@
         <v>4</v>
       </c>
       <c r="B5">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
         <v>28</v>
-      </c>
-      <c r="C5">
-        <v>25</v>
-      </c>
-      <c r="D5">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5812,13 +5806,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>25</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5826,13 +5820,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5846,7 +5840,7 @@
         <v>25</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5854,13 +5848,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5868,10 +5862,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>27</v>
@@ -5882,13 +5876,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5896,13 +5890,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5910,7 +5904,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>24</v>
@@ -5924,13 +5918,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>25</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5941,10 +5935,10 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5952,13 +5946,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5966,13 +5960,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>25</v>
       </c>
       <c r="D17">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5980,13 +5974,13 @@
         <v>17</v>
       </c>
       <c r="B18">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>26</v>
+      </c>
+      <c r="D18">
         <v>30</v>
-      </c>
-      <c r="C18">
-        <v>25</v>
-      </c>
-      <c r="D18">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5994,10 +5988,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19">
         <v>27</v>
@@ -6008,13 +6002,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6022,7 +6016,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>25</v>
@@ -6036,13 +6030,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>27</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6050,13 +6044,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <v>25</v>
       </c>
       <c r="D23">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6064,13 +6058,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>25</v>
       </c>
       <c r="D24">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6078,13 +6072,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6092,13 +6086,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>24</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6106,13 +6100,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C27">
         <v>25</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6120,13 +6114,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6140,7 +6134,7 @@
         <v>25</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6151,10 +6145,10 @@
         <v>27</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6162,10 +6156,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D31">
         <v>28</v>
@@ -6176,10 +6170,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D32">
         <v>30</v>
@@ -6196,7 +6190,7 @@
         <v>25</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6204,13 +6198,13 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C34">
         <v>25</v>
       </c>
       <c r="D34">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -6221,7 +6215,7 @@
         <v>25</v>
       </c>
       <c r="C35">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D35">
         <v>25</v>
@@ -6232,13 +6226,13 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C36">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -6249,10 +6243,10 @@
         <v>25</v>
       </c>
       <c r="C37">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D37">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -6263,7 +6257,7 @@
         <v>28</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D38">
         <v>25</v>
@@ -6280,7 +6274,7 @@
         <v>25</v>
       </c>
       <c r="D39">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6288,13 +6282,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D40">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -6302,13 +6296,13 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C41">
         <v>25</v>
       </c>
       <c r="D41">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -6316,13 +6310,13 @@
         <v>41</v>
       </c>
       <c r="B42">
+        <v>27</v>
+      </c>
+      <c r="C42">
+        <v>25</v>
+      </c>
+      <c r="D42">
         <v>30</v>
-      </c>
-      <c r="C42">
-        <v>29</v>
-      </c>
-      <c r="D42">
-        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -6333,10 +6327,10 @@
         <v>27</v>
       </c>
       <c r="C43">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D43">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -6344,13 +6338,13 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C44">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D44">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -6358,7 +6352,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C45">
         <v>25</v>
@@ -6372,13 +6366,13 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C46">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D46">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -6389,10 +6383,10 @@
         <v>25</v>
       </c>
       <c r="C47">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D47">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -6403,10 +6397,10 @@
         <v>25</v>
       </c>
       <c r="C48">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D48">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -6414,13 +6408,13 @@
         <v>48</v>
       </c>
       <c r="B49">
+        <v>27</v>
+      </c>
+      <c r="C49">
         <v>26</v>
       </c>
-      <c r="C49">
-        <v>29</v>
-      </c>
       <c r="D49">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -6428,13 +6422,13 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C50">
         <v>25</v>
       </c>
       <c r="D50">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -6442,13 +6436,13 @@
         <v>50</v>
       </c>
       <c r="B51">
+        <v>25</v>
+      </c>
+      <c r="C51">
         <v>28</v>
       </c>
-      <c r="C51">
-        <v>26</v>
-      </c>
       <c r="D51">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -6456,13 +6450,13 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C52">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D52">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -6470,13 +6464,13 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C53">
         <v>25</v>
       </c>
       <c r="D53">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -6484,13 +6478,13 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C54">
         <v>25</v>
       </c>
       <c r="D54">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -6498,13 +6492,13 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C55">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D55">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -6512,13 +6506,13 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C56">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D56">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -6526,7 +6520,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C57">
         <v>25</v>
@@ -6546,7 +6540,7 @@
         <v>25</v>
       </c>
       <c r="D58">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -6554,13 +6548,13 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C59">
         <v>25</v>
       </c>
       <c r="D59">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -6568,13 +6562,13 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C60">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D60">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -6588,7 +6582,7 @@
         <v>27</v>
       </c>
       <c r="D61">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -6596,13 +6590,13 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C62">
         <v>25</v>
       </c>
       <c r="D62">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -6610,13 +6604,13 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C63">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D63">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -6627,10 +6621,10 @@
         <v>28</v>
       </c>
       <c r="C64">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D64">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -6638,13 +6632,13 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C65">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D65">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -6658,7 +6652,7 @@
         <v>25</v>
       </c>
       <c r="D66">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6666,13 +6660,13 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C67">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D67">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -6680,13 +6674,13 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C68">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D68">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -6694,13 +6688,13 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C69">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D69">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -6708,10 +6702,10 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C70">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D70">
         <v>25</v>
@@ -6722,13 +6716,13 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C71">
         <v>25</v>
       </c>
       <c r="D71">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -6736,7 +6730,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C72">
         <v>25</v>
@@ -6750,7 +6744,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C73">
         <v>25</v>
@@ -6770,7 +6764,7 @@
         <v>25</v>
       </c>
       <c r="D74">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -6778,13 +6772,13 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C75">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D75">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -6798,7 +6792,7 @@
         <v>25</v>
       </c>
       <c r="D76">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -6806,13 +6800,13 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C77">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D77">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -6820,13 +6814,13 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C78">
         <v>25</v>
       </c>
       <c r="D78">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -6834,13 +6828,13 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D79">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -6851,10 +6845,10 @@
         <v>25</v>
       </c>
       <c r="C80">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D80">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -6862,13 +6856,13 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C81">
         <v>25</v>
       </c>
       <c r="D81">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -6876,13 +6870,13 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C82">
         <v>25</v>
       </c>
       <c r="D82">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -6890,13 +6884,13 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C83">
         <v>25</v>
       </c>
       <c r="D83">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -6904,13 +6898,13 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C84">
         <v>25</v>
       </c>
       <c r="D84">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -6918,13 +6912,13 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C85">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D85">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -6932,13 +6926,13 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C86">
         <v>25</v>
       </c>
       <c r="D86">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -6946,13 +6940,13 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C87">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D87">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -6960,10 +6954,10 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C88">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D88">
         <v>27</v>
@@ -6974,13 +6968,13 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C89">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D89">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -6988,13 +6982,13 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C90">
         <v>25</v>
       </c>
       <c r="D90">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -7008,7 +7002,7 @@
         <v>25</v>
       </c>
       <c r="D91">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -7016,10 +7010,10 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C92">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D92">
         <v>28</v>
@@ -7030,13 +7024,13 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C93">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D93">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -7044,13 +7038,13 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C94">
         <v>25</v>
       </c>
       <c r="D94">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -7058,13 +7052,13 @@
         <v>94</v>
       </c>
       <c r="B95">
+        <v>25</v>
+      </c>
+      <c r="C95">
+        <v>25</v>
+      </c>
+      <c r="D95">
         <v>30</v>
-      </c>
-      <c r="C95">
-        <v>25</v>
-      </c>
-      <c r="D95">
-        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -7075,10 +7069,10 @@
         <v>29</v>
       </c>
       <c r="C96">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D96">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -7086,13 +7080,13 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C97">
         <v>25</v>
       </c>
       <c r="D97">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -7100,13 +7094,13 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C98">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D98">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -7128,13 +7122,13 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C100">
         <v>25</v>
       </c>
       <c r="D100">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -7148,7 +7142,7 @@
         <v>25</v>
       </c>
       <c r="D101">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -7178,7 +7172,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7194,7 +7188,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7202,7 +7196,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7210,7 +7204,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7218,7 +7212,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7234,7 +7228,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7242,7 +7236,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7250,7 +7244,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7258,7 +7252,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7266,7 +7260,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7274,7 +7268,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7290,7 +7284,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7298,7 +7292,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -7306,7 +7300,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7314,7 +7308,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7322,7 +7316,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -7330,7 +7324,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7338,7 +7332,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -7346,7 +7340,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7354,7 +7348,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -7362,7 +7356,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -7370,7 +7364,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -7378,7 +7372,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -7386,7 +7380,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -7410,7 +7404,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -7418,7 +7412,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -7434,7 +7428,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -7450,7 +7444,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -7482,7 +7476,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -7490,7 +7484,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -7498,7 +7492,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -7514,7 +7508,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -7522,7 +7516,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -7530,7 +7524,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -7554,7 +7548,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -7562,7 +7556,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -7570,7 +7564,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -7578,7 +7572,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -7586,7 +7580,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -7594,7 +7588,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -7602,7 +7596,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -7610,7 +7604,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -7618,7 +7612,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -7634,7 +7628,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -7642,7 +7636,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -7658,7 +7652,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -7666,7 +7660,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -7682,7 +7676,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -7698,7 +7692,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -7706,7 +7700,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -7714,7 +7708,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -7722,7 +7716,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -7730,7 +7724,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -7738,7 +7732,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -7746,7 +7740,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -7762,7 +7756,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -7778,7 +7772,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -7786,7 +7780,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -7794,7 +7788,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -7810,7 +7804,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -7818,7 +7812,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -7826,7 +7820,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -7834,7 +7828,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -7842,7 +7836,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -7850,7 +7844,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -7858,7 +7852,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -7866,7 +7860,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -7874,7 +7868,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -7882,7 +7876,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -7898,7 +7892,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -7906,7 +7900,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -7914,7 +7908,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -7922,7 +7916,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -7938,7 +7932,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -7946,7 +7940,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -7962,7 +7956,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -8000,7 +7994,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8008,7 +8002,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8040,7 +8034,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8056,7 +8050,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8064,7 +8058,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8072,7 +8066,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8080,7 +8074,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8104,7 +8098,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -8112,7 +8106,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -8128,7 +8122,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -8136,7 +8130,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -8144,7 +8138,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -8184,7 +8178,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -8208,7 +8202,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -8224,7 +8218,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -8232,7 +8226,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -8240,7 +8234,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -8264,7 +8258,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -8272,7 +8266,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -8280,7 +8274,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -8288,7 +8282,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -8304,7 +8298,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -8320,7 +8314,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -8328,7 +8322,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -8336,7 +8330,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -8352,7 +8346,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -8360,7 +8354,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -8368,7 +8362,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -8376,7 +8370,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -8392,7 +8386,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -8400,7 +8394,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -8424,7 +8418,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -8432,7 +8426,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -8464,7 +8458,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -8488,7 +8482,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -8496,7 +8490,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -8504,7 +8498,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -8520,7 +8514,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -8528,7 +8522,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -8536,7 +8530,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -8544,7 +8538,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -8584,7 +8578,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -8600,7 +8594,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -8616,7 +8610,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -8624,7 +8618,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -8664,7 +8658,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -8680,7 +8674,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -8688,7 +8682,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -8696,7 +8690,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -8720,7 +8714,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -8728,7 +8722,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -8752,7 +8746,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -8768,7 +8762,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -8830,7 +8824,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8838,7 +8832,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8846,7 +8840,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8854,7 +8848,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8862,7 +8856,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8870,7 +8864,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8878,7 +8872,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8894,7 +8888,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8902,7 +8896,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8918,7 +8912,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8926,7 +8920,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -8934,7 +8928,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -8942,7 +8936,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -8950,7 +8944,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -8966,7 +8960,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -8982,7 +8976,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -8990,7 +8984,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -8998,7 +8992,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -9006,7 +9000,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -9014,7 +9008,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -9022,7 +9016,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -9030,7 +9024,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -9038,7 +9032,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -9046,7 +9040,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -9070,7 +9064,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -9078,7 +9072,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -9094,7 +9088,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -9102,7 +9096,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -9118,7 +9112,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -9126,7 +9120,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -9134,7 +9128,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -9142,7 +9136,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -9150,7 +9144,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -9158,7 +9152,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -9174,7 +9168,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -9182,7 +9176,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -9190,7 +9184,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -9198,7 +9192,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -9206,7 +9200,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -9214,7 +9208,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -9222,7 +9216,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -9230,7 +9224,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -9238,7 +9232,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -9246,7 +9240,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -9254,7 +9248,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -9270,7 +9264,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -9278,7 +9272,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -9286,7 +9280,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -9294,7 +9288,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -9302,7 +9296,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -9310,7 +9304,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -9318,7 +9312,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -9326,7 +9320,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -9334,7 +9328,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -9342,7 +9336,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -9350,7 +9344,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -9358,7 +9352,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -9374,7 +9368,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -9398,7 +9392,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -9406,7 +9400,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -9414,7 +9408,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -9422,7 +9416,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -9430,7 +9424,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -9438,7 +9432,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -9446,7 +9440,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -9454,7 +9448,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -9462,7 +9456,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -9470,7 +9464,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -9478,7 +9472,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -9486,7 +9480,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -9494,7 +9488,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -9502,7 +9496,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -9518,7 +9512,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -9526,7 +9520,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -9534,7 +9528,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -9550,7 +9544,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -9558,7 +9552,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -9566,7 +9560,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -9574,7 +9568,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -9582,7 +9576,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -9590,7 +9584,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -9606,7 +9600,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -9614,7 +9608,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -9625,7 +9619,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9641,7 +9635,7 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9649,7 +9643,7 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9657,7 +9651,7 @@
         <v>27</v>
       </c>
       <c r="B4">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9665,7 +9659,7 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9673,7 +9667,7 @@
         <v>29</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9686,25 +9680,17 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>34</v>
-      </c>
-      <c r="B10">
         <v>1</v>
       </c>
     </row>
@@ -9727,7 +9713,7 @@
         <v>5</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9743,7 +9729,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9751,7 +9737,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9759,7 +9745,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9775,7 +9761,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9783,7 +9769,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -9821,7 +9807,7 @@
         <v>15</v>
       </c>
       <c r="B1">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9829,7 +9815,7 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9837,7 +9823,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>170</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9845,7 +9831,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9853,7 +9839,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9861,7 +9847,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9888,7 +9874,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9920,58 +9906,50 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>300</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -8,44 +8,28 @@
   </bookViews>
   <sheets>
     <sheet name="Deal Call Months" sheetId="1" r:id="rId1"/>
-    <sheet name="Base" sheetId="2" r:id="rId2"/>
-    <sheet name="Downside" sheetId="3" r:id="rId3"/>
-    <sheet name="Upside" sheetId="4" r:id="rId4"/>
-    <sheet name="Deal Call Months Frequency" sheetId="5" r:id="rId5"/>
-    <sheet name="Deal Call Months Base Frequency" sheetId="6" r:id="rId6"/>
-    <sheet name="Deal Call Months Downside Freq" sheetId="7" r:id="rId7"/>
-    <sheet name="Deal Call Months Upside Freq" sheetId="8" r:id="rId8"/>
-    <sheet name="WA Cost of Funds" sheetId="9" r:id="rId9"/>
-    <sheet name="WA Cost of Funds Base" sheetId="10" r:id="rId10"/>
-    <sheet name="WA Cost of Funds Downside" sheetId="11" r:id="rId11"/>
-    <sheet name="WA Cost of Funds Upside" sheetId="12" r:id="rId12"/>
-    <sheet name="Equity Yield" sheetId="13" r:id="rId13"/>
-    <sheet name="Equity Yield Base" sheetId="14" r:id="rId14"/>
-    <sheet name="Equity Yield Downside" sheetId="15" r:id="rId15"/>
-    <sheet name="Equity Yield Upside" sheetId="16" r:id="rId16"/>
-    <sheet name="WA Adv Rate" sheetId="17" r:id="rId17"/>
-    <sheet name="WA Adv Rate Base" sheetId="18" r:id="rId18"/>
-    <sheet name="WA Adv Rate Downside" sheetId="19" r:id="rId19"/>
-    <sheet name="WA Adv Rate Upside" sheetId="20" r:id="rId20"/>
+    <sheet name="Deal Call Months Base" sheetId="2" r:id="rId2"/>
+    <sheet name="Deal Call Months Downside" sheetId="3" r:id="rId3"/>
+    <sheet name="Deal Call Months Upside" sheetId="4" r:id="rId4"/>
+    <sheet name="WA Cost of Funds" sheetId="5" r:id="rId5"/>
+    <sheet name="WA Cost of Funds Base" sheetId="6" r:id="rId6"/>
+    <sheet name="WA Cost of Funds Downside" sheetId="7" r:id="rId7"/>
+    <sheet name="WA Cost of Funds Upside" sheetId="8" r:id="rId8"/>
+    <sheet name="Proj Equity Yield" sheetId="9" r:id="rId9"/>
+    <sheet name="Proj Equity Yield Base" sheetId="10" r:id="rId10"/>
+    <sheet name="Proj Equity Yield Downside" sheetId="11" r:id="rId11"/>
+    <sheet name="Proj Equity Yield Upside" sheetId="12" r:id="rId12"/>
+    <sheet name="WA Adv Rate" sheetId="13" r:id="rId13"/>
+    <sheet name="WA Adv Rate Base" sheetId="14" r:id="rId14"/>
+    <sheet name="WA Adv Rate Downside" sheetId="15" r:id="rId15"/>
+    <sheet name="WA Adv Rate Upside" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="32">
-  <si>
-    <t>Sims</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>Downside</t>
-  </si>
-  <si>
-    <t>Upside</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="28">
   <si>
     <t>Deal Call Months</t>
   </si>
@@ -135,8 +119,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -172,9 +164,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -199,7 +192,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Deal Call Months for All Scenarios</a:t>
+              <a:t>ALL Deal Call Months Frequency</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -208,8 +201,9 @@
     </c:title>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -218,296 +212,38 @@
               <c:f>'Deal Call Months'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Base</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>'Deal Call Months'!$A$2:$A$11</c:f>
+              <c:f>'Deal Call Months'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Deal Call Months'!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Deal Call Months'!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Deal Call Months'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Downside</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Deal Call Months'!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Deal Call Months'!$C$2:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Deal Call Months'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Upside</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Deal Call Months'!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Deal Call Months'!$D$2:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
+          </c:val>
         </c:ser>
         <c:axId val="50010001"/>
         <c:axId val="50010002"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:barChart>
+      <c:catAx>
         <c:axId val="50010001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -524,7 +260,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Simulation Number</a:t>
+                  <a:t>Deal Call Month</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -535,20 +271,21 @@
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="20"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -556,7 +293,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Deal Call Month</a:t>
+                  <a:t>Frequency</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -567,7 +304,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -587,7 +324,6 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="3"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -600,7 +336,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>BASE  WA Cost of Funds Frequency</a:t>
+              <a:t>BASE Hypothetical Equity Yield Frequency</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -620,45 +356,39 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'WA Cost of Funds Base'!$A$1:$A$9</c:f>
+              <c:f>'Proj Equity Yield Base'!$A$1:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>[3.7-3.8]</c:v>
+                  <c:v>[8.5-9.1]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.8-3.8]</c:v>
+                  <c:v>[9.1-9.6]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.8-3.9]</c:v>
+                  <c:v>[9.6-10.2]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.9-4.0]</c:v>
+                  <c:v>[10.2-10.8]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[4.0-4.1]</c:v>
+                  <c:v>[10.8-11.3]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[4.1-4.1]</c:v>
+                  <c:v>[11.3-11.9]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[4.1-4.2]</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>[4.2-4.3]</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>[4.3-4.3]</c:v>
+                  <c:v>[11.9-12.4]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WA Cost of Funds Base'!$B$1:$B$10</c:f>
+              <c:f>'Proj Equity Yield Base'!$B$1:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -666,27 +396,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -713,7 +437,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Weighted Average Cost of Fund</a:t>
+                  <a:t>Equity Yield</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -777,7 +501,6 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="4"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -790,7 +513,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>DOWNSIDE WA Cost of Funds Frequency</a:t>
+              <a:t>DOWNSIDE Hypothetical Equity Yield Frequency</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -810,45 +533,39 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'WA Cost of Funds Downside'!$A$1:$A$9</c:f>
+              <c:f>'Proj Equity Yield Downside'!$A$1:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>[3.7-3.8]</c:v>
+                  <c:v>[8.5-9.1]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.8-3.8]</c:v>
+                  <c:v>[9.1-9.6]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.8-3.9]</c:v>
+                  <c:v>[9.6-10.2]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.9-4.0]</c:v>
+                  <c:v>[10.2-10.8]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[4.0-4.1]</c:v>
+                  <c:v>[10.8-11.3]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[4.1-4.1]</c:v>
+                  <c:v>[11.3-11.9]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[4.1-4.2]</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>[4.2-4.3]</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>[4.3-4.3]</c:v>
+                  <c:v>[11.9-12.4]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WA Cost of Funds Downside'!$B$1:$B$10</c:f>
+              <c:f>'Proj Equity Yield Downside'!$B$1:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -859,10 +576,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -871,12 +588,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -903,7 +614,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Weighted Average Cost of Fund</a:t>
+                  <a:t>Equity Yield</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -967,7 +678,6 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="5"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -980,7 +690,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>UPSIDE WA Cost of Funds Frequency</a:t>
+              <a:t>UPSIDE Hypothetical Equity Yield Frequency</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1000,45 +710,39 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'WA Cost of Funds Upside'!$A$1:$A$9</c:f>
+              <c:f>'Proj Equity Yield Upside'!$A$1:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>[3.7-3.8]</c:v>
+                  <c:v>[8.5-9.1]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.8-3.8]</c:v>
+                  <c:v>[9.1-9.6]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.8-3.9]</c:v>
+                  <c:v>[9.6-10.2]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.9-4.0]</c:v>
+                  <c:v>[10.2-10.8]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[4.0-4.1]</c:v>
+                  <c:v>[10.8-11.3]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[4.1-4.1]</c:v>
+                  <c:v>[11.3-11.9]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[4.1-4.2]</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>[4.2-4.3]</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>[4.3-4.3]</c:v>
+                  <c:v>[11.9-12.4]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WA Cost of Funds Upside'!$B$1:$B$10</c:f>
+              <c:f>'Proj Equity Yield Upside'!$B$1:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1046,13 +750,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1061,12 +765,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1093,7 +791,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Weighted Average Cost of Fund</a:t>
+                  <a:t>Equity Yield</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1157,7 +855,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="1"/>
+  <c:style val="7"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1170,7 +868,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Equity Yield Frequency</a:t>
+              <a:t>ALL WA Adv Rate Frequency</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1190,39 +888,42 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Equity Yield'!$A$1:$A$7</c:f>
+              <c:f>'WA Adv Rate'!$A$1:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>[8.5-9.1]</c:v>
+                  <c:v>[0.83-0.8377777777777777]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[9.1-9.6]</c:v>
+                  <c:v>[0.8377777777777777-0.8455555555555555]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[9.6-10.2]</c:v>
+                  <c:v>[0.8455555555555555-0.8533333333333333]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.2-10.8]</c:v>
+                  <c:v>[0.8533333333333333-0.861111111111111]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.8-11.3]</c:v>
+                  <c:v>[0.861111111111111-0.8688888888888889]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[11.3-11.9]</c:v>
+                  <c:v>[0.8688888888888889-0.8766666666666667]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[11.9-12.4]</c:v>
+                  <c:v>[0.8766666666666667-0.8844444444444445]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[0.8844444444444445-0.8922222222222222]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Equity Yield'!$B$1:$B$8</c:f>
+              <c:f>'WA Adv Rate'!$B$1:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1230,21 +931,24 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1271,7 +975,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Equity Yield</a:t>
+                  <a:t>WA Adv Rate</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1348,7 +1052,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>BASE Equity Yield Frequency</a:t>
+              <a:t>BASE WA Adv Rate Frequency</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1368,39 +1072,42 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Equity Yield Base'!$A$1:$A$7</c:f>
+              <c:f>'WA Adv Rate Base'!$A$1:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>[8.5-9.1]</c:v>
+                  <c:v>[0.83-0.8377777777777777]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[9.1-9.6]</c:v>
+                  <c:v>[0.8377777777777777-0.8455555555555555]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[9.6-10.2]</c:v>
+                  <c:v>[0.8455555555555555-0.8533333333333333]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.2-10.8]</c:v>
+                  <c:v>[0.8533333333333333-0.861111111111111]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.8-11.3]</c:v>
+                  <c:v>[0.861111111111111-0.8688888888888889]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[11.3-11.9]</c:v>
+                  <c:v>[0.8688888888888889-0.8766666666666667]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[11.9-12.4]</c:v>
+                  <c:v>[0.8766666666666667-0.8844444444444445]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[0.8844444444444445-0.8922222222222222]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Equity Yield Base'!$B$1:$B$8</c:f>
+              <c:f>'WA Adv Rate Base'!$B$1:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1411,18 +1118,21 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1449,7 +1159,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Equity Yield</a:t>
+                  <a:t>WA Adv Rate</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1526,7 +1236,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>DOWNSIDE Equity Yield Frequency</a:t>
+              <a:t>DOWNSIDE WA Adv Rate Frequency</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1546,39 +1256,42 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Equity Yield Downside'!$A$1:$A$7</c:f>
+              <c:f>'WA Adv Rate Downside'!$A$1:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>[8.5-9.1]</c:v>
+                  <c:v>[0.83-0.8377777777777777]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[9.1-9.6]</c:v>
+                  <c:v>[0.8377777777777777-0.8455555555555555]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[9.6-10.2]</c:v>
+                  <c:v>[0.8455555555555555-0.8533333333333333]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.2-10.8]</c:v>
+                  <c:v>[0.8533333333333333-0.861111111111111]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.8-11.3]</c:v>
+                  <c:v>[0.861111111111111-0.8688888888888889]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[11.3-11.9]</c:v>
+                  <c:v>[0.8688888888888889-0.8766666666666667]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[11.9-12.4]</c:v>
+                  <c:v>[0.8766666666666667-0.8844444444444445]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[0.8844444444444445-0.8922222222222222]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Equity Yield Downside'!$B$1:$B$8</c:f>
+              <c:f>'WA Adv Rate Downside'!$B$1:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1586,10 +1299,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1601,6 +1314,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1627,7 +1343,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Equity Yield</a:t>
+                  <a:t>WA Adv Rate</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1704,7 +1420,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>UPSIDE Equity Yield Frequency</a:t>
+              <a:t>UPSIDE WA Adv Rate Frequency</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1724,39 +1440,42 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Equity Yield Upside'!$A$1:$A$7</c:f>
+              <c:f>'WA Adv Rate Upside'!$A$1:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>[8.5-9.1]</c:v>
+                  <c:v>[0.83-0.8377777777777777]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[9.1-9.6]</c:v>
+                  <c:v>[0.8377777777777777-0.8455555555555555]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[9.6-10.2]</c:v>
+                  <c:v>[0.8455555555555555-0.8533333333333333]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.2-10.8]</c:v>
+                  <c:v>[0.8533333333333333-0.861111111111111]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.8-11.3]</c:v>
+                  <c:v>[0.861111111111111-0.8688888888888889]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[11.3-11.9]</c:v>
+                  <c:v>[0.8688888888888889-0.8766666666666667]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[11.9-12.4]</c:v>
+                  <c:v>[0.8766666666666667-0.8844444444444445]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[0.8844444444444445-0.8922222222222222]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Equity Yield Upside'!$B$1:$B$8</c:f>
+              <c:f>'WA Adv Rate Upside'!$B$1:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1764,21 +1483,24 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1805,7 +1527,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Equity Yield</a:t>
+                  <a:t>WA Adv Rate</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1866,10 +1588,9 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="7"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1882,7 +1603,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>ALL WA Adv Rate Frequency</a:t>
+              <a:t>BASE Deal Call Months Frequency</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1898,82 +1619,43 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Frequency</c:v>
+            <c:strRef>
+              <c:f>'Deal Call Months Base'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>'WA Adv Rate'!$A$1:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+            <c:numRef>
+              <c:f>'Deal Call Months Base'!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>[0.83-0.8377777777777777]</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>[0.8377777777777777-0.8455555555555555]</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>[0.8455555555555555-0.8533333333333333]</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>[0.8533333333333333-0.861111111111111]</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>[0.861111111111111-0.8688888888888889]</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>[0.8688888888888889-0.8766666666666667]</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>[0.8766666666666667-0.8844444444444445]</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>[0.8844444444444445-0.8922222222222222]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WA Adv Rate'!$B$1:$B$9</c:f>
+              <c:f>'Deal Call Months Base'!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="50170001"/>
-        <c:axId val="50170002"/>
+        <c:axId val="50020001"/>
+        <c:axId val="50020002"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50170001"/>
+        <c:axId val="50020001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1989,23 +1671,23 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>WA Adv Rate</a:t>
+                  <a:t>Deal Call Month</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50170002"/>
+        <c:crossAx val="50020002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50170002"/>
+        <c:axId val="50020002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2031,7 +1713,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50170001"/>
+        <c:crossAx val="50020001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2050,10 +1732,9 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="3"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2066,7 +1747,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>BASE WA Adv Rate Frequency</a:t>
+              <a:t>DOWNSIDE Deal Call Months Frequency</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2082,82 +1763,43 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Frequency</c:v>
+            <c:strRef>
+              <c:f>'Deal Call Months Downside'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>'WA Adv Rate Base'!$A$1:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+            <c:numRef>
+              <c:f>'Deal Call Months Downside'!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>[0.83-0.8377777777777777]</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>[0.8377777777777777-0.8455555555555555]</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>[0.8455555555555555-0.8533333333333333]</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>[0.8533333333333333-0.861111111111111]</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>[0.861111111111111-0.8688888888888889]</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>[0.8688888888888889-0.8766666666666667]</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>[0.8766666666666667-0.8844444444444445]</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>[0.8844444444444445-0.8922222222222222]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WA Adv Rate Base'!$B$1:$B$9</c:f>
+              <c:f>'Deal Call Months Downside'!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="50180001"/>
-        <c:axId val="50180002"/>
+        <c:axId val="50030001"/>
+        <c:axId val="50030002"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50180001"/>
+        <c:axId val="50030001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2173,23 +1815,23 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>WA Adv Rate</a:t>
+                  <a:t>Deal Call Month</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50180002"/>
+        <c:crossAx val="50030002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50180002"/>
+        <c:axId val="50030002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2215,7 +1857,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50180001"/>
+        <c:crossAx val="50030001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2234,10 +1876,9 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="4"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2250,7 +1891,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>DOWNSIDE WA Adv Rate Frequency</a:t>
+              <a:t>UPSIDE Deal Call Months Frequency</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2266,82 +1907,43 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Frequency</c:v>
+            <c:strRef>
+              <c:f>'Deal Call Months Upside'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>'WA Adv Rate Downside'!$A$1:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+            <c:numRef>
+              <c:f>'Deal Call Months Upside'!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>[0.83-0.8377777777777777]</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>[0.8377777777777777-0.8455555555555555]</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>[0.8455555555555555-0.8533333333333333]</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>[0.8533333333333333-0.861111111111111]</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>[0.861111111111111-0.8688888888888889]</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>[0.8688888888888889-0.8766666666666667]</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>[0.8766666666666667-0.8844444444444445]</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>[0.8844444444444445-0.8922222222222222]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WA Adv Rate Downside'!$B$1:$B$9</c:f>
+              <c:f>'Deal Call Months Upside'!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="50190001"/>
-        <c:axId val="50190002"/>
+        <c:axId val="50040001"/>
+        <c:axId val="50040002"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50190001"/>
+        <c:axId val="50040001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2357,23 +1959,23 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>WA Adv Rate</a:t>
+                  <a:t>Deal Call Month</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50190002"/>
+        <c:crossAx val="50040002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50190002"/>
+        <c:axId val="50040002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2399,7 +2001,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50190001"/>
+        <c:crossAx val="50040001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2418,10 +2020,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="3"/>
+  <c:style val="6"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2434,212 +2036,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Deal Call Months for Base Scenario</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Base!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Base</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Base!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Base!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="50020001"/>
-        <c:axId val="50020002"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="50020001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Simulation Number</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50020002"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="50020002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="20"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Deal Call Month</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50020001"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="5"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>UPSIDE WA Adv Rate Frequency</a:t>
+              <a:t>ALL WA Cost of Funds Frequency</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2659,635 +2056,74 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'WA Adv Rate Upside'!$A$1:$A$8</c:f>
+              <c:f>'WA Cost of Funds'!$A$1:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>[0.83-0.8377777777777777]</c:v>
+                  <c:v>[3.7-3.8]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[0.8377777777777777-0.8455555555555555]</c:v>
+                  <c:v>[3.8-3.8]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[0.8455555555555555-0.8533333333333333]</c:v>
+                  <c:v>[3.8-3.9]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[0.8533333333333333-0.861111111111111]</c:v>
+                  <c:v>[3.9-4.0]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[0.861111111111111-0.8688888888888889]</c:v>
+                  <c:v>[4.0-4.1]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[0.8688888888888889-0.8766666666666667]</c:v>
+                  <c:v>[4.1-4.1]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[0.8766666666666667-0.8844444444444445]</c:v>
+                  <c:v>[4.1-4.2]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[0.8844444444444445-0.8922222222222222]</c:v>
+                  <c:v>[4.2-4.3]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[4.3-4.3]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WA Adv Rate Upside'!$B$1:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="50200001"/>
-        <c:axId val="50200002"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="50200001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>WA Adv Rate</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50200002"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="50200002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Frequency</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50200001"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="4"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Deal Call Months for Downside Scenario</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Downside!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Downside!$A$2:$A$11</c:f>
+              <c:f>'WA Cost of Funds'!$B$1:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Downside!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="50030001"/>
-        <c:axId val="50030002"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="50030001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Simulation Number</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50030002"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="50030002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="20"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Deal Call Month</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50030001"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="5"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Deal Call Months for Upside Scenario</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Upside!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Upside!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Upside!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="50040001"/>
-        <c:axId val="50040002"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="50040001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Simulation Number</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50040002"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="50040002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="20"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Deal Call Month</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50040001"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="8"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>ALL Deal Call Month Frequency</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Deal Call Months Frequency'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Deal Call Months Frequency'!$A$2:$A$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Deal Call Months Frequency'!$B$2:$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3313,14 +2149,14 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Deal Call Month</a:t>
+                  <a:t>Weighted Average Cost of Fund</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50050002"/>
         <c:crosses val="autoZero"/>
@@ -3377,7 +2213,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="3"/>
+  <c:style val="6"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3390,7 +2226,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Deal Call Month Frequency</a:t>
+              <a:t>BASE WA Cost of Funds Frequency</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3406,51 +2242,78 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:cat>
             <c:strRef>
-              <c:f>'Deal Call Months Base Frequency'!$B$1</c:f>
+              <c:f>'WA Cost of Funds Base'!$A$1:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>[3.7-3.8]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[3.8-3.8]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[3.8-3.9]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[3.9-4.0]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[4.0-4.1]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[4.1-4.1]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[4.1-4.2]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[4.2-4.3]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[4.3-4.3]</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Deal Call Months Base Frequency'!$A$2:$A$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deal Call Months Base Frequency'!$B$2:$B$31</c:f>
+              <c:f>'WA Cost of Funds Base'!$B$1:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3476,14 +2339,14 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Deal Call Month</a:t>
+                  <a:t>Weighted Average Cost of Fund</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50060002"/>
         <c:crosses val="autoZero"/>
@@ -3540,7 +2403,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="4"/>
+  <c:style val="6"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3553,7 +2416,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Deal Call Month Frequency</a:t>
+              <a:t>DOWNSIDE WA Cost of Funds Frequency</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3569,51 +2432,78 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:cat>
             <c:strRef>
-              <c:f>'Deal Call Months Downside Freq'!$B$1</c:f>
+              <c:f>'WA Cost of Funds Downside'!$A$1:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>[3.7-3.8]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[3.8-3.8]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[3.8-3.9]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[3.9-4.0]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[4.0-4.1]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[4.1-4.1]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[4.1-4.2]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[4.2-4.3]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[4.3-4.3]</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Deal Call Months Downside Freq'!$A$2:$A$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deal Call Months Downside Freq'!$B$2:$B$31</c:f>
+              <c:f>'WA Cost of Funds Downside'!$B$1:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3639,14 +2529,14 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Deal Call Month</a:t>
+                  <a:t>Weighted Average Cost of Fund</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50070002"/>
         <c:crosses val="autoZero"/>
@@ -3703,7 +2593,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="5"/>
+  <c:style val="6"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3716,7 +2606,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Deal Call Month Frequency</a:t>
+              <a:t>UPSIDE WA Cost of Funds Frequency</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3732,51 +2622,78 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:cat>
             <c:strRef>
-              <c:f>'Deal Call Months Upside Freq'!$B$1</c:f>
+              <c:f>'WA Cost of Funds Upside'!$A$1:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>[3.7-3.8]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[3.8-3.8]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[3.8-3.9]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[3.9-4.0]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[4.0-4.1]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[4.1-4.1]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[4.1-4.2]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[4.2-4.3]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[4.3-4.3]</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Deal Call Months Upside Freq'!$A$2:$A$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deal Call Months Upside Freq'!$B$2:$B$31</c:f>
+              <c:f>'WA Cost of Funds Upside'!$B$1:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3802,14 +2719,14 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Deal Call Month</a:t>
+                  <a:t>Weighted Average Cost of Fund</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50080002"/>
         <c:crosses val="autoZero"/>
@@ -3866,7 +2783,6 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="6"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3879,7 +2795,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>ALL WA Cost of Funds Frequency</a:t>
+              <a:t>ALL Hypothetical Equity Yield Frequency</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3899,45 +2815,39 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'WA Cost of Funds'!$A$1:$A$9</c:f>
+              <c:f>'Proj Equity Yield'!$A$1:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>[3.7-3.8]</c:v>
+                  <c:v>[8.5-9.1]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.8-3.8]</c:v>
+                  <c:v>[9.1-9.6]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.8-3.9]</c:v>
+                  <c:v>[9.6-10.2]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.9-4.0]</c:v>
+                  <c:v>[10.2-10.8]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[4.0-4.1]</c:v>
+                  <c:v>[10.8-11.3]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[4.1-4.1]</c:v>
+                  <c:v>[11.3-11.9]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[4.1-4.2]</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>[4.2-4.3]</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>[4.3-4.3]</c:v>
+                  <c:v>[11.9-12.4]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WA Cost of Funds'!$B$1:$B$10</c:f>
+              <c:f>'Proj Equity Yield'!$B$1:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3945,27 +2855,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3992,7 +2896,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Weighted Average Cost of Fund</a:t>
+                  <a:t>Equity Yield</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4333,7 +3237,112 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4368,7 +3377,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4403,7 +3412,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4438,7 +3447,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4450,251 +3459,6 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5038,164 +3802,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>25</v>
-      </c>
-      <c r="C2">
-        <v>28</v>
-      </c>
-      <c r="D2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>25</v>
-      </c>
-      <c r="C3">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>26</v>
-      </c>
-      <c r="C4">
-        <v>25</v>
-      </c>
-      <c r="D4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>27</v>
-      </c>
-      <c r="C5">
-        <v>25</v>
-      </c>
-      <c r="D5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>28</v>
-      </c>
-      <c r="C6">
-        <v>27</v>
-      </c>
-      <c r="D6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>27</v>
-      </c>
-      <c r="C7">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>25</v>
-      </c>
-      <c r="D8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>26</v>
-      </c>
-      <c r="C9">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>25</v>
-      </c>
-      <c r="C10">
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>25</v>
-      </c>
-      <c r="C11">
-        <v>25</v>
-      </c>
-      <c r="D11">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5205,6 +3828,665 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -5214,7 +4496,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5222,7 +4504,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5230,31 +4512,31 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5262,7 +4544,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5270,7 +4552,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5278,7 +4560,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5286,7 +4568,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5298,7 +4580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -5308,7 +4590,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5316,7 +4598,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5324,31 +4606,31 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5356,7 +4638,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5364,7 +4646,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5372,7 +4654,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5380,7 +4662,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5392,7 +4674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -5402,7 +4684,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5410,7 +4692,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5418,23 +4700,23 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5442,7 +4724,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5450,7 +4732,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5458,7 +4740,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5466,7 +4748,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5474,7 +4756,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5486,1173 +4768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>25</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>27</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>28</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>30</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>25</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>27</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>28</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>30</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>25</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>27</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>28</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>30</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>25</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>27</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>28</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>30</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -6662,7 +4778,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6670,7 +4786,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6678,31 +4794,31 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6710,7 +4826,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6718,7 +4834,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6726,7 +4842,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6734,9 +4850,87 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
         <v>0</v>
       </c>
     </row>

--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -29,9 +29,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="47">
   <si>
     <t>Deal Call Months</t>
+  </si>
+  <si>
+    <t>[20.0-21.0]</t>
+  </si>
+  <si>
+    <t>[21.0-22.0]</t>
+  </si>
+  <si>
+    <t>[22.0-23.0]</t>
+  </si>
+  <si>
+    <t>[23.0-24.0]</t>
+  </si>
+  <si>
+    <t>[24.0-25.0]</t>
+  </si>
+  <si>
+    <t>[25.0-26.0]</t>
+  </si>
+  <si>
+    <t>[26.0-27.0]</t>
+  </si>
+  <si>
+    <t>[27.0-28.0]</t>
+  </si>
+  <si>
+    <t>[28.0-29.0]</t>
+  </si>
+  <si>
+    <t>[29.0-31.0]</t>
+  </si>
+  <si>
+    <t>[31.0-32.0]</t>
+  </si>
+  <si>
+    <t>[32.0-33.0]</t>
+  </si>
+  <si>
+    <t>[33.0-34.0]</t>
+  </si>
+  <si>
+    <t>[34.0-35.0]</t>
+  </si>
+  <si>
+    <t>[35.0-36.0]</t>
+  </si>
+  <si>
+    <t>[36.0-37.0]</t>
+  </si>
+  <si>
+    <t>[37.0-38.0]</t>
+  </si>
+  <si>
+    <t>[38.0-39.0]</t>
+  </si>
+  <si>
+    <t>[39.0-40.0]</t>
   </si>
   <si>
     <t>[3.7-3.8]</t>
@@ -208,33 +265,132 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:cat>
             <c:strRef>
-              <c:f>'Deal Call Months'!$B$1</c:f>
+              <c:f>'Deal Call Months'!$A$1:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>[20.0-21.0]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[21.0-22.0]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[22.0-23.0]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[23.0-24.0]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[24.0-25.0]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[25.0-26.0]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[26.0-27.0]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[27.0-28.0]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[28.0-29.0]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[29.0-31.0]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[31.0-32.0]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>[32.0-33.0]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>[33.0-34.0]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>[34.0-35.0]</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>[35.0-36.0]</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>[36.0-37.0]</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>[37.0-38.0]</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>[38.0-39.0]</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Deal Call Months'!$A$2:$A$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deal Call Months'!$B$2:$B$26</c:f>
+              <c:f>'Deal Call Months'!$B$1:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -260,14 +416,14 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Deal Call Month</a:t>
+                  <a:t>Weighted Average Cost of Fund</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
@@ -402,10 +558,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -576,10 +732,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -928,10 +1084,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1112,10 +1268,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1619,33 +1775,132 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:cat>
             <c:strRef>
-              <c:f>'Deal Call Months Base'!$B$1</c:f>
+              <c:f>'Deal Call Months Base'!$A$1:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>[20.0-21.0]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[21.0-22.0]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[22.0-23.0]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[23.0-24.0]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[24.0-25.0]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[25.0-26.0]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[26.0-27.0]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[27.0-28.0]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[28.0-29.0]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[29.0-31.0]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[31.0-32.0]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>[32.0-33.0]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>[33.0-34.0]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>[34.0-35.0]</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>[35.0-36.0]</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>[36.0-37.0]</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>[37.0-38.0]</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>[38.0-39.0]</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Deal Call Months Base'!$A$2:$A$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deal Call Months Base'!$B$2:$B$26</c:f>
+              <c:f>'Deal Call Months Base'!$B$1:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1671,14 +1926,14 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Deal Call Month</a:t>
+                  <a:t>Weighted Average Cost of Fund</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50020002"/>
         <c:crosses val="autoZero"/>
@@ -1763,33 +2018,132 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:cat>
             <c:strRef>
-              <c:f>'Deal Call Months Downside'!$B$1</c:f>
+              <c:f>'Deal Call Months Downside'!$A$1:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>[20.0-21.0]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[21.0-22.0]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[22.0-23.0]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[23.0-24.0]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[24.0-25.0]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[25.0-26.0]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[26.0-27.0]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[27.0-28.0]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[28.0-29.0]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[29.0-31.0]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[31.0-32.0]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>[32.0-33.0]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>[33.0-34.0]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>[34.0-35.0]</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>[35.0-36.0]</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>[36.0-37.0]</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>[37.0-38.0]</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>[38.0-39.0]</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Deal Call Months Downside'!$A$2:$A$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deal Call Months Downside'!$B$2:$B$26</c:f>
+              <c:f>'Deal Call Months Downside'!$B$1:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1815,14 +2169,14 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Deal Call Month</a:t>
+                  <a:t>Weighted Average Cost of Fund</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50030002"/>
         <c:crosses val="autoZero"/>
@@ -1907,33 +2261,132 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:cat>
             <c:strRef>
-              <c:f>'Deal Call Months Upside'!$B$1</c:f>
+              <c:f>'Deal Call Months Upside'!$A$1:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>[20.0-21.0]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[21.0-22.0]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[22.0-23.0]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[23.0-24.0]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[24.0-25.0]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[25.0-26.0]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[26.0-27.0]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[27.0-28.0]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[28.0-29.0]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[29.0-31.0]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[31.0-32.0]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>[32.0-33.0]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>[33.0-34.0]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>[34.0-35.0]</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>[35.0-36.0]</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>[36.0-37.0]</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>[37.0-38.0]</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>[38.0-39.0]</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Deal Call Months Upside'!$A$2:$A$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deal Call Months Upside'!$B$2:$B$26</c:f>
+              <c:f>'Deal Call Months Upside'!$B$1:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1959,14 +2412,14 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Deal Call Month</a:t>
+                  <a:t>Weighted Average Cost of Fund</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50040002"/>
         <c:crosses val="autoZero"/>
@@ -2292,10 +2745,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2672,10 +3125,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2858,13 +3311,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2961,13 +3414,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3241,13 +3694,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3276,13 +3729,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3311,13 +3764,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3802,7 +4255,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3810,15 +4263,154 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>25</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3837,7 +4429,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -3845,7 +4437,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3853,7 +4445,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3861,7 +4453,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3869,23 +4461,23 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3893,7 +4485,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3915,7 +4507,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -3923,7 +4515,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3931,7 +4523,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3939,23 +4531,23 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3963,7 +4555,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3971,7 +4563,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3993,7 +4585,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4001,7 +4593,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4009,7 +4601,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4017,7 +4609,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4025,7 +4617,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4033,7 +4625,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4041,7 +4633,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4049,7 +4641,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4071,7 +4663,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4079,23 +4671,23 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4103,7 +4695,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4111,7 +4703,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4119,7 +4711,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4127,7 +4719,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4135,7 +4727,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4157,7 +4749,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4165,23 +4757,23 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4189,7 +4781,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4197,7 +4789,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4205,7 +4797,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4213,7 +4805,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4221,7 +4813,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4243,7 +4835,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4251,7 +4843,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4259,7 +4851,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4267,7 +4859,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4275,7 +4867,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4283,7 +4875,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4291,7 +4883,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4299,7 +4891,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4307,7 +4899,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4329,7 +4921,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4337,7 +4929,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4345,7 +4937,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4353,7 +4945,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4361,7 +4953,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4369,7 +4961,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4377,7 +4969,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4385,7 +4977,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4393,7 +4985,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4407,7 +4999,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4415,15 +5007,154 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>25</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4434,7 +5165,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4442,15 +5173,154 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>25</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4461,7 +5331,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4469,15 +5339,154 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>25</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4496,7 +5505,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4504,7 +5513,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4512,7 +5521,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4520,7 +5529,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -4528,7 +5537,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4536,7 +5545,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4544,7 +5553,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4552,7 +5561,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4560,7 +5569,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4568,7 +5577,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4590,7 +5599,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4598,7 +5607,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4606,23 +5615,23 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4630,7 +5639,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4638,7 +5647,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4646,7 +5655,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4654,7 +5663,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4662,7 +5671,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4684,7 +5693,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4692,7 +5701,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4700,7 +5709,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4708,7 +5717,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4716,7 +5725,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4724,7 +5733,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4732,7 +5741,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4740,7 +5749,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4748,7 +5757,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4756,7 +5765,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4778,7 +5787,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4786,7 +5795,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4794,23 +5803,23 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4818,7 +5827,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4826,7 +5835,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4834,7 +5843,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4842,7 +5851,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4850,7 +5859,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4872,7 +5881,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4880,7 +5889,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4888,7 +5897,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4896,15 +5905,15 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -4912,15 +5921,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4928,7 +5937,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>0</v>

--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -29,27 +29,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="39">
   <si>
     <t>Deal Call Months</t>
-  </si>
-  <si>
-    <t>[20.0-21.0]</t>
-  </si>
-  <si>
-    <t>[21.0-22.0]</t>
-  </si>
-  <si>
-    <t>[22.0-23.0]</t>
   </si>
   <si>
     <t>[23.0-24.0]</t>
   </si>
   <si>
-    <t>[24.0-25.0]</t>
-  </si>
-  <si>
-    <t>[25.0-26.0]</t>
+    <t>[24.0-26.0]</t>
   </si>
   <si>
     <t>[26.0-27.0]</t>
@@ -58,16 +46,13 @@
     <t>[27.0-28.0]</t>
   </si>
   <si>
-    <t>[28.0-29.0]</t>
+    <t>[28.0-30.0]</t>
   </si>
   <si>
-    <t>[29.0-31.0]</t>
+    <t>[30.0-31.0]</t>
   </si>
   <si>
-    <t>[31.0-32.0]</t>
-  </si>
-  <si>
-    <t>[32.0-33.0]</t>
+    <t>[31.0-33.0]</t>
   </si>
   <si>
     <t>[33.0-34.0]</t>
@@ -76,19 +61,10 @@
     <t>[34.0-35.0]</t>
   </si>
   <si>
-    <t>[35.0-36.0]</t>
-  </si>
-  <si>
-    <t>[36.0-37.0]</t>
+    <t>[35.0-37.0]</t>
   </si>
   <si>
     <t>[37.0-38.0]</t>
-  </si>
-  <si>
-    <t>[38.0-39.0]</t>
-  </si>
-  <si>
-    <t>[39.0-40.0]</t>
   </si>
   <si>
     <t>[3.7-3.8]</t>
@@ -145,31 +121,31 @@
     <t>[12.4-13.0]</t>
   </si>
   <si>
-    <t>[0.83-0.8377777777777777]</t>
+    <t>[0.83-0.8378]</t>
   </si>
   <si>
-    <t>[0.8377777777777777-0.8455555555555555]</t>
+    <t>[0.8378-0.8456]</t>
   </si>
   <si>
-    <t>[0.8455555555555555-0.8533333333333333]</t>
+    <t>[0.8456-0.8533]</t>
   </si>
   <si>
-    <t>[0.8533333333333333-0.861111111111111]</t>
+    <t>[0.8533-0.8611]</t>
   </si>
   <si>
-    <t>[0.861111111111111-0.8688888888888889]</t>
+    <t>[0.8611-0.8689]</t>
   </si>
   <si>
-    <t>[0.8688888888888889-0.8766666666666667]</t>
+    <t>[0.8689-0.8767]</t>
   </si>
   <si>
-    <t>[0.8766666666666667-0.8844444444444445]</t>
+    <t>[0.8767-0.8844]</t>
   </si>
   <si>
-    <t>[0.8844444444444445-0.8922222222222222]</t>
+    <t>[0.8844-0.8922]</t>
   </si>
   <si>
-    <t>[0.8922222222222222-0.9]</t>
+    <t>[0.8922-0.9]</t>
   </si>
 </sst>
 </file>
@@ -237,6 +213,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
+  <c:style val="7"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -269,86 +246,62 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Deal Call Months'!$A$1:$A$18</c:f>
+              <c:f>'Deal Call Months'!$A$1:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>[20.0-21.0]</c:v>
+                  <c:v>[23.0-24.0]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[21.0-22.0]</c:v>
+                  <c:v>[24.0-26.0]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[22.0-23.0]</c:v>
+                  <c:v>[26.0-27.0]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[23.0-24.0]</c:v>
+                  <c:v>[27.0-28.0]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[24.0-25.0]</c:v>
+                  <c:v>[28.0-30.0]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[25.0-26.0]</c:v>
+                  <c:v>[30.0-31.0]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[26.0-27.0]</c:v>
+                  <c:v>[31.0-33.0]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[27.0-28.0]</c:v>
+                  <c:v>[33.0-34.0]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[28.0-29.0]</c:v>
+                  <c:v>[34.0-35.0]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[29.0-31.0]</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>[31.0-32.0]</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>[32.0-33.0]</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>[33.0-34.0]</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>[34.0-35.0]</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>[35.0-36.0]</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>[36.0-37.0]</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>[37.0-38.0]</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>[38.0-39.0]</c:v>
+                  <c:v>[35.0-37.0]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deal Call Months'!$B$1:$B$19</c:f>
+              <c:f>'Deal Call Months'!$B$1:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -366,30 +319,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -480,6 +409,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
+  <c:style val="3"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -552,16 +482,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -602,6 +532,16 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50100002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -657,6 +597,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
+  <c:style val="4"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -726,19 +667,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -779,6 +720,16 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50110002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -834,6 +785,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
+  <c:style val="5"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -909,13 +861,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -956,6 +908,16 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50120002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -1048,28 +1010,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>[0.83-0.8377777777777777]</c:v>
+                  <c:v>[0.83-0.8378]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[0.8377777777777777-0.8455555555555555]</c:v>
+                  <c:v>[0.8378-0.8456]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[0.8455555555555555-0.8533333333333333]</c:v>
+                  <c:v>[0.8456-0.8533]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[0.8533333333333333-0.861111111111111]</c:v>
+                  <c:v>[0.8533-0.8611]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[0.861111111111111-0.8688888888888889]</c:v>
+                  <c:v>[0.8611-0.8689]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[0.8688888888888889-0.8766666666666667]</c:v>
+                  <c:v>[0.8689-0.8767]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[0.8766666666666667-0.8844444444444445]</c:v>
+                  <c:v>[0.8767-0.8844]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[0.8844444444444445-0.8922222222222222]</c:v>
+                  <c:v>[0.8844-0.8922]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1081,16 +1043,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1140,6 +1102,16 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50130002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -1232,28 +1204,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>[0.83-0.8377777777777777]</c:v>
+                  <c:v>[0.83-0.8378]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[0.8377777777777777-0.8455555555555555]</c:v>
+                  <c:v>[0.8378-0.8456]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[0.8455555555555555-0.8533333333333333]</c:v>
+                  <c:v>[0.8456-0.8533]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[0.8533333333333333-0.861111111111111]</c:v>
+                  <c:v>[0.8533-0.8611]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[0.861111111111111-0.8688888888888889]</c:v>
+                  <c:v>[0.8611-0.8689]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[0.8688888888888889-0.8766666666666667]</c:v>
+                  <c:v>[0.8689-0.8767]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[0.8766666666666667-0.8844444444444445]</c:v>
+                  <c:v>[0.8767-0.8844]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[0.8844444444444445-0.8922222222222222]</c:v>
+                  <c:v>[0.8844-0.8922]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1265,13 +1237,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1324,6 +1296,16 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50140002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -1416,28 +1398,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>[0.83-0.8377777777777777]</c:v>
+                  <c:v>[0.83-0.8378]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[0.8377777777777777-0.8455555555555555]</c:v>
+                  <c:v>[0.8378-0.8456]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[0.8455555555555555-0.8533333333333333]</c:v>
+                  <c:v>[0.8456-0.8533]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[0.8533333333333333-0.861111111111111]</c:v>
+                  <c:v>[0.8533-0.8611]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[0.861111111111111-0.8688888888888889]</c:v>
+                  <c:v>[0.8611-0.8689]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[0.8688888888888889-0.8766666666666667]</c:v>
+                  <c:v>[0.8689-0.8767]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[0.8766666666666667-0.8844444444444445]</c:v>
+                  <c:v>[0.8767-0.8844]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[0.8844444444444445-0.8922222222222222]</c:v>
+                  <c:v>[0.8844-0.8922]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1449,13 +1431,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1508,6 +1490,16 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50150002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -1600,28 +1592,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>[0.83-0.8377777777777777]</c:v>
+                  <c:v>[0.83-0.8378]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[0.8377777777777777-0.8455555555555555]</c:v>
+                  <c:v>[0.8378-0.8456]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[0.8455555555555555-0.8533333333333333]</c:v>
+                  <c:v>[0.8456-0.8533]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[0.8533333333333333-0.861111111111111]</c:v>
+                  <c:v>[0.8533-0.8611]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[0.861111111111111-0.8688888888888889]</c:v>
+                  <c:v>[0.8611-0.8689]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[0.8688888888888889-0.8766666666666667]</c:v>
+                  <c:v>[0.8689-0.8767]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[0.8766666666666667-0.8844444444444445]</c:v>
+                  <c:v>[0.8767-0.8844]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[0.8844444444444445-0.8922222222222222]</c:v>
+                  <c:v>[0.8844-0.8922]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1633,16 +1625,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1692,6 +1684,16 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50160002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -1747,6 +1749,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
+  <c:style val="3"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1779,95 +1782,71 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Deal Call Months Base'!$A$1:$A$18</c:f>
+              <c:f>'Deal Call Months Base'!$A$1:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>[20.0-21.0]</c:v>
+                  <c:v>[23.0-24.0]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[21.0-22.0]</c:v>
+                  <c:v>[24.0-26.0]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[22.0-23.0]</c:v>
+                  <c:v>[26.0-27.0]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[23.0-24.0]</c:v>
+                  <c:v>[27.0-28.0]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[24.0-25.0]</c:v>
+                  <c:v>[28.0-30.0]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[25.0-26.0]</c:v>
+                  <c:v>[30.0-31.0]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[26.0-27.0]</c:v>
+                  <c:v>[31.0-33.0]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[27.0-28.0]</c:v>
+                  <c:v>[33.0-34.0]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[28.0-29.0]</c:v>
+                  <c:v>[34.0-35.0]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[29.0-31.0]</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>[31.0-32.0]</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>[32.0-33.0]</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>[33.0-34.0]</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>[34.0-35.0]</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>[35.0-36.0]</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>[36.0-37.0]</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>[37.0-38.0]</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>[38.0-39.0]</c:v>
+                  <c:v>[35.0-37.0]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deal Call Months Base'!$B$1:$B$19</c:f>
+              <c:f>'Deal Call Months Base'!$B$1:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1876,30 +1855,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1990,6 +1945,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
+  <c:style val="4"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2022,89 +1978,65 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Deal Call Months Downside'!$A$1:$A$18</c:f>
+              <c:f>'Deal Call Months Downside'!$A$1:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>[20.0-21.0]</c:v>
+                  <c:v>[23.0-24.0]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[21.0-22.0]</c:v>
+                  <c:v>[24.0-26.0]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[22.0-23.0]</c:v>
+                  <c:v>[26.0-27.0]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[23.0-24.0]</c:v>
+                  <c:v>[27.0-28.0]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[24.0-25.0]</c:v>
+                  <c:v>[28.0-30.0]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[25.0-26.0]</c:v>
+                  <c:v>[30.0-31.0]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[26.0-27.0]</c:v>
+                  <c:v>[31.0-33.0]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[27.0-28.0]</c:v>
+                  <c:v>[33.0-34.0]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[28.0-29.0]</c:v>
+                  <c:v>[34.0-35.0]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[29.0-31.0]</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>[31.0-32.0]</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>[32.0-33.0]</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>[33.0-34.0]</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>[34.0-35.0]</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>[35.0-36.0]</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>[36.0-37.0]</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>[37.0-38.0]</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>[38.0-39.0]</c:v>
+                  <c:v>[35.0-37.0]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deal Call Months Downside'!$B$1:$B$19</c:f>
+              <c:f>'Deal Call Months Downside'!$B$1:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2119,30 +2051,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2233,6 +2141,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
+  <c:style val="5"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2265,127 +2174,79 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Deal Call Months Upside'!$A$1:$A$18</c:f>
+              <c:f>'Deal Call Months Upside'!$A$1:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>[20.0-21.0]</c:v>
+                  <c:v>[23.0-24.0]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[21.0-22.0]</c:v>
+                  <c:v>[24.0-26.0]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[22.0-23.0]</c:v>
+                  <c:v>[26.0-27.0]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[23.0-24.0]</c:v>
+                  <c:v>[27.0-28.0]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[24.0-25.0]</c:v>
+                  <c:v>[28.0-30.0]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[25.0-26.0]</c:v>
+                  <c:v>[30.0-31.0]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[26.0-27.0]</c:v>
+                  <c:v>[31.0-33.0]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[27.0-28.0]</c:v>
+                  <c:v>[33.0-34.0]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[28.0-29.0]</c:v>
+                  <c:v>[34.0-35.0]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[29.0-31.0]</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>[31.0-32.0]</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>[32.0-33.0]</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>[33.0-34.0]</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>[34.0-35.0]</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>[35.0-36.0]</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>[36.0-37.0]</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>[37.0-38.0]</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>[38.0-39.0]</c:v>
+                  <c:v>[35.0-37.0]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deal Call Months Upside'!$B$1:$B$19</c:f>
+              <c:f>'Deal Call Months Upside'!$B$1:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2476,7 +2337,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="6"/>
+  <c:style val="7"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2555,19 +2416,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2611,6 +2472,16 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50050002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -2666,7 +2537,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="6"/>
+  <c:style val="3"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2745,13 +2616,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2801,6 +2672,16 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50060002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -2856,7 +2737,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="6"/>
+  <c:style val="4"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2935,19 +2816,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2991,6 +2872,16 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50070002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -3046,7 +2937,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="6"/>
+  <c:style val="5"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3125,10 +3016,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3181,6 +3072,16 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50080002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -3236,6 +3137,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
+  <c:style val="7"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3305,19 +3207,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3358,6 +3260,16 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50090002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -4255,7 +4167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4274,7 +4186,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4282,7 +4194,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4290,7 +4202,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4298,7 +4210,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4346,70 +4258,6 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
         <v>0</v>
       </c>
     </row>
@@ -4429,7 +4277,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4437,7 +4285,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4445,39 +4293,39 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4485,7 +4333,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4507,7 +4355,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4515,47 +4363,47 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4563,7 +4411,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4585,7 +4433,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4593,7 +4441,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4601,7 +4449,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4609,31 +4457,31 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
         <v>35</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4641,7 +4489,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4663,39 +4511,39 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4703,7 +4551,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4711,7 +4559,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4719,7 +4567,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4727,7 +4575,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4749,31 +4597,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4781,7 +4629,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4789,7 +4637,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4797,7 +4645,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4805,7 +4653,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4813,7 +4661,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4835,31 +4683,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4867,7 +4715,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4875,7 +4723,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4883,7 +4731,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4891,7 +4739,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4899,7 +4747,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4921,39 +4769,39 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4961,7 +4809,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4969,7 +4817,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4977,7 +4825,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4985,7 +4833,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4999,7 +4847,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5018,7 +4866,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5026,7 +4874,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5034,7 +4882,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5042,7 +4890,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5050,7 +4898,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5066,7 +4914,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5090,70 +4938,6 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
         <v>0</v>
       </c>
     </row>
@@ -5165,7 +4949,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5184,7 +4968,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5192,7 +4976,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5200,7 +4984,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5208,7 +4992,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5216,7 +5000,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5256,70 +5040,6 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
         <v>0</v>
       </c>
     </row>
@@ -5331,7 +5051,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5350,7 +5070,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5358,7 +5078,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5366,7 +5086,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5374,7 +5094,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5382,7 +5102,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5398,7 +5118,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5406,7 +5126,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5422,70 +5142,6 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
         <v>0</v>
       </c>
     </row>
@@ -5505,7 +5161,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5513,7 +5169,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5521,31 +5177,31 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5553,15 +5209,15 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5569,7 +5225,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5577,7 +5233,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5599,7 +5255,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5607,7 +5263,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5615,31 +5271,31 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5647,7 +5303,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5655,7 +5311,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5663,7 +5319,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5671,7 +5327,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5693,7 +5349,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5701,7 +5357,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5709,31 +5365,31 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5741,15 +5397,15 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5757,7 +5413,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5765,7 +5421,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5787,7 +5443,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5795,7 +5451,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5803,23 +5459,23 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5827,7 +5483,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5835,7 +5491,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5843,7 +5499,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5851,7 +5507,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5859,7 +5515,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5881,7 +5537,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5889,47 +5545,47 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5937,7 +5593,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>0</v>

--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -301,7 +301,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -482,16 +482,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -667,19 +667,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -861,13 +861,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1043,16 +1043,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>158</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1237,13 +1237,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>52</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1431,13 +1431,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1625,16 +1625,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>52</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1828,19 +1828,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2024,19 +2024,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2220,28 +2220,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2416,19 +2416,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>146</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2616,13 +2616,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2816,19 +2816,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -3016,10 +3016,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3207,19 +3207,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -4210,7 +4210,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4296,7 +4296,7 @@
         <v>24</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4304,7 +4304,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4312,7 +4312,7 @@
         <v>26</v>
       </c>
       <c r="B5">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4320,7 +4320,7 @@
         <v>27</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4366,7 +4366,7 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4374,7 +4374,7 @@
         <v>24</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4382,7 +4382,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4390,7 +4390,7 @@
         <v>26</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4398,7 +4398,7 @@
         <v>27</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4460,7 +4460,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4468,7 +4468,7 @@
         <v>26</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4476,7 +4476,7 @@
         <v>27</v>
       </c>
       <c r="B6">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4514,7 +4514,7 @@
         <v>30</v>
       </c>
       <c r="B1">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4522,7 +4522,7 @@
         <v>31</v>
       </c>
       <c r="B2">
-        <v>158</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4530,7 +4530,7 @@
         <v>32</v>
       </c>
       <c r="B3">
-        <v>115</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4538,7 +4538,7 @@
         <v>33</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4600,7 +4600,7 @@
         <v>30</v>
       </c>
       <c r="B1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4608,7 +4608,7 @@
         <v>31</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4616,7 +4616,7 @@
         <v>32</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4686,7 +4686,7 @@
         <v>30</v>
       </c>
       <c r="B1">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4694,7 +4694,7 @@
         <v>31</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4702,7 +4702,7 @@
         <v>32</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4772,7 +4772,7 @@
         <v>30</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4780,7 +4780,7 @@
         <v>31</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4788,7 +4788,7 @@
         <v>32</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4796,7 +4796,7 @@
         <v>33</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4866,7 +4866,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4874,7 +4874,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4882,7 +4882,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4890,7 +4890,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4898,7 +4898,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4968,7 +4968,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4976,7 +4976,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4984,7 +4984,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4992,7 +4992,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5000,7 +5000,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5078,7 +5078,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5086,7 +5086,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5094,7 +5094,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5102,7 +5102,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5118,7 +5118,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5126,7 +5126,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5180,7 +5180,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>79</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5188,7 +5188,7 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>146</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5196,7 +5196,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5212,7 +5212,7 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5274,7 +5274,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5282,7 +5282,7 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5290,7 +5290,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5368,7 +5368,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5376,7 +5376,7 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5384,7 +5384,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5400,7 +5400,7 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5462,7 +5462,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5470,7 +5470,7 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5548,7 +5548,7 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5556,7 +5556,7 @@
         <v>24</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5564,7 +5564,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>105</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5572,7 +5572,7 @@
         <v>26</v>
       </c>
       <c r="B5">
-        <v>116</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5580,7 +5580,7 @@
         <v>27</v>
       </c>
       <c r="B6">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">

--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -29,30 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="115">
   <si>
     <t>Deal Call Months</t>
   </si>
   <si>
-    <t>[23.0-24.0]</t>
-  </si>
-  <si>
-    <t>[24.0-26.0]</t>
-  </si>
-  <si>
-    <t>[26.0-27.0]</t>
-  </si>
-  <si>
-    <t>[27.0-28.0]</t>
-  </si>
-  <si>
-    <t>[28.0-30.0]</t>
-  </si>
-  <si>
-    <t>[30.0-31.0]</t>
-  </si>
-  <si>
-    <t>[31.0-33.0]</t>
+    <t>[32.0-33.0]</t>
   </si>
   <si>
     <t>[33.0-34.0]</t>
@@ -61,91 +43,337 @@
     <t>[34.0-35.0]</t>
   </si>
   <si>
-    <t>[35.0-37.0]</t>
+    <t>[35.0-36.0]</t>
+  </si>
+  <si>
+    <t>[36.0-37.0]</t>
   </si>
   <si>
     <t>[37.0-38.0]</t>
   </si>
   <si>
+    <t>[38.0-39.0]</t>
+  </si>
+  <si>
+    <t>[39.0-40.0]</t>
+  </si>
+  <si>
+    <t>[40.0-41.0]</t>
+  </si>
+  <si>
+    <t>[41.0-42.0]</t>
+  </si>
+  <si>
+    <t>[42.0-43.0]</t>
+  </si>
+  <si>
+    <t>[43.0-44.0]</t>
+  </si>
+  <si>
+    <t>[44.0-45.0]</t>
+  </si>
+  <si>
+    <t>[45.0-46.0]</t>
+  </si>
+  <si>
+    <t>[38.0-38.0]</t>
+  </si>
+  <si>
+    <t>[3.5-3.6]</t>
+  </si>
+  <si>
+    <t>[3.6-3.7]</t>
+  </si>
+  <si>
     <t>[3.7-3.8]</t>
   </si>
   <si>
+    <t>[3.8-3.9]</t>
+  </si>
+  <si>
+    <t>[3.9-3.9]</t>
+  </si>
+  <si>
+    <t>[3.9-4.0]</t>
+  </si>
+  <si>
+    <t>[4.0-4.1]</t>
+  </si>
+  <si>
+    <t>[4.1-4.2]</t>
+  </si>
+  <si>
+    <t>[4.2-4.2]</t>
+  </si>
+  <si>
+    <t>[4.2-4.3]</t>
+  </si>
+  <si>
+    <t>[4.3-4.4]</t>
+  </si>
+  <si>
+    <t>[4.4-4.5]</t>
+  </si>
+  <si>
+    <t>[4.5-4.6]</t>
+  </si>
+  <si>
+    <t>[4.6-4.6]</t>
+  </si>
+  <si>
     <t>[3.8-3.8]</t>
   </si>
   <si>
-    <t>[3.8-3.9]</t>
-  </si>
-  <si>
-    <t>[3.9-4.0]</t>
-  </si>
-  <si>
-    <t>[4.0-4.1]</t>
-  </si>
-  <si>
-    <t>[4.1-4.1]</t>
-  </si>
-  <si>
-    <t>[4.1-4.2]</t>
-  </si>
-  <si>
-    <t>[4.2-4.3]</t>
-  </si>
-  <si>
-    <t>[4.3-4.3]</t>
-  </si>
-  <si>
-    <t>[4.3-4.4]</t>
-  </si>
-  <si>
-    <t>[8.5-9.1]</t>
-  </si>
-  <si>
-    <t>[9.1-9.6]</t>
-  </si>
-  <si>
-    <t>[9.6-10.2]</t>
-  </si>
-  <si>
-    <t>[10.2-10.8]</t>
-  </si>
-  <si>
-    <t>[10.8-11.3]</t>
-  </si>
-  <si>
-    <t>[11.3-11.9]</t>
-  </si>
-  <si>
-    <t>[11.9-12.4]</t>
-  </si>
-  <si>
-    <t>[12.4-13.0]</t>
-  </si>
-  <si>
-    <t>[0.83-0.8378]</t>
-  </si>
-  <si>
-    <t>[0.8378-0.8456]</t>
-  </si>
-  <si>
-    <t>[0.8456-0.8533]</t>
-  </si>
-  <si>
-    <t>[0.8533-0.8611]</t>
-  </si>
-  <si>
-    <t>[0.8611-0.8689]</t>
-  </si>
-  <si>
-    <t>[0.8689-0.8767]</t>
-  </si>
-  <si>
-    <t>[0.8767-0.8844]</t>
-  </si>
-  <si>
-    <t>[0.8844-0.8922]</t>
-  </si>
-  <si>
-    <t>[0.8922-0.9]</t>
+    <t>[6.6-6.9]</t>
+  </si>
+  <si>
+    <t>[6.9-7.3]</t>
+  </si>
+  <si>
+    <t>[7.3-7.6]</t>
+  </si>
+  <si>
+    <t>[7.6-7.9]</t>
+  </si>
+  <si>
+    <t>[7.9-8.2]</t>
+  </si>
+  <si>
+    <t>[8.2-8.6]</t>
+  </si>
+  <si>
+    <t>[8.6-8.9]</t>
+  </si>
+  <si>
+    <t>[8.9-9.2]</t>
+  </si>
+  <si>
+    <t>[9.2-9.5]</t>
+  </si>
+  <si>
+    <t>[9.5-9.9]</t>
+  </si>
+  <si>
+    <t>[9.9-10.2]</t>
+  </si>
+  <si>
+    <t>[10.2-10.5]</t>
+  </si>
+  <si>
+    <t>[10.5-10.8]</t>
+  </si>
+  <si>
+    <t>[10.8-11.2]</t>
+  </si>
+  <si>
+    <t>[6.9-7.2]</t>
+  </si>
+  <si>
+    <t>[7.2-7.6]</t>
+  </si>
+  <si>
+    <t>[8.2-8.5]</t>
+  </si>
+  <si>
+    <t>[8.5-8.9]</t>
+  </si>
+  <si>
+    <t>[9.5-9.8]</t>
+  </si>
+  <si>
+    <t>[9.8-10.1]</t>
+  </si>
+  <si>
+    <t>[10.1-10.5]</t>
+  </si>
+  <si>
+    <t>[10.8-11.1]</t>
+  </si>
+  <si>
+    <t>[6.6-7.0]</t>
+  </si>
+  <si>
+    <t>[7.0-7.3]</t>
+  </si>
+  <si>
+    <t>[6.7-7.0]</t>
+  </si>
+  <si>
+    <t>[7.9-8.3]</t>
+  </si>
+  <si>
+    <t>[8.3-8.6]</t>
+  </si>
+  <si>
+    <t>[9.2-9.6]</t>
+  </si>
+  <si>
+    <t>[9.6-9.9]</t>
+  </si>
+  <si>
+    <t>[0.6267-0.6563]</t>
+  </si>
+  <si>
+    <t>[0.6563-0.686]</t>
+  </si>
+  <si>
+    <t>[0.686-0.7156]</t>
+  </si>
+  <si>
+    <t>[0.7156-0.7453]</t>
+  </si>
+  <si>
+    <t>[0.7453-0.775]</t>
+  </si>
+  <si>
+    <t>[0.775-0.8046]</t>
+  </si>
+  <si>
+    <t>[0.8046-0.8343]</t>
+  </si>
+  <si>
+    <t>[0.8343-0.8639]</t>
+  </si>
+  <si>
+    <t>[0.8639-0.8936]</t>
+  </si>
+  <si>
+    <t>[0.8936-0.9232]</t>
+  </si>
+  <si>
+    <t>[0.9232-0.9529]</t>
+  </si>
+  <si>
+    <t>[0.9529-0.9825]</t>
+  </si>
+  <si>
+    <t>[0.9825-1.0122]</t>
+  </si>
+  <si>
+    <t>[1.0122-1.0418]</t>
+  </si>
+  <si>
+    <t>[0.6297-0.6591]</t>
+  </si>
+  <si>
+    <t>[0.6591-0.6885]</t>
+  </si>
+  <si>
+    <t>[0.6885-0.718]</t>
+  </si>
+  <si>
+    <t>[0.718-0.7474]</t>
+  </si>
+  <si>
+    <t>[0.7474-0.7769]</t>
+  </si>
+  <si>
+    <t>[0.7769-0.8063]</t>
+  </si>
+  <si>
+    <t>[0.8063-0.8358]</t>
+  </si>
+  <si>
+    <t>[0.8358-0.8652]</t>
+  </si>
+  <si>
+    <t>[0.8652-0.8946]</t>
+  </si>
+  <si>
+    <t>[0.8946-0.9241]</t>
+  </si>
+  <si>
+    <t>[0.9241-0.9535]</t>
+  </si>
+  <si>
+    <t>[0.9535-0.983]</t>
+  </si>
+  <si>
+    <t>[0.983-1.0124]</t>
+  </si>
+  <si>
+    <t>[1.0124-1.0418]</t>
+  </si>
+  <si>
+    <t>[0.6278-0.6574]</t>
+  </si>
+  <si>
+    <t>[0.6574-0.687]</t>
+  </si>
+  <si>
+    <t>[0.687-0.7165]</t>
+  </si>
+  <si>
+    <t>[0.7165-0.7461]</t>
+  </si>
+  <si>
+    <t>[0.7461-0.7757]</t>
+  </si>
+  <si>
+    <t>[0.7757-0.8052]</t>
+  </si>
+  <si>
+    <t>[0.8052-0.8348]</t>
+  </si>
+  <si>
+    <t>[0.8348-0.8644]</t>
+  </si>
+  <si>
+    <t>[0.8644-0.8939]</t>
+  </si>
+  <si>
+    <t>[0.8939-0.9235]</t>
+  </si>
+  <si>
+    <t>[0.9235-0.953]</t>
+  </si>
+  <si>
+    <t>[0.953-0.9826]</t>
+  </si>
+  <si>
+    <t>[0.9826-1.0122]</t>
+  </si>
+  <si>
+    <t>[1.0122-1.0417]</t>
+  </si>
+  <si>
+    <t>[0.6563-0.6859]</t>
+  </si>
+  <si>
+    <t>[0.6859-0.7155]</t>
+  </si>
+  <si>
+    <t>[0.7155-0.7451]</t>
+  </si>
+  <si>
+    <t>[0.7451-0.7747]</t>
+  </si>
+  <si>
+    <t>[0.7747-0.8044]</t>
+  </si>
+  <si>
+    <t>[0.8044-0.834]</t>
+  </si>
+  <si>
+    <t>[0.834-0.8636]</t>
+  </si>
+  <si>
+    <t>[0.8636-0.8932]</t>
+  </si>
+  <si>
+    <t>[0.8932-0.9228]</t>
+  </si>
+  <si>
+    <t>[0.9228-0.9524]</t>
+  </si>
+  <si>
+    <t>[0.9524-0.982]</t>
+  </si>
+  <si>
+    <t>[0.982-1.0116]</t>
+  </si>
+  <si>
+    <t>[1.0116-1.0413]</t>
   </si>
 </sst>
 </file>
@@ -241,84 +469,102 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Frequency</c:v>
-          </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Deal Call Months'!$A$1:$A$10</c:f>
+              <c:f>'Deal Call Months'!$A$1:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[23.0-24.0]</c:v>
+                  <c:v>[32.0-33.0]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[24.0-26.0]</c:v>
+                  <c:v>[33.0-34.0]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[26.0-27.0]</c:v>
+                  <c:v>[34.0-35.0]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[27.0-28.0]</c:v>
+                  <c:v>[35.0-36.0]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[28.0-30.0]</c:v>
+                  <c:v>[36.0-37.0]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[30.0-31.0]</c:v>
+                  <c:v>[37.0-38.0]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[31.0-33.0]</c:v>
+                  <c:v>[38.0-39.0]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[33.0-34.0]</c:v>
+                  <c:v>[39.0-40.0]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[34.0-35.0]</c:v>
+                  <c:v>[40.0-41.0]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[35.0-37.0]</c:v>
+                  <c:v>[41.0-42.0]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[42.0-43.0]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>[43.0-44.0]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>[44.0-45.0]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>[45.0-46.0]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deal Call Months'!$B$1:$B$11</c:f>
+              <c:f>'Deal Call Months'!$B$1:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -345,7 +591,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Weighted Average Cost of Fund</a:t>
+                  <a:t>Deal Call Months</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -437,44 +683,62 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Frequency</c:v>
-          </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Proj Equity Yield Base'!$A$1:$A$7</c:f>
+              <c:f>'Proj Equity Yield Base'!$A$1:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[8.5-9.1]</c:v>
+                  <c:v>[6.6-6.9]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[9.1-9.6]</c:v>
+                  <c:v>[6.9-7.2]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[9.6-10.2]</c:v>
+                  <c:v>[7.2-7.6]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.2-10.8]</c:v>
+                  <c:v>[7.6-7.9]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.8-11.3]</c:v>
+                  <c:v>[7.9-8.2]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[11.3-11.9]</c:v>
+                  <c:v>[8.2-8.5]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[11.9-12.4]</c:v>
+                  <c:v>[8.5-8.9]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[8.9-9.2]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[9.2-9.5]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[9.5-9.8]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[9.8-10.1]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>[10.1-10.5]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>[10.5-10.8]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>[10.8-11.1]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Proj Equity Yield Base'!$B$1:$B$8</c:f>
+              <c:f>'Proj Equity Yield Base'!$B$1:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -482,21 +746,39 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -625,66 +907,102 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Frequency</c:v>
-          </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Proj Equity Yield Downside'!$A$1:$A$7</c:f>
+              <c:f>'Proj Equity Yield Downside'!$A$1:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[8.5-9.1]</c:v>
+                  <c:v>[6.6-7.0]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[9.1-9.6]</c:v>
+                  <c:v>[7.0-7.3]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[9.6-10.2]</c:v>
+                  <c:v>[7.3-7.6]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.2-10.8]</c:v>
+                  <c:v>[7.6-7.9]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.8-11.3]</c:v>
+                  <c:v>[7.9-8.2]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[11.3-11.9]</c:v>
+                  <c:v>[8.2-8.6]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[11.9-12.4]</c:v>
+                  <c:v>[8.6-8.9]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[8.9-9.2]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[9.2-9.5]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[9.5-9.9]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[9.9-10.2]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>[10.2-10.5]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>[10.5-10.8]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>[10.8-11.1]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Proj Equity Yield Downside'!$B$1:$B$8</c:f>
+              <c:f>'Proj Equity Yield Downside'!$B$1:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -813,44 +1131,62 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Frequency</c:v>
-          </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Proj Equity Yield Upside'!$A$1:$A$7</c:f>
+              <c:f>'Proj Equity Yield Upside'!$A$1:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[8.5-9.1]</c:v>
+                  <c:v>[6.7-7.0]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[9.1-9.6]</c:v>
+                  <c:v>[7.0-7.3]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[9.6-10.2]</c:v>
+                  <c:v>[7.3-7.6]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.2-10.8]</c:v>
+                  <c:v>[7.6-7.9]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.8-11.3]</c:v>
+                  <c:v>[7.9-8.3]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[11.3-11.9]</c:v>
+                  <c:v>[8.3-8.6]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[11.9-12.4]</c:v>
+                  <c:v>[8.6-8.9]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[8.9-9.2]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[9.2-9.6]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[9.6-9.9]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[9.9-10.2]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>[10.2-10.5]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>[10.5-10.8]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>[10.8-11.2]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Proj Equity Yield Upside'!$B$1:$B$8</c:f>
+              <c:f>'Proj Equity Yield Upside'!$B$1:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -861,18 +1197,36 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1001,55 +1355,70 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Frequency</c:v>
-          </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'WA Adv Rate'!$A$1:$A$8</c:f>
+              <c:f>'WA Adv Rate'!$A$1:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[0.83-0.8378]</c:v>
+                  <c:v>[0.6267-0.6563]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[0.8378-0.8456]</c:v>
+                  <c:v>[0.6563-0.686]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[0.8456-0.8533]</c:v>
+                  <c:v>[0.686-0.7156]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[0.8533-0.8611]</c:v>
+                  <c:v>[0.7156-0.7453]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[0.8611-0.8689]</c:v>
+                  <c:v>[0.7453-0.775]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[0.8689-0.8767]</c:v>
+                  <c:v>[0.775-0.8046]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[0.8767-0.8844]</c:v>
+                  <c:v>[0.8046-0.8343]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[0.8844-0.8922]</c:v>
+                  <c:v>[0.8343-0.8639]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[0.8639-0.8936]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[0.8936-0.9232]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[0.9232-0.9529]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>[0.9529-0.9825]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>[0.9825-1.0122]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>[1.0122-1.0418]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WA Adv Rate'!$B$1:$B$9</c:f>
+              <c:f>'WA Adv Rate'!$B$1:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1061,12 +1430,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>253</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1195,55 +1579,70 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Frequency</c:v>
-          </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'WA Adv Rate Base'!$A$1:$A$8</c:f>
+              <c:f>'WA Adv Rate Base'!$A$1:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[0.83-0.8378]</c:v>
+                  <c:v>[0.6297-0.6591]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[0.8378-0.8456]</c:v>
+                  <c:v>[0.6591-0.6885]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[0.8456-0.8533]</c:v>
+                  <c:v>[0.6885-0.718]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[0.8533-0.8611]</c:v>
+                  <c:v>[0.718-0.7474]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[0.8611-0.8689]</c:v>
+                  <c:v>[0.7474-0.7769]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[0.8689-0.8767]</c:v>
+                  <c:v>[0.7769-0.8063]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[0.8767-0.8844]</c:v>
+                  <c:v>[0.8063-0.8358]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[0.8844-0.8922]</c:v>
+                  <c:v>[0.8358-0.8652]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[0.8652-0.8946]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[0.8946-0.9241]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[0.9241-0.9535]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>[0.9535-0.983]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>[0.983-1.0124]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>[1.0124-1.0418]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WA Adv Rate Base'!$B$1:$B$9</c:f>
+              <c:f>'WA Adv Rate Base'!$B$1:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1255,12 +1654,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1389,55 +1803,70 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Frequency</c:v>
-          </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'WA Adv Rate Downside'!$A$1:$A$8</c:f>
+              <c:f>'WA Adv Rate Downside'!$A$1:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[0.83-0.8378]</c:v>
+                  <c:v>[0.6278-0.6574]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[0.8378-0.8456]</c:v>
+                  <c:v>[0.6574-0.687]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[0.8456-0.8533]</c:v>
+                  <c:v>[0.687-0.7165]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[0.8533-0.8611]</c:v>
+                  <c:v>[0.7165-0.7461]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[0.8611-0.8689]</c:v>
+                  <c:v>[0.7461-0.7757]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[0.8689-0.8767]</c:v>
+                  <c:v>[0.7757-0.8052]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[0.8767-0.8844]</c:v>
+                  <c:v>[0.8052-0.8348]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[0.8844-0.8922]</c:v>
+                  <c:v>[0.8348-0.8644]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[0.8644-0.8939]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[0.8939-0.9235]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[0.9235-0.953]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>[0.953-0.9826]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>[0.9826-1.0122]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>[1.0122-1.0417]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WA Adv Rate Downside'!$B$1:$B$9</c:f>
+              <c:f>'WA Adv Rate Downside'!$B$1:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1449,12 +1878,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1583,55 +2027,70 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Frequency</c:v>
-          </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'WA Adv Rate Upside'!$A$1:$A$8</c:f>
+              <c:f>'WA Adv Rate Upside'!$A$1:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[0.83-0.8378]</c:v>
+                  <c:v>[0.6267-0.6563]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[0.8378-0.8456]</c:v>
+                  <c:v>[0.6563-0.6859]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[0.8456-0.8533]</c:v>
+                  <c:v>[0.6859-0.7155]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[0.8533-0.8611]</c:v>
+                  <c:v>[0.7155-0.7451]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[0.8611-0.8689]</c:v>
+                  <c:v>[0.7451-0.7747]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[0.8689-0.8767]</c:v>
+                  <c:v>[0.7747-0.8044]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[0.8767-0.8844]</c:v>
+                  <c:v>[0.8044-0.834]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[0.8844-0.8922]</c:v>
+                  <c:v>[0.834-0.8636]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[0.8636-0.8932]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[0.8932-0.9228]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[0.9228-0.9524]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>[0.9524-0.982]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>[0.982-1.0116]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>[1.0116-1.0413]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WA Adv Rate Upside'!$B$1:$B$9</c:f>
+              <c:f>'WA Adv Rate Upside'!$B$1:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1643,12 +2102,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1777,84 +2251,102 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Frequency</c:v>
-          </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Deal Call Months Base'!$A$1:$A$10</c:f>
+              <c:f>'Deal Call Months Base'!$A$1:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[23.0-24.0]</c:v>
+                  <c:v>[32.0-33.0]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[24.0-26.0]</c:v>
+                  <c:v>[33.0-34.0]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[26.0-27.0]</c:v>
+                  <c:v>[34.0-35.0]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[27.0-28.0]</c:v>
+                  <c:v>[35.0-36.0]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[28.0-30.0]</c:v>
+                  <c:v>[36.0-37.0]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[30.0-31.0]</c:v>
+                  <c:v>[37.0-38.0]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[31.0-33.0]</c:v>
+                  <c:v>[38.0-38.0]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[33.0-34.0]</c:v>
+                  <c:v>[38.0-39.0]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[34.0-35.0]</c:v>
+                  <c:v>[39.0-40.0]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[35.0-37.0]</c:v>
+                  <c:v>[40.0-41.0]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[41.0-42.0]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>[42.0-43.0]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>[43.0-44.0]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>[44.0-45.0]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deal Call Months Base'!$B$1:$B$11</c:f>
+              <c:f>'Deal Call Months Base'!$B$1:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1881,7 +2373,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Weighted Average Cost of Fund</a:t>
+                  <a:t>Deal Call Months</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1973,84 +2465,102 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Frequency</c:v>
-          </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Deal Call Months Downside'!$A$1:$A$10</c:f>
+              <c:f>'Deal Call Months Downside'!$A$1:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[23.0-24.0]</c:v>
+                  <c:v>[32.0-33.0]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[24.0-26.0]</c:v>
+                  <c:v>[33.0-34.0]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[26.0-27.0]</c:v>
+                  <c:v>[34.0-35.0]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[27.0-28.0]</c:v>
+                  <c:v>[35.0-36.0]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[28.0-30.0]</c:v>
+                  <c:v>[36.0-37.0]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[30.0-31.0]</c:v>
+                  <c:v>[37.0-38.0]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[31.0-33.0]</c:v>
+                  <c:v>[38.0-39.0]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[33.0-34.0]</c:v>
+                  <c:v>[39.0-40.0]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[34.0-35.0]</c:v>
+                  <c:v>[40.0-41.0]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[35.0-37.0]</c:v>
+                  <c:v>[41.0-42.0]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[42.0-43.0]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>[43.0-44.0]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>[44.0-45.0]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>[45.0-46.0]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deal Call Months Downside'!$B$1:$B$11</c:f>
+              <c:f>'Deal Call Months Downside'!$B$1:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2077,7 +2587,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Weighted Average Cost of Fund</a:t>
+                  <a:t>Deal Call Months</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2169,84 +2679,102 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Frequency</c:v>
-          </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Deal Call Months Upside'!$A$1:$A$10</c:f>
+              <c:f>'Deal Call Months Upside'!$A$1:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[23.0-24.0]</c:v>
+                  <c:v>[32.0-33.0]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[24.0-26.0]</c:v>
+                  <c:v>[33.0-34.0]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[26.0-27.0]</c:v>
+                  <c:v>[34.0-35.0]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[27.0-28.0]</c:v>
+                  <c:v>[35.0-36.0]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[28.0-30.0]</c:v>
+                  <c:v>[36.0-37.0]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[30.0-31.0]</c:v>
+                  <c:v>[37.0-38.0]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[31.0-33.0]</c:v>
+                  <c:v>[38.0-39.0]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[33.0-34.0]</c:v>
+                  <c:v>[39.0-40.0]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[34.0-35.0]</c:v>
+                  <c:v>[40.0-41.0]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[35.0-37.0]</c:v>
+                  <c:v>[41.0-42.0]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[42.0-43.0]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>[43.0-44.0]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>[44.0-45.0]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>[45.0-46.0]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deal Call Months Upside'!$B$1:$B$11</c:f>
+              <c:f>'Deal Call Months Upside'!$B$1:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2273,7 +2801,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Weighted Average Cost of Fund</a:t>
+                  <a:t>Deal Call Months</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2365,50 +2893,62 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Frequency</c:v>
-          </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'WA Cost of Funds'!$A$1:$A$9</c:f>
+              <c:f>'WA Cost of Funds'!$A$1:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>[3.5-3.6]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[3.6-3.7]</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>[3.7-3.8]</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>[3.8-3.8]</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>[3.8-3.9]</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>[3.9-3.9]</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>[3.9-4.0]</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>[4.0-4.1]</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>[4.1-4.1]</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>[4.1-4.2]</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>[4.2-4.2]</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>[4.2-4.3]</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>[4.3-4.3]</c:v>
+                <c:pt idx="10">
+                  <c:v>[4.3-4.4]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>[4.4-4.5]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>[4.5-4.6]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>[4.6-4.6]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WA Cost of Funds'!$B$1:$B$10</c:f>
+              <c:f>'WA Cost of Funds'!$B$1:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2416,27 +2956,39 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2565,50 +3117,62 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Frequency</c:v>
-          </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'WA Cost of Funds Base'!$A$1:$A$9</c:f>
+              <c:f>'WA Cost of Funds Base'!$A$1:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>[3.5-3.6]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[3.6-3.7]</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>[3.7-3.8]</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>[3.8-3.8]</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>[3.8-3.9]</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>[3.9-3.9]</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>[3.9-4.0]</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>[4.0-4.1]</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>[4.1-4.1]</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>[4.1-4.2]</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>[4.2-4.2]</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>[4.2-4.3]</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>[4.3-4.3]</c:v>
+                <c:pt idx="10">
+                  <c:v>[4.3-4.4]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>[4.4-4.5]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>[4.5-4.6]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>[4.6-4.6]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WA Cost of Funds Base'!$B$1:$B$10</c:f>
+              <c:f>'WA Cost of Funds Base'!$B$1:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2616,27 +3180,39 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2765,50 +3341,62 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Frequency</c:v>
-          </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'WA Cost of Funds Downside'!$A$1:$A$9</c:f>
+              <c:f>'WA Cost of Funds Downside'!$A$1:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>[3.5-3.6]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[3.6-3.7]</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>[3.7-3.8]</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>[3.8-3.8]</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>[3.8-3.9]</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>[3.9-3.9]</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>[3.9-4.0]</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>[4.0-4.1]</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>[4.1-4.1]</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>[4.1-4.2]</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>[4.2-4.2]</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>[4.2-4.3]</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>[4.3-4.3]</c:v>
+                <c:pt idx="10">
+                  <c:v>[4.3-4.4]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>[4.4-4.5]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>[4.5-4.6]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>[4.6-4.6]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WA Cost of Funds Downside'!$B$1:$B$10</c:f>
+              <c:f>'WA Cost of Funds Downside'!$B$1:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2819,24 +3407,36 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2965,50 +3565,62 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Frequency</c:v>
-          </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'WA Cost of Funds Upside'!$A$1:$A$9</c:f>
+              <c:f>'WA Cost of Funds Upside'!$A$1:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>[3.5-3.6]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[3.6-3.7]</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>[3.7-3.8]</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>[3.8-3.8]</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>[3.8-3.9]</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>[3.9-4.0]</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>[4.0-4.1]</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>[4.1-4.1]</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>[4.1-4.2]</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>[4.2-4.2]</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>[4.2-4.3]</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>[4.3-4.3]</c:v>
+                <c:pt idx="10">
+                  <c:v>[4.3-4.4]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>[4.4-4.5]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>[4.5-4.6]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>[4.6-4.6]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WA Cost of Funds Upside'!$B$1:$B$10</c:f>
+              <c:f>'WA Cost of Funds Upside'!$B$1:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3016,10 +3628,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3028,15 +3640,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3165,66 +3789,102 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Frequency</c:v>
-          </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Proj Equity Yield'!$A$1:$A$7</c:f>
+              <c:f>'Proj Equity Yield'!$A$1:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[8.5-9.1]</c:v>
+                  <c:v>[6.6-6.9]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[9.1-9.6]</c:v>
+                  <c:v>[6.9-7.3]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[9.6-10.2]</c:v>
+                  <c:v>[7.3-7.6]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.2-10.8]</c:v>
+                  <c:v>[7.6-7.9]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.8-11.3]</c:v>
+                  <c:v>[7.9-8.2]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[11.3-11.9]</c:v>
+                  <c:v>[8.2-8.6]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[11.9-12.4]</c:v>
+                  <c:v>[8.6-8.9]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[8.9-9.2]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[9.2-9.5]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[9.5-9.9]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[9.9-10.2]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>[10.2-10.5]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>[10.5-10.8]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>[10.8-11.2]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Proj Equity Yield'!$B$1:$B$8</c:f>
+              <c:f>'Proj Equity Yield'!$B$1:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4167,7 +4827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4186,7 +4846,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4194,7 +4854,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4202,7 +4862,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4210,7 +4870,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4218,7 +4878,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4226,7 +4886,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4234,7 +4894,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4242,7 +4902,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4250,7 +4910,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4258,6 +4918,30 @@
         <v>11</v>
       </c>
       <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
     </row>
@@ -4269,7 +4953,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4277,7 +4961,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4285,7 +4969,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4293,31 +4977,31 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4325,17 +5009,65 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
     </row>
@@ -4347,7 +5079,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4355,7 +5087,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4363,39 +5095,39 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4403,17 +5135,65 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
     </row>
@@ -4425,7 +5205,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4433,7 +5213,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4441,7 +5221,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4449,7 +5229,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4457,41 +5237,89 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
     </row>
@@ -4503,7 +5331,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4511,31 +5339,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4543,7 +5371,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4551,7 +5379,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4559,25 +5387,65 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
     </row>
@@ -4589,7 +5457,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4597,31 +5465,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4629,7 +5497,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4637,7 +5505,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4645,25 +5513,65 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
     </row>
@@ -4675,7 +5583,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4683,31 +5591,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4715,7 +5623,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4723,7 +5631,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4731,25 +5639,65 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
     </row>
@@ -4761,7 +5709,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4769,7 +5717,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4777,23 +5725,23 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4801,7 +5749,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4809,7 +5757,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4817,25 +5765,65 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
     </row>
@@ -4847,7 +5835,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4866,7 +5854,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4874,7 +5862,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4882,7 +5870,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4890,7 +5878,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4898,12 +5886,12 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4911,33 +5899,57 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
     </row>
@@ -4949,7 +5961,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4968,7 +5980,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4976,7 +5988,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4984,7 +5996,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4992,7 +6004,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5000,7 +6012,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5008,7 +6020,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5016,7 +6028,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5024,7 +6036,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5032,7 +6044,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5040,6 +6052,30 @@
         <v>11</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
     </row>
@@ -5051,7 +6087,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5070,7 +6106,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5078,7 +6114,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5086,7 +6122,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5094,7 +6130,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5102,7 +6138,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5110,7 +6146,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5118,7 +6154,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5126,7 +6162,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5134,7 +6170,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5142,6 +6178,30 @@
         <v>11</v>
       </c>
       <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
     </row>
@@ -5153,7 +6213,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5161,7 +6221,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5169,7 +6229,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5177,31 +6237,31 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5209,23 +6269,23 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5233,9 +6293,41 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
     </row>
@@ -5247,7 +6339,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5255,7 +6347,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5263,7 +6355,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5271,31 +6363,31 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5303,23 +6395,23 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5327,9 +6419,41 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
     </row>
@@ -5341,7 +6465,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5349,7 +6473,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5357,7 +6481,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5365,7 +6489,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5373,23 +6497,23 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5397,23 +6521,23 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5421,9 +6545,41 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
     </row>
@@ -5435,7 +6591,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5443,7 +6599,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5451,7 +6607,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5459,23 +6615,23 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5483,7 +6639,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5491,23 +6647,23 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5515,9 +6671,41 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
     </row>
@@ -5529,7 +6717,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5537,7 +6725,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5545,57 +6733,105 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
     </row>

--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="157">
   <si>
     <t>Deal Call Months</t>
   </si>
@@ -52,6 +52,9 @@
     <t>[37.0-38.0]</t>
   </si>
   <si>
+    <t>[38.0-38.0]</t>
+  </si>
+  <si>
     <t>[38.0-39.0]</t>
   </si>
   <si>
@@ -73,307 +76,430 @@
     <t>[44.0-45.0]</t>
   </si>
   <si>
-    <t>[45.0-46.0]</t>
-  </si>
-  <si>
-    <t>[38.0-38.0]</t>
-  </si>
-  <si>
-    <t>[3.5-3.6]</t>
-  </si>
-  <si>
-    <t>[3.6-3.7]</t>
-  </si>
-  <si>
-    <t>[3.7-3.8]</t>
-  </si>
-  <si>
-    <t>[3.8-3.9]</t>
-  </si>
-  <si>
-    <t>[3.9-3.9]</t>
-  </si>
-  <si>
-    <t>[3.9-4.0]</t>
-  </si>
-  <si>
-    <t>[4.0-4.1]</t>
-  </si>
-  <si>
-    <t>[4.1-4.2]</t>
-  </si>
-  <si>
-    <t>[4.2-4.2]</t>
-  </si>
-  <si>
-    <t>[4.2-4.3]</t>
-  </si>
-  <si>
-    <t>[4.3-4.4]</t>
-  </si>
-  <si>
-    <t>[4.4-4.5]</t>
-  </si>
-  <si>
-    <t>[4.5-4.6]</t>
-  </si>
-  <si>
-    <t>[4.6-4.6]</t>
-  </si>
-  <si>
-    <t>[3.8-3.8]</t>
-  </si>
-  <si>
-    <t>[6.6-6.9]</t>
-  </si>
-  <si>
-    <t>[6.9-7.3]</t>
-  </si>
-  <si>
-    <t>[7.3-7.6]</t>
-  </si>
-  <si>
-    <t>[7.6-7.9]</t>
-  </si>
-  <si>
-    <t>[7.9-8.2]</t>
-  </si>
-  <si>
-    <t>[8.2-8.6]</t>
-  </si>
-  <si>
-    <t>[8.6-8.9]</t>
-  </si>
-  <si>
-    <t>[8.9-9.2]</t>
-  </si>
-  <si>
-    <t>[9.2-9.5]</t>
-  </si>
-  <si>
-    <t>[9.5-9.9]</t>
-  </si>
-  <si>
-    <t>[9.9-10.2]</t>
-  </si>
-  <si>
-    <t>[10.2-10.5]</t>
-  </si>
-  <si>
-    <t>[10.5-10.8]</t>
-  </si>
-  <si>
-    <t>[10.8-11.2]</t>
-  </si>
-  <si>
-    <t>[6.9-7.2]</t>
-  </si>
-  <si>
-    <t>[7.2-7.6]</t>
-  </si>
-  <si>
-    <t>[8.2-8.5]</t>
-  </si>
-  <si>
-    <t>[8.5-8.9]</t>
-  </si>
-  <si>
-    <t>[9.5-9.8]</t>
-  </si>
-  <si>
-    <t>[9.8-10.1]</t>
-  </si>
-  <si>
-    <t>[10.1-10.5]</t>
-  </si>
-  <si>
-    <t>[10.8-11.1]</t>
-  </si>
-  <si>
-    <t>[6.6-7.0]</t>
-  </si>
-  <si>
-    <t>[7.0-7.3]</t>
-  </si>
-  <si>
-    <t>[6.7-7.0]</t>
-  </si>
-  <si>
-    <t>[7.9-8.3]</t>
-  </si>
-  <si>
-    <t>[8.3-8.6]</t>
-  </si>
-  <si>
-    <t>[9.2-9.6]</t>
-  </si>
-  <si>
-    <t>[9.6-9.9]</t>
-  </si>
-  <si>
-    <t>[0.6267-0.6563]</t>
-  </si>
-  <si>
-    <t>[0.6563-0.686]</t>
-  </si>
-  <si>
-    <t>[0.686-0.7156]</t>
-  </si>
-  <si>
-    <t>[0.7156-0.7453]</t>
-  </si>
-  <si>
-    <t>[0.7453-0.775]</t>
-  </si>
-  <si>
-    <t>[0.775-0.8046]</t>
-  </si>
-  <si>
-    <t>[0.8046-0.8343]</t>
-  </si>
-  <si>
-    <t>[0.8343-0.8639]</t>
-  </si>
-  <si>
-    <t>[0.8639-0.8936]</t>
-  </si>
-  <si>
-    <t>[0.8936-0.9232]</t>
-  </si>
-  <si>
-    <t>[0.9232-0.9529]</t>
-  </si>
-  <si>
-    <t>[0.9529-0.9825]</t>
-  </si>
-  <si>
-    <t>[0.9825-1.0122]</t>
-  </si>
-  <si>
-    <t>[1.0122-1.0418]</t>
-  </si>
-  <si>
-    <t>[0.6297-0.6591]</t>
-  </si>
-  <si>
-    <t>[0.6591-0.6885]</t>
-  </si>
-  <si>
-    <t>[0.6885-0.718]</t>
-  </si>
-  <si>
-    <t>[0.718-0.7474]</t>
-  </si>
-  <si>
-    <t>[0.7474-0.7769]</t>
-  </si>
-  <si>
-    <t>[0.7769-0.8063]</t>
-  </si>
-  <si>
-    <t>[0.8063-0.8358]</t>
-  </si>
-  <si>
-    <t>[0.8358-0.8652]</t>
-  </si>
-  <si>
-    <t>[0.8652-0.8946]</t>
-  </si>
-  <si>
-    <t>[0.8946-0.9241]</t>
-  </si>
-  <si>
-    <t>[0.9241-0.9535]</t>
-  </si>
-  <si>
-    <t>[0.9535-0.983]</t>
-  </si>
-  <si>
-    <t>[0.983-1.0124]</t>
-  </si>
-  <si>
-    <t>[1.0124-1.0418]</t>
-  </si>
-  <si>
-    <t>[0.6278-0.6574]</t>
-  </si>
-  <si>
-    <t>[0.6574-0.687]</t>
-  </si>
-  <si>
-    <t>[0.687-0.7165]</t>
-  </si>
-  <si>
-    <t>[0.7165-0.7461]</t>
-  </si>
-  <si>
-    <t>[0.7461-0.7757]</t>
-  </si>
-  <si>
-    <t>[0.7757-0.8052]</t>
-  </si>
-  <si>
-    <t>[0.8052-0.8348]</t>
-  </si>
-  <si>
-    <t>[0.8348-0.8644]</t>
-  </si>
-  <si>
-    <t>[0.8644-0.8939]</t>
-  </si>
-  <si>
-    <t>[0.8939-0.9235]</t>
-  </si>
-  <si>
-    <t>[0.9235-0.953]</t>
-  </si>
-  <si>
-    <t>[0.953-0.9826]</t>
-  </si>
-  <si>
-    <t>[0.9826-1.0122]</t>
-  </si>
-  <si>
-    <t>[1.0122-1.0417]</t>
-  </si>
-  <si>
-    <t>[0.6563-0.6859]</t>
-  </si>
-  <si>
-    <t>[0.6859-0.7155]</t>
-  </si>
-  <si>
-    <t>[0.7155-0.7451]</t>
-  </si>
-  <si>
-    <t>[0.7451-0.7747]</t>
-  </si>
-  <si>
-    <t>[0.7747-0.8044]</t>
-  </si>
-  <si>
-    <t>[0.8044-0.834]</t>
-  </si>
-  <si>
-    <t>[0.834-0.8636]</t>
-  </si>
-  <si>
-    <t>[0.8636-0.8932]</t>
-  </si>
-  <si>
-    <t>[0.8932-0.9228]</t>
-  </si>
-  <si>
-    <t>[0.9228-0.9524]</t>
-  </si>
-  <si>
-    <t>[0.9524-0.982]</t>
-  </si>
-  <si>
-    <t>[0.982-1.0116]</t>
-  </si>
-  <si>
-    <t>[1.0116-1.0413]</t>
+    <t>[36.0-36.0]</t>
+  </si>
+  <si>
+    <t>[42.0-42.0]</t>
+  </si>
+  <si>
+    <t>[3.9995-4.0108]</t>
+  </si>
+  <si>
+    <t>[4.0108-4.0221]</t>
+  </si>
+  <si>
+    <t>[4.0221-4.0334]</t>
+  </si>
+  <si>
+    <t>[4.0334-4.0446]</t>
+  </si>
+  <si>
+    <t>[4.0446-4.0559]</t>
+  </si>
+  <si>
+    <t>[4.0559-4.0672]</t>
+  </si>
+  <si>
+    <t>[4.0672-4.0785]</t>
+  </si>
+  <si>
+    <t>[4.0785-4.0897]</t>
+  </si>
+  <si>
+    <t>[4.0897-4.101]</t>
+  </si>
+  <si>
+    <t>[4.101-4.1123]</t>
+  </si>
+  <si>
+    <t>[4.1123-4.1236]</t>
+  </si>
+  <si>
+    <t>[4.1236-4.1348]</t>
+  </si>
+  <si>
+    <t>[4.1348-4.1461]</t>
+  </si>
+  <si>
+    <t>[4.1461-4.1574]</t>
+  </si>
+  <si>
+    <t>[4.0311-4.0398]</t>
+  </si>
+  <si>
+    <t>[4.0398-4.0486]</t>
+  </si>
+  <si>
+    <t>[4.0486-4.0573]</t>
+  </si>
+  <si>
+    <t>[4.0573-4.066]</t>
+  </si>
+  <si>
+    <t>[4.066-4.0747]</t>
+  </si>
+  <si>
+    <t>[4.0747-4.0834]</t>
+  </si>
+  <si>
+    <t>[4.0834-4.0922]</t>
+  </si>
+  <si>
+    <t>[4.0922-4.1009]</t>
+  </si>
+  <si>
+    <t>[4.1009-4.1096]</t>
+  </si>
+  <si>
+    <t>[4.1096-4.1183]</t>
+  </si>
+  <si>
+    <t>[4.1183-4.127]</t>
+  </si>
+  <si>
+    <t>[4.127-4.1358]</t>
+  </si>
+  <si>
+    <t>[4.1358-4.1445]</t>
+  </si>
+  <si>
+    <t>[4.1445-4.1532]</t>
+  </si>
+  <si>
+    <t>[4.0271-4.0352]</t>
+  </si>
+  <si>
+    <t>[4.0352-4.0433]</t>
+  </si>
+  <si>
+    <t>[4.0433-4.0513]</t>
+  </si>
+  <si>
+    <t>[4.0513-4.0594]</t>
+  </si>
+  <si>
+    <t>[4.0594-4.0674]</t>
+  </si>
+  <si>
+    <t>[4.0674-4.0755]</t>
+  </si>
+  <si>
+    <t>[4.0755-4.0836]</t>
+  </si>
+  <si>
+    <t>[4.0836-4.0916]</t>
+  </si>
+  <si>
+    <t>[4.0916-4.0997]</t>
+  </si>
+  <si>
+    <t>[4.0997-4.1077]</t>
+  </si>
+  <si>
+    <t>[4.1077-4.1158]</t>
+  </si>
+  <si>
+    <t>[4.1158-4.1239]</t>
+  </si>
+  <si>
+    <t>[4.1239-4.1319]</t>
+  </si>
+  <si>
+    <t>[4.1319-4.14]</t>
+  </si>
+  <si>
+    <t>[8.523-8.582]</t>
+  </si>
+  <si>
+    <t>[8.582-8.641]</t>
+  </si>
+  <si>
+    <t>[8.641-8.7]</t>
+  </si>
+  <si>
+    <t>[8.7-8.759]</t>
+  </si>
+  <si>
+    <t>[8.759-8.818]</t>
+  </si>
+  <si>
+    <t>[8.818-8.877]</t>
+  </si>
+  <si>
+    <t>[8.877-8.936]</t>
+  </si>
+  <si>
+    <t>[8.936-8.995]</t>
+  </si>
+  <si>
+    <t>[8.995-9.054]</t>
+  </si>
+  <si>
+    <t>[9.054-9.113]</t>
+  </si>
+  <si>
+    <t>[9.113-9.172]</t>
+  </si>
+  <si>
+    <t>[9.172-9.231]</t>
+  </si>
+  <si>
+    <t>[9.231-9.289]</t>
+  </si>
+  <si>
+    <t>[9.289-9.348]</t>
+  </si>
+  <si>
+    <t>[8.541-8.586]</t>
+  </si>
+  <si>
+    <t>[8.586-8.631]</t>
+  </si>
+  <si>
+    <t>[8.631-8.676]</t>
+  </si>
+  <si>
+    <t>[8.676-8.721]</t>
+  </si>
+  <si>
+    <t>[8.721-8.766]</t>
+  </si>
+  <si>
+    <t>[8.766-8.811]</t>
+  </si>
+  <si>
+    <t>[8.811-8.856]</t>
+  </si>
+  <si>
+    <t>[8.856-8.901]</t>
+  </si>
+  <si>
+    <t>[8.901-8.946]</t>
+  </si>
+  <si>
+    <t>[8.946-8.991]</t>
+  </si>
+  <si>
+    <t>[8.991-9.037]</t>
+  </si>
+  <si>
+    <t>[9.037-9.082]</t>
+  </si>
+  <si>
+    <t>[9.082-9.127]</t>
+  </si>
+  <si>
+    <t>[9.127-9.172]</t>
+  </si>
+  <si>
+    <t>[8.609-8.651]</t>
+  </si>
+  <si>
+    <t>[8.651-8.693]</t>
+  </si>
+  <si>
+    <t>[8.693-8.735]</t>
+  </si>
+  <si>
+    <t>[8.735-8.776]</t>
+  </si>
+  <si>
+    <t>[8.776-8.818]</t>
+  </si>
+  <si>
+    <t>[8.818-8.86]</t>
+  </si>
+  <si>
+    <t>[8.86-8.902]</t>
+  </si>
+  <si>
+    <t>[8.902-8.943]</t>
+  </si>
+  <si>
+    <t>[8.943-8.985]</t>
+  </si>
+  <si>
+    <t>[8.985-9.027]</t>
+  </si>
+  <si>
+    <t>[9.027-9.069]</t>
+  </si>
+  <si>
+    <t>[9.069-9.11]</t>
+  </si>
+  <si>
+    <t>[9.11-9.152]</t>
+  </si>
+  <si>
+    <t>[9.152-9.194]</t>
+  </si>
+  <si>
+    <t>[0.8268-0.828]</t>
+  </si>
+  <si>
+    <t>[0.828-0.8291]</t>
+  </si>
+  <si>
+    <t>[0.8291-0.8302]</t>
+  </si>
+  <si>
+    <t>[0.8302-0.8313]</t>
+  </si>
+  <si>
+    <t>[0.8313-0.8325]</t>
+  </si>
+  <si>
+    <t>[0.8325-0.8336]</t>
+  </si>
+  <si>
+    <t>[0.8336-0.8347]</t>
+  </si>
+  <si>
+    <t>[0.8347-0.8359]</t>
+  </si>
+  <si>
+    <t>[0.8359-0.837]</t>
+  </si>
+  <si>
+    <t>[0.837-0.8381]</t>
+  </si>
+  <si>
+    <t>[0.8381-0.8392]</t>
+  </si>
+  <si>
+    <t>[0.8392-0.8404]</t>
+  </si>
+  <si>
+    <t>[0.8404-0.8415]</t>
+  </si>
+  <si>
+    <t>[0.8415-0.8426]</t>
+  </si>
+  <si>
+    <t>[0.8286-0.8296]</t>
+  </si>
+  <si>
+    <t>[0.8296-0.8306]</t>
+  </si>
+  <si>
+    <t>[0.8306-0.8316]</t>
+  </si>
+  <si>
+    <t>[0.8316-0.8326]</t>
+  </si>
+  <si>
+    <t>[0.8326-0.8336]</t>
+  </si>
+  <si>
+    <t>[0.8336-0.8346]</t>
+  </si>
+  <si>
+    <t>[0.8346-0.8356]</t>
+  </si>
+  <si>
+    <t>[0.8356-0.8366]</t>
+  </si>
+  <si>
+    <t>[0.8366-0.8376]</t>
+  </si>
+  <si>
+    <t>[0.8376-0.8386]</t>
+  </si>
+  <si>
+    <t>[0.8386-0.8396]</t>
+  </si>
+  <si>
+    <t>[0.8396-0.8406]</t>
+  </si>
+  <si>
+    <t>[0.8406-0.8416]</t>
+  </si>
+  <si>
+    <t>[0.8416-0.8426]</t>
+  </si>
+  <si>
+    <t>[0.8282-0.8292]</t>
+  </si>
+  <si>
+    <t>[0.8292-0.8302]</t>
+  </si>
+  <si>
+    <t>[0.8302-0.8312]</t>
+  </si>
+  <si>
+    <t>[0.8312-0.8322]</t>
+  </si>
+  <si>
+    <t>[0.8322-0.8332]</t>
+  </si>
+  <si>
+    <t>[0.8332-0.8342]</t>
+  </si>
+  <si>
+    <t>[0.8342-0.8351]</t>
+  </si>
+  <si>
+    <t>[0.8351-0.8361]</t>
+  </si>
+  <si>
+    <t>[0.8361-0.8371]</t>
+  </si>
+  <si>
+    <t>[0.8371-0.8381]</t>
+  </si>
+  <si>
+    <t>[0.8381-0.8391]</t>
+  </si>
+  <si>
+    <t>[0.8391-0.8401]</t>
+  </si>
+  <si>
+    <t>[0.8401-0.8411]</t>
+  </si>
+  <si>
+    <t>[0.8411-0.8421]</t>
+  </si>
+  <si>
+    <t>[0.8268-0.8279]</t>
+  </si>
+  <si>
+    <t>[0.8279-0.829]</t>
+  </si>
+  <si>
+    <t>[0.829-0.8301]</t>
+  </si>
+  <si>
+    <t>[0.8301-0.8311]</t>
+  </si>
+  <si>
+    <t>[0.8311-0.8322]</t>
+  </si>
+  <si>
+    <t>[0.8322-0.8333]</t>
+  </si>
+  <si>
+    <t>[0.8333-0.8344]</t>
+  </si>
+  <si>
+    <t>[0.8344-0.8354]</t>
+  </si>
+  <si>
+    <t>[0.8354-0.8365]</t>
+  </si>
+  <si>
+    <t>[0.8365-0.8376]</t>
+  </si>
+  <si>
+    <t>[0.8376-0.8387]</t>
+  </si>
+  <si>
+    <t>[0.8387-0.8397]</t>
+  </si>
+  <si>
+    <t>[0.8397-0.8408]</t>
+  </si>
+  <si>
+    <t>[0.8408-0.8419]</t>
   </si>
 </sst>
 </file>
@@ -469,6 +595,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Deal Call Months'!$A$1:$A$15</c:f>
@@ -493,28 +622,28 @@
                   <c:v>[37.0-38.0]</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>[38.0-38.0]</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>[38.0-39.0]</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>[39.0-40.0]</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>[40.0-41.0]</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>[41.0-42.0]</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>[42.0-43.0]</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>[43.0-44.0]</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>[44.0-45.0]</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>[45.0-46.0]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -529,43 +658,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>22</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -683,52 +812,55 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Proj Equity Yield Base'!$A$1:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[6.6-6.9]</c:v>
+                  <c:v>[8.541-8.586]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[6.9-7.2]</c:v>
+                  <c:v>[8.586-8.631]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[7.2-7.6]</c:v>
+                  <c:v>[8.631-8.676]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[7.6-7.9]</c:v>
+                  <c:v>[8.676-8.721]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[7.9-8.2]</c:v>
+                  <c:v>[8.721-8.766]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[8.2-8.5]</c:v>
+                  <c:v>[8.766-8.811]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[8.5-8.9]</c:v>
+                  <c:v>[8.811-8.856]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[8.9-9.2]</c:v>
+                  <c:v>[8.856-8.901]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[9.2-9.5]</c:v>
+                  <c:v>[8.901-8.946]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[9.5-9.8]</c:v>
+                  <c:v>[8.946-8.991]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[9.8-10.1]</c:v>
+                  <c:v>[8.991-9.037]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[10.1-10.5]</c:v>
+                  <c:v>[9.037-9.082]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[10.5-10.8]</c:v>
+                  <c:v>[9.082-9.127]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[10.8-11.1]</c:v>
+                  <c:v>[9.127-9.172]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -743,40 +875,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -907,52 +1039,55 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Proj Equity Yield Downside'!$A$1:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[6.6-7.0]</c:v>
+                  <c:v>[8.523-8.582]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[7.0-7.3]</c:v>
+                  <c:v>[8.582-8.641]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[7.3-7.6]</c:v>
+                  <c:v>[8.641-8.7]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[7.6-7.9]</c:v>
+                  <c:v>[8.7-8.759]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[7.9-8.2]</c:v>
+                  <c:v>[8.759-8.818]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[8.2-8.6]</c:v>
+                  <c:v>[8.818-8.877]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[8.6-8.9]</c:v>
+                  <c:v>[8.877-8.936]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[8.9-9.2]</c:v>
+                  <c:v>[8.936-8.995]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[9.2-9.5]</c:v>
+                  <c:v>[8.995-9.054]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[9.5-9.9]</c:v>
+                  <c:v>[9.054-9.113]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[9.9-10.2]</c:v>
+                  <c:v>[9.113-9.172]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[10.2-10.5]</c:v>
+                  <c:v>[9.172-9.231]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[10.5-10.8]</c:v>
+                  <c:v>[9.231-9.289]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[10.8-11.1]</c:v>
+                  <c:v>[9.289-9.348]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -964,37 +1099,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1003,7 +1138,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1131,52 +1266,55 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Proj Equity Yield Upside'!$A$1:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[6.7-7.0]</c:v>
+                  <c:v>[8.609-8.651]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[7.0-7.3]</c:v>
+                  <c:v>[8.651-8.693]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[7.3-7.6]</c:v>
+                  <c:v>[8.693-8.735]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[7.6-7.9]</c:v>
+                  <c:v>[8.735-8.776]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[7.9-8.3]</c:v>
+                  <c:v>[8.776-8.818]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[8.3-8.6]</c:v>
+                  <c:v>[8.818-8.86]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[8.6-8.9]</c:v>
+                  <c:v>[8.86-8.902]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[8.9-9.2]</c:v>
+                  <c:v>[8.902-8.943]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[9.2-9.6]</c:v>
+                  <c:v>[8.943-8.985]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[9.6-9.9]</c:v>
+                  <c:v>[8.985-9.027]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[9.9-10.2]</c:v>
+                  <c:v>[9.027-9.069]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[10.2-10.5]</c:v>
+                  <c:v>[9.069-9.11]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[10.5-10.8]</c:v>
+                  <c:v>[9.11-9.152]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[10.8-11.2]</c:v>
+                  <c:v>[9.152-9.194]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1191,40 +1329,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1355,52 +1493,55 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'WA Adv Rate'!$A$1:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[0.6267-0.6563]</c:v>
+                  <c:v>[0.8268-0.828]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[0.6563-0.686]</c:v>
+                  <c:v>[0.828-0.8291]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[0.686-0.7156]</c:v>
+                  <c:v>[0.8291-0.8302]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[0.7156-0.7453]</c:v>
+                  <c:v>[0.8302-0.8313]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[0.7453-0.775]</c:v>
+                  <c:v>[0.8313-0.8325]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[0.775-0.8046]</c:v>
+                  <c:v>[0.8325-0.8336]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[0.8046-0.8343]</c:v>
+                  <c:v>[0.8336-0.8347]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[0.8343-0.8639]</c:v>
+                  <c:v>[0.8347-0.8359]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[0.8639-0.8936]</c:v>
+                  <c:v>[0.8359-0.837]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[0.8936-0.9232]</c:v>
+                  <c:v>[0.837-0.8381]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[0.9232-0.9529]</c:v>
+                  <c:v>[0.8381-0.8392]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[0.9529-0.9825]</c:v>
+                  <c:v>[0.8392-0.8404]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[0.9825-1.0122]</c:v>
+                  <c:v>[0.8404-0.8415]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[1.0122-1.0418]</c:v>
+                  <c:v>[0.8415-0.8426]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1412,46 +1553,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>253</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1579,52 +1720,55 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'WA Adv Rate Base'!$A$1:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[0.6297-0.6591]</c:v>
+                  <c:v>[0.8286-0.8296]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[0.6591-0.6885]</c:v>
+                  <c:v>[0.8296-0.8306]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[0.6885-0.718]</c:v>
+                  <c:v>[0.8306-0.8316]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[0.718-0.7474]</c:v>
+                  <c:v>[0.8316-0.8326]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[0.7474-0.7769]</c:v>
+                  <c:v>[0.8326-0.8336]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[0.7769-0.8063]</c:v>
+                  <c:v>[0.8336-0.8346]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[0.8063-0.8358]</c:v>
+                  <c:v>[0.8346-0.8356]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[0.8358-0.8652]</c:v>
+                  <c:v>[0.8356-0.8366]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[0.8652-0.8946]</c:v>
+                  <c:v>[0.8366-0.8376]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[0.8946-0.9241]</c:v>
+                  <c:v>[0.8376-0.8386]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[0.9241-0.9535]</c:v>
+                  <c:v>[0.8386-0.8396]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[0.9535-0.983]</c:v>
+                  <c:v>[0.8396-0.8406]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[0.983-1.0124]</c:v>
+                  <c:v>[0.8406-0.8416]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[1.0124-1.0418]</c:v>
+                  <c:v>[0.8416-0.8426]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1636,46 +1780,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>85</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1803,52 +1947,55 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'WA Adv Rate Downside'!$A$1:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[0.6278-0.6574]</c:v>
+                  <c:v>[0.8282-0.8292]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[0.6574-0.687]</c:v>
+                  <c:v>[0.8292-0.8302]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[0.687-0.7165]</c:v>
+                  <c:v>[0.8302-0.8312]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[0.7165-0.7461]</c:v>
+                  <c:v>[0.8312-0.8322]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[0.7461-0.7757]</c:v>
+                  <c:v>[0.8322-0.8332]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[0.7757-0.8052]</c:v>
+                  <c:v>[0.8332-0.8342]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[0.8052-0.8348]</c:v>
+                  <c:v>[0.8342-0.8351]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[0.8348-0.8644]</c:v>
+                  <c:v>[0.8351-0.8361]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[0.8644-0.8939]</c:v>
+                  <c:v>[0.8361-0.8371]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[0.8939-0.9235]</c:v>
+                  <c:v>[0.8371-0.8381]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[0.9235-0.953]</c:v>
+                  <c:v>[0.8381-0.8391]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[0.953-0.9826]</c:v>
+                  <c:v>[0.8391-0.8401]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[0.9826-1.0122]</c:v>
+                  <c:v>[0.8401-0.8411]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[1.0122-1.0417]</c:v>
+                  <c:v>[0.8411-0.8421]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1860,46 +2007,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2027,52 +2174,55 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'WA Adv Rate Upside'!$A$1:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[0.6267-0.6563]</c:v>
+                  <c:v>[0.8268-0.8279]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[0.6563-0.6859]</c:v>
+                  <c:v>[0.8279-0.829]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[0.6859-0.7155]</c:v>
+                  <c:v>[0.829-0.8301]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[0.7155-0.7451]</c:v>
+                  <c:v>[0.8301-0.8311]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[0.7451-0.7747]</c:v>
+                  <c:v>[0.8311-0.8322]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[0.7747-0.8044]</c:v>
+                  <c:v>[0.8322-0.8333]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[0.8044-0.834]</c:v>
+                  <c:v>[0.8333-0.8344]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[0.834-0.8636]</c:v>
+                  <c:v>[0.8344-0.8354]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[0.8636-0.8932]</c:v>
+                  <c:v>[0.8354-0.8365]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[0.8932-0.9228]</c:v>
+                  <c:v>[0.8365-0.8376]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[0.9228-0.9524]</c:v>
+                  <c:v>[0.8376-0.8387]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[0.9524-0.982]</c:v>
+                  <c:v>[0.8387-0.8397]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[0.982-1.0116]</c:v>
+                  <c:v>[0.8397-0.8408]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[1.0116-1.0413]</c:v>
+                  <c:v>[0.8408-0.8419]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2084,46 +2234,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2251,22 +2401,25 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Deal Call Months Base'!$A$1:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[32.0-33.0]</c:v>
+                  <c:v>[33.0-34.0]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[33.0-34.0]</c:v>
+                  <c:v>[34.0-35.0]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[34.0-35.0]</c:v>
+                  <c:v>[35.0-36.0]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[35.0-36.0]</c:v>
+                  <c:v>[36.0-36.0]</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>[36.0-37.0]</c:v>
@@ -2275,19 +2428,19 @@
                   <c:v>[37.0-38.0]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[38.0-38.0]</c:v>
+                  <c:v>[38.0-39.0]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[38.0-39.0]</c:v>
+                  <c:v>[39.0-40.0]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[39.0-40.0]</c:v>
+                  <c:v>[40.0-41.0]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[40.0-41.0]</c:v>
+                  <c:v>[41.0-42.0]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[41.0-42.0]</c:v>
+                  <c:v>[42.0-42.0]</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>[42.0-43.0]</c:v>
@@ -2311,43 +2464,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2465,6 +2618,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Deal Call Months Downside'!$A$1:$A$15</c:f>
@@ -2489,28 +2645,28 @@
                   <c:v>[37.0-38.0]</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>[38.0-38.0]</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>[38.0-39.0]</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>[39.0-40.0]</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>[40.0-41.0]</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>[41.0-42.0]</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>[42.0-43.0]</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>[43.0-44.0]</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>[44.0-45.0]</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>[45.0-46.0]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2525,43 +2681,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2679,22 +2835,25 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Deal Call Months Upside'!$A$1:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[32.0-33.0]</c:v>
+                  <c:v>[33.0-34.0]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[33.0-34.0]</c:v>
+                  <c:v>[34.0-35.0]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[34.0-35.0]</c:v>
+                  <c:v>[35.0-36.0]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[35.0-36.0]</c:v>
+                  <c:v>[36.0-36.0]</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>[36.0-37.0]</c:v>
@@ -2715,16 +2874,16 @@
                   <c:v>[41.0-42.0]</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>[42.0-42.0]</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>[42.0-43.0]</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>[43.0-44.0]</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>[44.0-45.0]</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>[45.0-46.0]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2739,43 +2898,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2893,52 +3052,55 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'WA Cost of Funds'!$A$1:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.5-3.6]</c:v>
+                  <c:v>[3.9995-4.0108]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.6-3.7]</c:v>
+                  <c:v>[4.0108-4.0221]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.7-3.8]</c:v>
+                  <c:v>[4.0221-4.0334]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.8-3.9]</c:v>
+                  <c:v>[4.0334-4.0446]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.9-3.9]</c:v>
+                  <c:v>[4.0446-4.0559]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.9-4.0]</c:v>
+                  <c:v>[4.0559-4.0672]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[4.0-4.1]</c:v>
+                  <c:v>[4.0672-4.0785]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[4.1-4.2]</c:v>
+                  <c:v>[4.0785-4.0897]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[4.2-4.2]</c:v>
+                  <c:v>[4.0897-4.101]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[4.2-4.3]</c:v>
+                  <c:v>[4.101-4.1123]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[4.3-4.4]</c:v>
+                  <c:v>[4.1123-4.1236]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[4.4-4.5]</c:v>
+                  <c:v>[4.1236-4.1348]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.5-4.6]</c:v>
+                  <c:v>[4.1348-4.1461]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.6-4.6]</c:v>
+                  <c:v>[4.1461-4.1574]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2950,7 +3112,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2959,37 +3121,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>141</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>159</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3117,52 +3279,55 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'WA Cost of Funds Base'!$A$1:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.5-3.6]</c:v>
+                  <c:v>[4.0311-4.0398]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.6-3.7]</c:v>
+                  <c:v>[4.0398-4.0486]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.7-3.8]</c:v>
+                  <c:v>[4.0486-4.0573]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.8-3.9]</c:v>
+                  <c:v>[4.0573-4.066]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.9-3.9]</c:v>
+                  <c:v>[4.066-4.0747]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.9-4.0]</c:v>
+                  <c:v>[4.0747-4.0834]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[4.0-4.1]</c:v>
+                  <c:v>[4.0834-4.0922]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[4.1-4.2]</c:v>
+                  <c:v>[4.0922-4.1009]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[4.2-4.2]</c:v>
+                  <c:v>[4.1009-4.1096]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[4.2-4.3]</c:v>
+                  <c:v>[4.1096-4.1183]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[4.3-4.4]</c:v>
+                  <c:v>[4.1183-4.127]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[4.4-4.5]</c:v>
+                  <c:v>[4.127-4.1358]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.5-4.6]</c:v>
+                  <c:v>[4.1358-4.1445]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.6-4.6]</c:v>
+                  <c:v>[4.1445-4.1532]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3177,40 +3342,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -3341,52 +3506,55 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'WA Cost of Funds Downside'!$A$1:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.5-3.6]</c:v>
+                  <c:v>[3.9995-4.0108]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.6-3.7]</c:v>
+                  <c:v>[4.0108-4.0221]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.7-3.8]</c:v>
+                  <c:v>[4.0221-4.0334]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.8-3.9]</c:v>
+                  <c:v>[4.0334-4.0446]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.9-3.9]</c:v>
+                  <c:v>[4.0446-4.0559]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.9-4.0]</c:v>
+                  <c:v>[4.0559-4.0672]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[4.0-4.1]</c:v>
+                  <c:v>[4.0672-4.0785]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[4.1-4.2]</c:v>
+                  <c:v>[4.0785-4.0897]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[4.2-4.2]</c:v>
+                  <c:v>[4.0897-4.101]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[4.2-4.3]</c:v>
+                  <c:v>[4.101-4.1123]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[4.3-4.4]</c:v>
+                  <c:v>[4.1123-4.1236]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[4.4-4.5]</c:v>
+                  <c:v>[4.1236-4.1348]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.5-4.6]</c:v>
+                  <c:v>[4.1348-4.1461]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.6-4.6]</c:v>
+                  <c:v>[4.1461-4.1574]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3398,7 +3566,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3407,37 +3575,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3565,52 +3733,55 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'WA Cost of Funds Upside'!$A$1:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.5-3.6]</c:v>
+                  <c:v>[4.0271-4.0352]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.6-3.7]</c:v>
+                  <c:v>[4.0352-4.0433]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.7-3.8]</c:v>
+                  <c:v>[4.0433-4.0513]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.8-3.8]</c:v>
+                  <c:v>[4.0513-4.0594]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.8-3.9]</c:v>
+                  <c:v>[4.0594-4.0674]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.9-4.0]</c:v>
+                  <c:v>[4.0674-4.0755]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[4.0-4.1]</c:v>
+                  <c:v>[4.0755-4.0836]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[4.1-4.2]</c:v>
+                  <c:v>[4.0836-4.0916]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[4.2-4.2]</c:v>
+                  <c:v>[4.0916-4.0997]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[4.2-4.3]</c:v>
+                  <c:v>[4.0997-4.1077]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[4.3-4.4]</c:v>
+                  <c:v>[4.1077-4.1158]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[4.4-4.5]</c:v>
+                  <c:v>[4.1158-4.1239]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.5-4.6]</c:v>
+                  <c:v>[4.1239-4.1319]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.6-4.6]</c:v>
+                  <c:v>[4.1319-4.14]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3625,40 +3796,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -3789,52 +3960,55 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Proj Equity Yield'!$A$1:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[6.6-6.9]</c:v>
+                  <c:v>[8.523-8.582]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[6.9-7.3]</c:v>
+                  <c:v>[8.582-8.641]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[7.3-7.6]</c:v>
+                  <c:v>[8.641-8.7]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[7.6-7.9]</c:v>
+                  <c:v>[8.7-8.759]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[7.9-8.2]</c:v>
+                  <c:v>[8.759-8.818]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[8.2-8.6]</c:v>
+                  <c:v>[8.818-8.877]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[8.6-8.9]</c:v>
+                  <c:v>[8.877-8.936]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[8.9-9.2]</c:v>
+                  <c:v>[8.936-8.995]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[9.2-9.5]</c:v>
+                  <c:v>[8.995-9.054]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[9.5-9.9]</c:v>
+                  <c:v>[9.054-9.113]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[9.9-10.2]</c:v>
+                  <c:v>[9.113-9.172]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[10.2-10.5]</c:v>
+                  <c:v>[9.172-9.231]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[10.5-10.8]</c:v>
+                  <c:v>[9.231-9.289]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[10.8-11.2]</c:v>
+                  <c:v>[9.289-9.348]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3846,37 +4020,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>234</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3885,7 +4059,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4846,7 +5020,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4854,7 +5028,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4862,7 +5036,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4870,7 +5044,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4878,7 +5052,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4886,7 +5060,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4894,7 +5068,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4902,7 +5076,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4910,7 +5084,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4918,7 +5092,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4926,7 +5100,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4934,7 +5108,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4942,7 +5116,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4961,7 +5135,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4969,103 +5143,103 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="B7">
-        <v>88</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -5087,95 +5261,95 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="B7">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -5183,7 +5357,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -5191,10 +5365,10 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5213,7 +5387,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5221,103 +5395,103 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="B8">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -5339,114 +5513,114 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="B7">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B8">
-        <v>253</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5465,114 +5639,114 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="B8">
-        <v>85</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5591,114 +5765,114 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="B8">
-        <v>85</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5717,15 +5891,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5733,98 +5907,98 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="B8">
-        <v>77</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5843,7 +6017,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5851,26 +6025,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5878,7 +6052,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5886,71 +6060,71 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5980,7 +6154,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5988,7 +6162,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5996,7 +6170,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6012,7 +6186,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6020,7 +6194,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6028,7 +6202,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6036,7 +6210,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6044,7 +6218,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6060,7 +6234,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6068,7 +6242,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6076,7 +6250,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6095,7 +6269,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6103,26 +6277,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
         <v>2</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6130,7 +6304,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6138,36 +6312,36 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -6175,10 +6349,10 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6186,7 +6360,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6194,7 +6368,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6202,7 +6376,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6221,15 +6395,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6237,7 +6411,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6245,90 +6419,90 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7">
-        <v>141</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>159</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6347,7 +6521,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6355,103 +6529,103 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B7">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6473,15 +6647,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6489,7 +6663,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6497,90 +6671,90 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
         <v>24</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
         <v>25</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6599,7 +6773,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6607,103 +6781,103 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6725,95 +6899,95 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="B7">
-        <v>234</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6821,7 +6995,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6829,10 +7003,10 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -29,375 +29,525 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="187">
   <si>
     <t>Deal Call Months</t>
   </si>
   <si>
+    <t>[24.0-25.0]</t>
+  </si>
+  <si>
+    <t>[25.0-25.0]</t>
+  </si>
+  <si>
+    <t>[25.0-26.0]</t>
+  </si>
+  <si>
+    <t>[26.0-27.0]</t>
+  </si>
+  <si>
+    <t>[27.0-28.0]</t>
+  </si>
+  <si>
+    <t>[28.0-28.0]</t>
+  </si>
+  <si>
+    <t>[28.0-29.0]</t>
+  </si>
+  <si>
+    <t>[29.0-30.0]</t>
+  </si>
+  <si>
+    <t>[30.0-30.0]</t>
+  </si>
+  <si>
+    <t>[30.0-31.0]</t>
+  </si>
+  <si>
+    <t>[31.0-32.0]</t>
+  </si>
+  <si>
     <t>[32.0-33.0]</t>
   </si>
   <si>
+    <t>[33.0-33.0]</t>
+  </si>
+  <si>
     <t>[33.0-34.0]</t>
   </si>
   <si>
-    <t>[34.0-35.0]</t>
-  </si>
-  <si>
-    <t>[35.0-36.0]</t>
-  </si>
-  <si>
-    <t>[36.0-37.0]</t>
-  </si>
-  <si>
-    <t>[37.0-38.0]</t>
-  </si>
-  <si>
-    <t>[38.0-38.0]</t>
-  </si>
-  <si>
-    <t>[38.0-39.0]</t>
-  </si>
-  <si>
-    <t>[39.0-40.0]</t>
-  </si>
-  <si>
-    <t>[40.0-41.0]</t>
-  </si>
-  <si>
-    <t>[41.0-42.0]</t>
-  </si>
-  <si>
-    <t>[42.0-43.0]</t>
-  </si>
-  <si>
-    <t>[43.0-44.0]</t>
-  </si>
-  <si>
-    <t>[44.0-45.0]</t>
-  </si>
-  <si>
-    <t>[36.0-36.0]</t>
-  </si>
-  <si>
-    <t>[42.0-42.0]</t>
-  </si>
-  <si>
-    <t>[3.9995-4.0108]</t>
-  </si>
-  <si>
-    <t>[4.0108-4.0221]</t>
-  </si>
-  <si>
-    <t>[4.0221-4.0334]</t>
-  </si>
-  <si>
-    <t>[4.0334-4.0446]</t>
-  </si>
-  <si>
-    <t>[4.0446-4.0559]</t>
-  </si>
-  <si>
-    <t>[4.0559-4.0672]</t>
-  </si>
-  <si>
-    <t>[4.0672-4.0785]</t>
-  </si>
-  <si>
-    <t>[4.0785-4.0897]</t>
-  </si>
-  <si>
-    <t>[4.0897-4.101]</t>
-  </si>
-  <si>
-    <t>[4.101-4.1123]</t>
-  </si>
-  <si>
-    <t>[4.1123-4.1236]</t>
-  </si>
-  <si>
-    <t>[4.1236-4.1348]</t>
-  </si>
-  <si>
-    <t>[4.1348-4.1461]</t>
-  </si>
-  <si>
-    <t>[4.1461-4.1574]</t>
-  </si>
-  <si>
-    <t>[4.0311-4.0398]</t>
-  </si>
-  <si>
-    <t>[4.0398-4.0486]</t>
-  </si>
-  <si>
-    <t>[4.0486-4.0573]</t>
-  </si>
-  <si>
-    <t>[4.0573-4.066]</t>
-  </si>
-  <si>
-    <t>[4.066-4.0747]</t>
-  </si>
-  <si>
-    <t>[4.0747-4.0834]</t>
-  </si>
-  <si>
-    <t>[4.0834-4.0922]</t>
-  </si>
-  <si>
-    <t>[4.0922-4.1009]</t>
-  </si>
-  <si>
-    <t>[4.1009-4.1096]</t>
-  </si>
-  <si>
-    <t>[4.1096-4.1183]</t>
-  </si>
-  <si>
-    <t>[4.1183-4.127]</t>
-  </si>
-  <si>
-    <t>[4.127-4.1358]</t>
-  </si>
-  <si>
-    <t>[4.1358-4.1445]</t>
-  </si>
-  <si>
-    <t>[4.1445-4.1532]</t>
-  </si>
-  <si>
-    <t>[4.0271-4.0352]</t>
-  </si>
-  <si>
-    <t>[4.0352-4.0433]</t>
-  </si>
-  <si>
-    <t>[4.0433-4.0513]</t>
-  </si>
-  <si>
-    <t>[4.0513-4.0594]</t>
-  </si>
-  <si>
-    <t>[4.0594-4.0674]</t>
-  </si>
-  <si>
-    <t>[4.0674-4.0755]</t>
-  </si>
-  <si>
-    <t>[4.0755-4.0836]</t>
-  </si>
-  <si>
-    <t>[4.0836-4.0916]</t>
-  </si>
-  <si>
-    <t>[4.0916-4.0997]</t>
-  </si>
-  <si>
-    <t>[4.0997-4.1077]</t>
-  </si>
-  <si>
-    <t>[4.1077-4.1158]</t>
-  </si>
-  <si>
-    <t>[4.1158-4.1239]</t>
-  </si>
-  <si>
-    <t>[4.1239-4.1319]</t>
-  </si>
-  <si>
-    <t>[4.1319-4.14]</t>
-  </si>
-  <si>
-    <t>[8.523-8.582]</t>
-  </si>
-  <si>
-    <t>[8.582-8.641]</t>
-  </si>
-  <si>
-    <t>[8.641-8.7]</t>
-  </si>
-  <si>
-    <t>[8.7-8.759]</t>
-  </si>
-  <si>
-    <t>[8.759-8.818]</t>
-  </si>
-  <si>
-    <t>[8.818-8.877]</t>
-  </si>
-  <si>
-    <t>[8.877-8.936]</t>
-  </si>
-  <si>
-    <t>[8.936-8.995]</t>
-  </si>
-  <si>
-    <t>[8.995-9.054]</t>
-  </si>
-  <si>
-    <t>[9.054-9.113]</t>
-  </si>
-  <si>
-    <t>[9.113-9.172]</t>
-  </si>
-  <si>
-    <t>[9.172-9.231]</t>
-  </si>
-  <si>
-    <t>[9.231-9.289]</t>
-  </si>
-  <si>
-    <t>[9.289-9.348]</t>
-  </si>
-  <si>
-    <t>[8.541-8.586]</t>
-  </si>
-  <si>
-    <t>[8.586-8.631]</t>
-  </si>
-  <si>
-    <t>[8.631-8.676]</t>
-  </si>
-  <si>
-    <t>[8.676-8.721]</t>
-  </si>
-  <si>
-    <t>[8.721-8.766]</t>
-  </si>
-  <si>
-    <t>[8.766-8.811]</t>
-  </si>
-  <si>
-    <t>[8.811-8.856]</t>
-  </si>
-  <si>
-    <t>[8.856-8.901]</t>
-  </si>
-  <si>
-    <t>[8.901-8.946]</t>
-  </si>
-  <si>
-    <t>[8.946-8.991]</t>
-  </si>
-  <si>
-    <t>[8.991-9.037]</t>
-  </si>
-  <si>
-    <t>[9.037-9.082]</t>
-  </si>
-  <si>
-    <t>[9.082-9.127]</t>
-  </si>
-  <si>
-    <t>[9.127-9.172]</t>
-  </si>
-  <si>
-    <t>[8.609-8.651]</t>
-  </si>
-  <si>
-    <t>[8.651-8.693]</t>
-  </si>
-  <si>
-    <t>[8.693-8.735]</t>
-  </si>
-  <si>
-    <t>[8.735-8.776]</t>
-  </si>
-  <si>
-    <t>[8.776-8.818]</t>
-  </si>
-  <si>
-    <t>[8.818-8.86]</t>
-  </si>
-  <si>
-    <t>[8.86-8.902]</t>
-  </si>
-  <si>
-    <t>[8.902-8.943]</t>
-  </si>
-  <si>
-    <t>[8.943-8.985]</t>
-  </si>
-  <si>
-    <t>[8.985-9.027]</t>
-  </si>
-  <si>
-    <t>[9.027-9.069]</t>
-  </si>
-  <si>
-    <t>[9.069-9.11]</t>
-  </si>
-  <si>
-    <t>[9.11-9.152]</t>
-  </si>
-  <si>
-    <t>[9.152-9.194]</t>
-  </si>
-  <si>
-    <t>[0.8268-0.828]</t>
-  </si>
-  <si>
-    <t>[0.828-0.8291]</t>
-  </si>
-  <si>
-    <t>[0.8291-0.8302]</t>
-  </si>
-  <si>
-    <t>[0.8302-0.8313]</t>
-  </si>
-  <si>
-    <t>[0.8313-0.8325]</t>
-  </si>
-  <si>
-    <t>[0.8325-0.8336]</t>
-  </si>
-  <si>
-    <t>[0.8336-0.8347]</t>
-  </si>
-  <si>
-    <t>[0.8347-0.8359]</t>
-  </si>
-  <si>
-    <t>[0.8359-0.837]</t>
-  </si>
-  <si>
-    <t>[0.837-0.8381]</t>
-  </si>
-  <si>
-    <t>[0.8381-0.8392]</t>
-  </si>
-  <si>
-    <t>[0.8392-0.8404]</t>
-  </si>
-  <si>
-    <t>[0.8404-0.8415]</t>
-  </si>
-  <si>
-    <t>[0.8415-0.8426]</t>
-  </si>
-  <si>
-    <t>[0.8286-0.8296]</t>
-  </si>
-  <si>
-    <t>[0.8296-0.8306]</t>
-  </si>
-  <si>
-    <t>[0.8306-0.8316]</t>
-  </si>
-  <si>
-    <t>[0.8316-0.8326]</t>
-  </si>
-  <si>
-    <t>[0.8326-0.8336]</t>
-  </si>
-  <si>
-    <t>[0.8336-0.8346]</t>
-  </si>
-  <si>
-    <t>[0.8346-0.8356]</t>
-  </si>
-  <si>
-    <t>[0.8356-0.8366]</t>
+    <t>[24.0-24.0]</t>
+  </si>
+  <si>
+    <t>[26.0-26.0]</t>
+  </si>
+  <si>
+    <t>[27.0-27.0]</t>
+  </si>
+  <si>
+    <t>[29.0-29.0]</t>
+  </si>
+  <si>
+    <t>[3.8214-3.8416]</t>
+  </si>
+  <si>
+    <t>[3.8416-3.8618]</t>
+  </si>
+  <si>
+    <t>[3.8618-3.882]</t>
+  </si>
+  <si>
+    <t>[3.882-3.9022]</t>
+  </si>
+  <si>
+    <t>[3.9022-3.9225]</t>
+  </si>
+  <si>
+    <t>[3.9225-3.9427]</t>
+  </si>
+  <si>
+    <t>[3.9427-3.9629]</t>
+  </si>
+  <si>
+    <t>[3.9629-3.9831]</t>
+  </si>
+  <si>
+    <t>[3.9831-4.0033]</t>
+  </si>
+  <si>
+    <t>[4.0033-4.0235]</t>
+  </si>
+  <si>
+    <t>[4.0235-4.0438]</t>
+  </si>
+  <si>
+    <t>[4.0438-4.064]</t>
+  </si>
+  <si>
+    <t>[4.064-4.0842]</t>
+  </si>
+  <si>
+    <t>[4.0842-4.1044]</t>
+  </si>
+  <si>
+    <t>[3.8247-3.8381]</t>
+  </si>
+  <si>
+    <t>[3.8381-3.8515]</t>
+  </si>
+  <si>
+    <t>[3.8515-3.865]</t>
+  </si>
+  <si>
+    <t>[3.865-3.8784]</t>
+  </si>
+  <si>
+    <t>[3.8784-3.8918]</t>
+  </si>
+  <si>
+    <t>[3.8918-3.9052]</t>
+  </si>
+  <si>
+    <t>[3.9052-3.9187]</t>
+  </si>
+  <si>
+    <t>[3.9187-3.9321]</t>
+  </si>
+  <si>
+    <t>[3.9321-3.9455]</t>
+  </si>
+  <si>
+    <t>[3.9455-3.959]</t>
+  </si>
+  <si>
+    <t>[3.959-3.9724]</t>
+  </si>
+  <si>
+    <t>[3.9724-3.9858]</t>
+  </si>
+  <si>
+    <t>[3.9858-3.9993]</t>
+  </si>
+  <si>
+    <t>[3.9993-4.0127]</t>
+  </si>
+  <si>
+    <t>[3.8941-3.9091]</t>
+  </si>
+  <si>
+    <t>[3.9091-3.9242]</t>
+  </si>
+  <si>
+    <t>[3.9242-3.9392]</t>
+  </si>
+  <si>
+    <t>[3.9392-3.9542]</t>
+  </si>
+  <si>
+    <t>[3.9542-3.9692]</t>
+  </si>
+  <si>
+    <t>[3.9692-3.9842]</t>
+  </si>
+  <si>
+    <t>[3.9842-3.9993]</t>
+  </si>
+  <si>
+    <t>[3.9993-4.0143]</t>
+  </si>
+  <si>
+    <t>[4.0143-4.0293]</t>
+  </si>
+  <si>
+    <t>[4.0293-4.0443]</t>
+  </si>
+  <si>
+    <t>[4.0443-4.0594]</t>
+  </si>
+  <si>
+    <t>[4.0594-4.0744]</t>
+  </si>
+  <si>
+    <t>[4.0744-4.0894]</t>
+  </si>
+  <si>
+    <t>[4.0894-4.1044]</t>
+  </si>
+  <si>
+    <t>[3.8214-3.8297]</t>
+  </si>
+  <si>
+    <t>[3.8297-3.838]</t>
+  </si>
+  <si>
+    <t>[3.838-3.8463]</t>
+  </si>
+  <si>
+    <t>[3.8463-3.8547]</t>
+  </si>
+  <si>
+    <t>[3.8547-3.863]</t>
+  </si>
+  <si>
+    <t>[3.863-3.8713]</t>
+  </si>
+  <si>
+    <t>[3.8713-3.8796]</t>
+  </si>
+  <si>
+    <t>[3.8796-3.8879]</t>
+  </si>
+  <si>
+    <t>[3.8879-3.8962]</t>
+  </si>
+  <si>
+    <t>[3.8962-3.9046]</t>
+  </si>
+  <si>
+    <t>[3.9046-3.9129]</t>
+  </si>
+  <si>
+    <t>[3.9129-3.9212]</t>
+  </si>
+  <si>
+    <t>[3.9212-3.9295]</t>
+  </si>
+  <si>
+    <t>[3.9295-3.9378]</t>
+  </si>
+  <si>
+    <t>[9.894-10.013]</t>
+  </si>
+  <si>
+    <t>[10.013-10.132]</t>
+  </si>
+  <si>
+    <t>[10.132-10.251]</t>
+  </si>
+  <si>
+    <t>[10.251-10.371]</t>
+  </si>
+  <si>
+    <t>[10.371-10.49]</t>
+  </si>
+  <si>
+    <t>[10.49-10.609]</t>
+  </si>
+  <si>
+    <t>[10.609-10.728]</t>
+  </si>
+  <si>
+    <t>[10.728-10.848]</t>
+  </si>
+  <si>
+    <t>[10.848-10.967]</t>
+  </si>
+  <si>
+    <t>[10.967-11.086]</t>
+  </si>
+  <si>
+    <t>[11.086-11.205]</t>
+  </si>
+  <si>
+    <t>[11.205-11.325]</t>
+  </si>
+  <si>
+    <t>[11.325-11.444]</t>
+  </si>
+  <si>
+    <t>[11.444-11.563]</t>
+  </si>
+  <si>
+    <t>[10.442-10.521]</t>
+  </si>
+  <si>
+    <t>[10.521-10.601]</t>
+  </si>
+  <si>
+    <t>[10.601-10.681]</t>
+  </si>
+  <si>
+    <t>[10.681-10.761]</t>
+  </si>
+  <si>
+    <t>[10.761-10.84]</t>
+  </si>
+  <si>
+    <t>[10.84-10.92]</t>
+  </si>
+  <si>
+    <t>[10.92-11.0]</t>
+  </si>
+  <si>
+    <t>[11.0-11.079]</t>
+  </si>
+  <si>
+    <t>[11.079-11.159]</t>
+  </si>
+  <si>
+    <t>[11.159-11.239]</t>
+  </si>
+  <si>
+    <t>[11.239-11.319]</t>
+  </si>
+  <si>
+    <t>[11.319-11.398]</t>
+  </si>
+  <si>
+    <t>[11.398-11.478]</t>
+  </si>
+  <si>
+    <t>[11.478-11.558]</t>
+  </si>
+  <si>
+    <t>[9.894-9.983]</t>
+  </si>
+  <si>
+    <t>[9.983-10.072]</t>
+  </si>
+  <si>
+    <t>[10.072-10.162]</t>
+  </si>
+  <si>
+    <t>[10.162-10.251]</t>
+  </si>
+  <si>
+    <t>[10.251-10.34]</t>
+  </si>
+  <si>
+    <t>[10.34-10.429]</t>
+  </si>
+  <si>
+    <t>[10.429-10.519]</t>
+  </si>
+  <si>
+    <t>[10.519-10.608]</t>
+  </si>
+  <si>
+    <t>[10.608-10.697]</t>
+  </si>
+  <si>
+    <t>[10.697-10.787]</t>
+  </si>
+  <si>
+    <t>[10.787-10.876]</t>
+  </si>
+  <si>
+    <t>[10.876-10.965]</t>
+  </si>
+  <si>
+    <t>[10.965-11.055]</t>
+  </si>
+  <si>
+    <t>[11.055-11.144]</t>
+  </si>
+  <si>
+    <t>[10.906-10.953]</t>
+  </si>
+  <si>
+    <t>[10.953-11.0]</t>
+  </si>
+  <si>
+    <t>[11.0-11.047]</t>
+  </si>
+  <si>
+    <t>[11.047-11.094]</t>
+  </si>
+  <si>
+    <t>[11.094-11.141]</t>
+  </si>
+  <si>
+    <t>[11.141-11.188]</t>
+  </si>
+  <si>
+    <t>[11.188-11.235]</t>
+  </si>
+  <si>
+    <t>[11.235-11.282]</t>
+  </si>
+  <si>
+    <t>[11.282-11.329]</t>
+  </si>
+  <si>
+    <t>[11.329-11.376]</t>
+  </si>
+  <si>
+    <t>[11.376-11.422]</t>
+  </si>
+  <si>
+    <t>[11.422-11.469]</t>
+  </si>
+  <si>
+    <t>[11.469-11.516]</t>
+  </si>
+  <si>
+    <t>[11.516-11.563]</t>
+  </si>
+  <si>
+    <t>[0.8352-0.8363]</t>
+  </si>
+  <si>
+    <t>[0.8363-0.8374]</t>
+  </si>
+  <si>
+    <t>[0.8374-0.8385]</t>
+  </si>
+  <si>
+    <t>[0.8385-0.8395]</t>
+  </si>
+  <si>
+    <t>[0.8395-0.8406]</t>
+  </si>
+  <si>
+    <t>[0.8406-0.8417]</t>
+  </si>
+  <si>
+    <t>[0.8417-0.8428]</t>
+  </si>
+  <si>
+    <t>[0.8428-0.8439]</t>
+  </si>
+  <si>
+    <t>[0.8439-0.845]</t>
+  </si>
+  <si>
+    <t>[0.845-0.8461]</t>
+  </si>
+  <si>
+    <t>[0.8461-0.8472]</t>
+  </si>
+  <si>
+    <t>[0.8472-0.8483]</t>
+  </si>
+  <si>
+    <t>[0.8483-0.8494]</t>
+  </si>
+  <si>
+    <t>[0.8494-0.8505]</t>
+  </si>
+  <si>
+    <t>[0.8387-0.8393]</t>
+  </si>
+  <si>
+    <t>[0.8393-0.8399]</t>
+  </si>
+  <si>
+    <t>[0.8399-0.8406]</t>
+  </si>
+  <si>
+    <t>[0.8406-0.8412]</t>
+  </si>
+  <si>
+    <t>[0.8412-0.8418]</t>
+  </si>
+  <si>
+    <t>[0.8418-0.8424]</t>
+  </si>
+  <si>
+    <t>[0.8424-0.8431]</t>
+  </si>
+  <si>
+    <t>[0.8431-0.8437]</t>
+  </si>
+  <si>
+    <t>[0.8437-0.8443]</t>
+  </si>
+  <si>
+    <t>[0.8443-0.8449]</t>
+  </si>
+  <si>
+    <t>[0.8449-0.8456]</t>
+  </si>
+  <si>
+    <t>[0.8456-0.8462]</t>
+  </si>
+  <si>
+    <t>[0.8462-0.8468]</t>
+  </si>
+  <si>
+    <t>[0.8468-0.8475]</t>
+  </si>
+  <si>
+    <t>[0.8352-0.8361]</t>
+  </si>
+  <si>
+    <t>[0.8361-0.8369]</t>
+  </si>
+  <si>
+    <t>[0.8369-0.8378]</t>
+  </si>
+  <si>
+    <t>[0.8378-0.8387]</t>
+  </si>
+  <si>
+    <t>[0.8387-0.8396]</t>
+  </si>
+  <si>
+    <t>[0.8396-0.8405]</t>
+  </si>
+  <si>
+    <t>[0.8405-0.8414]</t>
+  </si>
+  <si>
+    <t>[0.8414-0.8423]</t>
+  </si>
+  <si>
+    <t>[0.8423-0.8432]</t>
+  </si>
+  <si>
+    <t>[0.8432-0.844]</t>
+  </si>
+  <si>
+    <t>[0.844-0.8449]</t>
+  </si>
+  <si>
+    <t>[0.8449-0.8458]</t>
+  </si>
+  <si>
+    <t>[0.8458-0.8467]</t>
+  </si>
+  <si>
+    <t>[0.8467-0.8476]</t>
   </si>
   <si>
     <t>[0.8366-0.8376]</t>
@@ -418,88 +568,28 @@
     <t>[0.8416-0.8426]</t>
   </si>
   <si>
-    <t>[0.8282-0.8292]</t>
-  </si>
-  <si>
-    <t>[0.8292-0.8302]</t>
-  </si>
-  <si>
-    <t>[0.8302-0.8312]</t>
-  </si>
-  <si>
-    <t>[0.8312-0.8322]</t>
-  </si>
-  <si>
-    <t>[0.8322-0.8332]</t>
-  </si>
-  <si>
-    <t>[0.8332-0.8342]</t>
-  </si>
-  <si>
-    <t>[0.8342-0.8351]</t>
-  </si>
-  <si>
-    <t>[0.8351-0.8361]</t>
-  </si>
-  <si>
-    <t>[0.8361-0.8371]</t>
-  </si>
-  <si>
-    <t>[0.8371-0.8381]</t>
-  </si>
-  <si>
-    <t>[0.8381-0.8391]</t>
-  </si>
-  <si>
-    <t>[0.8391-0.8401]</t>
-  </si>
-  <si>
-    <t>[0.8401-0.8411]</t>
-  </si>
-  <si>
-    <t>[0.8411-0.8421]</t>
-  </si>
-  <si>
-    <t>[0.8268-0.8279]</t>
-  </si>
-  <si>
-    <t>[0.8279-0.829]</t>
-  </si>
-  <si>
-    <t>[0.829-0.8301]</t>
-  </si>
-  <si>
-    <t>[0.8301-0.8311]</t>
-  </si>
-  <si>
-    <t>[0.8311-0.8322]</t>
-  </si>
-  <si>
-    <t>[0.8322-0.8333]</t>
-  </si>
-  <si>
-    <t>[0.8333-0.8344]</t>
-  </si>
-  <si>
-    <t>[0.8344-0.8354]</t>
-  </si>
-  <si>
-    <t>[0.8354-0.8365]</t>
-  </si>
-  <si>
-    <t>[0.8365-0.8376]</t>
-  </si>
-  <si>
-    <t>[0.8376-0.8387]</t>
-  </si>
-  <si>
-    <t>[0.8387-0.8397]</t>
-  </si>
-  <si>
-    <t>[0.8397-0.8408]</t>
-  </si>
-  <si>
-    <t>[0.8408-0.8419]</t>
+    <t>[0.8426-0.8435]</t>
+  </si>
+  <si>
+    <t>[0.8435-0.8445]</t>
+  </si>
+  <si>
+    <t>[0.8445-0.8455]</t>
+  </si>
+  <si>
+    <t>[0.8455-0.8465]</t>
+  </si>
+  <si>
+    <t>[0.8465-0.8475]</t>
+  </si>
+  <si>
+    <t>[0.8475-0.8485]</t>
+  </si>
+  <si>
+    <t>[0.8485-0.8495]</t>
+  </si>
+  <si>
+    <t>[0.8495-0.8505]</t>
   </si>
 </sst>
 </file>
@@ -604,46 +694,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>[24.0-25.0]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[25.0-25.0]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[25.0-26.0]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[26.0-27.0]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[27.0-28.0]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[28.0-28.0]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[28.0-29.0]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[29.0-30.0]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[30.0-30.0]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30.0-31.0]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[31.0-32.0]</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>[32.0-33.0]</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="12">
+                  <c:v>[33.0-33.0]</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>[33.0-34.0]</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>[34.0-35.0]</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>[35.0-36.0]</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>[36.0-37.0]</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>[37.0-38.0]</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>[38.0-38.0]</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>[38.0-39.0]</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>[39.0-40.0]</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>[40.0-41.0]</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>[41.0-42.0]</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>[42.0-43.0]</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>[43.0-44.0]</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>[44.0-45.0]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -658,43 +748,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>72</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -821,46 +911,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[8.541-8.586]</c:v>
+                  <c:v>[10.442-10.521]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[8.586-8.631]</c:v>
+                  <c:v>[10.521-10.601]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[8.631-8.676]</c:v>
+                  <c:v>[10.601-10.681]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[8.676-8.721]</c:v>
+                  <c:v>[10.681-10.761]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[8.721-8.766]</c:v>
+                  <c:v>[10.761-10.84]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[8.766-8.811]</c:v>
+                  <c:v>[10.84-10.92]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[8.811-8.856]</c:v>
+                  <c:v>[10.92-11.0]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[8.856-8.901]</c:v>
+                  <c:v>[11.0-11.079]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[8.901-8.946]</c:v>
+                  <c:v>[11.079-11.159]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[8.946-8.991]</c:v>
+                  <c:v>[11.159-11.239]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[8.991-9.037]</c:v>
+                  <c:v>[11.239-11.319]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[9.037-9.082]</c:v>
+                  <c:v>[11.319-11.398]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[9.082-9.127]</c:v>
+                  <c:v>[11.398-11.478]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[9.127-9.172]</c:v>
+                  <c:v>[11.478-11.558]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -872,46 +962,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -937,7 +1027,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Equity Yield</a:t>
+                  <a:t>Equity Yield (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1048,46 +1138,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[8.523-8.582]</c:v>
+                  <c:v>[9.894-9.983]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[8.582-8.641]</c:v>
+                  <c:v>[9.983-10.072]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[8.641-8.7]</c:v>
+                  <c:v>[10.072-10.162]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[8.7-8.759]</c:v>
+                  <c:v>[10.162-10.251]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[8.759-8.818]</c:v>
+                  <c:v>[10.251-10.34]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[8.818-8.877]</c:v>
+                  <c:v>[10.34-10.429]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[8.877-8.936]</c:v>
+                  <c:v>[10.429-10.519]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[8.936-8.995]</c:v>
+                  <c:v>[10.519-10.608]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[8.995-9.054]</c:v>
+                  <c:v>[10.608-10.697]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[9.054-9.113]</c:v>
+                  <c:v>[10.697-10.787]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[9.113-9.172]</c:v>
+                  <c:v>[10.787-10.876]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[9.172-9.231]</c:v>
+                  <c:v>[10.876-10.965]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[9.231-9.289]</c:v>
+                  <c:v>[10.965-11.055]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[9.289-9.348]</c:v>
+                  <c:v>[11.055-11.144]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1102,31 +1192,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
@@ -1164,7 +1254,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Equity Yield</a:t>
+                  <a:t>Equity Yield (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1275,46 +1365,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[8.609-8.651]</c:v>
+                  <c:v>[10.906-10.953]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[8.651-8.693]</c:v>
+                  <c:v>[10.953-11.0]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[8.693-8.735]</c:v>
+                  <c:v>[11.0-11.047]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[8.735-8.776]</c:v>
+                  <c:v>[11.047-11.094]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[8.776-8.818]</c:v>
+                  <c:v>[11.094-11.141]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[8.818-8.86]</c:v>
+                  <c:v>[11.141-11.188]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[8.86-8.902]</c:v>
+                  <c:v>[11.188-11.235]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[8.902-8.943]</c:v>
+                  <c:v>[11.235-11.282]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[8.943-8.985]</c:v>
+                  <c:v>[11.282-11.329]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[8.985-9.027]</c:v>
+                  <c:v>[11.329-11.376]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[9.027-9.069]</c:v>
+                  <c:v>[11.376-11.422]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[9.069-9.11]</c:v>
+                  <c:v>[11.422-11.469]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[9.11-9.152]</c:v>
+                  <c:v>[11.469-11.516]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[9.152-9.194]</c:v>
+                  <c:v>[11.516-11.563]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1329,37 +1419,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
@@ -1391,7 +1481,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Equity Yield</a:t>
+                  <a:t>Equity Yield (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1502,46 +1592,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[0.8268-0.828]</c:v>
+                  <c:v>[0.8352-0.8363]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[0.828-0.8291]</c:v>
+                  <c:v>[0.8363-0.8374]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[0.8291-0.8302]</c:v>
+                  <c:v>[0.8374-0.8385]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[0.8302-0.8313]</c:v>
+                  <c:v>[0.8385-0.8395]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[0.8313-0.8325]</c:v>
+                  <c:v>[0.8395-0.8406]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[0.8325-0.8336]</c:v>
+                  <c:v>[0.8406-0.8417]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[0.8336-0.8347]</c:v>
+                  <c:v>[0.8417-0.8428]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[0.8347-0.8359]</c:v>
+                  <c:v>[0.8428-0.8439]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[0.8359-0.837]</c:v>
+                  <c:v>[0.8439-0.845]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[0.837-0.8381]</c:v>
+                  <c:v>[0.845-0.8461]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[0.8381-0.8392]</c:v>
+                  <c:v>[0.8461-0.8472]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[0.8392-0.8404]</c:v>
+                  <c:v>[0.8472-0.8483]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[0.8404-0.8415]</c:v>
+                  <c:v>[0.8483-0.8494]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[0.8415-0.8426]</c:v>
+                  <c:v>[0.8494-0.8505]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1556,43 +1646,43 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>60</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>45</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1618,7 +1708,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>WA Adv Rate</a:t>
+                  <a:t>WA Adv Rate (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1729,46 +1819,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[0.8286-0.8296]</c:v>
+                  <c:v>[0.8387-0.8393]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[0.8296-0.8306]</c:v>
+                  <c:v>[0.8393-0.8399]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[0.8306-0.8316]</c:v>
+                  <c:v>[0.8399-0.8406]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[0.8316-0.8326]</c:v>
+                  <c:v>[0.8406-0.8412]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[0.8326-0.8336]</c:v>
+                  <c:v>[0.8412-0.8418]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[0.8336-0.8346]</c:v>
+                  <c:v>[0.8418-0.8424]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[0.8346-0.8356]</c:v>
+                  <c:v>[0.8424-0.8431]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[0.8356-0.8366]</c:v>
+                  <c:v>[0.8431-0.8437]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[0.8366-0.8376]</c:v>
+                  <c:v>[0.8437-0.8443]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[0.8376-0.8386]</c:v>
+                  <c:v>[0.8443-0.8449]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[0.8386-0.8396]</c:v>
+                  <c:v>[0.8449-0.8456]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[0.8396-0.8406]</c:v>
+                  <c:v>[0.8456-0.8462]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[0.8406-0.8416]</c:v>
+                  <c:v>[0.8462-0.8468]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[0.8416-0.8426]</c:v>
+                  <c:v>[0.8468-0.8475]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1783,40 +1873,40 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -1845,7 +1935,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>WA Adv Rate</a:t>
+                  <a:t>WA Adv Rate (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1956,46 +2046,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[0.8282-0.8292]</c:v>
+                  <c:v>[0.8352-0.8361]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[0.8292-0.8302]</c:v>
+                  <c:v>[0.8361-0.8369]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[0.8302-0.8312]</c:v>
+                  <c:v>[0.8369-0.8378]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[0.8312-0.8322]</c:v>
+                  <c:v>[0.8378-0.8387]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[0.8322-0.8332]</c:v>
+                  <c:v>[0.8387-0.8396]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[0.8332-0.8342]</c:v>
+                  <c:v>[0.8396-0.8405]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[0.8342-0.8351]</c:v>
+                  <c:v>[0.8405-0.8414]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[0.8351-0.8361]</c:v>
+                  <c:v>[0.8414-0.8423]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[0.8361-0.8371]</c:v>
+                  <c:v>[0.8423-0.8432]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[0.8371-0.8381]</c:v>
+                  <c:v>[0.8432-0.844]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[0.8381-0.8391]</c:v>
+                  <c:v>[0.844-0.8449]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[0.8391-0.8401]</c:v>
+                  <c:v>[0.8449-0.8458]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[0.8401-0.8411]</c:v>
+                  <c:v>[0.8458-0.8467]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[0.8411-0.8421]</c:v>
+                  <c:v>[0.8467-0.8476]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2007,46 +2097,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2072,7 +2162,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>WA Adv Rate</a:t>
+                  <a:t>WA Adv Rate (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2183,46 +2273,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[0.8268-0.8279]</c:v>
+                  <c:v>[0.8366-0.8376]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[0.8279-0.829]</c:v>
+                  <c:v>[0.8376-0.8386]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[0.829-0.8301]</c:v>
+                  <c:v>[0.8386-0.8396]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[0.8301-0.8311]</c:v>
+                  <c:v>[0.8396-0.8406]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[0.8311-0.8322]</c:v>
+                  <c:v>[0.8406-0.8416]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[0.8322-0.8333]</c:v>
+                  <c:v>[0.8416-0.8426]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[0.8333-0.8344]</c:v>
+                  <c:v>[0.8426-0.8435]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[0.8344-0.8354]</c:v>
+                  <c:v>[0.8435-0.8445]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[0.8354-0.8365]</c:v>
+                  <c:v>[0.8445-0.8455]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[0.8365-0.8376]</c:v>
+                  <c:v>[0.8455-0.8465]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[0.8376-0.8387]</c:v>
+                  <c:v>[0.8465-0.8475]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[0.8387-0.8397]</c:v>
+                  <c:v>[0.8475-0.8485]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[0.8397-0.8408]</c:v>
+                  <c:v>[0.8485-0.8495]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[0.8408-0.8419]</c:v>
+                  <c:v>[0.8495-0.8505]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2240,40 +2330,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2299,7 +2389,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>WA Adv Rate</a:t>
+                  <a:t>WA Adv Rate (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2410,46 +2500,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[33.0-34.0]</c:v>
+                  <c:v>[24.0-24.0]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[34.0-35.0]</c:v>
+                  <c:v>[24.0-25.0]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[35.0-36.0]</c:v>
+                  <c:v>[25.0-26.0]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[36.0-36.0]</c:v>
+                  <c:v>[26.0-26.0]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[36.0-37.0]</c:v>
+                  <c:v>[26.0-26.0]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[37.0-38.0]</c:v>
+                  <c:v>[26.0-27.0]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[38.0-39.0]</c:v>
+                  <c:v>[27.0-28.0]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[39.0-40.0]</c:v>
+                  <c:v>[28.0-28.0]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[40.0-41.0]</c:v>
+                  <c:v>[28.0-28.0]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[41.0-42.0]</c:v>
+                  <c:v>[28.0-29.0]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[42.0-42.0]</c:v>
+                  <c:v>[29.0-30.0]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[42.0-43.0]</c:v>
+                  <c:v>[30.0-30.0]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[43.0-44.0]</c:v>
+                  <c:v>[30.0-30.0]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[44.0-45.0]</c:v>
+                  <c:v>[30.0-31.0]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2464,40 +2554,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -2627,46 +2717,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[32.0-33.0]</c:v>
+                  <c:v>[24.0-24.0]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[33.0-34.0]</c:v>
+                  <c:v>[24.0-25.0]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[34.0-35.0]</c:v>
+                  <c:v>[25.0-25.0]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[35.0-36.0]</c:v>
+                  <c:v>[25.0-25.0]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[36.0-37.0]</c:v>
+                  <c:v>[25.0-26.0]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[37.0-38.0]</c:v>
+                  <c:v>[26.0-26.0]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[38.0-38.0]</c:v>
+                  <c:v>[26.0-26.0]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[38.0-39.0]</c:v>
+                  <c:v>[26.0-27.0]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[39.0-40.0]</c:v>
+                  <c:v>[27.0-27.0]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[40.0-41.0]</c:v>
+                  <c:v>[27.0-28.0]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[41.0-42.0]</c:v>
+                  <c:v>[28.0-28.0]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[42.0-43.0]</c:v>
+                  <c:v>[28.0-28.0]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[43.0-44.0]</c:v>
+                  <c:v>[28.0-29.0]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[44.0-45.0]</c:v>
+                  <c:v>[29.0-29.0]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2681,28 +2771,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
@@ -2711,13 +2801,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2844,46 +2934,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>[24.0-25.0]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[25.0-25.0]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[25.0-26.0]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[26.0-27.0]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[27.0-28.0]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[28.0-28.0]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[28.0-29.0]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[29.0-30.0]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[30.0-30.0]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30.0-31.0]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[31.0-32.0]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>[32.0-33.0]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>[33.0-33.0]</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>[33.0-34.0]</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>[34.0-35.0]</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>[35.0-36.0]</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>[36.0-36.0]</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>[36.0-37.0]</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>[37.0-38.0]</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>[38.0-39.0]</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>[39.0-40.0]</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>[40.0-41.0]</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>[41.0-42.0]</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>[42.0-42.0]</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>[42.0-43.0]</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>[43.0-44.0]</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>[44.0-45.0]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2898,31 +2988,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2931,7 +3021,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -3061,46 +3151,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.9995-4.0108]</c:v>
+                  <c:v>[3.8214-3.8416]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[4.0108-4.0221]</c:v>
+                  <c:v>[3.8416-3.8618]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[4.0221-4.0334]</c:v>
+                  <c:v>[3.8618-3.882]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[4.0334-4.0446]</c:v>
+                  <c:v>[3.882-3.9022]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[4.0446-4.0559]</c:v>
+                  <c:v>[3.9022-3.9225]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[4.0559-4.0672]</c:v>
+                  <c:v>[3.9225-3.9427]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[4.0672-4.0785]</c:v>
+                  <c:v>[3.9427-3.9629]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[4.0785-4.0897]</c:v>
+                  <c:v>[3.9629-3.9831]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[4.0897-4.101]</c:v>
+                  <c:v>[3.9831-4.0033]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[4.101-4.1123]</c:v>
+                  <c:v>[4.0033-4.0235]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[4.1123-4.1236]</c:v>
+                  <c:v>[4.0235-4.0438]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[4.1236-4.1348]</c:v>
+                  <c:v>[4.0438-4.064]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.1348-4.1461]</c:v>
+                  <c:v>[4.064-4.0842]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.1461-4.1574]</c:v>
+                  <c:v>[4.0842-4.1044]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3112,43 +3202,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>66</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>57</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -3177,7 +3267,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Weighted Average Cost of Fund</a:t>
+                  <a:t>Weighted Average Cost of Fund (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3288,46 +3378,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[4.0311-4.0398]</c:v>
+                  <c:v>[3.8247-3.8381]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[4.0398-4.0486]</c:v>
+                  <c:v>[3.8381-3.8515]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[4.0486-4.0573]</c:v>
+                  <c:v>[3.8515-3.865]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[4.0573-4.066]</c:v>
+                  <c:v>[3.865-3.8784]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[4.066-4.0747]</c:v>
+                  <c:v>[3.8784-3.8918]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[4.0747-4.0834]</c:v>
+                  <c:v>[3.8918-3.9052]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[4.0834-4.0922]</c:v>
+                  <c:v>[3.9052-3.9187]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[4.0922-4.1009]</c:v>
+                  <c:v>[3.9187-3.9321]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[4.1009-4.1096]</c:v>
+                  <c:v>[3.9321-3.9455]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[4.1096-4.1183]</c:v>
+                  <c:v>[3.9455-3.959]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[4.1183-4.127]</c:v>
+                  <c:v>[3.959-3.9724]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[4.127-4.1358]</c:v>
+                  <c:v>[3.9724-3.9858]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.1358-4.1445]</c:v>
+                  <c:v>[3.9858-3.9993]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.1445-4.1532]</c:v>
+                  <c:v>[3.9993-4.0127]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3339,46 +3429,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3404,7 +3494,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Weighted Average Cost of Fund</a:t>
+                  <a:t>Weighted Average Cost of Fund (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3515,46 +3605,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.9995-4.0108]</c:v>
+                  <c:v>[3.8941-3.9091]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[4.0108-4.0221]</c:v>
+                  <c:v>[3.9091-3.9242]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[4.0221-4.0334]</c:v>
+                  <c:v>[3.9242-3.9392]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[4.0334-4.0446]</c:v>
+                  <c:v>[3.9392-3.9542]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[4.0446-4.0559]</c:v>
+                  <c:v>[3.9542-3.9692]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[4.0559-4.0672]</c:v>
+                  <c:v>[3.9692-3.9842]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[4.0672-4.0785]</c:v>
+                  <c:v>[3.9842-3.9993]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[4.0785-4.0897]</c:v>
+                  <c:v>[3.9993-4.0143]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[4.0897-4.101]</c:v>
+                  <c:v>[4.0143-4.0293]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[4.101-4.1123]</c:v>
+                  <c:v>[4.0293-4.0443]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[4.1123-4.1236]</c:v>
+                  <c:v>[4.0443-4.0594]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[4.1236-4.1348]</c:v>
+                  <c:v>[4.0594-4.0744]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.1348-4.1461]</c:v>
+                  <c:v>[4.0744-4.0894]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.1461-4.1574]</c:v>
+                  <c:v>[4.0894-4.1044]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3578,31 +3668,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -3631,7 +3721,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Weighted Average Cost of Fund</a:t>
+                  <a:t>Weighted Average Cost of Fund (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3742,46 +3832,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[4.0271-4.0352]</c:v>
+                  <c:v>[3.8214-3.8297]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[4.0352-4.0433]</c:v>
+                  <c:v>[3.8297-3.838]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[4.0433-4.0513]</c:v>
+                  <c:v>[3.838-3.8463]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[4.0513-4.0594]</c:v>
+                  <c:v>[3.8463-3.8547]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[4.0594-4.0674]</c:v>
+                  <c:v>[3.8547-3.863]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[4.0674-4.0755]</c:v>
+                  <c:v>[3.863-3.8713]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[4.0755-4.0836]</c:v>
+                  <c:v>[3.8713-3.8796]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[4.0836-4.0916]</c:v>
+                  <c:v>[3.8796-3.8879]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[4.0916-4.0997]</c:v>
+                  <c:v>[3.8879-3.8962]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[4.0997-4.1077]</c:v>
+                  <c:v>[3.8962-3.9046]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[4.1077-4.1158]</c:v>
+                  <c:v>[3.9046-3.9129]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[4.1158-4.1239]</c:v>
+                  <c:v>[3.9129-3.9212]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.1239-4.1319]</c:v>
+                  <c:v>[3.9212-3.9295]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.1319-4.14]</c:v>
+                  <c:v>[3.9295-3.9378]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3799,37 +3889,37 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -3858,7 +3948,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Weighted Average Cost of Fund</a:t>
+                  <a:t>Weighted Average Cost of Fund (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3969,46 +4059,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[8.523-8.582]</c:v>
+                  <c:v>[9.894-10.013]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[8.582-8.641]</c:v>
+                  <c:v>[10.013-10.132]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[8.641-8.7]</c:v>
+                  <c:v>[10.132-10.251]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[8.7-8.759]</c:v>
+                  <c:v>[10.251-10.371]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[8.759-8.818]</c:v>
+                  <c:v>[10.371-10.49]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[8.818-8.877]</c:v>
+                  <c:v>[10.49-10.609]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[8.877-8.936]</c:v>
+                  <c:v>[10.609-10.728]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[8.936-8.995]</c:v>
+                  <c:v>[10.728-10.848]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[8.995-9.054]</c:v>
+                  <c:v>[10.848-10.967]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[9.054-9.113]</c:v>
+                  <c:v>[10.967-11.086]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[9.113-9.172]</c:v>
+                  <c:v>[11.086-11.205]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[9.172-9.231]</c:v>
+                  <c:v>[11.205-11.325]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[9.231-9.289]</c:v>
+                  <c:v>[11.325-11.444]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[9.289-9.348]</c:v>
+                  <c:v>[11.444-11.563]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4023,43 +4113,43 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4085,7 +4175,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Equity Yield</a:t>
+                  <a:t>Equity Yield (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5020,7 +5110,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5028,7 +5118,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5036,7 +5126,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5044,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5052,7 +5142,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5060,7 +5150,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5068,7 +5158,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5076,7 +5166,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5084,7 +5174,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5092,7 +5182,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5100,7 +5190,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5108,7 +5198,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5116,7 +5206,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5135,114 +5225,114 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5261,7 +5351,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -5269,63 +5359,63 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -5333,15 +5423,15 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5349,7 +5439,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -5357,7 +5447,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -5365,7 +5455,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5387,7 +5477,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5395,95 +5485,95 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -5491,7 +5581,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -5513,7 +5603,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -5521,106 +5611,106 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B9">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B10">
-        <v>79</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="B12">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5639,7 +5729,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B1">
         <v>2</v>
@@ -5647,103 +5737,103 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5765,114 +5855,114 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5891,7 +5981,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -5899,7 +5989,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5907,98 +5997,98 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="B11">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6017,7 +6107,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6025,23 +6115,23 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6049,55 +6139,55 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6105,23 +6195,23 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6143,7 +6233,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6151,47 +6241,47 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6199,23 +6289,23 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -6223,7 +6313,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6231,26 +6321,26 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6269,7 +6359,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6277,23 +6367,23 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6304,7 +6394,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6312,44 +6402,44 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6368,7 +6458,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6395,111 +6485,111 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6521,114 +6611,114 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6647,7 +6737,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -6655,7 +6745,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6663,7 +6753,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6671,7 +6761,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6679,15 +6769,15 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -6695,63 +6785,63 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B9">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B10">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6773,7 +6863,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6781,7 +6871,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6789,95 +6879,95 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6899,7 +6989,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -6907,106 +6997,106 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B7">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -29,567 +29,564 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="186">
   <si>
     <t>Deal Call Months</t>
   </si>
   <si>
+    <t>[23.0-24.0]</t>
+  </si>
+  <si>
+    <t>[24.0-24.0]</t>
+  </si>
+  <si>
     <t>[24.0-25.0]</t>
   </si>
   <si>
+    <t>[25.0-26.0]</t>
+  </si>
+  <si>
+    <t>[26.0-26.0]</t>
+  </si>
+  <si>
+    <t>[26.0-27.0]</t>
+  </si>
+  <si>
+    <t>[27.0-28.0]</t>
+  </si>
+  <si>
+    <t>[28.0-28.0]</t>
+  </si>
+  <si>
+    <t>[28.0-29.0]</t>
+  </si>
+  <si>
+    <t>[29.0-29.0]</t>
+  </si>
+  <si>
+    <t>[29.0-30.0]</t>
+  </si>
+  <si>
+    <t>[30.0-31.0]</t>
+  </si>
+  <si>
+    <t>[31.0-31.0]</t>
+  </si>
+  <si>
+    <t>[31.0-32.0]</t>
+  </si>
+  <si>
     <t>[25.0-25.0]</t>
   </si>
   <si>
-    <t>[25.0-26.0]</t>
-  </si>
-  <si>
-    <t>[26.0-27.0]</t>
-  </si>
-  <si>
-    <t>[27.0-28.0]</t>
-  </si>
-  <si>
-    <t>[28.0-28.0]</t>
-  </si>
-  <si>
-    <t>[28.0-29.0]</t>
-  </si>
-  <si>
-    <t>[29.0-30.0]</t>
-  </si>
-  <si>
     <t>[30.0-30.0]</t>
   </si>
   <si>
-    <t>[30.0-31.0]</t>
-  </si>
-  <si>
-    <t>[31.0-32.0]</t>
-  </si>
-  <si>
-    <t>[32.0-33.0]</t>
-  </si>
-  <si>
-    <t>[33.0-33.0]</t>
-  </si>
-  <si>
-    <t>[33.0-34.0]</t>
-  </si>
-  <si>
-    <t>[24.0-24.0]</t>
-  </si>
-  <si>
-    <t>[26.0-26.0]</t>
-  </si>
-  <si>
     <t>[27.0-27.0]</t>
   </si>
   <si>
-    <t>[29.0-29.0]</t>
-  </si>
-  <si>
-    <t>[3.8214-3.8416]</t>
-  </si>
-  <si>
-    <t>[3.8416-3.8618]</t>
-  </si>
-  <si>
-    <t>[3.8618-3.882]</t>
-  </si>
-  <si>
-    <t>[3.882-3.9022]</t>
-  </si>
-  <si>
-    <t>[3.9022-3.9225]</t>
-  </si>
-  <si>
-    <t>[3.9225-3.9427]</t>
-  </si>
-  <si>
-    <t>[3.9427-3.9629]</t>
-  </si>
-  <si>
-    <t>[3.9629-3.9831]</t>
-  </si>
-  <si>
-    <t>[3.9831-4.0033]</t>
-  </si>
-  <si>
-    <t>[4.0033-4.0235]</t>
-  </si>
-  <si>
-    <t>[4.0235-4.0438]</t>
-  </si>
-  <si>
-    <t>[4.0438-4.064]</t>
-  </si>
-  <si>
-    <t>[4.064-4.0842]</t>
-  </si>
-  <si>
-    <t>[4.0842-4.1044]</t>
-  </si>
-  <si>
-    <t>[3.8247-3.8381]</t>
-  </si>
-  <si>
-    <t>[3.8381-3.8515]</t>
-  </si>
-  <si>
-    <t>[3.8515-3.865]</t>
-  </si>
-  <si>
-    <t>[3.865-3.8784]</t>
-  </si>
-  <si>
-    <t>[3.8784-3.8918]</t>
-  </si>
-  <si>
-    <t>[3.8918-3.9052]</t>
-  </si>
-  <si>
-    <t>[3.9052-3.9187]</t>
-  </si>
-  <si>
-    <t>[3.9187-3.9321]</t>
-  </si>
-  <si>
-    <t>[3.9321-3.9455]</t>
-  </si>
-  <si>
-    <t>[3.9455-3.959]</t>
-  </si>
-  <si>
-    <t>[3.959-3.9724]</t>
-  </si>
-  <si>
-    <t>[3.9724-3.9858]</t>
-  </si>
-  <si>
-    <t>[3.9858-3.9993]</t>
-  </si>
-  <si>
-    <t>[3.9993-4.0127]</t>
-  </si>
-  <si>
-    <t>[3.8941-3.9091]</t>
-  </si>
-  <si>
-    <t>[3.9091-3.9242]</t>
-  </si>
-  <si>
-    <t>[3.9242-3.9392]</t>
-  </si>
-  <si>
-    <t>[3.9392-3.9542]</t>
-  </si>
-  <si>
-    <t>[3.9542-3.9692]</t>
-  </si>
-  <si>
-    <t>[3.9692-3.9842]</t>
-  </si>
-  <si>
-    <t>[3.9842-3.9993]</t>
-  </si>
-  <si>
-    <t>[3.9993-4.0143]</t>
-  </si>
-  <si>
-    <t>[4.0143-4.0293]</t>
-  </si>
-  <si>
-    <t>[4.0293-4.0443]</t>
-  </si>
-  <si>
-    <t>[4.0443-4.0594]</t>
-  </si>
-  <si>
-    <t>[4.0594-4.0744]</t>
-  </si>
-  <si>
-    <t>[4.0744-4.0894]</t>
-  </si>
-  <si>
-    <t>[4.0894-4.1044]</t>
-  </si>
-  <si>
-    <t>[3.8214-3.8297]</t>
-  </si>
-  <si>
-    <t>[3.8297-3.838]</t>
-  </si>
-  <si>
-    <t>[3.838-3.8463]</t>
-  </si>
-  <si>
-    <t>[3.8463-3.8547]</t>
-  </si>
-  <si>
-    <t>[3.8547-3.863]</t>
-  </si>
-  <si>
-    <t>[3.863-3.8713]</t>
-  </si>
-  <si>
-    <t>[3.8713-3.8796]</t>
-  </si>
-  <si>
-    <t>[3.8796-3.8879]</t>
-  </si>
-  <si>
-    <t>[3.8879-3.8962]</t>
-  </si>
-  <si>
-    <t>[3.8962-3.9046]</t>
-  </si>
-  <si>
-    <t>[3.9046-3.9129]</t>
-  </si>
-  <si>
-    <t>[3.9129-3.9212]</t>
-  </si>
-  <si>
-    <t>[3.9212-3.9295]</t>
-  </si>
-  <si>
-    <t>[3.9295-3.9378]</t>
-  </si>
-  <si>
-    <t>[9.894-10.013]</t>
-  </si>
-  <si>
-    <t>[10.013-10.132]</t>
-  </si>
-  <si>
-    <t>[10.132-10.251]</t>
-  </si>
-  <si>
-    <t>[10.251-10.371]</t>
-  </si>
-  <si>
-    <t>[10.371-10.49]</t>
-  </si>
-  <si>
-    <t>[10.49-10.609]</t>
-  </si>
-  <si>
-    <t>[10.609-10.728]</t>
-  </si>
-  <si>
-    <t>[10.728-10.848]</t>
-  </si>
-  <si>
-    <t>[10.848-10.967]</t>
-  </si>
-  <si>
-    <t>[10.967-11.086]</t>
-  </si>
-  <si>
-    <t>[11.086-11.205]</t>
-  </si>
-  <si>
-    <t>[11.205-11.325]</t>
-  </si>
-  <si>
-    <t>[11.325-11.444]</t>
-  </si>
-  <si>
-    <t>[11.444-11.563]</t>
-  </si>
-  <si>
-    <t>[10.442-10.521]</t>
-  </si>
-  <si>
-    <t>[10.521-10.601]</t>
-  </si>
-  <si>
-    <t>[10.601-10.681]</t>
-  </si>
-  <si>
-    <t>[10.681-10.761]</t>
-  </si>
-  <si>
-    <t>[10.761-10.84]</t>
-  </si>
-  <si>
-    <t>[10.84-10.92]</t>
-  </si>
-  <si>
-    <t>[10.92-11.0]</t>
-  </si>
-  <si>
-    <t>[11.0-11.079]</t>
-  </si>
-  <si>
-    <t>[11.079-11.159]</t>
-  </si>
-  <si>
-    <t>[11.159-11.239]</t>
-  </si>
-  <si>
-    <t>[11.239-11.319]</t>
-  </si>
-  <si>
-    <t>[11.319-11.398]</t>
-  </si>
-  <si>
-    <t>[11.398-11.478]</t>
-  </si>
-  <si>
-    <t>[11.478-11.558]</t>
-  </si>
-  <si>
-    <t>[9.894-9.983]</t>
-  </si>
-  <si>
-    <t>[9.983-10.072]</t>
-  </si>
-  <si>
-    <t>[10.072-10.162]</t>
-  </si>
-  <si>
-    <t>[10.162-10.251]</t>
-  </si>
-  <si>
-    <t>[10.251-10.34]</t>
-  </si>
-  <si>
-    <t>[10.34-10.429]</t>
-  </si>
-  <si>
-    <t>[10.429-10.519]</t>
-  </si>
-  <si>
-    <t>[10.519-10.608]</t>
-  </si>
-  <si>
-    <t>[10.608-10.697]</t>
-  </si>
-  <si>
-    <t>[10.697-10.787]</t>
-  </si>
-  <si>
-    <t>[10.787-10.876]</t>
-  </si>
-  <si>
-    <t>[10.876-10.965]</t>
-  </si>
-  <si>
-    <t>[10.965-11.055]</t>
-  </si>
-  <si>
-    <t>[11.055-11.144]</t>
-  </si>
-  <si>
-    <t>[10.906-10.953]</t>
-  </si>
-  <si>
-    <t>[10.953-11.0]</t>
-  </si>
-  <si>
-    <t>[11.0-11.047]</t>
-  </si>
-  <si>
-    <t>[11.047-11.094]</t>
-  </si>
-  <si>
-    <t>[11.094-11.141]</t>
-  </si>
-  <si>
-    <t>[11.141-11.188]</t>
-  </si>
-  <si>
-    <t>[11.188-11.235]</t>
-  </si>
-  <si>
-    <t>[11.235-11.282]</t>
-  </si>
-  <si>
-    <t>[11.282-11.329]</t>
-  </si>
-  <si>
-    <t>[11.329-11.376]</t>
-  </si>
-  <si>
-    <t>[11.376-11.422]</t>
-  </si>
-  <si>
-    <t>[11.422-11.469]</t>
-  </si>
-  <si>
-    <t>[11.469-11.516]</t>
-  </si>
-  <si>
-    <t>[11.516-11.563]</t>
-  </si>
-  <si>
-    <t>[0.8352-0.8363]</t>
-  </si>
-  <si>
-    <t>[0.8363-0.8374]</t>
-  </si>
-  <si>
-    <t>[0.8374-0.8385]</t>
-  </si>
-  <si>
-    <t>[0.8385-0.8395]</t>
-  </si>
-  <si>
-    <t>[0.8395-0.8406]</t>
-  </si>
-  <si>
-    <t>[0.8406-0.8417]</t>
-  </si>
-  <si>
-    <t>[0.8417-0.8428]</t>
-  </si>
-  <si>
-    <t>[0.8428-0.8439]</t>
-  </si>
-  <si>
-    <t>[0.8439-0.845]</t>
-  </si>
-  <si>
-    <t>[0.845-0.8461]</t>
-  </si>
-  <si>
-    <t>[0.8461-0.8472]</t>
-  </si>
-  <si>
-    <t>[0.8472-0.8483]</t>
-  </si>
-  <si>
-    <t>[0.8483-0.8494]</t>
-  </si>
-  <si>
-    <t>[0.8494-0.8505]</t>
-  </si>
-  <si>
-    <t>[0.8387-0.8393]</t>
-  </si>
-  <si>
-    <t>[0.8393-0.8399]</t>
-  </si>
-  <si>
-    <t>[0.8399-0.8406]</t>
-  </si>
-  <si>
-    <t>[0.8406-0.8412]</t>
-  </si>
-  <si>
-    <t>[0.8412-0.8418]</t>
-  </si>
-  <si>
-    <t>[0.8418-0.8424]</t>
-  </si>
-  <si>
-    <t>[0.8424-0.8431]</t>
-  </si>
-  <si>
-    <t>[0.8431-0.8437]</t>
-  </si>
-  <si>
-    <t>[0.8437-0.8443]</t>
-  </si>
-  <si>
-    <t>[0.8443-0.8449]</t>
-  </si>
-  <si>
-    <t>[0.8449-0.8456]</t>
-  </si>
-  <si>
-    <t>[0.8456-0.8462]</t>
-  </si>
-  <si>
-    <t>[0.8462-0.8468]</t>
-  </si>
-  <si>
-    <t>[0.8468-0.8475]</t>
-  </si>
-  <si>
-    <t>[0.8352-0.8361]</t>
-  </si>
-  <si>
-    <t>[0.8361-0.8369]</t>
-  </si>
-  <si>
-    <t>[0.8369-0.8378]</t>
-  </si>
-  <si>
-    <t>[0.8378-0.8387]</t>
-  </si>
-  <si>
-    <t>[0.8387-0.8396]</t>
-  </si>
-  <si>
-    <t>[0.8396-0.8405]</t>
-  </si>
-  <si>
-    <t>[0.8405-0.8414]</t>
-  </si>
-  <si>
-    <t>[0.8414-0.8423]</t>
-  </si>
-  <si>
-    <t>[0.8423-0.8432]</t>
-  </si>
-  <si>
-    <t>[0.8432-0.844]</t>
-  </si>
-  <si>
-    <t>[0.844-0.8449]</t>
-  </si>
-  <si>
-    <t>[0.8449-0.8458]</t>
-  </si>
-  <si>
-    <t>[0.8458-0.8467]</t>
-  </si>
-  <si>
-    <t>[0.8467-0.8476]</t>
-  </si>
-  <si>
-    <t>[0.8366-0.8376]</t>
-  </si>
-  <si>
-    <t>[0.8376-0.8386]</t>
-  </si>
-  <si>
-    <t>[0.8386-0.8396]</t>
-  </si>
-  <si>
-    <t>[0.8396-0.8406]</t>
-  </si>
-  <si>
-    <t>[0.8406-0.8416]</t>
-  </si>
-  <si>
-    <t>[0.8416-0.8426]</t>
-  </si>
-  <si>
-    <t>[0.8426-0.8435]</t>
-  </si>
-  <si>
-    <t>[0.8435-0.8445]</t>
-  </si>
-  <si>
-    <t>[0.8445-0.8455]</t>
-  </si>
-  <si>
-    <t>[0.8455-0.8465]</t>
-  </si>
-  <si>
-    <t>[0.8465-0.8475]</t>
-  </si>
-  <si>
-    <t>[0.8475-0.8485]</t>
-  </si>
-  <si>
-    <t>[0.8485-0.8495]</t>
-  </si>
-  <si>
-    <t>[0.8495-0.8505]</t>
+    <t>[3.8313-3.8516]</t>
+  </si>
+  <si>
+    <t>[3.8516-3.8718]</t>
+  </si>
+  <si>
+    <t>[3.8718-3.8921]</t>
+  </si>
+  <si>
+    <t>[3.8921-3.9123]</t>
+  </si>
+  <si>
+    <t>[3.9123-3.9326]</t>
+  </si>
+  <si>
+    <t>[3.9326-3.9528]</t>
+  </si>
+  <si>
+    <t>[3.9528-3.9731]</t>
+  </si>
+  <si>
+    <t>[3.9731-3.9933]</t>
+  </si>
+  <si>
+    <t>[3.9933-4.0136]</t>
+  </si>
+  <si>
+    <t>[4.0136-4.0338]</t>
+  </si>
+  <si>
+    <t>[4.0338-4.0541]</t>
+  </si>
+  <si>
+    <t>[4.0541-4.0743]</t>
+  </si>
+  <si>
+    <t>[4.0743-4.0946]</t>
+  </si>
+  <si>
+    <t>[4.0946-4.1148]</t>
+  </si>
+  <si>
+    <t>[3.8313-3.8464]</t>
+  </si>
+  <si>
+    <t>[3.8464-3.8614]</t>
+  </si>
+  <si>
+    <t>[3.8614-3.8765]</t>
+  </si>
+  <si>
+    <t>[3.8765-3.8915]</t>
+  </si>
+  <si>
+    <t>[3.8915-3.9066]</t>
+  </si>
+  <si>
+    <t>[3.9066-3.9216]</t>
+  </si>
+  <si>
+    <t>[3.9216-3.9367]</t>
+  </si>
+  <si>
+    <t>[3.9367-3.9517]</t>
+  </si>
+  <si>
+    <t>[3.9517-3.9668]</t>
+  </si>
+  <si>
+    <t>[3.9668-3.9818]</t>
+  </si>
+  <si>
+    <t>[3.9818-3.9969]</t>
+  </si>
+  <si>
+    <t>[3.9969-4.0119]</t>
+  </si>
+  <si>
+    <t>[4.0119-4.027]</t>
+  </si>
+  <si>
+    <t>[4.027-4.042]</t>
+  </si>
+  <si>
+    <t>[3.9146-3.9289]</t>
+  </si>
+  <si>
+    <t>[3.9289-3.9432]</t>
+  </si>
+  <si>
+    <t>[3.9432-3.9575]</t>
+  </si>
+  <si>
+    <t>[3.9575-3.9718]</t>
+  </si>
+  <si>
+    <t>[3.9718-3.9861]</t>
+  </si>
+  <si>
+    <t>[3.9861-4.0004]</t>
+  </si>
+  <si>
+    <t>[4.0004-4.0147]</t>
+  </si>
+  <si>
+    <t>[4.0147-4.029]</t>
+  </si>
+  <si>
+    <t>[4.029-4.0433]</t>
+  </si>
+  <si>
+    <t>[4.0433-4.0576]</t>
+  </si>
+  <si>
+    <t>[4.0576-4.0719]</t>
+  </si>
+  <si>
+    <t>[4.0719-4.0862]</t>
+  </si>
+  <si>
+    <t>[4.0862-4.1005]</t>
+  </si>
+  <si>
+    <t>[4.1005-4.1148]</t>
+  </si>
+  <si>
+    <t>[3.8347-3.8449]</t>
+  </si>
+  <si>
+    <t>[3.8449-3.8551]</t>
+  </si>
+  <si>
+    <t>[3.8551-3.8653]</t>
+  </si>
+  <si>
+    <t>[3.8653-3.8755]</t>
+  </si>
+  <si>
+    <t>[3.8755-3.8857]</t>
+  </si>
+  <si>
+    <t>[3.8857-3.8959]</t>
+  </si>
+  <si>
+    <t>[3.8959-3.9061]</t>
+  </si>
+  <si>
+    <t>[3.9061-3.9163]</t>
+  </si>
+  <si>
+    <t>[3.9163-3.9265]</t>
+  </si>
+  <si>
+    <t>[3.9265-3.9367]</t>
+  </si>
+  <si>
+    <t>[3.9367-3.9469]</t>
+  </si>
+  <si>
+    <t>[3.9469-3.9571]</t>
+  </si>
+  <si>
+    <t>[3.9571-3.9673]</t>
+  </si>
+  <si>
+    <t>[3.9673-3.9775]</t>
+  </si>
+  <si>
+    <t>[9.829-9.95]</t>
+  </si>
+  <si>
+    <t>[9.95-10.07]</t>
+  </si>
+  <si>
+    <t>[10.07-10.191]</t>
+  </si>
+  <si>
+    <t>[10.191-10.311]</t>
+  </si>
+  <si>
+    <t>[10.311-10.432]</t>
+  </si>
+  <si>
+    <t>[10.432-10.552]</t>
+  </si>
+  <si>
+    <t>[10.552-10.673]</t>
+  </si>
+  <si>
+    <t>[10.673-10.793]</t>
+  </si>
+  <si>
+    <t>[10.793-10.914]</t>
+  </si>
+  <si>
+    <t>[10.914-11.034]</t>
+  </si>
+  <si>
+    <t>[11.034-11.155]</t>
+  </si>
+  <si>
+    <t>[11.155-11.276]</t>
+  </si>
+  <si>
+    <t>[11.276-11.396]</t>
+  </si>
+  <si>
+    <t>[11.396-11.517]</t>
+  </si>
+  <si>
+    <t>[10.26-10.349]</t>
+  </si>
+  <si>
+    <t>[10.349-10.439]</t>
+  </si>
+  <si>
+    <t>[10.439-10.529]</t>
+  </si>
+  <si>
+    <t>[10.529-10.619]</t>
+  </si>
+  <si>
+    <t>[10.619-10.709]</t>
+  </si>
+  <si>
+    <t>[10.709-10.798]</t>
+  </si>
+  <si>
+    <t>[10.798-10.888]</t>
+  </si>
+  <si>
+    <t>[10.888-10.978]</t>
+  </si>
+  <si>
+    <t>[10.978-11.068]</t>
+  </si>
+  <si>
+    <t>[11.068-11.157]</t>
+  </si>
+  <si>
+    <t>[11.157-11.247]</t>
+  </si>
+  <si>
+    <t>[11.247-11.337]</t>
+  </si>
+  <si>
+    <t>[11.337-11.427]</t>
+  </si>
+  <si>
+    <t>[11.427-11.517]</t>
+  </si>
+  <si>
+    <t>[9.829-9.916]</t>
+  </si>
+  <si>
+    <t>[9.916-10.003]</t>
+  </si>
+  <si>
+    <t>[10.003-10.09]</t>
+  </si>
+  <si>
+    <t>[10.09-10.177]</t>
+  </si>
+  <si>
+    <t>[10.177-10.264]</t>
+  </si>
+  <si>
+    <t>[10.264-10.351]</t>
+  </si>
+  <si>
+    <t>[10.351-10.438]</t>
+  </si>
+  <si>
+    <t>[10.438-10.526]</t>
+  </si>
+  <si>
+    <t>[10.526-10.613]</t>
+  </si>
+  <si>
+    <t>[10.613-10.7]</t>
+  </si>
+  <si>
+    <t>[10.7-10.787]</t>
+  </si>
+  <si>
+    <t>[10.787-10.874]</t>
+  </si>
+  <si>
+    <t>[10.874-10.961]</t>
+  </si>
+  <si>
+    <t>[10.961-11.048]</t>
+  </si>
+  <si>
+    <t>[10.65-10.71]</t>
+  </si>
+  <si>
+    <t>[10.71-10.77]</t>
+  </si>
+  <si>
+    <t>[10.77-10.83]</t>
+  </si>
+  <si>
+    <t>[10.83-10.89]</t>
+  </si>
+  <si>
+    <t>[10.89-10.949]</t>
+  </si>
+  <si>
+    <t>[10.949-11.009]</t>
+  </si>
+  <si>
+    <t>[11.009-11.069]</t>
+  </si>
+  <si>
+    <t>[11.069-11.129]</t>
+  </si>
+  <si>
+    <t>[11.129-11.189]</t>
+  </si>
+  <si>
+    <t>[11.189-11.248]</t>
+  </si>
+  <si>
+    <t>[11.248-11.308]</t>
+  </si>
+  <si>
+    <t>[11.308-11.368]</t>
+  </si>
+  <si>
+    <t>[11.368-11.428]</t>
+  </si>
+  <si>
+    <t>[11.428-11.488]</t>
+  </si>
+  <si>
+    <t>[83.417-83.5363]</t>
+  </si>
+  <si>
+    <t>[83.5363-83.6556]</t>
+  </si>
+  <si>
+    <t>[83.6556-83.7749]</t>
+  </si>
+  <si>
+    <t>[83.7749-83.8942]</t>
+  </si>
+  <si>
+    <t>[83.8942-84.0134]</t>
+  </si>
+  <si>
+    <t>[84.0134-84.1327]</t>
+  </si>
+  <si>
+    <t>[84.1327-84.252]</t>
+  </si>
+  <si>
+    <t>[84.252-84.3713]</t>
+  </si>
+  <si>
+    <t>[84.3713-84.4906]</t>
+  </si>
+  <si>
+    <t>[84.4906-84.6099]</t>
+  </si>
+  <si>
+    <t>[84.6099-84.7292]</t>
+  </si>
+  <si>
+    <t>[84.7292-84.8485]</t>
+  </si>
+  <si>
+    <t>[84.8485-84.9677]</t>
+  </si>
+  <si>
+    <t>[84.9677-85.087]</t>
+  </si>
+  <si>
+    <t>[83.6033-83.6958]</t>
+  </si>
+  <si>
+    <t>[83.6958-83.7883]</t>
+  </si>
+  <si>
+    <t>[83.7883-83.8807]</t>
+  </si>
+  <si>
+    <t>[83.8807-83.9732]</t>
+  </si>
+  <si>
+    <t>[83.9732-84.0657]</t>
+  </si>
+  <si>
+    <t>[84.0657-84.1582]</t>
+  </si>
+  <si>
+    <t>[84.1582-84.2506]</t>
+  </si>
+  <si>
+    <t>[84.2506-84.3431]</t>
+  </si>
+  <si>
+    <t>[84.3431-84.4356]</t>
+  </si>
+  <si>
+    <t>[84.4356-84.5281]</t>
+  </si>
+  <si>
+    <t>[84.5281-84.6205]</t>
+  </si>
+  <si>
+    <t>[84.6205-84.713]</t>
+  </si>
+  <si>
+    <t>[84.713-84.8055]</t>
+  </si>
+  <si>
+    <t>[84.8055-84.8979]</t>
+  </si>
+  <si>
+    <t>[83.417-83.5313]</t>
+  </si>
+  <si>
+    <t>[83.5313-83.6456]</t>
+  </si>
+  <si>
+    <t>[83.6456-83.7598]</t>
+  </si>
+  <si>
+    <t>[83.7598-83.8741]</t>
+  </si>
+  <si>
+    <t>[83.8741-83.9884]</t>
+  </si>
+  <si>
+    <t>[83.9884-84.1027]</t>
+  </si>
+  <si>
+    <t>[84.1027-84.217]</t>
+  </si>
+  <si>
+    <t>[84.217-84.3313]</t>
+  </si>
+  <si>
+    <t>[84.3313-84.4455]</t>
+  </si>
+  <si>
+    <t>[84.4455-84.5598]</t>
+  </si>
+  <si>
+    <t>[84.5598-84.6741]</t>
+  </si>
+  <si>
+    <t>[84.6741-84.7884]</t>
+  </si>
+  <si>
+    <t>[84.7884-84.9027]</t>
+  </si>
+  <si>
+    <t>[84.9027-85.0169]</t>
+  </si>
+  <si>
+    <t>[83.9234-84.0065]</t>
+  </si>
+  <si>
+    <t>[84.0065-84.0896]</t>
+  </si>
+  <si>
+    <t>[84.0896-84.1728]</t>
+  </si>
+  <si>
+    <t>[84.1728-84.2559]</t>
+  </si>
+  <si>
+    <t>[84.2559-84.339]</t>
+  </si>
+  <si>
+    <t>[84.339-84.4221]</t>
+  </si>
+  <si>
+    <t>[84.4221-84.5052]</t>
+  </si>
+  <si>
+    <t>[84.5052-84.5883]</t>
+  </si>
+  <si>
+    <t>[84.5883-84.6715]</t>
+  </si>
+  <si>
+    <t>[84.6715-84.7546]</t>
+  </si>
+  <si>
+    <t>[84.7546-84.8377]</t>
+  </si>
+  <si>
+    <t>[84.8377-84.9208]</t>
+  </si>
+  <si>
+    <t>[84.9208-85.0039]</t>
+  </si>
+  <si>
+    <t>[85.0039-85.087]</t>
   </si>
 </sst>
 </file>
@@ -694,46 +691,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>[23.0-24.0]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[24.0-24.0]</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>[24.0-25.0]</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>[25.0-25.0]</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>[25.0-26.0]</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>[26.0-26.0]</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>[26.0-27.0]</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>[27.0-28.0]</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>[28.0-28.0]</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>[28.0-29.0]</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>[29.0-29.0]</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>[29.0-30.0]</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>[30.0-30.0]</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>[30.0-31.0]</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
+                  <c:v>[31.0-31.0]</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>[31.0-32.0]</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>[32.0-33.0]</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>[33.0-33.0]</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>[33.0-34.0]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -751,34 +748,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -911,46 +908,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[10.442-10.521]</c:v>
+                  <c:v>[10.26-10.349]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[10.521-10.601]</c:v>
+                  <c:v>[10.349-10.439]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[10.601-10.681]</c:v>
+                  <c:v>[10.439-10.529]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.681-10.761]</c:v>
+                  <c:v>[10.529-10.619]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.761-10.84]</c:v>
+                  <c:v>[10.619-10.709]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[10.84-10.92]</c:v>
+                  <c:v>[10.709-10.798]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[10.92-11.0]</c:v>
+                  <c:v>[10.798-10.888]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[11.0-11.079]</c:v>
+                  <c:v>[10.888-10.978]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[11.079-11.159]</c:v>
+                  <c:v>[10.978-11.068]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[11.159-11.239]</c:v>
+                  <c:v>[11.068-11.157]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[11.239-11.319]</c:v>
+                  <c:v>[11.157-11.247]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[11.319-11.398]</c:v>
+                  <c:v>[11.247-11.337]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[11.398-11.478]</c:v>
+                  <c:v>[11.337-11.427]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[11.478-11.558]</c:v>
+                  <c:v>[11.427-11.517]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -965,19 +962,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -986,16 +983,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -1138,46 +1135,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[9.894-9.983]</c:v>
+                  <c:v>[9.829-9.916]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[9.983-10.072]</c:v>
+                  <c:v>[9.916-10.003]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[10.072-10.162]</c:v>
+                  <c:v>[10.003-10.09]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.162-10.251]</c:v>
+                  <c:v>[10.09-10.177]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.251-10.34]</c:v>
+                  <c:v>[10.177-10.264]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[10.34-10.429]</c:v>
+                  <c:v>[10.264-10.351]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[10.429-10.519]</c:v>
+                  <c:v>[10.351-10.438]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[10.519-10.608]</c:v>
+                  <c:v>[10.438-10.526]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[10.608-10.697]</c:v>
+                  <c:v>[10.526-10.613]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[10.697-10.787]</c:v>
+                  <c:v>[10.613-10.7]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[10.787-10.876]</c:v>
+                  <c:v>[10.7-10.787]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[10.876-10.965]</c:v>
+                  <c:v>[10.787-10.874]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[10.965-11.055]</c:v>
+                  <c:v>[10.874-10.961]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[11.055-11.144]</c:v>
+                  <c:v>[10.961-11.048]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1192,13 +1189,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1213,19 +1210,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -1365,46 +1362,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[10.906-10.953]</c:v>
+                  <c:v>[10.65-10.71]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[10.953-11.0]</c:v>
+                  <c:v>[10.71-10.77]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[11.0-11.047]</c:v>
+                  <c:v>[10.77-10.83]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[11.047-11.094]</c:v>
+                  <c:v>[10.83-10.89]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[11.094-11.141]</c:v>
+                  <c:v>[10.89-10.949]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[11.141-11.188]</c:v>
+                  <c:v>[10.949-11.009]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[11.188-11.235]</c:v>
+                  <c:v>[11.009-11.069]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[11.235-11.282]</c:v>
+                  <c:v>[11.069-11.129]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[11.282-11.329]</c:v>
+                  <c:v>[11.129-11.189]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[11.329-11.376]</c:v>
+                  <c:v>[11.189-11.248]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[11.376-11.422]</c:v>
+                  <c:v>[11.248-11.308]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[11.422-11.469]</c:v>
+                  <c:v>[11.308-11.368]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[11.469-11.516]</c:v>
+                  <c:v>[11.368-11.428]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[11.516-11.563]</c:v>
+                  <c:v>[11.428-11.488]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1416,28 +1413,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1449,13 +1446,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1592,46 +1589,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[0.8352-0.8363]</c:v>
+                  <c:v>[83.417-83.5363]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[0.8363-0.8374]</c:v>
+                  <c:v>[83.5363-83.6556]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[0.8374-0.8385]</c:v>
+                  <c:v>[83.6556-83.7749]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[0.8385-0.8395]</c:v>
+                  <c:v>[83.7749-83.8942]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[0.8395-0.8406]</c:v>
+                  <c:v>[83.8942-84.0134]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[0.8406-0.8417]</c:v>
+                  <c:v>[84.0134-84.1327]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[0.8417-0.8428]</c:v>
+                  <c:v>[84.1327-84.252]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[0.8428-0.8439]</c:v>
+                  <c:v>[84.252-84.3713]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[0.8439-0.845]</c:v>
+                  <c:v>[84.3713-84.4906]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[0.845-0.8461]</c:v>
+                  <c:v>[84.4906-84.6099]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[0.8461-0.8472]</c:v>
+                  <c:v>[84.6099-84.7292]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[0.8472-0.8483]</c:v>
+                  <c:v>[84.7292-84.8485]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[0.8483-0.8494]</c:v>
+                  <c:v>[84.8485-84.9677]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[0.8494-0.8505]</c:v>
+                  <c:v>[84.9677-85.087]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1652,37 +1649,37 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1715,7 +1712,7 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-2700000" vert="horz"/>
@@ -1819,46 +1816,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[0.8387-0.8393]</c:v>
+                  <c:v>[83.6033-83.6958]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[0.8393-0.8399]</c:v>
+                  <c:v>[83.6958-83.7883]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[0.8399-0.8406]</c:v>
+                  <c:v>[83.7883-83.8807]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[0.8406-0.8412]</c:v>
+                  <c:v>[83.8807-83.9732]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[0.8412-0.8418]</c:v>
+                  <c:v>[83.9732-84.0657]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[0.8418-0.8424]</c:v>
+                  <c:v>[84.0657-84.1582]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[0.8424-0.8431]</c:v>
+                  <c:v>[84.1582-84.2506]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[0.8431-0.8437]</c:v>
+                  <c:v>[84.2506-84.3431]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[0.8437-0.8443]</c:v>
+                  <c:v>[84.3431-84.4356]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[0.8443-0.8449]</c:v>
+                  <c:v>[84.4356-84.5281]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[0.8449-0.8456]</c:v>
+                  <c:v>[84.5281-84.6205]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[0.8456-0.8462]</c:v>
+                  <c:v>[84.6205-84.713]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[0.8462-0.8468]</c:v>
+                  <c:v>[84.713-84.8055]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[0.8468-0.8475]</c:v>
+                  <c:v>[84.8055-84.8979]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1870,10 +1867,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1882,7 +1879,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1891,25 +1888,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1942,7 +1939,7 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-2700000" vert="horz"/>
@@ -2046,46 +2043,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[0.8352-0.8361]</c:v>
+                  <c:v>[83.417-83.5313]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[0.8361-0.8369]</c:v>
+                  <c:v>[83.5313-83.6456]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[0.8369-0.8378]</c:v>
+                  <c:v>[83.6456-83.7598]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[0.8378-0.8387]</c:v>
+                  <c:v>[83.7598-83.8741]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[0.8387-0.8396]</c:v>
+                  <c:v>[83.8741-83.9884]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[0.8396-0.8405]</c:v>
+                  <c:v>[83.9884-84.1027]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[0.8405-0.8414]</c:v>
+                  <c:v>[84.1027-84.217]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[0.8414-0.8423]</c:v>
+                  <c:v>[84.217-84.3313]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[0.8423-0.8432]</c:v>
+                  <c:v>[84.3313-84.4455]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[0.8432-0.844]</c:v>
+                  <c:v>[84.4455-84.5598]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[0.844-0.8449]</c:v>
+                  <c:v>[84.5598-84.6741]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[0.8449-0.8458]</c:v>
+                  <c:v>[84.6741-84.7884]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[0.8458-0.8467]</c:v>
+                  <c:v>[84.7884-84.9027]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[0.8467-0.8476]</c:v>
+                  <c:v>[84.9027-85.0169]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2103,22 +2100,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2127,16 +2124,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2169,7 +2166,7 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-2700000" vert="horz"/>
@@ -2273,46 +2270,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[0.8366-0.8376]</c:v>
+                  <c:v>[83.9234-84.0065]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[0.8376-0.8386]</c:v>
+                  <c:v>[84.0065-84.0896]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[0.8386-0.8396]</c:v>
+                  <c:v>[84.0896-84.1728]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[0.8396-0.8406]</c:v>
+                  <c:v>[84.1728-84.2559]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[0.8406-0.8416]</c:v>
+                  <c:v>[84.2559-84.339]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[0.8416-0.8426]</c:v>
+                  <c:v>[84.339-84.4221]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[0.8426-0.8435]</c:v>
+                  <c:v>[84.4221-84.5052]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[0.8435-0.8445]</c:v>
+                  <c:v>[84.5052-84.5883]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[0.8445-0.8455]</c:v>
+                  <c:v>[84.5883-84.6715]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[0.8455-0.8465]</c:v>
+                  <c:v>[84.6715-84.7546]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[0.8465-0.8475]</c:v>
+                  <c:v>[84.7546-84.8377]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[0.8475-0.8485]</c:v>
+                  <c:v>[84.8377-84.9208]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[0.8485-0.8495]</c:v>
+                  <c:v>[84.9208-85.0039]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[0.8495-0.8505]</c:v>
+                  <c:v>[85.0039-85.087]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2336,28 +2333,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -2396,7 +2393,7 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-2700000" vert="horz"/>
@@ -2500,28 +2497,28 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>[23.0-24.0]</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>[24.0-24.0]</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>[24.0-25.0]</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>[25.0-25.0]</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>[25.0-26.0]</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>[26.0-26.0]</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>[26.0-26.0]</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>[26.0-27.0]</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>[27.0-28.0]</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>[28.0-28.0]</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>[28.0-28.0]</c:v>
@@ -2530,10 +2527,10 @@
                   <c:v>[28.0-29.0]</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>[29.0-29.0]</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>[29.0-30.0]</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>[30.0-30.0]</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>[30.0-30.0]</c:v>
@@ -2563,28 +2560,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -2780,7 +2777,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2789,7 +2786,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2943,37 +2940,37 @@
                   <c:v>[25.0-26.0]</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>[26.0-26.0]</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>[26.0-27.0]</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>[27.0-27.0]</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>[27.0-28.0]</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>[28.0-28.0]</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>[28.0-29.0]</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>[29.0-29.0]</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>[29.0-30.0]</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>[30.0-30.0]</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>[30.0-31.0]</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
+                  <c:v>[31.0-31.0]</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>[31.0-32.0]</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>[32.0-33.0]</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>[33.0-33.0]</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>[33.0-34.0]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2997,13 +2994,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2</c:v>
@@ -3012,13 +3009,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -3151,46 +3148,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.8214-3.8416]</c:v>
+                  <c:v>[3.8313-3.8516]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.8416-3.8618]</c:v>
+                  <c:v>[3.8516-3.8718]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.8618-3.882]</c:v>
+                  <c:v>[3.8718-3.8921]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.882-3.9022]</c:v>
+                  <c:v>[3.8921-3.9123]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.9022-3.9225]</c:v>
+                  <c:v>[3.9123-3.9326]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.9225-3.9427]</c:v>
+                  <c:v>[3.9326-3.9528]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[3.9427-3.9629]</c:v>
+                  <c:v>[3.9528-3.9731]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[3.9629-3.9831]</c:v>
+                  <c:v>[3.9731-3.9933]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[3.9831-4.0033]</c:v>
+                  <c:v>[3.9933-4.0136]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[4.0033-4.0235]</c:v>
+                  <c:v>[4.0136-4.0338]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[4.0235-4.0438]</c:v>
+                  <c:v>[4.0338-4.0541]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[4.0438-4.064]</c:v>
+                  <c:v>[4.0541-4.0743]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.064-4.0842]</c:v>
+                  <c:v>[4.0743-4.0946]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.0842-4.1044]</c:v>
+                  <c:v>[4.0946-4.1148]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3205,40 +3202,40 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -3267,7 +3264,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Weighted Average Cost of Fund (%)</a:t>
+                  <a:t>Weighted Average Cost of Funds (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3378,46 +3375,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.8247-3.8381]</c:v>
+                  <c:v>[3.8313-3.8464]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.8381-3.8515]</c:v>
+                  <c:v>[3.8464-3.8614]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.8515-3.865]</c:v>
+                  <c:v>[3.8614-3.8765]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.865-3.8784]</c:v>
+                  <c:v>[3.8765-3.8915]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.8784-3.8918]</c:v>
+                  <c:v>[3.8915-3.9066]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.8918-3.9052]</c:v>
+                  <c:v>[3.9066-3.9216]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[3.9052-3.9187]</c:v>
+                  <c:v>[3.9216-3.9367]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[3.9187-3.9321]</c:v>
+                  <c:v>[3.9367-3.9517]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[3.9321-3.9455]</c:v>
+                  <c:v>[3.9517-3.9668]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[3.9455-3.959]</c:v>
+                  <c:v>[3.9668-3.9818]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[3.959-3.9724]</c:v>
+                  <c:v>[3.9818-3.9969]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[3.9724-3.9858]</c:v>
+                  <c:v>[3.9969-4.0119]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[3.9858-3.9993]</c:v>
+                  <c:v>[4.0119-4.027]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[3.9993-4.0127]</c:v>
+                  <c:v>[4.027-4.042]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3435,16 +3432,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -3453,7 +3450,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -3465,7 +3462,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -3494,7 +3491,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Weighted Average Cost of Fund (%)</a:t>
+                  <a:t>Weighted Average Cost of Funds (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3605,46 +3602,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.8941-3.9091]</c:v>
+                  <c:v>[3.9146-3.9289]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.9091-3.9242]</c:v>
+                  <c:v>[3.9289-3.9432]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.9242-3.9392]</c:v>
+                  <c:v>[3.9432-3.9575]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.9392-3.9542]</c:v>
+                  <c:v>[3.9575-3.9718]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.9542-3.9692]</c:v>
+                  <c:v>[3.9718-3.9861]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.9692-3.9842]</c:v>
+                  <c:v>[3.9861-4.0004]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[3.9842-3.9993]</c:v>
+                  <c:v>[4.0004-4.0147]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[3.9993-4.0143]</c:v>
+                  <c:v>[4.0147-4.029]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[4.0143-4.0293]</c:v>
+                  <c:v>[4.029-4.0433]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[4.0293-4.0443]</c:v>
+                  <c:v>[4.0433-4.0576]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[4.0443-4.0594]</c:v>
+                  <c:v>[4.0576-4.0719]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[4.0594-4.0744]</c:v>
+                  <c:v>[4.0719-4.0862]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.0744-4.0894]</c:v>
+                  <c:v>[4.0862-4.1005]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.0894-4.1044]</c:v>
+                  <c:v>[4.1005-4.1148]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3659,19 +3656,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -3686,13 +3683,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -3721,7 +3718,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Weighted Average Cost of Fund (%)</a:t>
+                  <a:t>Weighted Average Cost of Funds (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3832,46 +3829,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.8214-3.8297]</c:v>
+                  <c:v>[3.8347-3.8449]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.8297-3.838]</c:v>
+                  <c:v>[3.8449-3.8551]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.838-3.8463]</c:v>
+                  <c:v>[3.8551-3.8653]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.8463-3.8547]</c:v>
+                  <c:v>[3.8653-3.8755]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.8547-3.863]</c:v>
+                  <c:v>[3.8755-3.8857]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.863-3.8713]</c:v>
+                  <c:v>[3.8857-3.8959]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[3.8713-3.8796]</c:v>
+                  <c:v>[3.8959-3.9061]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[3.8796-3.8879]</c:v>
+                  <c:v>[3.9061-3.9163]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[3.8879-3.8962]</c:v>
+                  <c:v>[3.9163-3.9265]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[3.8962-3.9046]</c:v>
+                  <c:v>[3.9265-3.9367]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[3.9046-3.9129]</c:v>
+                  <c:v>[3.9367-3.9469]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[3.9129-3.9212]</c:v>
+                  <c:v>[3.9469-3.9571]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[3.9212-3.9295]</c:v>
+                  <c:v>[3.9571-3.9673]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[3.9295-3.9378]</c:v>
+                  <c:v>[3.9673-3.9775]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3883,31 +3880,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -3919,10 +3916,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3948,7 +3945,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Weighted Average Cost of Fund (%)</a:t>
+                  <a:t>Weighted Average Cost of Funds (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4059,46 +4056,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[9.894-10.013]</c:v>
+                  <c:v>[9.829-9.95]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[10.013-10.132]</c:v>
+                  <c:v>[9.95-10.07]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[10.132-10.251]</c:v>
+                  <c:v>[10.07-10.191]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.251-10.371]</c:v>
+                  <c:v>[10.191-10.311]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.371-10.49]</c:v>
+                  <c:v>[10.311-10.432]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[10.49-10.609]</c:v>
+                  <c:v>[10.432-10.552]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[10.609-10.728]</c:v>
+                  <c:v>[10.552-10.673]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[10.728-10.848]</c:v>
+                  <c:v>[10.673-10.793]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[10.848-10.967]</c:v>
+                  <c:v>[10.793-10.914]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[10.967-11.086]</c:v>
+                  <c:v>[10.914-11.034]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[11.086-11.205]</c:v>
+                  <c:v>[11.034-11.155]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[11.205-11.325]</c:v>
+                  <c:v>[11.155-11.276]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[11.325-11.444]</c:v>
+                  <c:v>[11.276-11.396]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[11.444-11.563]</c:v>
+                  <c:v>[11.396-11.517]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4113,40 +4110,40 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2</c:v>
@@ -5118,7 +5115,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5126,7 +5123,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5134,7 +5131,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5142,7 +5139,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5150,7 +5147,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5158,7 +5155,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5166,7 +5163,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5174,7 +5171,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5182,7 +5179,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5190,7 +5187,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5225,7 +5222,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -5233,23 +5230,23 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -5257,23 +5254,23 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5281,7 +5278,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5289,23 +5286,23 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5313,15 +5310,15 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -5329,7 +5326,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5351,7 +5348,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -5359,15 +5356,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5375,15 +5372,15 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5391,7 +5388,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -5399,7 +5396,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5407,7 +5404,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5415,47 +5412,47 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5477,39 +5474,39 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5517,31 +5514,31 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5549,7 +5546,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -5557,7 +5554,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5565,15 +5562,15 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -5581,10 +5578,10 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5603,7 +5600,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -5611,7 +5608,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5619,7 +5616,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5627,15 +5624,15 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -5643,15 +5640,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5659,58 +5656,58 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5729,23 +5726,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5753,7 +5750,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5761,15 +5758,15 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5777,7 +5774,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5785,15 +5782,15 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5801,23 +5798,23 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -5825,18 +5822,18 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5855,7 +5852,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -5863,7 +5860,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5871,39 +5868,39 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5911,15 +5908,15 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5927,7 +5924,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5935,23 +5932,23 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -5959,10 +5956,10 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5981,7 +5978,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -5989,7 +5986,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5997,7 +5994,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6005,7 +6002,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6013,15 +6010,15 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6029,23 +6026,23 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -6053,31 +6050,31 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6085,7 +6082,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6107,7 +6104,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6115,7 +6112,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6131,7 +6128,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6139,15 +6136,15 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6155,23 +6152,23 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6179,15 +6176,15 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6195,15 +6192,15 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6211,7 +6208,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6233,7 +6230,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6241,7 +6238,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6249,7 +6246,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6257,7 +6254,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6265,15 +6262,15 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6281,7 +6278,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6289,10 +6286,10 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6305,7 +6302,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -6313,7 +6310,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6321,7 +6318,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6329,7 +6326,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -6337,7 +6334,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6359,7 +6356,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6367,7 +6364,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6375,7 +6372,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6383,7 +6380,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6391,15 +6388,15 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6410,12 +6407,12 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -6423,7 +6420,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6431,15 +6428,15 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6450,7 +6447,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6485,7 +6482,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1">
         <v>2</v>
@@ -6493,71 +6490,71 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -6565,31 +6562,31 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6611,7 +6608,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -6619,7 +6616,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6627,39 +6624,39 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6667,7 +6664,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6675,15 +6672,15 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6691,7 +6688,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -6699,7 +6696,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -6707,15 +6704,15 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6737,7 +6734,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -6745,47 +6742,47 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6793,7 +6790,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6801,7 +6798,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6809,7 +6806,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6817,15 +6814,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6833,15 +6830,15 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6863,79 +6860,79 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6943,7 +6940,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6951,7 +6948,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -6959,18 +6956,18 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6989,7 +6986,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -6997,55 +6994,55 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -7053,47 +7050,47 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14">
         <v>2</v>

--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -29,564 +29,510 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="186">
-  <si>
-    <t>Deal Call Months</t>
-  </si>
-  <si>
-    <t>[23.0-24.0]</t>
-  </si>
-  <si>
-    <t>[24.0-24.0]</t>
-  </si>
-  <si>
-    <t>[24.0-25.0]</t>
-  </si>
-  <si>
-    <t>[25.0-26.0]</t>
-  </si>
-  <si>
-    <t>[26.0-26.0]</t>
-  </si>
-  <si>
-    <t>[26.0-27.0]</t>
-  </si>
-  <si>
-    <t>[27.0-28.0]</t>
-  </si>
-  <si>
-    <t>[28.0-28.0]</t>
-  </si>
-  <si>
-    <t>[28.0-29.0]</t>
-  </si>
-  <si>
-    <t>[29.0-29.0]</t>
-  </si>
-  <si>
-    <t>[29.0-30.0]</t>
-  </si>
-  <si>
-    <t>[30.0-31.0]</t>
-  </si>
-  <si>
-    <t>[31.0-31.0]</t>
-  </si>
-  <si>
-    <t>[31.0-32.0]</t>
-  </si>
-  <si>
-    <t>[25.0-25.0]</t>
-  </si>
-  <si>
-    <t>[30.0-30.0]</t>
-  </si>
-  <si>
-    <t>[27.0-27.0]</t>
-  </si>
-  <si>
-    <t>[3.8313-3.8516]</t>
-  </si>
-  <si>
-    <t>[3.8516-3.8718]</t>
-  </si>
-  <si>
-    <t>[3.8718-3.8921]</t>
-  </si>
-  <si>
-    <t>[3.8921-3.9123]</t>
-  </si>
-  <si>
-    <t>[3.9123-3.9326]</t>
-  </si>
-  <si>
-    <t>[3.9326-3.9528]</t>
-  </si>
-  <si>
-    <t>[3.9528-3.9731]</t>
-  </si>
-  <si>
-    <t>[3.9731-3.9933]</t>
-  </si>
-  <si>
-    <t>[3.9933-4.0136]</t>
-  </si>
-  <si>
-    <t>[4.0136-4.0338]</t>
-  </si>
-  <si>
-    <t>[4.0338-4.0541]</t>
-  </si>
-  <si>
-    <t>[4.0541-4.0743]</t>
-  </si>
-  <si>
-    <t>[4.0743-4.0946]</t>
-  </si>
-  <si>
-    <t>[4.0946-4.1148]</t>
-  </si>
-  <si>
-    <t>[3.8313-3.8464]</t>
-  </si>
-  <si>
-    <t>[3.8464-3.8614]</t>
-  </si>
-  <si>
-    <t>[3.8614-3.8765]</t>
-  </si>
-  <si>
-    <t>[3.8765-3.8915]</t>
-  </si>
-  <si>
-    <t>[3.8915-3.9066]</t>
-  </si>
-  <si>
-    <t>[3.9066-3.9216]</t>
-  </si>
-  <si>
-    <t>[3.9216-3.9367]</t>
-  </si>
-  <si>
-    <t>[3.9367-3.9517]</t>
-  </si>
-  <si>
-    <t>[3.9517-3.9668]</t>
-  </si>
-  <si>
-    <t>[3.9668-3.9818]</t>
-  </si>
-  <si>
-    <t>[3.9818-3.9969]</t>
-  </si>
-  <si>
-    <t>[3.9969-4.0119]</t>
-  </si>
-  <si>
-    <t>[4.0119-4.027]</t>
-  </si>
-  <si>
-    <t>[4.027-4.042]</t>
-  </si>
-  <si>
-    <t>[3.9146-3.9289]</t>
-  </si>
-  <si>
-    <t>[3.9289-3.9432]</t>
-  </si>
-  <si>
-    <t>[3.9432-3.9575]</t>
-  </si>
-  <si>
-    <t>[3.9575-3.9718]</t>
-  </si>
-  <si>
-    <t>[3.9718-3.9861]</t>
-  </si>
-  <si>
-    <t>[3.9861-4.0004]</t>
-  </si>
-  <si>
-    <t>[4.0004-4.0147]</t>
-  </si>
-  <si>
-    <t>[4.0147-4.029]</t>
-  </si>
-  <si>
-    <t>[4.029-4.0433]</t>
-  </si>
-  <si>
-    <t>[4.0433-4.0576]</t>
-  </si>
-  <si>
-    <t>[4.0576-4.0719]</t>
-  </si>
-  <si>
-    <t>[4.0719-4.0862]</t>
-  </si>
-  <si>
-    <t>[4.0862-4.1005]</t>
-  </si>
-  <si>
-    <t>[4.1005-4.1148]</t>
-  </si>
-  <si>
-    <t>[3.8347-3.8449]</t>
-  </si>
-  <si>
-    <t>[3.8449-3.8551]</t>
-  </si>
-  <si>
-    <t>[3.8551-3.8653]</t>
-  </si>
-  <si>
-    <t>[3.8653-3.8755]</t>
-  </si>
-  <si>
-    <t>[3.8755-3.8857]</t>
-  </si>
-  <si>
-    <t>[3.8857-3.8959]</t>
-  </si>
-  <si>
-    <t>[3.8959-3.9061]</t>
-  </si>
-  <si>
-    <t>[3.9061-3.9163]</t>
-  </si>
-  <si>
-    <t>[3.9163-3.9265]</t>
-  </si>
-  <si>
-    <t>[3.9265-3.9367]</t>
-  </si>
-  <si>
-    <t>[3.9367-3.9469]</t>
-  </si>
-  <si>
-    <t>[3.9469-3.9571]</t>
-  </si>
-  <si>
-    <t>[3.9571-3.9673]</t>
-  </si>
-  <si>
-    <t>[3.9673-3.9775]</t>
-  </si>
-  <si>
-    <t>[9.829-9.95]</t>
-  </si>
-  <si>
-    <t>[9.95-10.07]</t>
-  </si>
-  <si>
-    <t>[10.07-10.191]</t>
-  </si>
-  <si>
-    <t>[10.191-10.311]</t>
-  </si>
-  <si>
-    <t>[10.311-10.432]</t>
-  </si>
-  <si>
-    <t>[10.432-10.552]</t>
-  </si>
-  <si>
-    <t>[10.552-10.673]</t>
-  </si>
-  <si>
-    <t>[10.673-10.793]</t>
-  </si>
-  <si>
-    <t>[10.793-10.914]</t>
-  </si>
-  <si>
-    <t>[10.914-11.034]</t>
-  </si>
-  <si>
-    <t>[11.034-11.155]</t>
-  </si>
-  <si>
-    <t>[11.155-11.276]</t>
-  </si>
-  <si>
-    <t>[11.276-11.396]</t>
-  </si>
-  <si>
-    <t>[11.396-11.517]</t>
-  </si>
-  <si>
-    <t>[10.26-10.349]</t>
-  </si>
-  <si>
-    <t>[10.349-10.439]</t>
-  </si>
-  <si>
-    <t>[10.439-10.529]</t>
-  </si>
-  <si>
-    <t>[10.529-10.619]</t>
-  </si>
-  <si>
-    <t>[10.619-10.709]</t>
-  </si>
-  <si>
-    <t>[10.709-10.798]</t>
-  </si>
-  <si>
-    <t>[10.798-10.888]</t>
-  </si>
-  <si>
-    <t>[10.888-10.978]</t>
-  </si>
-  <si>
-    <t>[10.978-11.068]</t>
-  </si>
-  <si>
-    <t>[11.068-11.157]</t>
-  </si>
-  <si>
-    <t>[11.157-11.247]</t>
-  </si>
-  <si>
-    <t>[11.247-11.337]</t>
-  </si>
-  <si>
-    <t>[11.337-11.427]</t>
-  </si>
-  <si>
-    <t>[11.427-11.517]</t>
-  </si>
-  <si>
-    <t>[9.829-9.916]</t>
-  </si>
-  <si>
-    <t>[9.916-10.003]</t>
-  </si>
-  <si>
-    <t>[10.003-10.09]</t>
-  </si>
-  <si>
-    <t>[10.09-10.177]</t>
-  </si>
-  <si>
-    <t>[10.177-10.264]</t>
-  </si>
-  <si>
-    <t>[10.264-10.351]</t>
-  </si>
-  <si>
-    <t>[10.351-10.438]</t>
-  </si>
-  <si>
-    <t>[10.438-10.526]</t>
-  </si>
-  <si>
-    <t>[10.526-10.613]</t>
-  </si>
-  <si>
-    <t>[10.613-10.7]</t>
-  </si>
-  <si>
-    <t>[10.7-10.787]</t>
-  </si>
-  <si>
-    <t>[10.787-10.874]</t>
-  </si>
-  <si>
-    <t>[10.874-10.961]</t>
-  </si>
-  <si>
-    <t>[10.961-11.048]</t>
-  </si>
-  <si>
-    <t>[10.65-10.71]</t>
-  </si>
-  <si>
-    <t>[10.71-10.77]</t>
-  </si>
-  <si>
-    <t>[10.77-10.83]</t>
-  </si>
-  <si>
-    <t>[10.83-10.89]</t>
-  </si>
-  <si>
-    <t>[10.89-10.949]</t>
-  </si>
-  <si>
-    <t>[10.949-11.009]</t>
-  </si>
-  <si>
-    <t>[11.009-11.069]</t>
-  </si>
-  <si>
-    <t>[11.069-11.129]</t>
-  </si>
-  <si>
-    <t>[11.129-11.189]</t>
-  </si>
-  <si>
-    <t>[11.189-11.248]</t>
-  </si>
-  <si>
-    <t>[11.248-11.308]</t>
-  </si>
-  <si>
-    <t>[11.308-11.368]</t>
-  </si>
-  <si>
-    <t>[11.368-11.428]</t>
-  </si>
-  <si>
-    <t>[11.428-11.488]</t>
-  </si>
-  <si>
-    <t>[83.417-83.5363]</t>
-  </si>
-  <si>
-    <t>[83.5363-83.6556]</t>
-  </si>
-  <si>
-    <t>[83.6556-83.7749]</t>
-  </si>
-  <si>
-    <t>[83.7749-83.8942]</t>
-  </si>
-  <si>
-    <t>[83.8942-84.0134]</t>
-  </si>
-  <si>
-    <t>[84.0134-84.1327]</t>
-  </si>
-  <si>
-    <t>[84.1327-84.252]</t>
-  </si>
-  <si>
-    <t>[84.252-84.3713]</t>
-  </si>
-  <si>
-    <t>[84.3713-84.4906]</t>
-  </si>
-  <si>
-    <t>[84.4906-84.6099]</t>
-  </si>
-  <si>
-    <t>[84.6099-84.7292]</t>
-  </si>
-  <si>
-    <t>[84.7292-84.8485]</t>
-  </si>
-  <si>
-    <t>[84.8485-84.9677]</t>
-  </si>
-  <si>
-    <t>[84.9677-85.087]</t>
-  </si>
-  <si>
-    <t>[83.6033-83.6958]</t>
-  </si>
-  <si>
-    <t>[83.6958-83.7883]</t>
-  </si>
-  <si>
-    <t>[83.7883-83.8807]</t>
-  </si>
-  <si>
-    <t>[83.8807-83.9732]</t>
-  </si>
-  <si>
-    <t>[83.9732-84.0657]</t>
-  </si>
-  <si>
-    <t>[84.0657-84.1582]</t>
-  </si>
-  <si>
-    <t>[84.1582-84.2506]</t>
-  </si>
-  <si>
-    <t>[84.2506-84.3431]</t>
-  </si>
-  <si>
-    <t>[84.3431-84.4356]</t>
-  </si>
-  <si>
-    <t>[84.4356-84.5281]</t>
-  </si>
-  <si>
-    <t>[84.5281-84.6205]</t>
-  </si>
-  <si>
-    <t>[84.6205-84.713]</t>
-  </si>
-  <si>
-    <t>[84.713-84.8055]</t>
-  </si>
-  <si>
-    <t>[84.8055-84.8979]</t>
-  </si>
-  <si>
-    <t>[83.417-83.5313]</t>
-  </si>
-  <si>
-    <t>[83.5313-83.6456]</t>
-  </si>
-  <si>
-    <t>[83.6456-83.7598]</t>
-  </si>
-  <si>
-    <t>[83.7598-83.8741]</t>
-  </si>
-  <si>
-    <t>[83.8741-83.9884]</t>
-  </si>
-  <si>
-    <t>[83.9884-84.1027]</t>
-  </si>
-  <si>
-    <t>[84.1027-84.217]</t>
-  </si>
-  <si>
-    <t>[84.217-84.3313]</t>
-  </si>
-  <si>
-    <t>[84.3313-84.4455]</t>
-  </si>
-  <si>
-    <t>[84.4455-84.5598]</t>
-  </si>
-  <si>
-    <t>[84.5598-84.6741]</t>
-  </si>
-  <si>
-    <t>[84.6741-84.7884]</t>
-  </si>
-  <si>
-    <t>[84.7884-84.9027]</t>
-  </si>
-  <si>
-    <t>[84.9027-85.0169]</t>
-  </si>
-  <si>
-    <t>[83.9234-84.0065]</t>
-  </si>
-  <si>
-    <t>[84.0065-84.0896]</t>
-  </si>
-  <si>
-    <t>[84.0896-84.1728]</t>
-  </si>
-  <si>
-    <t>[84.1728-84.2559]</t>
-  </si>
-  <si>
-    <t>[84.2559-84.339]</t>
-  </si>
-  <si>
-    <t>[84.339-84.4221]</t>
-  </si>
-  <si>
-    <t>[84.4221-84.5052]</t>
-  </si>
-  <si>
-    <t>[84.5052-84.5883]</t>
-  </si>
-  <si>
-    <t>[84.5883-84.6715]</t>
-  </si>
-  <si>
-    <t>[84.6715-84.7546]</t>
-  </si>
-  <si>
-    <t>[84.7546-84.8377]</t>
-  </si>
-  <si>
-    <t>[84.8377-84.9208]</t>
-  </si>
-  <si>
-    <t>[84.9208-85.0039]</t>
-  </si>
-  <si>
-    <t>[85.0039-85.087]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+  <si>
+    <t>[3.8028-3.8328]</t>
+  </si>
+  <si>
+    <t>[3.8328-3.8628]</t>
+  </si>
+  <si>
+    <t>[3.8628-3.8928]</t>
+  </si>
+  <si>
+    <t>[3.8928-3.9227]</t>
+  </si>
+  <si>
+    <t>[3.9227-3.9527]</t>
+  </si>
+  <si>
+    <t>[3.9527-3.9827]</t>
+  </si>
+  <si>
+    <t>[3.9827-4.0127]</t>
+  </si>
+  <si>
+    <t>[4.0127-4.0426]</t>
+  </si>
+  <si>
+    <t>[4.0426-4.0726]</t>
+  </si>
+  <si>
+    <t>[4.0726-4.1026]</t>
+  </si>
+  <si>
+    <t>[4.1026-4.1326]</t>
+  </si>
+  <si>
+    <t>[4.1326-4.1626]</t>
+  </si>
+  <si>
+    <t>[4.1626-4.1925]</t>
+  </si>
+  <si>
+    <t>[4.1925-4.2225]</t>
+  </si>
+  <si>
+    <t>[3.8075-3.8266]</t>
+  </si>
+  <si>
+    <t>[3.8266-3.8457]</t>
+  </si>
+  <si>
+    <t>[3.8457-3.8648]</t>
+  </si>
+  <si>
+    <t>[3.8648-3.8839]</t>
+  </si>
+  <si>
+    <t>[3.8839-3.903]</t>
+  </si>
+  <si>
+    <t>[3.903-3.9221]</t>
+  </si>
+  <si>
+    <t>[3.9221-3.9411]</t>
+  </si>
+  <si>
+    <t>[3.9411-3.9602]</t>
+  </si>
+  <si>
+    <t>[3.9602-3.9793]</t>
+  </si>
+  <si>
+    <t>[3.9793-3.9984]</t>
+  </si>
+  <si>
+    <t>[3.9984-4.0175]</t>
+  </si>
+  <si>
+    <t>[4.0175-4.0366]</t>
+  </si>
+  <si>
+    <t>[4.0366-4.0557]</t>
+  </si>
+  <si>
+    <t>[4.0557-4.0748]</t>
+  </si>
+  <si>
+    <t>[3.8597-3.8856]</t>
+  </si>
+  <si>
+    <t>[3.8856-3.9115]</t>
+  </si>
+  <si>
+    <t>[3.9115-3.9374]</t>
+  </si>
+  <si>
+    <t>[3.9374-3.9633]</t>
+  </si>
+  <si>
+    <t>[3.9633-3.9892]</t>
+  </si>
+  <si>
+    <t>[3.9892-4.0152]</t>
+  </si>
+  <si>
+    <t>[4.0152-4.0411]</t>
+  </si>
+  <si>
+    <t>[4.0411-4.067]</t>
+  </si>
+  <si>
+    <t>[4.067-4.0929]</t>
+  </si>
+  <si>
+    <t>[4.0929-4.1188]</t>
+  </si>
+  <si>
+    <t>[4.1188-4.1448]</t>
+  </si>
+  <si>
+    <t>[4.1448-4.1707]</t>
+  </si>
+  <si>
+    <t>[4.1707-4.1966]</t>
+  </si>
+  <si>
+    <t>[4.1966-4.2225]</t>
+  </si>
+  <si>
+    <t>[3.8028-3.8188]</t>
+  </si>
+  <si>
+    <t>[3.8188-3.8348]</t>
+  </si>
+  <si>
+    <t>[3.8348-3.8508]</t>
+  </si>
+  <si>
+    <t>[3.8508-3.8667]</t>
+  </si>
+  <si>
+    <t>[3.8667-3.8827]</t>
+  </si>
+  <si>
+    <t>[3.8827-3.8987]</t>
+  </si>
+  <si>
+    <t>[3.8987-3.9147]</t>
+  </si>
+  <si>
+    <t>[3.9147-3.9306]</t>
+  </si>
+  <si>
+    <t>[3.9306-3.9466]</t>
+  </si>
+  <si>
+    <t>[3.9466-3.9626]</t>
+  </si>
+  <si>
+    <t>[3.9626-3.9786]</t>
+  </si>
+  <si>
+    <t>[3.9786-3.9946]</t>
+  </si>
+  <si>
+    <t>[3.9946-4.0105]</t>
+  </si>
+  <si>
+    <t>[4.0105-4.0265]</t>
+  </si>
+  <si>
+    <t>[9.15-9.33]</t>
+  </si>
+  <si>
+    <t>[9.33-9.511]</t>
+  </si>
+  <si>
+    <t>[9.511-9.691]</t>
+  </si>
+  <si>
+    <t>[9.691-9.872]</t>
+  </si>
+  <si>
+    <t>[9.872-10.053]</t>
+  </si>
+  <si>
+    <t>[10.053-10.233]</t>
+  </si>
+  <si>
+    <t>[10.233-10.414]</t>
+  </si>
+  <si>
+    <t>[10.414-10.595]</t>
+  </si>
+  <si>
+    <t>[10.595-10.775]</t>
+  </si>
+  <si>
+    <t>[10.775-10.956]</t>
+  </si>
+  <si>
+    <t>[10.956-11.136]</t>
+  </si>
+  <si>
+    <t>[11.136-11.317]</t>
+  </si>
+  <si>
+    <t>[11.317-11.498]</t>
+  </si>
+  <si>
+    <t>[11.498-11.678]</t>
+  </si>
+  <si>
+    <t>[10.078-10.191]</t>
+  </si>
+  <si>
+    <t>[10.191-10.304]</t>
+  </si>
+  <si>
+    <t>[10.304-10.418]</t>
+  </si>
+  <si>
+    <t>[10.418-10.531]</t>
+  </si>
+  <si>
+    <t>[10.531-10.644]</t>
+  </si>
+  <si>
+    <t>[10.644-10.758]</t>
+  </si>
+  <si>
+    <t>[10.758-10.871]</t>
+  </si>
+  <si>
+    <t>[10.871-10.984]</t>
+  </si>
+  <si>
+    <t>[10.984-11.098]</t>
+  </si>
+  <si>
+    <t>[11.098-11.211]</t>
+  </si>
+  <si>
+    <t>[11.211-11.324]</t>
+  </si>
+  <si>
+    <t>[11.324-11.438]</t>
+  </si>
+  <si>
+    <t>[11.438-11.551]</t>
+  </si>
+  <si>
+    <t>[11.551-11.664]</t>
+  </si>
+  <si>
+    <t>[9.15-9.306]</t>
+  </si>
+  <si>
+    <t>[9.306-9.463]</t>
+  </si>
+  <si>
+    <t>[9.463-9.619]</t>
+  </si>
+  <si>
+    <t>[9.619-9.776]</t>
+  </si>
+  <si>
+    <t>[9.776-9.932]</t>
+  </si>
+  <si>
+    <t>[9.932-10.089]</t>
+  </si>
+  <si>
+    <t>[10.089-10.245]</t>
+  </si>
+  <si>
+    <t>[10.245-10.402]</t>
+  </si>
+  <si>
+    <t>[10.402-10.558]</t>
+  </si>
+  <si>
+    <t>[10.558-10.715]</t>
+  </si>
+  <si>
+    <t>[10.715-10.871]</t>
+  </si>
+  <si>
+    <t>[10.871-11.028]</t>
+  </si>
+  <si>
+    <t>[11.028-11.184]</t>
+  </si>
+  <si>
+    <t>[11.184-11.341]</t>
+  </si>
+  <si>
+    <t>[10.377-10.47]</t>
+  </si>
+  <si>
+    <t>[10.47-10.563]</t>
+  </si>
+  <si>
+    <t>[10.563-10.656]</t>
+  </si>
+  <si>
+    <t>[10.656-10.749]</t>
+  </si>
+  <si>
+    <t>[10.749-10.842]</t>
+  </si>
+  <si>
+    <t>[10.842-10.935]</t>
+  </si>
+  <si>
+    <t>[10.935-11.028]</t>
+  </si>
+  <si>
+    <t>[11.028-11.121]</t>
+  </si>
+  <si>
+    <t>[11.121-11.214]</t>
+  </si>
+  <si>
+    <t>[11.214-11.307]</t>
+  </si>
+  <si>
+    <t>[11.307-11.4]</t>
+  </si>
+  <si>
+    <t>[11.4-11.493]</t>
+  </si>
+  <si>
+    <t>[11.493-11.585]</t>
+  </si>
+  <si>
+    <t>[11.585-11.678]</t>
+  </si>
+  <si>
+    <t>[82.4-82.61]</t>
+  </si>
+  <si>
+    <t>[82.61-82.82]</t>
+  </si>
+  <si>
+    <t>[82.82-83.02]</t>
+  </si>
+  <si>
+    <t>[83.02-83.23]</t>
+  </si>
+  <si>
+    <t>[83.23-83.43]</t>
+  </si>
+  <si>
+    <t>[83.43-83.64]</t>
+  </si>
+  <si>
+    <t>[83.64-83.85]</t>
+  </si>
+  <si>
+    <t>[83.85-84.05]</t>
+  </si>
+  <si>
+    <t>[84.05-84.26]</t>
+  </si>
+  <si>
+    <t>[84.26-84.46]</t>
+  </si>
+  <si>
+    <t>[84.46-84.67]</t>
+  </si>
+  <si>
+    <t>[84.67-84.88]</t>
+  </si>
+  <si>
+    <t>[84.88-85.08]</t>
+  </si>
+  <si>
+    <t>[85.08-85.29]</t>
+  </si>
+  <si>
+    <t>[83.43-83.55]</t>
+  </si>
+  <si>
+    <t>[83.55-83.68]</t>
+  </si>
+  <si>
+    <t>[83.68-83.8]</t>
+  </si>
+  <si>
+    <t>[83.8-83.93]</t>
+  </si>
+  <si>
+    <t>[83.93-84.05]</t>
+  </si>
+  <si>
+    <t>[84.05-84.17]</t>
+  </si>
+  <si>
+    <t>[84.17-84.3]</t>
+  </si>
+  <si>
+    <t>[84.3-84.42]</t>
+  </si>
+  <si>
+    <t>[84.42-84.55]</t>
+  </si>
+  <si>
+    <t>[84.55-84.67]</t>
+  </si>
+  <si>
+    <t>[84.67-84.79]</t>
+  </si>
+  <si>
+    <t>[84.79-84.92]</t>
+  </si>
+  <si>
+    <t>[84.92-85.04]</t>
+  </si>
+  <si>
+    <t>[85.04-85.17]</t>
+  </si>
+  <si>
+    <t>[82.4-82.6]</t>
+  </si>
+  <si>
+    <t>[82.6-82.8]</t>
+  </si>
+  <si>
+    <t>[82.8-83.0]</t>
+  </si>
+  <si>
+    <t>[83.0-83.2]</t>
+  </si>
+  <si>
+    <t>[83.2-83.4]</t>
+  </si>
+  <si>
+    <t>[83.4-83.6]</t>
+  </si>
+  <si>
+    <t>[83.6-83.8]</t>
+  </si>
+  <si>
+    <t>[83.8-84.0]</t>
+  </si>
+  <si>
+    <t>[84.0-84.2]</t>
+  </si>
+  <si>
+    <t>[84.2-84.4]</t>
+  </si>
+  <si>
+    <t>[84.4-84.6]</t>
+  </si>
+  <si>
+    <t>[84.6-84.8]</t>
+  </si>
+  <si>
+    <t>[84.8-85.0]</t>
+  </si>
+  <si>
+    <t>[85.0-85.2]</t>
+  </si>
+  <si>
+    <t>[83.64-83.75]</t>
+  </si>
+  <si>
+    <t>[83.75-83.87]</t>
+  </si>
+  <si>
+    <t>[83.87-83.99]</t>
+  </si>
+  <si>
+    <t>[83.99-84.11]</t>
+  </si>
+  <si>
+    <t>[84.11-84.23]</t>
+  </si>
+  <si>
+    <t>[84.23-84.34]</t>
+  </si>
+  <si>
+    <t>[84.34-84.46]</t>
+  </si>
+  <si>
+    <t>[84.46-84.58]</t>
+  </si>
+  <si>
+    <t>[84.58-84.7]</t>
+  </si>
+  <si>
+    <t>[84.7-84.82]</t>
+  </si>
+  <si>
+    <t>[84.82-84.93]</t>
+  </si>
+  <si>
+    <t>[84.93-85.05]</t>
+  </si>
+  <si>
+    <t>[85.05-85.17]</t>
+  </si>
+  <si>
+    <t>[85.17-85.29]</t>
   </si>
 </sst>
 </file>
@@ -686,102 +632,73 @@
             <c:v>Frequency</c:v>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>'Deal Call Months'!$A$1:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
+            <c:numRef>
+              <c:f>'Deal Call Months'!$A$1:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>[23.0-24.0]</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[24.0-24.0]</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[24.0-25.0]</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[25.0-26.0]</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[26.0-26.0]</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[26.0-27.0]</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[27.0-28.0]</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[28.0-28.0]</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[28.0-29.0]</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>[29.0-29.0]</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>[29.0-30.0]</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>[30.0-31.0]</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>[31.0-31.0]</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>[31.0-32.0]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deal Call Months'!$B$1:$B$15</c:f>
+              <c:f>'Deal Call Months'!$B$1:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -908,46 +825,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[10.26-10.349]</c:v>
+                  <c:v>[10.078-10.191]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[10.349-10.439]</c:v>
+                  <c:v>[10.191-10.304]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[10.439-10.529]</c:v>
+                  <c:v>[10.304-10.418]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.529-10.619]</c:v>
+                  <c:v>[10.418-10.531]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.619-10.709]</c:v>
+                  <c:v>[10.531-10.644]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[10.709-10.798]</c:v>
+                  <c:v>[10.644-10.758]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[10.798-10.888]</c:v>
+                  <c:v>[10.758-10.871]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[10.888-10.978]</c:v>
+                  <c:v>[10.871-10.984]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[10.978-11.068]</c:v>
+                  <c:v>[10.984-11.098]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[11.068-11.157]</c:v>
+                  <c:v>[11.098-11.211]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[11.157-11.247]</c:v>
+                  <c:v>[11.211-11.324]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[11.247-11.337]</c:v>
+                  <c:v>[11.324-11.438]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[11.337-11.427]</c:v>
+                  <c:v>[11.438-11.551]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[11.427-11.517]</c:v>
+                  <c:v>[11.551-11.664]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -959,43 +876,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -1135,46 +1052,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[9.829-9.916]</c:v>
+                  <c:v>[9.15-9.306]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[9.916-10.003]</c:v>
+                  <c:v>[9.306-9.463]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[10.003-10.09]</c:v>
+                  <c:v>[9.463-9.619]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.09-10.177]</c:v>
+                  <c:v>[9.619-9.776]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.177-10.264]</c:v>
+                  <c:v>[9.776-9.932]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[10.264-10.351]</c:v>
+                  <c:v>[9.932-10.089]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[10.351-10.438]</c:v>
+                  <c:v>[10.089-10.245]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[10.438-10.526]</c:v>
+                  <c:v>[10.245-10.402]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[10.526-10.613]</c:v>
+                  <c:v>[10.402-10.558]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[10.613-10.7]</c:v>
+                  <c:v>[10.558-10.715]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[10.7-10.787]</c:v>
+                  <c:v>[10.715-10.871]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[10.787-10.874]</c:v>
+                  <c:v>[10.871-11.028]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[10.874-10.961]</c:v>
+                  <c:v>[11.028-11.184]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[10.961-11.048]</c:v>
+                  <c:v>[11.184-11.341]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1189,43 +1106,43 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1362,46 +1279,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[10.65-10.71]</c:v>
+                  <c:v>[10.377-10.47]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[10.71-10.77]</c:v>
+                  <c:v>[10.47-10.563]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[10.77-10.83]</c:v>
+                  <c:v>[10.563-10.656]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.83-10.89]</c:v>
+                  <c:v>[10.656-10.749]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.89-10.949]</c:v>
+                  <c:v>[10.749-10.842]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[10.949-11.009]</c:v>
+                  <c:v>[10.842-10.935]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[11.009-11.069]</c:v>
+                  <c:v>[10.935-11.028]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[11.069-11.129]</c:v>
+                  <c:v>[11.028-11.121]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[11.129-11.189]</c:v>
+                  <c:v>[11.121-11.214]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[11.189-11.248]</c:v>
+                  <c:v>[11.214-11.307]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[11.248-11.308]</c:v>
+                  <c:v>[11.307-11.4]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[11.308-11.368]</c:v>
+                  <c:v>[11.4-11.493]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[11.368-11.428]</c:v>
+                  <c:v>[11.493-11.585]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[11.428-11.488]</c:v>
+                  <c:v>[11.585-11.678]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1416,43 +1333,43 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1589,46 +1506,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[83.417-83.5363]</c:v>
+                  <c:v>[82.4-82.61]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[83.5363-83.6556]</c:v>
+                  <c:v>[82.61-82.82]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[83.6556-83.7749]</c:v>
+                  <c:v>[82.82-83.02]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[83.7749-83.8942]</c:v>
+                  <c:v>[83.02-83.23]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[83.8942-84.0134]</c:v>
+                  <c:v>[83.23-83.43]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[84.0134-84.1327]</c:v>
+                  <c:v>[83.43-83.64]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[84.1327-84.252]</c:v>
+                  <c:v>[83.64-83.85]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[84.252-84.3713]</c:v>
+                  <c:v>[83.85-84.05]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.3713-84.4906]</c:v>
+                  <c:v>[84.05-84.26]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.4906-84.6099]</c:v>
+                  <c:v>[84.26-84.46]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.6099-84.7292]</c:v>
+                  <c:v>[84.46-84.67]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.7292-84.8485]</c:v>
+                  <c:v>[84.67-84.88]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[84.8485-84.9677]</c:v>
+                  <c:v>[84.88-85.08]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[84.9677-85.087]</c:v>
+                  <c:v>[85.08-85.29]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1640,46 +1557,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1712,7 +1629,7 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-2700000" vert="horz"/>
@@ -1816,46 +1733,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[83.6033-83.6958]</c:v>
+                  <c:v>[83.43-83.55]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[83.6958-83.7883]</c:v>
+                  <c:v>[83.55-83.68]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[83.7883-83.8807]</c:v>
+                  <c:v>[83.68-83.8]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[83.8807-83.9732]</c:v>
+                  <c:v>[83.8-83.93]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[83.9732-84.0657]</c:v>
+                  <c:v>[83.93-84.05]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[84.0657-84.1582]</c:v>
+                  <c:v>[84.05-84.17]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[84.1582-84.2506]</c:v>
+                  <c:v>[84.17-84.3]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[84.2506-84.3431]</c:v>
+                  <c:v>[84.3-84.42]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.3431-84.4356]</c:v>
+                  <c:v>[84.42-84.55]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.4356-84.5281]</c:v>
+                  <c:v>[84.55-84.67]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.5281-84.6205]</c:v>
+                  <c:v>[84.67-84.79]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.6205-84.713]</c:v>
+                  <c:v>[84.79-84.92]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[84.713-84.8055]</c:v>
+                  <c:v>[84.92-85.04]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[84.8055-84.8979]</c:v>
+                  <c:v>[85.04-85.17]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1867,7 +1784,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1876,37 +1793,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1939,7 +1856,7 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-2700000" vert="horz"/>
@@ -2043,46 +1960,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[83.417-83.5313]</c:v>
+                  <c:v>[82.4-82.6]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[83.5313-83.6456]</c:v>
+                  <c:v>[82.6-82.8]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[83.6456-83.7598]</c:v>
+                  <c:v>[82.8-83.0]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[83.7598-83.8741]</c:v>
+                  <c:v>[83.0-83.2]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[83.8741-83.9884]</c:v>
+                  <c:v>[83.2-83.4]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[83.9884-84.1027]</c:v>
+                  <c:v>[83.4-83.6]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[84.1027-84.217]</c:v>
+                  <c:v>[83.6-83.8]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[84.217-84.3313]</c:v>
+                  <c:v>[83.8-84.0]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.3313-84.4455]</c:v>
+                  <c:v>[84.0-84.2]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.4455-84.5598]</c:v>
+                  <c:v>[84.2-84.4]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.5598-84.6741]</c:v>
+                  <c:v>[84.4-84.6]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.6741-84.7884]</c:v>
+                  <c:v>[84.6-84.8]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[84.7884-84.9027]</c:v>
+                  <c:v>[84.8-85.0]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[84.9027-85.0169]</c:v>
+                  <c:v>[85.0-85.2]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2094,46 +2011,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2166,7 +2083,7 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-2700000" vert="horz"/>
@@ -2270,46 +2187,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[83.9234-84.0065]</c:v>
+                  <c:v>[83.64-83.75]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[84.0065-84.0896]</c:v>
+                  <c:v>[83.75-83.87]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[84.0896-84.1728]</c:v>
+                  <c:v>[83.87-83.99]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[84.1728-84.2559]</c:v>
+                  <c:v>[83.99-84.11]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[84.2559-84.339]</c:v>
+                  <c:v>[84.11-84.23]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[84.339-84.4221]</c:v>
+                  <c:v>[84.23-84.34]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[84.4221-84.5052]</c:v>
+                  <c:v>[84.34-84.46]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[84.5052-84.5883]</c:v>
+                  <c:v>[84.46-84.58]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.5883-84.6715]</c:v>
+                  <c:v>[84.58-84.7]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.6715-84.7546]</c:v>
+                  <c:v>[84.7-84.82]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.7546-84.8377]</c:v>
+                  <c:v>[84.82-84.93]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.8377-84.9208]</c:v>
+                  <c:v>[84.93-85.05]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[84.9208-85.0039]</c:v>
+                  <c:v>[85.05-85.17]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[85.0039-85.087]</c:v>
+                  <c:v>[85.17-85.29]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2324,43 +2241,43 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2393,7 +2310,7 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-2700000" vert="horz"/>
@@ -2492,102 +2409,73 @@
             <c:v>Frequency</c:v>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>'Deal Call Months Base'!$A$1:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
+            <c:numRef>
+              <c:f>'Deal Call Months Base'!$A$1:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>[23.0-24.0]</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[24.0-24.0]</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[24.0-25.0]</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[25.0-25.0]</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[25.0-26.0]</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[26.0-26.0]</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[26.0-27.0]</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[27.0-28.0]</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[28.0-28.0]</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>[28.0-29.0]</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>[29.0-29.0]</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>[29.0-30.0]</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>[30.0-30.0]</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>[30.0-31.0]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deal Call Months Base'!$B$1:$B$15</c:f>
+              <c:f>'Deal Call Months Base'!$B$1:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2709,102 +2597,73 @@
             <c:v>Frequency</c:v>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>'Deal Call Months Downside'!$A$1:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
+            <c:numRef>
+              <c:f>'Deal Call Months Downside'!$A$1:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>[24.0-24.0]</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[24.0-25.0]</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[25.0-25.0]</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[25.0-25.0]</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[25.0-26.0]</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[26.0-26.0]</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[26.0-26.0]</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[26.0-27.0]</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[27.0-27.0]</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>[27.0-28.0]</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>[28.0-28.0]</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>[28.0-28.0]</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>[28.0-29.0]</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>[29.0-29.0]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deal Call Months Downside'!$B$1:$B$15</c:f>
+              <c:f>'Deal Call Months Downside'!$B$1:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2926,102 +2785,73 @@
             <c:v>Frequency</c:v>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>'Deal Call Months Upside'!$A$1:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
+            <c:numRef>
+              <c:f>'Deal Call Months Upside'!$A$1:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>[24.0-25.0]</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[25.0-25.0]</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[25.0-26.0]</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[26.0-26.0]</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[26.0-27.0]</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[27.0-27.0]</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[27.0-28.0]</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[28.0-29.0]</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[29.0-29.0]</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>[29.0-30.0]</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>[30.0-30.0]</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>[30.0-31.0]</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>[31.0-31.0]</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>[31.0-32.0]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deal Call Months Upside'!$B$1:$B$15</c:f>
+              <c:f>'Deal Call Months Upside'!$B$1:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3148,46 +2978,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.8313-3.8516]</c:v>
+                  <c:v>[3.8028-3.8328]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.8516-3.8718]</c:v>
+                  <c:v>[3.8328-3.8628]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.8718-3.8921]</c:v>
+                  <c:v>[3.8628-3.8928]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.8921-3.9123]</c:v>
+                  <c:v>[3.8928-3.9227]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.9123-3.9326]</c:v>
+                  <c:v>[3.9227-3.9527]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.9326-3.9528]</c:v>
+                  <c:v>[3.9527-3.9827]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[3.9528-3.9731]</c:v>
+                  <c:v>[3.9827-4.0127]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[3.9731-3.9933]</c:v>
+                  <c:v>[4.0127-4.0426]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[3.9933-4.0136]</c:v>
+                  <c:v>[4.0426-4.0726]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[4.0136-4.0338]</c:v>
+                  <c:v>[4.0726-4.1026]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[4.0338-4.0541]</c:v>
+                  <c:v>[4.1026-4.1326]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[4.0541-4.0743]</c:v>
+                  <c:v>[4.1326-4.1626]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.0743-4.0946]</c:v>
+                  <c:v>[4.1626-4.1925]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.0946-4.1148]</c:v>
+                  <c:v>[4.1925-4.2225]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3199,46 +3029,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3264,7 +3094,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Weighted Average Cost of Funds (%)</a:t>
+                  <a:t>Weighted Average Cost of Fund (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3375,46 +3205,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.8313-3.8464]</c:v>
+                  <c:v>[3.8075-3.8266]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.8464-3.8614]</c:v>
+                  <c:v>[3.8266-3.8457]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.8614-3.8765]</c:v>
+                  <c:v>[3.8457-3.8648]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.8765-3.8915]</c:v>
+                  <c:v>[3.8648-3.8839]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.8915-3.9066]</c:v>
+                  <c:v>[3.8839-3.903]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.9066-3.9216]</c:v>
+                  <c:v>[3.903-3.9221]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[3.9216-3.9367]</c:v>
+                  <c:v>[3.9221-3.9411]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[3.9367-3.9517]</c:v>
+                  <c:v>[3.9411-3.9602]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[3.9517-3.9668]</c:v>
+                  <c:v>[3.9602-3.9793]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[3.9668-3.9818]</c:v>
+                  <c:v>[3.9793-3.9984]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[3.9818-3.9969]</c:v>
+                  <c:v>[3.9984-4.0175]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[3.9969-4.0119]</c:v>
+                  <c:v>[4.0175-4.0366]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.0119-4.027]</c:v>
+                  <c:v>[4.0366-4.0557]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.027-4.042]</c:v>
+                  <c:v>[4.0557-4.0748]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3429,43 +3259,43 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3491,7 +3321,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Weighted Average Cost of Funds (%)</a:t>
+                  <a:t>Weighted Average Cost of Fund (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3602,46 +3432,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.9146-3.9289]</c:v>
+                  <c:v>[3.8597-3.8856]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.9289-3.9432]</c:v>
+                  <c:v>[3.8856-3.9115]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.9432-3.9575]</c:v>
+                  <c:v>[3.9115-3.9374]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.9575-3.9718]</c:v>
+                  <c:v>[3.9374-3.9633]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.9718-3.9861]</c:v>
+                  <c:v>[3.9633-3.9892]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.9861-4.0004]</c:v>
+                  <c:v>[3.9892-4.0152]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[4.0004-4.0147]</c:v>
+                  <c:v>[4.0152-4.0411]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[4.0147-4.029]</c:v>
+                  <c:v>[4.0411-4.067]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[4.029-4.0433]</c:v>
+                  <c:v>[4.067-4.0929]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[4.0433-4.0576]</c:v>
+                  <c:v>[4.0929-4.1188]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[4.0576-4.0719]</c:v>
+                  <c:v>[4.1188-4.1448]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[4.0719-4.0862]</c:v>
+                  <c:v>[4.1448-4.1707]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.0862-4.1005]</c:v>
+                  <c:v>[4.1707-4.1966]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.1005-4.1148]</c:v>
+                  <c:v>[4.1966-4.2225]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3653,43 +3483,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -3718,7 +3548,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Weighted Average Cost of Funds (%)</a:t>
+                  <a:t>Weighted Average Cost of Fund (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3829,46 +3659,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.8347-3.8449]</c:v>
+                  <c:v>[3.8028-3.8188]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.8449-3.8551]</c:v>
+                  <c:v>[3.8188-3.8348]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.8551-3.8653]</c:v>
+                  <c:v>[3.8348-3.8508]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.8653-3.8755]</c:v>
+                  <c:v>[3.8508-3.8667]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.8755-3.8857]</c:v>
+                  <c:v>[3.8667-3.8827]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.8857-3.8959]</c:v>
+                  <c:v>[3.8827-3.8987]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[3.8959-3.9061]</c:v>
+                  <c:v>[3.8987-3.9147]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[3.9061-3.9163]</c:v>
+                  <c:v>[3.9147-3.9306]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[3.9163-3.9265]</c:v>
+                  <c:v>[3.9306-3.9466]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[3.9265-3.9367]</c:v>
+                  <c:v>[3.9466-3.9626]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[3.9367-3.9469]</c:v>
+                  <c:v>[3.9626-3.9786]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[3.9469-3.9571]</c:v>
+                  <c:v>[3.9786-3.9946]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[3.9571-3.9673]</c:v>
+                  <c:v>[3.9946-4.0105]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[3.9673-3.9775]</c:v>
+                  <c:v>[4.0105-4.0265]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3880,43 +3710,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -3945,7 +3775,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Weighted Average Cost of Funds (%)</a:t>
+                  <a:t>Weighted Average Cost of Fund (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4056,46 +3886,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[9.829-9.95]</c:v>
+                  <c:v>[9.15-9.33]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[9.95-10.07]</c:v>
+                  <c:v>[9.33-9.511]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[10.07-10.191]</c:v>
+                  <c:v>[9.511-9.691]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.191-10.311]</c:v>
+                  <c:v>[9.691-9.872]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.311-10.432]</c:v>
+                  <c:v>[9.872-10.053]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[10.432-10.552]</c:v>
+                  <c:v>[10.053-10.233]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[10.552-10.673]</c:v>
+                  <c:v>[10.233-10.414]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[10.673-10.793]</c:v>
+                  <c:v>[10.414-10.595]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[10.793-10.914]</c:v>
+                  <c:v>[10.595-10.775]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[10.914-11.034]</c:v>
+                  <c:v>[10.775-10.956]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[11.034-11.155]</c:v>
+                  <c:v>[10.956-11.136]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[11.155-11.276]</c:v>
+                  <c:v>[11.136-11.317]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[11.276-11.396]</c:v>
+                  <c:v>[11.317-11.498]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[11.396-11.517]</c:v>
+                  <c:v>[11.498-11.678]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4107,46 +3937,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5088,122 +4918,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
+      <c r="A1" s="1">
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="1">
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+      <c r="A3" s="1">
+        <v>25</v>
       </c>
       <c r="B3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>32</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
+      <c r="A9" s="1">
+        <v>33</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
+      <c r="A10" s="1">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -5222,111 +5017,111 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5348,7 +5143,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -5356,106 +5151,106 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5474,7 +5269,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -5482,106 +5277,106 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5600,114 +5395,114 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -5726,15 +5521,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5742,7 +5537,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5750,90 +5545,90 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5852,15 +5647,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5868,98 +5663,98 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5978,7 +5773,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -5986,106 +5781,106 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6096,122 +5891,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
+      <c r="A1" s="1">
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1">
+        <v>24</v>
+      </c>
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="B2">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>27</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="1">
+        <v>27</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="1">
+        <v>28</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="1">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>30</v>
+      </c>
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
+      <c r="A10" s="1">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -6222,122 +5982,87 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
+      <c r="A1" s="1">
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>28</v>
+      </c>
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
+      <c r="A8" s="1">
+        <v>29</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
+      <c r="A9" s="1">
+        <v>30</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
+      <c r="A10" s="1">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -6348,122 +6073,87 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
+      <c r="A1" s="1">
+        <v>24</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
+      <c r="A2" s="1">
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
+      <c r="A3" s="1">
+        <v>26</v>
       </c>
       <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>31</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>33</v>
+      </c>
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
+      <c r="A10" s="1">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -6482,114 +6172,114 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6608,7 +6298,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -6616,87 +6306,87 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -6704,18 +6394,18 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6734,15 +6424,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -6750,95 +6440,95 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6860,87 +6550,87 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6948,23 +6638,23 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6986,114 +6676,114 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -29,510 +29,501 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
-  <si>
-    <t>[3.8028-3.8328]</t>
-  </si>
-  <si>
-    <t>[3.8328-3.8628]</t>
-  </si>
-  <si>
-    <t>[3.8628-3.8928]</t>
-  </si>
-  <si>
-    <t>[3.8928-3.9227]</t>
-  </si>
-  <si>
-    <t>[3.9227-3.9527]</t>
-  </si>
-  <si>
-    <t>[3.9527-3.9827]</t>
-  </si>
-  <si>
-    <t>[3.9827-4.0127]</t>
-  </si>
-  <si>
-    <t>[4.0127-4.0426]</t>
-  </si>
-  <si>
-    <t>[4.0426-4.0726]</t>
-  </si>
-  <si>
-    <t>[4.0726-4.1026]</t>
-  </si>
-  <si>
-    <t>[4.1026-4.1326]</t>
-  </si>
-  <si>
-    <t>[4.1326-4.1626]</t>
-  </si>
-  <si>
-    <t>[4.1626-4.1925]</t>
-  </si>
-  <si>
-    <t>[4.1925-4.2225]</t>
-  </si>
-  <si>
-    <t>[3.8075-3.8266]</t>
-  </si>
-  <si>
-    <t>[3.8266-3.8457]</t>
-  </si>
-  <si>
-    <t>[3.8457-3.8648]</t>
-  </si>
-  <si>
-    <t>[3.8648-3.8839]</t>
-  </si>
-  <si>
-    <t>[3.8839-3.903]</t>
-  </si>
-  <si>
-    <t>[3.903-3.9221]</t>
-  </si>
-  <si>
-    <t>[3.9221-3.9411]</t>
-  </si>
-  <si>
-    <t>[3.9411-3.9602]</t>
-  </si>
-  <si>
-    <t>[3.9602-3.9793]</t>
-  </si>
-  <si>
-    <t>[3.9793-3.9984]</t>
-  </si>
-  <si>
-    <t>[3.9984-4.0175]</t>
-  </si>
-  <si>
-    <t>[4.0175-4.0366]</t>
-  </si>
-  <si>
-    <t>[4.0366-4.0557]</t>
-  </si>
-  <si>
-    <t>[4.0557-4.0748]</t>
-  </si>
-  <si>
-    <t>[3.8597-3.8856]</t>
-  </si>
-  <si>
-    <t>[3.8856-3.9115]</t>
-  </si>
-  <si>
-    <t>[3.9115-3.9374]</t>
-  </si>
-  <si>
-    <t>[3.9374-3.9633]</t>
-  </si>
-  <si>
-    <t>[3.9633-3.9892]</t>
-  </si>
-  <si>
-    <t>[3.9892-4.0152]</t>
-  </si>
-  <si>
-    <t>[4.0152-4.0411]</t>
-  </si>
-  <si>
-    <t>[4.0411-4.067]</t>
-  </si>
-  <si>
-    <t>[4.067-4.0929]</t>
-  </si>
-  <si>
-    <t>[4.0929-4.1188]</t>
-  </si>
-  <si>
-    <t>[4.1188-4.1448]</t>
-  </si>
-  <si>
-    <t>[4.1448-4.1707]</t>
-  </si>
-  <si>
-    <t>[4.1707-4.1966]</t>
-  </si>
-  <si>
-    <t>[4.1966-4.2225]</t>
-  </si>
-  <si>
-    <t>[3.8028-3.8188]</t>
-  </si>
-  <si>
-    <t>[3.8188-3.8348]</t>
-  </si>
-  <si>
-    <t>[3.8348-3.8508]</t>
-  </si>
-  <si>
-    <t>[3.8508-3.8667]</t>
-  </si>
-  <si>
-    <t>[3.8667-3.8827]</t>
-  </si>
-  <si>
-    <t>[3.8827-3.8987]</t>
-  </si>
-  <si>
-    <t>[3.8987-3.9147]</t>
-  </si>
-  <si>
-    <t>[3.9147-3.9306]</t>
-  </si>
-  <si>
-    <t>[3.9306-3.9466]</t>
-  </si>
-  <si>
-    <t>[3.9466-3.9626]</t>
-  </si>
-  <si>
-    <t>[3.9626-3.9786]</t>
-  </si>
-  <si>
-    <t>[3.9786-3.9946]</t>
-  </si>
-  <si>
-    <t>[3.9946-4.0105]</t>
-  </si>
-  <si>
-    <t>[4.0105-4.0265]</t>
-  </si>
-  <si>
-    <t>[9.15-9.33]</t>
-  </si>
-  <si>
-    <t>[9.33-9.511]</t>
-  </si>
-  <si>
-    <t>[9.511-9.691]</t>
-  </si>
-  <si>
-    <t>[9.691-9.872]</t>
-  </si>
-  <si>
-    <t>[9.872-10.053]</t>
-  </si>
-  <si>
-    <t>[10.053-10.233]</t>
-  </si>
-  <si>
-    <t>[10.233-10.414]</t>
-  </si>
-  <si>
-    <t>[10.414-10.595]</t>
-  </si>
-  <si>
-    <t>[10.595-10.775]</t>
-  </si>
-  <si>
-    <t>[10.775-10.956]</t>
-  </si>
-  <si>
-    <t>[10.956-11.136]</t>
-  </si>
-  <si>
-    <t>[11.136-11.317]</t>
-  </si>
-  <si>
-    <t>[11.317-11.498]</t>
-  </si>
-  <si>
-    <t>[11.498-11.678]</t>
-  </si>
-  <si>
-    <t>[10.078-10.191]</t>
-  </si>
-  <si>
-    <t>[10.191-10.304]</t>
-  </si>
-  <si>
-    <t>[10.304-10.418]</t>
-  </si>
-  <si>
-    <t>[10.418-10.531]</t>
-  </si>
-  <si>
-    <t>[10.531-10.644]</t>
-  </si>
-  <si>
-    <t>[10.644-10.758]</t>
-  </si>
-  <si>
-    <t>[10.758-10.871]</t>
-  </si>
-  <si>
-    <t>[10.871-10.984]</t>
-  </si>
-  <si>
-    <t>[10.984-11.098]</t>
-  </si>
-  <si>
-    <t>[11.098-11.211]</t>
-  </si>
-  <si>
-    <t>[11.211-11.324]</t>
-  </si>
-  <si>
-    <t>[11.324-11.438]</t>
-  </si>
-  <si>
-    <t>[11.438-11.551]</t>
-  </si>
-  <si>
-    <t>[11.551-11.664]</t>
-  </si>
-  <si>
-    <t>[9.15-9.306]</t>
-  </si>
-  <si>
-    <t>[9.306-9.463]</t>
-  </si>
-  <si>
-    <t>[9.463-9.619]</t>
-  </si>
-  <si>
-    <t>[9.619-9.776]</t>
-  </si>
-  <si>
-    <t>[9.776-9.932]</t>
-  </si>
-  <si>
-    <t>[9.932-10.089]</t>
-  </si>
-  <si>
-    <t>[10.089-10.245]</t>
-  </si>
-  <si>
-    <t>[10.245-10.402]</t>
-  </si>
-  <si>
-    <t>[10.402-10.558]</t>
-  </si>
-  <si>
-    <t>[10.558-10.715]</t>
-  </si>
-  <si>
-    <t>[10.715-10.871]</t>
-  </si>
-  <si>
-    <t>[10.871-11.028]</t>
-  </si>
-  <si>
-    <t>[11.028-11.184]</t>
-  </si>
-  <si>
-    <t>[11.184-11.341]</t>
-  </si>
-  <si>
-    <t>[10.377-10.47]</t>
-  </si>
-  <si>
-    <t>[10.47-10.563]</t>
-  </si>
-  <si>
-    <t>[10.563-10.656]</t>
-  </si>
-  <si>
-    <t>[10.656-10.749]</t>
-  </si>
-  <si>
-    <t>[10.749-10.842]</t>
-  </si>
-  <si>
-    <t>[10.842-10.935]</t>
-  </si>
-  <si>
-    <t>[10.935-11.028]</t>
-  </si>
-  <si>
-    <t>[11.028-11.121]</t>
-  </si>
-  <si>
-    <t>[11.121-11.214]</t>
-  </si>
-  <si>
-    <t>[11.214-11.307]</t>
-  </si>
-  <si>
-    <t>[11.307-11.4]</t>
-  </si>
-  <si>
-    <t>[11.4-11.493]</t>
-  </si>
-  <si>
-    <t>[11.493-11.585]</t>
-  </si>
-  <si>
-    <t>[11.585-11.678]</t>
-  </si>
-  <si>
-    <t>[82.4-82.61]</t>
-  </si>
-  <si>
-    <t>[82.61-82.82]</t>
-  </si>
-  <si>
-    <t>[82.82-83.02]</t>
-  </si>
-  <si>
-    <t>[83.02-83.23]</t>
-  </si>
-  <si>
-    <t>[83.23-83.43]</t>
-  </si>
-  <si>
-    <t>[83.43-83.64]</t>
-  </si>
-  <si>
-    <t>[83.64-83.85]</t>
-  </si>
-  <si>
-    <t>[83.85-84.05]</t>
-  </si>
-  <si>
-    <t>[84.05-84.26]</t>
-  </si>
-  <si>
-    <t>[84.26-84.46]</t>
-  </si>
-  <si>
-    <t>[84.46-84.67]</t>
-  </si>
-  <si>
-    <t>[84.67-84.88]</t>
-  </si>
-  <si>
-    <t>[84.88-85.08]</t>
-  </si>
-  <si>
-    <t>[85.08-85.29]</t>
-  </si>
-  <si>
-    <t>[83.43-83.55]</t>
-  </si>
-  <si>
-    <t>[83.55-83.68]</t>
-  </si>
-  <si>
-    <t>[83.68-83.8]</t>
-  </si>
-  <si>
-    <t>[83.8-83.93]</t>
-  </si>
-  <si>
-    <t>[83.93-84.05]</t>
-  </si>
-  <si>
-    <t>[84.05-84.17]</t>
-  </si>
-  <si>
-    <t>[84.17-84.3]</t>
-  </si>
-  <si>
-    <t>[84.3-84.42]</t>
-  </si>
-  <si>
-    <t>[84.42-84.55]</t>
-  </si>
-  <si>
-    <t>[84.55-84.67]</t>
-  </si>
-  <si>
-    <t>[84.67-84.79]</t>
-  </si>
-  <si>
-    <t>[84.79-84.92]</t>
-  </si>
-  <si>
-    <t>[84.92-85.04]</t>
-  </si>
-  <si>
-    <t>[85.04-85.17]</t>
-  </si>
-  <si>
-    <t>[82.4-82.6]</t>
-  </si>
-  <si>
-    <t>[82.6-82.8]</t>
-  </si>
-  <si>
-    <t>[82.8-83.0]</t>
-  </si>
-  <si>
-    <t>[83.0-83.2]</t>
-  </si>
-  <si>
-    <t>[83.2-83.4]</t>
-  </si>
-  <si>
-    <t>[83.4-83.6]</t>
-  </si>
-  <si>
-    <t>[83.6-83.8]</t>
-  </si>
-  <si>
-    <t>[83.8-84.0]</t>
-  </si>
-  <si>
-    <t>[84.0-84.2]</t>
-  </si>
-  <si>
-    <t>[84.2-84.4]</t>
-  </si>
-  <si>
-    <t>[84.4-84.6]</t>
-  </si>
-  <si>
-    <t>[84.6-84.8]</t>
-  </si>
-  <si>
-    <t>[84.8-85.0]</t>
-  </si>
-  <si>
-    <t>[85.0-85.2]</t>
-  </si>
-  <si>
-    <t>[83.64-83.75]</t>
-  </si>
-  <si>
-    <t>[83.75-83.87]</t>
-  </si>
-  <si>
-    <t>[83.87-83.99]</t>
-  </si>
-  <si>
-    <t>[83.99-84.11]</t>
-  </si>
-  <si>
-    <t>[84.11-84.23]</t>
-  </si>
-  <si>
-    <t>[84.23-84.34]</t>
-  </si>
-  <si>
-    <t>[84.34-84.46]</t>
-  </si>
-  <si>
-    <t>[84.46-84.58]</t>
-  </si>
-  <si>
-    <t>[84.58-84.7]</t>
-  </si>
-  <si>
-    <t>[84.7-84.82]</t>
-  </si>
-  <si>
-    <t>[84.82-84.93]</t>
-  </si>
-  <si>
-    <t>[84.93-85.05]</t>
-  </si>
-  <si>
-    <t>[85.05-85.17]</t>
-  </si>
-  <si>
-    <t>[85.17-85.29]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="165">
+  <si>
+    <t>[3.8231-3.8419]</t>
+  </si>
+  <si>
+    <t>[3.8419-3.8606]</t>
+  </si>
+  <si>
+    <t>[3.8606-3.8794]</t>
+  </si>
+  <si>
+    <t>[3.8794-3.8982]</t>
+  </si>
+  <si>
+    <t>[3.8982-3.917]</t>
+  </si>
+  <si>
+    <t>[3.917-3.9357]</t>
+  </si>
+  <si>
+    <t>[3.9357-3.9545]</t>
+  </si>
+  <si>
+    <t>[3.9545-3.9733]</t>
+  </si>
+  <si>
+    <t>[3.9733-3.9921]</t>
+  </si>
+  <si>
+    <t>[3.9921-4.0109]</t>
+  </si>
+  <si>
+    <t>[4.0109-4.0296]</t>
+  </si>
+  <si>
+    <t>[4.0296-4.0484]</t>
+  </si>
+  <si>
+    <t>[4.0484-4.0672]</t>
+  </si>
+  <si>
+    <t>[4.0672-4.086]</t>
+  </si>
+  <si>
+    <t>[3.9113-3.9238]</t>
+  </si>
+  <si>
+    <t>[3.9238-3.9362]</t>
+  </si>
+  <si>
+    <t>[3.9362-3.9487]</t>
+  </si>
+  <si>
+    <t>[3.9487-3.9612]</t>
+  </si>
+  <si>
+    <t>[3.9612-3.9737]</t>
+  </si>
+  <si>
+    <t>[3.9737-3.9862]</t>
+  </si>
+  <si>
+    <t>[3.9862-3.9986]</t>
+  </si>
+  <si>
+    <t>[3.9986-4.0111]</t>
+  </si>
+  <si>
+    <t>[4.0111-4.0236]</t>
+  </si>
+  <si>
+    <t>[4.0236-4.0361]</t>
+  </si>
+  <si>
+    <t>[4.0361-4.0485]</t>
+  </si>
+  <si>
+    <t>[4.0485-4.061]</t>
+  </si>
+  <si>
+    <t>[4.061-4.0735]</t>
+  </si>
+  <si>
+    <t>[4.0735-4.086]</t>
+  </si>
+  <si>
+    <t>[3.9149-3.9257]</t>
+  </si>
+  <si>
+    <t>[3.9257-3.9366]</t>
+  </si>
+  <si>
+    <t>[3.9366-3.9475]</t>
+  </si>
+  <si>
+    <t>[3.9475-3.9584]</t>
+  </si>
+  <si>
+    <t>[3.9584-3.9692]</t>
+  </si>
+  <si>
+    <t>[3.9692-3.9801]</t>
+  </si>
+  <si>
+    <t>[3.9801-3.991]</t>
+  </si>
+  <si>
+    <t>[3.991-4.0019]</t>
+  </si>
+  <si>
+    <t>[4.0019-4.0127]</t>
+  </si>
+  <si>
+    <t>[4.0127-4.0236]</t>
+  </si>
+  <si>
+    <t>[4.0236-4.0345]</t>
+  </si>
+  <si>
+    <t>[4.0345-4.0454]</t>
+  </si>
+  <si>
+    <t>[4.0454-4.0562]</t>
+  </si>
+  <si>
+    <t>[4.0562-4.0671]</t>
+  </si>
+  <si>
+    <t>[3.8231-3.8309]</t>
+  </si>
+  <si>
+    <t>[3.8309-3.8387]</t>
+  </si>
+  <si>
+    <t>[3.8387-3.8464]</t>
+  </si>
+  <si>
+    <t>[3.8464-3.8542]</t>
+  </si>
+  <si>
+    <t>[3.8542-3.862]</t>
+  </si>
+  <si>
+    <t>[3.862-3.8698]</t>
+  </si>
+  <si>
+    <t>[3.8698-3.8776]</t>
+  </si>
+  <si>
+    <t>[3.8776-3.8854]</t>
+  </si>
+  <si>
+    <t>[3.8854-3.8932]</t>
+  </si>
+  <si>
+    <t>[3.8932-3.901]</t>
+  </si>
+  <si>
+    <t>[3.901-3.9088]</t>
+  </si>
+  <si>
+    <t>[3.9088-3.9166]</t>
+  </si>
+  <si>
+    <t>[3.9166-3.9244]</t>
+  </si>
+  <si>
+    <t>[3.9244-3.9322]</t>
+  </si>
+  <si>
+    <t>[10.008-10.12]</t>
+  </si>
+  <si>
+    <t>[10.12-10.231]</t>
+  </si>
+  <si>
+    <t>[10.231-10.342]</t>
+  </si>
+  <si>
+    <t>[10.342-10.454]</t>
+  </si>
+  <si>
+    <t>[10.454-10.565]</t>
+  </si>
+  <si>
+    <t>[10.565-10.677]</t>
+  </si>
+  <si>
+    <t>[10.677-10.788]</t>
+  </si>
+  <si>
+    <t>[10.788-10.899]</t>
+  </si>
+  <si>
+    <t>[10.899-11.011]</t>
+  </si>
+  <si>
+    <t>[11.011-11.122]</t>
+  </si>
+  <si>
+    <t>[11.122-11.234]</t>
+  </si>
+  <si>
+    <t>[11.234-11.345]</t>
+  </si>
+  <si>
+    <t>[11.345-11.456]</t>
+  </si>
+  <si>
+    <t>[11.456-11.568]</t>
+  </si>
+  <si>
+    <t>[10.008-10.082]</t>
+  </si>
+  <si>
+    <t>[10.082-10.156]</t>
+  </si>
+  <si>
+    <t>[10.156-10.231]</t>
+  </si>
+  <si>
+    <t>[10.231-10.305]</t>
+  </si>
+  <si>
+    <t>[10.305-10.379]</t>
+  </si>
+  <si>
+    <t>[10.379-10.453]</t>
+  </si>
+  <si>
+    <t>[10.453-10.527]</t>
+  </si>
+  <si>
+    <t>[10.527-10.602]</t>
+  </si>
+  <si>
+    <t>[10.602-10.676]</t>
+  </si>
+  <si>
+    <t>[10.676-10.75]</t>
+  </si>
+  <si>
+    <t>[10.75-10.824]</t>
+  </si>
+  <si>
+    <t>[10.824-10.898]</t>
+  </si>
+  <si>
+    <t>[10.898-10.973]</t>
+  </si>
+  <si>
+    <t>[10.973-11.047]</t>
+  </si>
+  <si>
+    <t>[10.125-10.191]</t>
+  </si>
+  <si>
+    <t>[10.191-10.257]</t>
+  </si>
+  <si>
+    <t>[10.257-10.322]</t>
+  </si>
+  <si>
+    <t>[10.322-10.388]</t>
+  </si>
+  <si>
+    <t>[10.388-10.454]</t>
+  </si>
+  <si>
+    <t>[10.454-10.52]</t>
+  </si>
+  <si>
+    <t>[10.52-10.586]</t>
+  </si>
+  <si>
+    <t>[10.586-10.651]</t>
+  </si>
+  <si>
+    <t>[10.651-10.717]</t>
+  </si>
+  <si>
+    <t>[10.717-10.783]</t>
+  </si>
+  <si>
+    <t>[10.783-10.849]</t>
+  </si>
+  <si>
+    <t>[10.849-10.914]</t>
+  </si>
+  <si>
+    <t>[10.914-10.98]</t>
+  </si>
+  <si>
+    <t>[10.98-11.046]</t>
+  </si>
+  <si>
+    <t>[10.915-10.961]</t>
+  </si>
+  <si>
+    <t>[10.961-11.008]</t>
+  </si>
+  <si>
+    <t>[11.008-11.055]</t>
+  </si>
+  <si>
+    <t>[11.055-11.101]</t>
+  </si>
+  <si>
+    <t>[11.101-11.148]</t>
+  </si>
+  <si>
+    <t>[11.148-11.195]</t>
+  </si>
+  <si>
+    <t>[11.195-11.241]</t>
+  </si>
+  <si>
+    <t>[11.241-11.288]</t>
+  </si>
+  <si>
+    <t>[11.288-11.335]</t>
+  </si>
+  <si>
+    <t>[11.335-11.381]</t>
+  </si>
+  <si>
+    <t>[11.381-11.428]</t>
+  </si>
+  <si>
+    <t>[11.428-11.474]</t>
+  </si>
+  <si>
+    <t>[11.474-11.521]</t>
+  </si>
+  <si>
+    <t>[11.521-11.568]</t>
+  </si>
+  <si>
+    <t>[83.8-83.89]</t>
+  </si>
+  <si>
+    <t>[83.89-83.98]</t>
+  </si>
+  <si>
+    <t>[83.98-84.07]</t>
+  </si>
+  <si>
+    <t>[84.07-84.15]</t>
+  </si>
+  <si>
+    <t>[84.15-84.24]</t>
+  </si>
+  <si>
+    <t>[84.24-84.33]</t>
+  </si>
+  <si>
+    <t>[84.33-84.42]</t>
+  </si>
+  <si>
+    <t>[84.42-84.51]</t>
+  </si>
+  <si>
+    <t>[84.51-84.59]</t>
+  </si>
+  <si>
+    <t>[84.59-84.68]</t>
+  </si>
+  <si>
+    <t>[84.68-84.77]</t>
+  </si>
+  <si>
+    <t>[84.77-84.86]</t>
+  </si>
+  <si>
+    <t>[84.86-84.95]</t>
+  </si>
+  <si>
+    <t>[84.95-85.04]</t>
+  </si>
+  <si>
+    <t>[83.8-83.87]</t>
+  </si>
+  <si>
+    <t>[83.87-83.95]</t>
+  </si>
+  <si>
+    <t>[83.95-84.02]</t>
+  </si>
+  <si>
+    <t>[84.02-84.09]</t>
+  </si>
+  <si>
+    <t>[84.09-84.16]</t>
+  </si>
+  <si>
+    <t>[84.16-84.24]</t>
+  </si>
+  <si>
+    <t>[84.24-84.31]</t>
+  </si>
+  <si>
+    <t>[84.31-84.38]</t>
+  </si>
+  <si>
+    <t>[84.38-84.45]</t>
+  </si>
+  <si>
+    <t>[84.45-84.53]</t>
+  </si>
+  <si>
+    <t>[84.53-84.6]</t>
+  </si>
+  <si>
+    <t>[84.6-84.67]</t>
+  </si>
+  <si>
+    <t>[84.67-84.74]</t>
+  </si>
+  <si>
+    <t>[84.74-84.82]</t>
+  </si>
+  <si>
+    <t>[83.91-83.99]</t>
+  </si>
+  <si>
+    <t>[83.99-84.07]</t>
+  </si>
+  <si>
+    <t>[84.15-84.23]</t>
+  </si>
+  <si>
+    <t>[84.23-84.31]</t>
+  </si>
+  <si>
+    <t>[84.31-84.39]</t>
+  </si>
+  <si>
+    <t>[84.39-84.47]</t>
+  </si>
+  <si>
+    <t>[84.47-84.55]</t>
+  </si>
+  <si>
+    <t>[84.55-84.63]</t>
+  </si>
+  <si>
+    <t>[84.63-84.71]</t>
+  </si>
+  <si>
+    <t>[84.71-84.79]</t>
+  </si>
+  <si>
+    <t>[84.79-84.87]</t>
+  </si>
+  <si>
+    <t>[84.87-84.95]</t>
+  </si>
+  <si>
+    <t>[83.85-83.92]</t>
+  </si>
+  <si>
+    <t>[83.92-84.0]</t>
+  </si>
+  <si>
+    <t>[84.0-84.08]</t>
+  </si>
+  <si>
+    <t>[84.08-84.15]</t>
+  </si>
+  <si>
+    <t>[84.23-84.3]</t>
+  </si>
+  <si>
+    <t>[84.3-84.38]</t>
+  </si>
+  <si>
+    <t>[84.38-84.46]</t>
+  </si>
+  <si>
+    <t>[84.46-84.53]</t>
+  </si>
+  <si>
+    <t>[84.53-84.61]</t>
+  </si>
+  <si>
+    <t>[84.61-84.69]</t>
+  </si>
+  <si>
+    <t>[84.69-84.76]</t>
+  </si>
+  <si>
+    <t>[84.76-84.84]</t>
+  </si>
+  <si>
+    <t>[84.84-84.91]</t>
   </si>
 </sst>
 </file>
@@ -638,31 +629,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -677,28 +668,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>121</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -825,46 +816,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[10.078-10.191]</c:v>
+                  <c:v>[10.008-10.082]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[10.191-10.304]</c:v>
+                  <c:v>[10.082-10.156]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[10.304-10.418]</c:v>
+                  <c:v>[10.156-10.231]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.418-10.531]</c:v>
+                  <c:v>[10.231-10.305]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.531-10.644]</c:v>
+                  <c:v>[10.305-10.379]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[10.644-10.758]</c:v>
+                  <c:v>[10.379-10.453]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[10.758-10.871]</c:v>
+                  <c:v>[10.453-10.527]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[10.871-10.984]</c:v>
+                  <c:v>[10.527-10.602]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[10.984-11.098]</c:v>
+                  <c:v>[10.602-10.676]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[11.098-11.211]</c:v>
+                  <c:v>[10.676-10.75]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[11.211-11.324]</c:v>
+                  <c:v>[10.75-10.824]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[11.324-11.438]</c:v>
+                  <c:v>[10.824-10.898]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[11.438-11.551]</c:v>
+                  <c:v>[10.898-10.973]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[11.551-11.664]</c:v>
+                  <c:v>[10.973-11.047]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -876,43 +867,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -1052,46 +1043,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[9.15-9.306]</c:v>
+                  <c:v>[10.125-10.191]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[9.306-9.463]</c:v>
+                  <c:v>[10.191-10.257]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[9.463-9.619]</c:v>
+                  <c:v>[10.257-10.322]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[9.619-9.776]</c:v>
+                  <c:v>[10.322-10.388]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[9.776-9.932]</c:v>
+                  <c:v>[10.388-10.454]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[9.932-10.089]</c:v>
+                  <c:v>[10.454-10.52]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[10.089-10.245]</c:v>
+                  <c:v>[10.52-10.586]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[10.245-10.402]</c:v>
+                  <c:v>[10.586-10.651]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[10.402-10.558]</c:v>
+                  <c:v>[10.651-10.717]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[10.558-10.715]</c:v>
+                  <c:v>[10.717-10.783]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[10.715-10.871]</c:v>
+                  <c:v>[10.783-10.849]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[10.871-11.028]</c:v>
+                  <c:v>[10.849-10.914]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[11.028-11.184]</c:v>
+                  <c:v>[10.914-10.98]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[11.184-11.341]</c:v>
+                  <c:v>[10.98-11.046]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1106,43 +1097,43 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1279,46 +1270,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[10.377-10.47]</c:v>
+                  <c:v>[10.915-10.961]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[10.47-10.563]</c:v>
+                  <c:v>[10.961-11.008]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[10.563-10.656]</c:v>
+                  <c:v>[11.008-11.055]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.656-10.749]</c:v>
+                  <c:v>[11.055-11.101]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.749-10.842]</c:v>
+                  <c:v>[11.101-11.148]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[10.842-10.935]</c:v>
+                  <c:v>[11.148-11.195]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[10.935-11.028]</c:v>
+                  <c:v>[11.195-11.241]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[11.028-11.121]</c:v>
+                  <c:v>[11.241-11.288]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[11.121-11.214]</c:v>
+                  <c:v>[11.288-11.335]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[11.214-11.307]</c:v>
+                  <c:v>[11.335-11.381]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[11.307-11.4]</c:v>
+                  <c:v>[11.381-11.428]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[11.4-11.493]</c:v>
+                  <c:v>[11.428-11.474]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[11.493-11.585]</c:v>
+                  <c:v>[11.474-11.521]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[11.585-11.678]</c:v>
+                  <c:v>[11.521-11.568]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1330,46 +1321,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1506,46 +1497,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[82.4-82.61]</c:v>
+                  <c:v>[83.8-83.89]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[82.61-82.82]</c:v>
+                  <c:v>[83.89-83.98]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[82.82-83.02]</c:v>
+                  <c:v>[83.98-84.07]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[83.02-83.23]</c:v>
+                  <c:v>[84.07-84.15]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[83.23-83.43]</c:v>
+                  <c:v>[84.15-84.24]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[83.43-83.64]</c:v>
+                  <c:v>[84.24-84.33]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[83.64-83.85]</c:v>
+                  <c:v>[84.33-84.42]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[83.85-84.05]</c:v>
+                  <c:v>[84.42-84.51]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.05-84.26]</c:v>
+                  <c:v>[84.51-84.59]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.26-84.46]</c:v>
+                  <c:v>[84.59-84.68]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.46-84.67]</c:v>
+                  <c:v>[84.68-84.77]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.67-84.88]</c:v>
+                  <c:v>[84.77-84.86]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[84.88-85.08]</c:v>
+                  <c:v>[84.86-84.95]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[85.08-85.29]</c:v>
+                  <c:v>[84.95-85.04]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1557,46 +1548,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>59</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1733,46 +1724,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[83.43-83.55]</c:v>
+                  <c:v>[83.8-83.87]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[83.55-83.68]</c:v>
+                  <c:v>[83.87-83.95]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[83.68-83.8]</c:v>
+                  <c:v>[83.95-84.02]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[83.8-83.93]</c:v>
+                  <c:v>[84.02-84.09]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[83.93-84.05]</c:v>
+                  <c:v>[84.09-84.16]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[84.05-84.17]</c:v>
+                  <c:v>[84.16-84.24]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[84.17-84.3]</c:v>
+                  <c:v>[84.24-84.31]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[84.3-84.42]</c:v>
+                  <c:v>[84.31-84.38]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.42-84.55]</c:v>
+                  <c:v>[84.38-84.45]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.55-84.67]</c:v>
+                  <c:v>[84.45-84.53]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.67-84.79]</c:v>
+                  <c:v>[84.53-84.6]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.79-84.92]</c:v>
+                  <c:v>[84.6-84.67]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[84.92-85.04]</c:v>
+                  <c:v>[84.67-84.74]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[85.04-85.17]</c:v>
+                  <c:v>[84.74-84.82]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1784,7 +1775,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1793,37 +1784,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1960,46 +1951,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[82.4-82.6]</c:v>
+                  <c:v>[83.91-83.99]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[82.6-82.8]</c:v>
+                  <c:v>[83.99-84.07]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[82.8-83.0]</c:v>
+                  <c:v>[84.07-84.15]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[83.0-83.2]</c:v>
+                  <c:v>[84.15-84.23]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[83.2-83.4]</c:v>
+                  <c:v>[84.23-84.31]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[83.4-83.6]</c:v>
+                  <c:v>[84.31-84.39]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[83.6-83.8]</c:v>
+                  <c:v>[84.39-84.47]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[83.8-84.0]</c:v>
+                  <c:v>[84.47-84.55]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.0-84.2]</c:v>
+                  <c:v>[84.55-84.63]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.2-84.4]</c:v>
+                  <c:v>[84.63-84.71]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.4-84.6]</c:v>
+                  <c:v>[84.71-84.79]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.6-84.8]</c:v>
+                  <c:v>[84.79-84.87]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[84.8-85.0]</c:v>
+                  <c:v>[84.87-84.95]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[85.0-85.2]</c:v>
+                  <c:v>[84.95-85.04]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2014,40 +2005,40 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -2187,46 +2178,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[83.64-83.75]</c:v>
+                  <c:v>[83.85-83.92]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[83.75-83.87]</c:v>
+                  <c:v>[83.92-84.0]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[83.87-83.99]</c:v>
+                  <c:v>[84.0-84.08]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[83.99-84.11]</c:v>
+                  <c:v>[84.08-84.15]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[84.11-84.23]</c:v>
+                  <c:v>[84.15-84.23]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[84.23-84.34]</c:v>
+                  <c:v>[84.23-84.3]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[84.34-84.46]</c:v>
+                  <c:v>[84.3-84.38]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[84.46-84.58]</c:v>
+                  <c:v>[84.38-84.46]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.58-84.7]</c:v>
+                  <c:v>[84.46-84.53]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.7-84.82]</c:v>
+                  <c:v>[84.53-84.61]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.82-84.93]</c:v>
+                  <c:v>[84.61-84.69]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.93-85.05]</c:v>
+                  <c:v>[84.69-84.76]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[85.05-85.17]</c:v>
+                  <c:v>[84.76-84.84]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[85.17-85.29]</c:v>
+                  <c:v>[84.84-84.91]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2241,37 +2232,37 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
@@ -2415,10 +2406,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>25</c:v>
@@ -2439,7 +2430,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2454,28 +2445,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2603,10 +2594,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>25</c:v>
@@ -2615,19 +2606,19 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>29</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2642,22 +2633,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2791,31 +2782,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>33</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2830,28 +2821,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2978,46 +2969,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.8028-3.8328]</c:v>
+                  <c:v>[3.8231-3.8419]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.8328-3.8628]</c:v>
+                  <c:v>[3.8419-3.8606]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.8628-3.8928]</c:v>
+                  <c:v>[3.8606-3.8794]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.8928-3.9227]</c:v>
+                  <c:v>[3.8794-3.8982]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.9227-3.9527]</c:v>
+                  <c:v>[3.8982-3.917]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.9527-3.9827]</c:v>
+                  <c:v>[3.917-3.9357]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[3.9827-4.0127]</c:v>
+                  <c:v>[3.9357-3.9545]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[4.0127-4.0426]</c:v>
+                  <c:v>[3.9545-3.9733]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[4.0426-4.0726]</c:v>
+                  <c:v>[3.9733-3.9921]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[4.0726-4.1026]</c:v>
+                  <c:v>[3.9921-4.0109]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[4.1026-4.1326]</c:v>
+                  <c:v>[4.0109-4.0296]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[4.1326-4.1626]</c:v>
+                  <c:v>[4.0296-4.0484]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.1626-4.1925]</c:v>
+                  <c:v>[4.0484-4.0672]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.1925-4.2225]</c:v>
+                  <c:v>[4.0672-4.086]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3029,46 +3020,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3205,46 +3196,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.8075-3.8266]</c:v>
+                  <c:v>[3.9113-3.9238]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.8266-3.8457]</c:v>
+                  <c:v>[3.9238-3.9362]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.8457-3.8648]</c:v>
+                  <c:v>[3.9362-3.9487]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.8648-3.8839]</c:v>
+                  <c:v>[3.9487-3.9612]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.8839-3.903]</c:v>
+                  <c:v>[3.9612-3.9737]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.903-3.9221]</c:v>
+                  <c:v>[3.9737-3.9862]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[3.9221-3.9411]</c:v>
+                  <c:v>[3.9862-3.9986]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[3.9411-3.9602]</c:v>
+                  <c:v>[3.9986-4.0111]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[3.9602-3.9793]</c:v>
+                  <c:v>[4.0111-4.0236]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[3.9793-3.9984]</c:v>
+                  <c:v>[4.0236-4.0361]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[3.9984-4.0175]</c:v>
+                  <c:v>[4.0361-4.0485]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[4.0175-4.0366]</c:v>
+                  <c:v>[4.0485-4.061]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.0366-4.0557]</c:v>
+                  <c:v>[4.061-4.0735]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.0557-4.0748]</c:v>
+                  <c:v>[4.0735-4.086]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3262,40 +3253,40 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3432,46 +3423,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.8597-3.8856]</c:v>
+                  <c:v>[3.9149-3.9257]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.8856-3.9115]</c:v>
+                  <c:v>[3.9257-3.9366]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.9115-3.9374]</c:v>
+                  <c:v>[3.9366-3.9475]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.9374-3.9633]</c:v>
+                  <c:v>[3.9475-3.9584]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.9633-3.9892]</c:v>
+                  <c:v>[3.9584-3.9692]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.9892-4.0152]</c:v>
+                  <c:v>[3.9692-3.9801]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[4.0152-4.0411]</c:v>
+                  <c:v>[3.9801-3.991]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[4.0411-4.067]</c:v>
+                  <c:v>[3.991-4.0019]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[4.067-4.0929]</c:v>
+                  <c:v>[4.0019-4.0127]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[4.0929-4.1188]</c:v>
+                  <c:v>[4.0127-4.0236]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[4.1188-4.1448]</c:v>
+                  <c:v>[4.0236-4.0345]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[4.1448-4.1707]</c:v>
+                  <c:v>[4.0345-4.0454]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.1707-4.1966]</c:v>
+                  <c:v>[4.0454-4.0562]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.1966-4.2225]</c:v>
+                  <c:v>[4.0562-4.0671]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3483,43 +3474,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -3659,46 +3650,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.8028-3.8188]</c:v>
+                  <c:v>[3.8231-3.8309]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.8188-3.8348]</c:v>
+                  <c:v>[3.8309-3.8387]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.8348-3.8508]</c:v>
+                  <c:v>[3.8387-3.8464]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.8508-3.8667]</c:v>
+                  <c:v>[3.8464-3.8542]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.8667-3.8827]</c:v>
+                  <c:v>[3.8542-3.862]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.8827-3.8987]</c:v>
+                  <c:v>[3.862-3.8698]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[3.8987-3.9147]</c:v>
+                  <c:v>[3.8698-3.8776]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[3.9147-3.9306]</c:v>
+                  <c:v>[3.8776-3.8854]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[3.9306-3.9466]</c:v>
+                  <c:v>[3.8854-3.8932]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[3.9466-3.9626]</c:v>
+                  <c:v>[3.8932-3.901]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[3.9626-3.9786]</c:v>
+                  <c:v>[3.901-3.9088]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[3.9786-3.9946]</c:v>
+                  <c:v>[3.9088-3.9166]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[3.9946-4.0105]</c:v>
+                  <c:v>[3.9166-3.9244]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.0105-4.0265]</c:v>
+                  <c:v>[3.9244-3.9322]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3710,46 +3701,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3886,46 +3877,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[9.15-9.33]</c:v>
+                  <c:v>[10.008-10.12]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[9.33-9.511]</c:v>
+                  <c:v>[10.12-10.231]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[9.511-9.691]</c:v>
+                  <c:v>[10.231-10.342]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[9.691-9.872]</c:v>
+                  <c:v>[10.342-10.454]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[9.872-10.053]</c:v>
+                  <c:v>[10.454-10.565]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[10.053-10.233]</c:v>
+                  <c:v>[10.565-10.677]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[10.233-10.414]</c:v>
+                  <c:v>[10.677-10.788]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[10.414-10.595]</c:v>
+                  <c:v>[10.788-10.899]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[10.595-10.775]</c:v>
+                  <c:v>[10.899-11.011]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[10.775-10.956]</c:v>
+                  <c:v>[11.011-11.122]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[10.956-11.136]</c:v>
+                  <c:v>[11.122-11.234]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[11.136-11.317]</c:v>
+                  <c:v>[11.234-11.345]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[11.317-11.498]</c:v>
+                  <c:v>[11.345-11.456]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[11.498-11.678]</c:v>
+                  <c:v>[11.456-11.568]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3937,46 +3928,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>26</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4926,7 +4917,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4934,71 +4925,71 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -5020,7 +5011,7 @@
         <v>70</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5028,7 +5019,7 @@
         <v>71</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5036,7 +5027,7 @@
         <v>72</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5044,7 +5035,7 @@
         <v>73</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5052,7 +5043,7 @@
         <v>74</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5060,7 +5051,7 @@
         <v>75</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5068,7 +5059,7 @@
         <v>76</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5076,7 +5067,7 @@
         <v>77</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5084,7 +5075,7 @@
         <v>78</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5092,7 +5083,7 @@
         <v>79</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5100,7 +5091,7 @@
         <v>80</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5108,7 +5099,7 @@
         <v>81</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5116,7 +5107,7 @@
         <v>82</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5154,7 +5145,7 @@
         <v>85</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5162,7 +5153,7 @@
         <v>86</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5170,7 +5161,7 @@
         <v>87</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5178,7 +5169,7 @@
         <v>88</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5186,7 +5177,7 @@
         <v>89</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5194,7 +5185,7 @@
         <v>90</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5202,7 +5193,7 @@
         <v>91</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5210,7 +5201,7 @@
         <v>92</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5218,7 +5209,7 @@
         <v>93</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5226,7 +5217,7 @@
         <v>94</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5234,7 +5225,7 @@
         <v>95</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5242,7 +5233,7 @@
         <v>96</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5250,7 +5241,7 @@
         <v>97</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5272,7 +5263,7 @@
         <v>98</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5280,7 +5271,7 @@
         <v>99</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5288,7 +5279,7 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5296,7 +5287,7 @@
         <v>101</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5304,7 +5295,7 @@
         <v>102</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5312,7 +5303,7 @@
         <v>103</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5320,7 +5311,7 @@
         <v>104</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5328,7 +5319,7 @@
         <v>105</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5336,7 +5327,7 @@
         <v>106</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5344,7 +5335,7 @@
         <v>107</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5352,7 +5343,7 @@
         <v>108</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5360,7 +5351,7 @@
         <v>109</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5368,7 +5359,7 @@
         <v>110</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5376,7 +5367,7 @@
         <v>111</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5398,7 +5389,7 @@
         <v>112</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5406,7 +5397,7 @@
         <v>113</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5414,7 +5405,7 @@
         <v>114</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5422,7 +5413,7 @@
         <v>115</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5438,7 +5429,7 @@
         <v>117</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5446,7 +5437,7 @@
         <v>118</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5454,7 +5445,7 @@
         <v>119</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5462,7 +5453,7 @@
         <v>120</v>
       </c>
       <c r="B9">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5470,7 +5461,7 @@
         <v>121</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5478,7 +5469,7 @@
         <v>122</v>
       </c>
       <c r="B11">
-        <v>59</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5486,7 +5477,7 @@
         <v>123</v>
       </c>
       <c r="B12">
-        <v>55</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5494,7 +5485,7 @@
         <v>124</v>
       </c>
       <c r="B13">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5502,7 +5493,7 @@
         <v>125</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5524,7 +5515,7 @@
         <v>126</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5548,7 +5539,7 @@
         <v>129</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5556,7 +5547,7 @@
         <v>130</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5564,7 +5555,7 @@
         <v>131</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5572,7 +5563,7 @@
         <v>132</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5580,7 +5571,7 @@
         <v>133</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5588,7 +5579,7 @@
         <v>134</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5596,7 +5587,7 @@
         <v>135</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5604,7 +5595,7 @@
         <v>136</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5612,7 +5603,7 @@
         <v>137</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5620,7 +5611,7 @@
         <v>138</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5628,7 +5619,7 @@
         <v>139</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5658,100 +5649,100 @@
         <v>141</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5773,7 +5764,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -5781,95 +5772,95 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -5877,7 +5868,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -5899,7 +5890,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5907,10 +5898,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5918,7 +5909,7 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5926,7 +5917,7 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5942,7 +5933,7 @@
         <v>27</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5950,7 +5941,7 @@
         <v>28</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5958,20 +5949,20 @@
         <v>29</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -5990,7 +5981,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5998,10 +5989,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6009,7 +6000,7 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6017,15 +6008,15 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6033,20 +6024,20 @@
         <v>27</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6054,7 +6045,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -6062,7 +6053,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -6081,7 +6072,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6089,26 +6080,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6116,20 +6107,20 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6137,23 +6128,23 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -6175,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6183,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6191,7 +6182,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6199,7 +6190,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6207,7 +6198,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6215,7 +6206,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6223,7 +6214,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6231,7 +6222,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6239,7 +6230,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6247,7 +6238,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6255,7 +6246,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6263,7 +6254,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6271,7 +6262,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6279,7 +6270,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6317,7 +6308,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6325,7 +6316,7 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6333,7 +6324,7 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6341,7 +6332,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6349,7 +6340,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6357,7 +6348,7 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6365,7 +6356,7 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6373,7 +6364,7 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6381,7 +6372,7 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6389,7 +6380,7 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6397,7 +6388,7 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6405,7 +6396,7 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6427,7 +6418,7 @@
         <v>28</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6435,7 +6426,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6443,7 +6434,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6451,7 +6442,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6459,7 +6450,7 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6467,7 +6458,7 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6475,7 +6466,7 @@
         <v>34</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6483,7 +6474,7 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6491,7 +6482,7 @@
         <v>36</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6499,7 +6490,7 @@
         <v>37</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6507,7 +6498,7 @@
         <v>38</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6515,7 +6506,7 @@
         <v>39</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6523,7 +6514,7 @@
         <v>40</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6553,7 +6544,7 @@
         <v>42</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6561,7 +6552,7 @@
         <v>43</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6569,7 +6560,7 @@
         <v>44</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6577,7 +6568,7 @@
         <v>45</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6585,7 +6576,7 @@
         <v>46</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6593,7 +6584,7 @@
         <v>47</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6601,7 +6592,7 @@
         <v>48</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6609,7 +6600,7 @@
         <v>49</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6617,7 +6608,7 @@
         <v>50</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6625,7 +6616,7 @@
         <v>51</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6633,7 +6624,7 @@
         <v>52</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6641,7 +6632,7 @@
         <v>53</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6649,7 +6640,7 @@
         <v>54</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6657,7 +6648,7 @@
         <v>55</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6679,7 +6670,7 @@
         <v>56</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6687,7 +6678,7 @@
         <v>57</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6695,7 +6686,7 @@
         <v>58</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6703,7 +6694,7 @@
         <v>59</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6711,7 +6702,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6719,7 +6710,7 @@
         <v>61</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6727,7 +6718,7 @@
         <v>62</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6735,7 +6726,7 @@
         <v>63</v>
       </c>
       <c r="B8">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6743,7 +6734,7 @@
         <v>64</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6751,7 +6742,7 @@
         <v>65</v>
       </c>
       <c r="B10">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6759,7 +6750,7 @@
         <v>66</v>
       </c>
       <c r="B11">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6767,7 +6758,7 @@
         <v>67</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6775,7 +6766,7 @@
         <v>68</v>
       </c>
       <c r="B13">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6783,7 +6774,7 @@
         <v>69</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -29,501 +29,507 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="165">
-  <si>
-    <t>[3.8231-3.8419]</t>
-  </si>
-  <si>
-    <t>[3.8419-3.8606]</t>
-  </si>
-  <si>
-    <t>[3.8606-3.8794]</t>
-  </si>
-  <si>
-    <t>[3.8794-3.8982]</t>
-  </si>
-  <si>
-    <t>[3.8982-3.917]</t>
-  </si>
-  <si>
-    <t>[3.917-3.9357]</t>
-  </si>
-  <si>
-    <t>[3.9357-3.9545]</t>
-  </si>
-  <si>
-    <t>[3.9545-3.9733]</t>
-  </si>
-  <si>
-    <t>[3.9733-3.9921]</t>
-  </si>
-  <si>
-    <t>[3.9921-4.0109]</t>
-  </si>
-  <si>
-    <t>[4.0109-4.0296]</t>
-  </si>
-  <si>
-    <t>[4.0296-4.0484]</t>
-  </si>
-  <si>
-    <t>[4.0484-4.0672]</t>
-  </si>
-  <si>
-    <t>[4.0672-4.086]</t>
-  </si>
-  <si>
-    <t>[3.9113-3.9238]</t>
-  </si>
-  <si>
-    <t>[3.9238-3.9362]</t>
-  </si>
-  <si>
-    <t>[3.9362-3.9487]</t>
-  </si>
-  <si>
-    <t>[3.9487-3.9612]</t>
-  </si>
-  <si>
-    <t>[3.9612-3.9737]</t>
-  </si>
-  <si>
-    <t>[3.9737-3.9862]</t>
-  </si>
-  <si>
-    <t>[3.9862-3.9986]</t>
-  </si>
-  <si>
-    <t>[3.9986-4.0111]</t>
-  </si>
-  <si>
-    <t>[4.0111-4.0236]</t>
-  </si>
-  <si>
-    <t>[4.0236-4.0361]</t>
-  </si>
-  <si>
-    <t>[4.0361-4.0485]</t>
-  </si>
-  <si>
-    <t>[4.0485-4.061]</t>
-  </si>
-  <si>
-    <t>[4.061-4.0735]</t>
-  </si>
-  <si>
-    <t>[4.0735-4.086]</t>
-  </si>
-  <si>
-    <t>[3.9149-3.9257]</t>
-  </si>
-  <si>
-    <t>[3.9257-3.9366]</t>
-  </si>
-  <si>
-    <t>[3.9366-3.9475]</t>
-  </si>
-  <si>
-    <t>[3.9475-3.9584]</t>
-  </si>
-  <si>
-    <t>[3.9584-3.9692]</t>
-  </si>
-  <si>
-    <t>[3.9692-3.9801]</t>
-  </si>
-  <si>
-    <t>[3.9801-3.991]</t>
-  </si>
-  <si>
-    <t>[3.991-4.0019]</t>
-  </si>
-  <si>
-    <t>[4.0019-4.0127]</t>
-  </si>
-  <si>
-    <t>[4.0127-4.0236]</t>
-  </si>
-  <si>
-    <t>[4.0236-4.0345]</t>
-  </si>
-  <si>
-    <t>[4.0345-4.0454]</t>
-  </si>
-  <si>
-    <t>[4.0454-4.0562]</t>
-  </si>
-  <si>
-    <t>[4.0562-4.0671]</t>
-  </si>
-  <si>
-    <t>[3.8231-3.8309]</t>
-  </si>
-  <si>
-    <t>[3.8309-3.8387]</t>
-  </si>
-  <si>
-    <t>[3.8387-3.8464]</t>
-  </si>
-  <si>
-    <t>[3.8464-3.8542]</t>
-  </si>
-  <si>
-    <t>[3.8542-3.862]</t>
-  </si>
-  <si>
-    <t>[3.862-3.8698]</t>
-  </si>
-  <si>
-    <t>[3.8698-3.8776]</t>
-  </si>
-  <si>
-    <t>[3.8776-3.8854]</t>
-  </si>
-  <si>
-    <t>[3.8854-3.8932]</t>
-  </si>
-  <si>
-    <t>[3.8932-3.901]</t>
-  </si>
-  <si>
-    <t>[3.901-3.9088]</t>
-  </si>
-  <si>
-    <t>[3.9088-3.9166]</t>
-  </si>
-  <si>
-    <t>[3.9166-3.9244]</t>
-  </si>
-  <si>
-    <t>[3.9244-3.9322]</t>
-  </si>
-  <si>
-    <t>[10.008-10.12]</t>
-  </si>
-  <si>
-    <t>[10.12-10.231]</t>
-  </si>
-  <si>
-    <t>[10.231-10.342]</t>
-  </si>
-  <si>
-    <t>[10.342-10.454]</t>
-  </si>
-  <si>
-    <t>[10.454-10.565]</t>
-  </si>
-  <si>
-    <t>[10.565-10.677]</t>
-  </si>
-  <si>
-    <t>[10.677-10.788]</t>
-  </si>
-  <si>
-    <t>[10.788-10.899]</t>
-  </si>
-  <si>
-    <t>[10.899-11.011]</t>
-  </si>
-  <si>
-    <t>[11.011-11.122]</t>
-  </si>
-  <si>
-    <t>[11.122-11.234]</t>
-  </si>
-  <si>
-    <t>[11.234-11.345]</t>
-  </si>
-  <si>
-    <t>[11.345-11.456]</t>
-  </si>
-  <si>
-    <t>[11.456-11.568]</t>
-  </si>
-  <si>
-    <t>[10.008-10.082]</t>
-  </si>
-  <si>
-    <t>[10.082-10.156]</t>
-  </si>
-  <si>
-    <t>[10.156-10.231]</t>
-  </si>
-  <si>
-    <t>[10.231-10.305]</t>
-  </si>
-  <si>
-    <t>[10.305-10.379]</t>
-  </si>
-  <si>
-    <t>[10.379-10.453]</t>
-  </si>
-  <si>
-    <t>[10.453-10.527]</t>
-  </si>
-  <si>
-    <t>[10.527-10.602]</t>
-  </si>
-  <si>
-    <t>[10.602-10.676]</t>
-  </si>
-  <si>
-    <t>[10.676-10.75]</t>
-  </si>
-  <si>
-    <t>[10.75-10.824]</t>
-  </si>
-  <si>
-    <t>[10.824-10.898]</t>
-  </si>
-  <si>
-    <t>[10.898-10.973]</t>
-  </si>
-  <si>
-    <t>[10.973-11.047]</t>
-  </si>
-  <si>
-    <t>[10.125-10.191]</t>
-  </si>
-  <si>
-    <t>[10.191-10.257]</t>
-  </si>
-  <si>
-    <t>[10.257-10.322]</t>
-  </si>
-  <si>
-    <t>[10.322-10.388]</t>
-  </si>
-  <si>
-    <t>[10.388-10.454]</t>
-  </si>
-  <si>
-    <t>[10.454-10.52]</t>
-  </si>
-  <si>
-    <t>[10.52-10.586]</t>
-  </si>
-  <si>
-    <t>[10.586-10.651]</t>
-  </si>
-  <si>
-    <t>[10.651-10.717]</t>
-  </si>
-  <si>
-    <t>[10.717-10.783]</t>
-  </si>
-  <si>
-    <t>[10.783-10.849]</t>
-  </si>
-  <si>
-    <t>[10.849-10.914]</t>
-  </si>
-  <si>
-    <t>[10.914-10.98]</t>
-  </si>
-  <si>
-    <t>[10.98-11.046]</t>
-  </si>
-  <si>
-    <t>[10.915-10.961]</t>
-  </si>
-  <si>
-    <t>[10.961-11.008]</t>
-  </si>
-  <si>
-    <t>[11.008-11.055]</t>
-  </si>
-  <si>
-    <t>[11.055-11.101]</t>
-  </si>
-  <si>
-    <t>[11.101-11.148]</t>
-  </si>
-  <si>
-    <t>[11.148-11.195]</t>
-  </si>
-  <si>
-    <t>[11.195-11.241]</t>
-  </si>
-  <si>
-    <t>[11.241-11.288]</t>
-  </si>
-  <si>
-    <t>[11.288-11.335]</t>
-  </si>
-  <si>
-    <t>[11.335-11.381]</t>
-  </si>
-  <si>
-    <t>[11.381-11.428]</t>
-  </si>
-  <si>
-    <t>[11.428-11.474]</t>
-  </si>
-  <si>
-    <t>[11.474-11.521]</t>
-  </si>
-  <si>
-    <t>[11.521-11.568]</t>
-  </si>
-  <si>
-    <t>[83.8-83.89]</t>
-  </si>
-  <si>
-    <t>[83.89-83.98]</t>
-  </si>
-  <si>
-    <t>[83.98-84.07]</t>
-  </si>
-  <si>
-    <t>[84.07-84.15]</t>
-  </si>
-  <si>
-    <t>[84.15-84.24]</t>
-  </si>
-  <si>
-    <t>[84.24-84.33]</t>
-  </si>
-  <si>
-    <t>[84.33-84.42]</t>
-  </si>
-  <si>
-    <t>[84.42-84.51]</t>
-  </si>
-  <si>
-    <t>[84.51-84.59]</t>
-  </si>
-  <si>
-    <t>[84.59-84.68]</t>
-  </si>
-  <si>
-    <t>[84.68-84.77]</t>
-  </si>
-  <si>
-    <t>[84.77-84.86]</t>
-  </si>
-  <si>
-    <t>[84.86-84.95]</t>
-  </si>
-  <si>
-    <t>[84.95-85.04]</t>
-  </si>
-  <si>
-    <t>[83.8-83.87]</t>
-  </si>
-  <si>
-    <t>[83.87-83.95]</t>
-  </si>
-  <si>
-    <t>[83.95-84.02]</t>
-  </si>
-  <si>
-    <t>[84.02-84.09]</t>
-  </si>
-  <si>
-    <t>[84.09-84.16]</t>
-  </si>
-  <si>
-    <t>[84.16-84.24]</t>
-  </si>
-  <si>
-    <t>[84.24-84.31]</t>
-  </si>
-  <si>
-    <t>[84.31-84.38]</t>
-  </si>
-  <si>
-    <t>[84.38-84.45]</t>
-  </si>
-  <si>
-    <t>[84.45-84.53]</t>
-  </si>
-  <si>
-    <t>[84.53-84.6]</t>
-  </si>
-  <si>
-    <t>[84.6-84.67]</t>
-  </si>
-  <si>
-    <t>[84.67-84.74]</t>
-  </si>
-  <si>
-    <t>[84.74-84.82]</t>
-  </si>
-  <si>
-    <t>[83.91-83.99]</t>
-  </si>
-  <si>
-    <t>[83.99-84.07]</t>
-  </si>
-  <si>
-    <t>[84.15-84.23]</t>
-  </si>
-  <si>
-    <t>[84.23-84.31]</t>
-  </si>
-  <si>
-    <t>[84.31-84.39]</t>
-  </si>
-  <si>
-    <t>[84.39-84.47]</t>
-  </si>
-  <si>
-    <t>[84.47-84.55]</t>
-  </si>
-  <si>
-    <t>[84.55-84.63]</t>
-  </si>
-  <si>
-    <t>[84.63-84.71]</t>
-  </si>
-  <si>
-    <t>[84.71-84.79]</t>
-  </si>
-  <si>
-    <t>[84.79-84.87]</t>
-  </si>
-  <si>
-    <t>[84.87-84.95]</t>
-  </si>
-  <si>
-    <t>[83.85-83.92]</t>
-  </si>
-  <si>
-    <t>[83.92-84.0]</t>
-  </si>
-  <si>
-    <t>[84.0-84.08]</t>
-  </si>
-  <si>
-    <t>[84.08-84.15]</t>
-  </si>
-  <si>
-    <t>[84.23-84.3]</t>
-  </si>
-  <si>
-    <t>[84.3-84.38]</t>
-  </si>
-  <si>
-    <t>[84.38-84.46]</t>
-  </si>
-  <si>
-    <t>[84.46-84.53]</t>
-  </si>
-  <si>
-    <t>[84.53-84.61]</t>
-  </si>
-  <si>
-    <t>[84.61-84.69]</t>
-  </si>
-  <si>
-    <t>[84.69-84.76]</t>
-  </si>
-  <si>
-    <t>[84.76-84.84]</t>
-  </si>
-  <si>
-    <t>[84.84-84.91]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="167">
+  <si>
+    <t>[3.7924-3.8222]</t>
+  </si>
+  <si>
+    <t>[3.8222-3.852]</t>
+  </si>
+  <si>
+    <t>[3.852-3.8817]</t>
+  </si>
+  <si>
+    <t>[3.8817-3.9115]</t>
+  </si>
+  <si>
+    <t>[3.9115-3.9413]</t>
+  </si>
+  <si>
+    <t>[3.9413-3.971]</t>
+  </si>
+  <si>
+    <t>[3.971-4.0008]</t>
+  </si>
+  <si>
+    <t>[4.0008-4.0306]</t>
+  </si>
+  <si>
+    <t>[4.0306-4.0603]</t>
+  </si>
+  <si>
+    <t>[4.0603-4.0901]</t>
+  </si>
+  <si>
+    <t>[4.0901-4.1199]</t>
+  </si>
+  <si>
+    <t>[4.1199-4.1496]</t>
+  </si>
+  <si>
+    <t>[4.1496-4.1794]</t>
+  </si>
+  <si>
+    <t>[4.1794-4.2092]</t>
+  </si>
+  <si>
+    <t>[3.8259-3.8431]</t>
+  </si>
+  <si>
+    <t>[3.8431-3.8603]</t>
+  </si>
+  <si>
+    <t>[3.8603-3.8776]</t>
+  </si>
+  <si>
+    <t>[3.8776-3.8948]</t>
+  </si>
+  <si>
+    <t>[3.8948-3.912]</t>
+  </si>
+  <si>
+    <t>[3.912-3.9292]</t>
+  </si>
+  <si>
+    <t>[3.9292-3.9464]</t>
+  </si>
+  <si>
+    <t>[3.9464-3.9637]</t>
+  </si>
+  <si>
+    <t>[3.9637-3.9809]</t>
+  </si>
+  <si>
+    <t>[3.9809-3.9981]</t>
+  </si>
+  <si>
+    <t>[3.9981-4.0153]</t>
+  </si>
+  <si>
+    <t>[4.0153-4.0325]</t>
+  </si>
+  <si>
+    <t>[4.0325-4.0497]</t>
+  </si>
+  <si>
+    <t>[4.0497-4.067]</t>
+  </si>
+  <si>
+    <t>[3.8687-3.893]</t>
+  </si>
+  <si>
+    <t>[3.893-3.9173]</t>
+  </si>
+  <si>
+    <t>[3.9173-3.9416]</t>
+  </si>
+  <si>
+    <t>[3.9416-3.966]</t>
+  </si>
+  <si>
+    <t>[3.966-3.9903]</t>
+  </si>
+  <si>
+    <t>[3.9903-4.0146]</t>
+  </si>
+  <si>
+    <t>[4.0146-4.0389]</t>
+  </si>
+  <si>
+    <t>[4.0389-4.0633]</t>
+  </si>
+  <si>
+    <t>[4.0633-4.0876]</t>
+  </si>
+  <si>
+    <t>[4.0876-4.1119]</t>
+  </si>
+  <si>
+    <t>[4.1119-4.1362]</t>
+  </si>
+  <si>
+    <t>[4.1362-4.1605]</t>
+  </si>
+  <si>
+    <t>[4.1605-4.1849]</t>
+  </si>
+  <si>
+    <t>[4.1849-4.2092]</t>
+  </si>
+  <si>
+    <t>[3.7924-3.8103]</t>
+  </si>
+  <si>
+    <t>[3.8103-3.8281]</t>
+  </si>
+  <si>
+    <t>[3.8281-3.846]</t>
+  </si>
+  <si>
+    <t>[3.846-3.8639]</t>
+  </si>
+  <si>
+    <t>[3.8639-3.8817]</t>
+  </si>
+  <si>
+    <t>[3.8817-3.8996]</t>
+  </si>
+  <si>
+    <t>[3.8996-3.9175]</t>
+  </si>
+  <si>
+    <t>[3.9175-3.9353]</t>
+  </si>
+  <si>
+    <t>[3.9353-3.9532]</t>
+  </si>
+  <si>
+    <t>[3.9532-3.9711]</t>
+  </si>
+  <si>
+    <t>[3.9711-3.9889]</t>
+  </si>
+  <si>
+    <t>[3.9889-4.0068]</t>
+  </si>
+  <si>
+    <t>[4.0068-4.0247]</t>
+  </si>
+  <si>
+    <t>[4.0247-4.0425]</t>
+  </si>
+  <si>
+    <t>[9.255-9.434]</t>
+  </si>
+  <si>
+    <t>[9.434-9.613]</t>
+  </si>
+  <si>
+    <t>[9.613-9.792]</t>
+  </si>
+  <si>
+    <t>[9.792-9.97]</t>
+  </si>
+  <si>
+    <t>[9.97-10.149]</t>
+  </si>
+  <si>
+    <t>[10.149-10.328]</t>
+  </si>
+  <si>
+    <t>[10.328-10.507]</t>
+  </si>
+  <si>
+    <t>[10.507-10.685]</t>
+  </si>
+  <si>
+    <t>[10.685-10.864]</t>
+  </si>
+  <si>
+    <t>[10.864-11.043]</t>
+  </si>
+  <si>
+    <t>[11.043-11.222]</t>
+  </si>
+  <si>
+    <t>[11.222-11.4]</t>
+  </si>
+  <si>
+    <t>[11.4-11.579]</t>
+  </si>
+  <si>
+    <t>[11.579-11.758]</t>
+  </si>
+  <si>
+    <t>[10.105-10.208]</t>
+  </si>
+  <si>
+    <t>[10.208-10.311]</t>
+  </si>
+  <si>
+    <t>[10.311-10.414]</t>
+  </si>
+  <si>
+    <t>[10.414-10.518]</t>
+  </si>
+  <si>
+    <t>[10.518-10.621]</t>
+  </si>
+  <si>
+    <t>[10.621-10.724]</t>
+  </si>
+  <si>
+    <t>[10.724-10.827]</t>
+  </si>
+  <si>
+    <t>[10.827-10.931]</t>
+  </si>
+  <si>
+    <t>[10.931-11.034]</t>
+  </si>
+  <si>
+    <t>[11.034-11.137]</t>
+  </si>
+  <si>
+    <t>[11.137-11.24]</t>
+  </si>
+  <si>
+    <t>[11.24-11.344]</t>
+  </si>
+  <si>
+    <t>[11.344-11.447]</t>
+  </si>
+  <si>
+    <t>[11.447-11.55]</t>
+  </si>
+  <si>
+    <t>[9.255-9.402]</t>
+  </si>
+  <si>
+    <t>[9.402-9.549]</t>
+  </si>
+  <si>
+    <t>[9.549-9.696]</t>
+  </si>
+  <si>
+    <t>[9.696-9.843]</t>
+  </si>
+  <si>
+    <t>[9.843-9.99]</t>
+  </si>
+  <si>
+    <t>[9.99-10.136]</t>
+  </si>
+  <si>
+    <t>[10.136-10.283]</t>
+  </si>
+  <si>
+    <t>[10.283-10.43]</t>
+  </si>
+  <si>
+    <t>[10.43-10.577]</t>
+  </si>
+  <si>
+    <t>[10.577-10.724]</t>
+  </si>
+  <si>
+    <t>[10.724-10.871]</t>
+  </si>
+  <si>
+    <t>[10.871-11.018]</t>
+  </si>
+  <si>
+    <t>[11.018-11.164]</t>
+  </si>
+  <si>
+    <t>[11.164-11.311]</t>
+  </si>
+  <si>
+    <t>[10.278-10.383]</t>
+  </si>
+  <si>
+    <t>[10.383-10.489]</t>
+  </si>
+  <si>
+    <t>[10.489-10.595]</t>
+  </si>
+  <si>
+    <t>[10.595-10.701]</t>
+  </si>
+  <si>
+    <t>[10.701-10.806]</t>
+  </si>
+  <si>
+    <t>[10.806-10.912]</t>
+  </si>
+  <si>
+    <t>[10.912-11.018]</t>
+  </si>
+  <si>
+    <t>[11.018-11.124]</t>
+  </si>
+  <si>
+    <t>[11.124-11.229]</t>
+  </si>
+  <si>
+    <t>[11.229-11.335]</t>
+  </si>
+  <si>
+    <t>[11.335-11.441]</t>
+  </si>
+  <si>
+    <t>[11.441-11.547]</t>
+  </si>
+  <si>
+    <t>[11.547-11.652]</t>
+  </si>
+  <si>
+    <t>[11.652-11.758]</t>
+  </si>
+  <si>
+    <t>[82.94-83.1]</t>
+  </si>
+  <si>
+    <t>[83.1-83.27]</t>
+  </si>
+  <si>
+    <t>[83.27-83.44]</t>
+  </si>
+  <si>
+    <t>[83.44-83.61]</t>
+  </si>
+  <si>
+    <t>[83.61-83.78]</t>
+  </si>
+  <si>
+    <t>[83.78-83.95]</t>
+  </si>
+  <si>
+    <t>[83.95-84.11]</t>
+  </si>
+  <si>
+    <t>[84.11-84.28]</t>
+  </si>
+  <si>
+    <t>[84.28-84.45]</t>
+  </si>
+  <si>
+    <t>[84.45-84.62]</t>
+  </si>
+  <si>
+    <t>[84.62-84.79]</t>
+  </si>
+  <si>
+    <t>[84.79-84.96]</t>
+  </si>
+  <si>
+    <t>[84.96-85.12]</t>
+  </si>
+  <si>
+    <t>[85.12-85.29]</t>
+  </si>
+  <si>
+    <t>[83.41-83.55]</t>
+  </si>
+  <si>
+    <t>[83.55-83.68]</t>
+  </si>
+  <si>
+    <t>[83.68-83.82]</t>
+  </si>
+  <si>
+    <t>[83.82-83.95]</t>
+  </si>
+  <si>
+    <t>[83.95-84.08]</t>
+  </si>
+  <si>
+    <t>[84.08-84.22]</t>
+  </si>
+  <si>
+    <t>[84.22-84.35]</t>
+  </si>
+  <si>
+    <t>[84.35-84.49]</t>
+  </si>
+  <si>
+    <t>[84.49-84.62]</t>
+  </si>
+  <si>
+    <t>[84.62-84.76]</t>
+  </si>
+  <si>
+    <t>[84.76-84.89]</t>
+  </si>
+  <si>
+    <t>[84.89-85.02]</t>
+  </si>
+  <si>
+    <t>[85.02-85.16]</t>
+  </si>
+  <si>
+    <t>[85.16-85.29]</t>
+  </si>
+  <si>
+    <t>[83.1-83.26]</t>
+  </si>
+  <si>
+    <t>[83.26-83.42]</t>
+  </si>
+  <si>
+    <t>[83.42-83.58]</t>
+  </si>
+  <si>
+    <t>[83.58-83.74]</t>
+  </si>
+  <si>
+    <t>[83.74-83.9]</t>
+  </si>
+  <si>
+    <t>[83.9-84.06]</t>
+  </si>
+  <si>
+    <t>[84.06-84.22]</t>
+  </si>
+  <si>
+    <t>[84.22-84.38]</t>
+  </si>
+  <si>
+    <t>[84.38-84.54]</t>
+  </si>
+  <si>
+    <t>[84.54-84.7]</t>
+  </si>
+  <si>
+    <t>[84.7-84.86]</t>
+  </si>
+  <si>
+    <t>[84.86-85.03]</t>
+  </si>
+  <si>
+    <t>[85.03-85.19]</t>
+  </si>
+  <si>
+    <t>[83.67-83.78]</t>
+  </si>
+  <si>
+    <t>[83.78-83.89]</t>
+  </si>
+  <si>
+    <t>[83.89-84.0]</t>
+  </si>
+  <si>
+    <t>[84.0-84.11]</t>
+  </si>
+  <si>
+    <t>[84.11-84.22]</t>
+  </si>
+  <si>
+    <t>[84.22-84.33]</t>
+  </si>
+  <si>
+    <t>[84.33-84.44]</t>
+  </si>
+  <si>
+    <t>[84.44-84.55]</t>
+  </si>
+  <si>
+    <t>[84.55-84.66]</t>
+  </si>
+  <si>
+    <t>[84.66-84.77]</t>
+  </si>
+  <si>
+    <t>[84.77-84.88]</t>
+  </si>
+  <si>
+    <t>[84.88-84.99]</t>
+  </si>
+  <si>
+    <t>[84.99-85.1]</t>
+  </si>
+  <si>
+    <t>[85.1-85.21]</t>
   </si>
 </sst>
 </file>
@@ -629,31 +635,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,22 +674,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2</c:v>
@@ -816,46 +822,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[10.008-10.082]</c:v>
+                  <c:v>[10.105-10.208]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[10.082-10.156]</c:v>
+                  <c:v>[10.208-10.311]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[10.156-10.231]</c:v>
+                  <c:v>[10.311-10.414]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.231-10.305]</c:v>
+                  <c:v>[10.414-10.518]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.305-10.379]</c:v>
+                  <c:v>[10.518-10.621]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[10.379-10.453]</c:v>
+                  <c:v>[10.621-10.724]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[10.453-10.527]</c:v>
+                  <c:v>[10.724-10.827]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[10.527-10.602]</c:v>
+                  <c:v>[10.827-10.931]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[10.602-10.676]</c:v>
+                  <c:v>[10.931-11.034]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[10.676-10.75]</c:v>
+                  <c:v>[11.034-11.137]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[10.75-10.824]</c:v>
+                  <c:v>[11.137-11.24]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[10.824-10.898]</c:v>
+                  <c:v>[11.24-11.344]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[10.898-10.973]</c:v>
+                  <c:v>[11.344-11.447]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[10.973-11.047]</c:v>
+                  <c:v>[11.447-11.55]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -867,43 +873,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -1043,46 +1049,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[10.125-10.191]</c:v>
+                  <c:v>[9.255-9.402]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[10.191-10.257]</c:v>
+                  <c:v>[9.402-9.549]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[10.257-10.322]</c:v>
+                  <c:v>[9.549-9.696]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.322-10.388]</c:v>
+                  <c:v>[9.696-9.843]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.388-10.454]</c:v>
+                  <c:v>[9.843-9.99]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[10.454-10.52]</c:v>
+                  <c:v>[9.99-10.136]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[10.52-10.586]</c:v>
+                  <c:v>[10.136-10.283]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[10.586-10.651]</c:v>
+                  <c:v>[10.283-10.43]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[10.651-10.717]</c:v>
+                  <c:v>[10.43-10.577]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[10.717-10.783]</c:v>
+                  <c:v>[10.577-10.724]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[10.783-10.849]</c:v>
+                  <c:v>[10.724-10.871]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[10.849-10.914]</c:v>
+                  <c:v>[10.871-11.018]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[10.914-10.98]</c:v>
+                  <c:v>[11.018-11.164]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[10.98-11.046]</c:v>
+                  <c:v>[11.164-11.311]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1100,40 +1106,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1270,46 +1276,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[10.915-10.961]</c:v>
+                  <c:v>[10.278-10.383]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[10.961-11.008]</c:v>
+                  <c:v>[10.383-10.489]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[11.008-11.055]</c:v>
+                  <c:v>[10.489-10.595]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[11.055-11.101]</c:v>
+                  <c:v>[10.595-10.701]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[11.101-11.148]</c:v>
+                  <c:v>[10.701-10.806]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[11.148-11.195]</c:v>
+                  <c:v>[10.806-10.912]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[11.195-11.241]</c:v>
+                  <c:v>[10.912-11.018]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[11.241-11.288]</c:v>
+                  <c:v>[11.018-11.124]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[11.288-11.335]</c:v>
+                  <c:v>[11.124-11.229]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[11.335-11.381]</c:v>
+                  <c:v>[11.229-11.335]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[11.381-11.428]</c:v>
+                  <c:v>[11.335-11.441]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[11.428-11.474]</c:v>
+                  <c:v>[11.441-11.547]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[11.474-11.521]</c:v>
+                  <c:v>[11.547-11.652]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[11.521-11.568]</c:v>
+                  <c:v>[11.652-11.758]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1321,46 +1327,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1497,46 +1503,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[83.8-83.89]</c:v>
+                  <c:v>[82.94-83.1]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[83.89-83.98]</c:v>
+                  <c:v>[83.1-83.27]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[83.98-84.07]</c:v>
+                  <c:v>[83.27-83.44]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[84.07-84.15]</c:v>
+                  <c:v>[83.44-83.61]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[84.15-84.24]</c:v>
+                  <c:v>[83.61-83.78]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[84.24-84.33]</c:v>
+                  <c:v>[83.78-83.95]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[84.33-84.42]</c:v>
+                  <c:v>[83.95-84.11]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[84.42-84.51]</c:v>
+                  <c:v>[84.11-84.28]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.51-84.59]</c:v>
+                  <c:v>[84.28-84.45]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.59-84.68]</c:v>
+                  <c:v>[84.45-84.62]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.68-84.77]</c:v>
+                  <c:v>[84.62-84.79]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.77-84.86]</c:v>
+                  <c:v>[84.79-84.96]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[84.86-84.95]</c:v>
+                  <c:v>[84.96-85.12]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[84.95-85.04]</c:v>
+                  <c:v>[85.12-85.29]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1548,46 +1554,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1724,46 +1730,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[83.8-83.87]</c:v>
+                  <c:v>[83.41-83.55]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[83.87-83.95]</c:v>
+                  <c:v>[83.55-83.68]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[83.95-84.02]</c:v>
+                  <c:v>[83.68-83.82]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[84.02-84.09]</c:v>
+                  <c:v>[83.82-83.95]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[84.09-84.16]</c:v>
+                  <c:v>[83.95-84.08]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[84.16-84.24]</c:v>
+                  <c:v>[84.08-84.22]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[84.24-84.31]</c:v>
+                  <c:v>[84.22-84.35]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[84.31-84.38]</c:v>
+                  <c:v>[84.35-84.49]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.38-84.45]</c:v>
+                  <c:v>[84.49-84.62]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.45-84.53]</c:v>
+                  <c:v>[84.62-84.76]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.53-84.6]</c:v>
+                  <c:v>[84.76-84.89]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.6-84.67]</c:v>
+                  <c:v>[84.89-85.02]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[84.67-84.74]</c:v>
+                  <c:v>[85.02-85.16]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[84.74-84.82]</c:v>
+                  <c:v>[85.16-85.29]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1775,46 +1781,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1951,46 +1957,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[83.91-83.99]</c:v>
+                  <c:v>[82.94-83.1]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[83.99-84.07]</c:v>
+                  <c:v>[83.1-83.26]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[84.07-84.15]</c:v>
+                  <c:v>[83.26-83.42]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[84.15-84.23]</c:v>
+                  <c:v>[83.42-83.58]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[84.23-84.31]</c:v>
+                  <c:v>[83.58-83.74]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[84.31-84.39]</c:v>
+                  <c:v>[83.74-83.9]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[84.39-84.47]</c:v>
+                  <c:v>[83.9-84.06]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[84.47-84.55]</c:v>
+                  <c:v>[84.06-84.22]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.55-84.63]</c:v>
+                  <c:v>[84.22-84.38]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.63-84.71]</c:v>
+                  <c:v>[84.38-84.54]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.71-84.79]</c:v>
+                  <c:v>[84.54-84.7]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.79-84.87]</c:v>
+                  <c:v>[84.7-84.86]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[84.87-84.95]</c:v>
+                  <c:v>[84.86-85.03]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[84.95-85.04]</c:v>
+                  <c:v>[85.03-85.19]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2005,40 +2011,40 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -2178,46 +2184,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[83.85-83.92]</c:v>
+                  <c:v>[83.67-83.78]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[83.92-84.0]</c:v>
+                  <c:v>[83.78-83.89]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[84.0-84.08]</c:v>
+                  <c:v>[83.89-84.0]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[84.08-84.15]</c:v>
+                  <c:v>[84.0-84.11]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[84.15-84.23]</c:v>
+                  <c:v>[84.11-84.22]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[84.23-84.3]</c:v>
+                  <c:v>[84.22-84.33]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[84.3-84.38]</c:v>
+                  <c:v>[84.33-84.44]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[84.38-84.46]</c:v>
+                  <c:v>[84.44-84.55]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.46-84.53]</c:v>
+                  <c:v>[84.55-84.66]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.53-84.61]</c:v>
+                  <c:v>[84.66-84.77]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.61-84.69]</c:v>
+                  <c:v>[84.77-84.88]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.69-84.76]</c:v>
+                  <c:v>[84.88-84.99]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[84.76-84.84]</c:v>
+                  <c:v>[84.99-85.1]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[84.84-84.91]</c:v>
+                  <c:v>[85.1-85.21]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2232,43 +2238,43 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2406,31 +2412,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2445,19 +2451,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2594,10 +2600,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>25</c:v>
@@ -2606,19 +2612,19 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2633,25 +2639,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2</c:v>
@@ -2782,31 +2788,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2821,28 +2827,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2969,46 +2975,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.8231-3.8419]</c:v>
+                  <c:v>[3.7924-3.8222]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.8419-3.8606]</c:v>
+                  <c:v>[3.8222-3.852]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.8606-3.8794]</c:v>
+                  <c:v>[3.852-3.8817]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.8794-3.8982]</c:v>
+                  <c:v>[3.8817-3.9115]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.8982-3.917]</c:v>
+                  <c:v>[3.9115-3.9413]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.917-3.9357]</c:v>
+                  <c:v>[3.9413-3.971]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[3.9357-3.9545]</c:v>
+                  <c:v>[3.971-4.0008]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[3.9545-3.9733]</c:v>
+                  <c:v>[4.0008-4.0306]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[3.9733-3.9921]</c:v>
+                  <c:v>[4.0306-4.0603]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[3.9921-4.0109]</c:v>
+                  <c:v>[4.0603-4.0901]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[4.0109-4.0296]</c:v>
+                  <c:v>[4.0901-4.1199]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[4.0296-4.0484]</c:v>
+                  <c:v>[4.1199-4.1496]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.0484-4.0672]</c:v>
+                  <c:v>[4.1496-4.1794]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.0672-4.086]</c:v>
+                  <c:v>[4.1794-4.2092]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3020,40 +3026,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
@@ -3196,46 +3202,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.9113-3.9238]</c:v>
+                  <c:v>[3.8259-3.8431]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.9238-3.9362]</c:v>
+                  <c:v>[3.8431-3.8603]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.9362-3.9487]</c:v>
+                  <c:v>[3.8603-3.8776]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.9487-3.9612]</c:v>
+                  <c:v>[3.8776-3.8948]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.9612-3.9737]</c:v>
+                  <c:v>[3.8948-3.912]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.9737-3.9862]</c:v>
+                  <c:v>[3.912-3.9292]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[3.9862-3.9986]</c:v>
+                  <c:v>[3.9292-3.9464]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[3.9986-4.0111]</c:v>
+                  <c:v>[3.9464-3.9637]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[4.0111-4.0236]</c:v>
+                  <c:v>[3.9637-3.9809]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[4.0236-4.0361]</c:v>
+                  <c:v>[3.9809-3.9981]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[4.0361-4.0485]</c:v>
+                  <c:v>[3.9981-4.0153]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[4.0485-4.061]</c:v>
+                  <c:v>[4.0153-4.0325]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.061-4.0735]</c:v>
+                  <c:v>[4.0325-4.0497]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.0735-4.086]</c:v>
+                  <c:v>[4.0497-4.067]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3250,43 +3256,43 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3423,46 +3429,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.9149-3.9257]</c:v>
+                  <c:v>[3.8687-3.893]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.9257-3.9366]</c:v>
+                  <c:v>[3.893-3.9173]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.9366-3.9475]</c:v>
+                  <c:v>[3.9173-3.9416]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.9475-3.9584]</c:v>
+                  <c:v>[3.9416-3.966]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.9584-3.9692]</c:v>
+                  <c:v>[3.966-3.9903]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.9692-3.9801]</c:v>
+                  <c:v>[3.9903-4.0146]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[3.9801-3.991]</c:v>
+                  <c:v>[4.0146-4.0389]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[3.991-4.0019]</c:v>
+                  <c:v>[4.0389-4.0633]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[4.0019-4.0127]</c:v>
+                  <c:v>[4.0633-4.0876]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[4.0127-4.0236]</c:v>
+                  <c:v>[4.0876-4.1119]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[4.0236-4.0345]</c:v>
+                  <c:v>[4.1119-4.1362]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[4.0345-4.0454]</c:v>
+                  <c:v>[4.1362-4.1605]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.0454-4.0562]</c:v>
+                  <c:v>[4.1605-4.1849]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.0562-4.0671]</c:v>
+                  <c:v>[4.1849-4.2092]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3474,40 +3480,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -3650,46 +3656,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.8231-3.8309]</c:v>
+                  <c:v>[3.7924-3.8103]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.8309-3.8387]</c:v>
+                  <c:v>[3.8103-3.8281]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.8387-3.8464]</c:v>
+                  <c:v>[3.8281-3.846]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.8464-3.8542]</c:v>
+                  <c:v>[3.846-3.8639]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.8542-3.862]</c:v>
+                  <c:v>[3.8639-3.8817]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.862-3.8698]</c:v>
+                  <c:v>[3.8817-3.8996]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[3.8698-3.8776]</c:v>
+                  <c:v>[3.8996-3.9175]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[3.8776-3.8854]</c:v>
+                  <c:v>[3.9175-3.9353]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[3.8854-3.8932]</c:v>
+                  <c:v>[3.9353-3.9532]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[3.8932-3.901]</c:v>
+                  <c:v>[3.9532-3.9711]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[3.901-3.9088]</c:v>
+                  <c:v>[3.9711-3.9889]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[3.9088-3.9166]</c:v>
+                  <c:v>[3.9889-4.0068]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[3.9166-3.9244]</c:v>
+                  <c:v>[4.0068-4.0247]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[3.9244-3.9322]</c:v>
+                  <c:v>[4.0247-4.0425]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3701,46 +3707,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="13">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3877,46 +3883,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[10.008-10.12]</c:v>
+                  <c:v>[9.255-9.434]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[10.12-10.231]</c:v>
+                  <c:v>[9.434-9.613]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[10.231-10.342]</c:v>
+                  <c:v>[9.613-9.792]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.342-10.454]</c:v>
+                  <c:v>[9.792-9.97]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.454-10.565]</c:v>
+                  <c:v>[9.97-10.149]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[10.565-10.677]</c:v>
+                  <c:v>[10.149-10.328]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[10.677-10.788]</c:v>
+                  <c:v>[10.328-10.507]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[10.788-10.899]</c:v>
+                  <c:v>[10.507-10.685]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[10.899-11.011]</c:v>
+                  <c:v>[10.685-10.864]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[11.011-11.122]</c:v>
+                  <c:v>[10.864-11.043]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[11.122-11.234]</c:v>
+                  <c:v>[11.043-11.222]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[11.234-11.345]</c:v>
+                  <c:v>[11.222-11.4]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[11.345-11.456]</c:v>
+                  <c:v>[11.4-11.579]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[11.456-11.568]</c:v>
+                  <c:v>[11.579-11.758]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3934,40 +3940,40 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4917,7 +4923,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4925,10 +4931,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4936,44 +4942,44 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -4981,7 +4987,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -4989,7 +4995,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -5011,7 +5017,7 @@
         <v>70</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5019,7 +5025,7 @@
         <v>71</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5027,7 +5033,7 @@
         <v>72</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5035,7 +5041,7 @@
         <v>73</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5043,7 +5049,7 @@
         <v>74</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5051,7 +5057,7 @@
         <v>75</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5059,7 +5065,7 @@
         <v>76</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5067,7 +5073,7 @@
         <v>77</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5075,7 +5081,7 @@
         <v>78</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5083,7 +5089,7 @@
         <v>79</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5091,7 +5097,7 @@
         <v>80</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5099,7 +5105,7 @@
         <v>81</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5107,7 +5113,7 @@
         <v>82</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5153,7 +5159,7 @@
         <v>86</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5161,7 +5167,7 @@
         <v>87</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5169,7 +5175,7 @@
         <v>88</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5177,7 +5183,7 @@
         <v>89</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5185,7 +5191,7 @@
         <v>90</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5193,7 +5199,7 @@
         <v>91</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5201,7 +5207,7 @@
         <v>92</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5209,7 +5215,7 @@
         <v>93</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5217,7 +5223,7 @@
         <v>94</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5225,7 +5231,7 @@
         <v>95</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5233,7 +5239,7 @@
         <v>96</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5241,7 +5247,7 @@
         <v>97</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5263,7 +5269,7 @@
         <v>98</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5271,7 +5277,7 @@
         <v>99</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5279,7 +5285,7 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5287,7 +5293,7 @@
         <v>101</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5295,7 +5301,7 @@
         <v>102</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5303,7 +5309,7 @@
         <v>103</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5311,7 +5317,7 @@
         <v>104</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5319,7 +5325,7 @@
         <v>105</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5327,7 +5333,7 @@
         <v>106</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5335,7 +5341,7 @@
         <v>107</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5343,7 +5349,7 @@
         <v>108</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5351,7 +5357,7 @@
         <v>109</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5359,7 +5365,7 @@
         <v>110</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5367,7 +5373,7 @@
         <v>111</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5389,7 +5395,7 @@
         <v>112</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5397,7 +5403,7 @@
         <v>113</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5405,7 +5411,7 @@
         <v>114</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5413,7 +5419,7 @@
         <v>115</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5421,7 +5427,7 @@
         <v>116</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5429,7 +5435,7 @@
         <v>117</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5437,7 +5443,7 @@
         <v>118</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5445,7 +5451,7 @@
         <v>119</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5453,7 +5459,7 @@
         <v>120</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5461,7 +5467,7 @@
         <v>121</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5469,7 +5475,7 @@
         <v>122</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5477,7 +5483,7 @@
         <v>123</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5485,7 +5491,7 @@
         <v>124</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5493,7 +5499,7 @@
         <v>125</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5515,7 +5521,7 @@
         <v>126</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5523,7 +5529,7 @@
         <v>127</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5531,7 +5537,7 @@
         <v>128</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5547,7 +5553,7 @@
         <v>130</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5555,7 +5561,7 @@
         <v>131</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5563,7 +5569,7 @@
         <v>132</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5571,7 +5577,7 @@
         <v>133</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5579,7 +5585,7 @@
         <v>134</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5587,7 +5593,7 @@
         <v>135</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5595,7 +5601,7 @@
         <v>136</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5603,7 +5609,7 @@
         <v>137</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5611,7 +5617,7 @@
         <v>138</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5619,7 +5625,7 @@
         <v>139</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5638,7 +5644,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="B1">
         <v>2</v>
@@ -5646,18 +5652,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5665,7 +5671,7 @@
         <v>142</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5673,7 +5679,7 @@
         <v>143</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5681,7 +5687,7 @@
         <v>144</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5689,7 +5695,7 @@
         <v>145</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5697,7 +5703,7 @@
         <v>146</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5705,7 +5711,7 @@
         <v>147</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5713,7 +5719,7 @@
         <v>148</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5721,7 +5727,7 @@
         <v>149</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5729,7 +5735,7 @@
         <v>150</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5737,12 +5743,12 @@
         <v>151</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5764,7 +5770,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -5772,31 +5778,31 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5804,74 +5810,74 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5890,7 +5896,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5898,47 +5904,47 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5946,7 +5952,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5954,7 +5960,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -5962,7 +5968,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -5981,7 +5987,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5989,10 +5995,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6000,7 +6006,7 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6008,15 +6014,15 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6024,28 +6030,28 @@
         <v>27</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -6053,7 +6059,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -6072,7 +6078,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6080,18 +6086,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6099,52 +6105,52 @@
         <v>28</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -6166,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6174,7 +6180,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6182,7 +6188,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6190,7 +6196,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6198,7 +6204,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6206,7 +6212,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6214,7 +6220,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6222,7 +6228,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6230,7 +6236,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6238,7 +6244,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6246,7 +6252,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6254,7 +6260,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6300,7 +6306,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6308,7 +6314,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6316,7 +6322,7 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6324,7 +6330,7 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6332,7 +6338,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6340,7 +6346,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6348,7 +6354,7 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6356,7 +6362,7 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6364,7 +6370,7 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6372,7 +6378,7 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6380,7 +6386,7 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6388,7 +6394,7 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6396,7 +6402,7 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6418,7 +6424,7 @@
         <v>28</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6426,7 +6432,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6434,7 +6440,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6442,7 +6448,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6450,7 +6456,7 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6458,7 +6464,7 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6466,7 +6472,7 @@
         <v>34</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6474,7 +6480,7 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6482,7 +6488,7 @@
         <v>36</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6490,7 +6496,7 @@
         <v>37</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6498,7 +6504,7 @@
         <v>38</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6506,7 +6512,7 @@
         <v>39</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6544,7 +6550,7 @@
         <v>42</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6552,7 +6558,7 @@
         <v>43</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6560,7 +6566,7 @@
         <v>44</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6568,7 +6574,7 @@
         <v>45</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6576,7 +6582,7 @@
         <v>46</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6584,7 +6590,7 @@
         <v>47</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6592,7 +6598,7 @@
         <v>48</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6600,7 +6606,7 @@
         <v>49</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6608,7 +6614,7 @@
         <v>50</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6616,7 +6622,7 @@
         <v>51</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6624,7 +6630,7 @@
         <v>52</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6632,7 +6638,7 @@
         <v>53</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6640,7 +6646,7 @@
         <v>54</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6648,7 +6654,7 @@
         <v>55</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6686,7 +6692,7 @@
         <v>58</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6694,7 +6700,7 @@
         <v>59</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6702,7 +6708,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6710,7 +6716,7 @@
         <v>61</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6718,7 +6724,7 @@
         <v>62</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6726,7 +6732,7 @@
         <v>63</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6734,7 +6740,7 @@
         <v>64</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6742,7 +6748,7 @@
         <v>65</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6750,7 +6756,7 @@
         <v>66</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6758,7 +6764,7 @@
         <v>67</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6766,7 +6772,7 @@
         <v>68</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6774,7 +6780,7 @@
         <v>69</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -29,507 +29,504 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="167">
-  <si>
-    <t>[3.7924-3.8222]</t>
-  </si>
-  <si>
-    <t>[3.8222-3.852]</t>
-  </si>
-  <si>
-    <t>[3.852-3.8817]</t>
-  </si>
-  <si>
-    <t>[3.8817-3.9115]</t>
-  </si>
-  <si>
-    <t>[3.9115-3.9413]</t>
-  </si>
-  <si>
-    <t>[3.9413-3.971]</t>
-  </si>
-  <si>
-    <t>[3.971-4.0008]</t>
-  </si>
-  <si>
-    <t>[4.0008-4.0306]</t>
-  </si>
-  <si>
-    <t>[4.0306-4.0603]</t>
-  </si>
-  <si>
-    <t>[4.0603-4.0901]</t>
-  </si>
-  <si>
-    <t>[4.0901-4.1199]</t>
-  </si>
-  <si>
-    <t>[4.1199-4.1496]</t>
-  </si>
-  <si>
-    <t>[4.1496-4.1794]</t>
-  </si>
-  <si>
-    <t>[4.1794-4.2092]</t>
-  </si>
-  <si>
-    <t>[3.8259-3.8431]</t>
-  </si>
-  <si>
-    <t>[3.8431-3.8603]</t>
-  </si>
-  <si>
-    <t>[3.8603-3.8776]</t>
-  </si>
-  <si>
-    <t>[3.8776-3.8948]</t>
-  </si>
-  <si>
-    <t>[3.8948-3.912]</t>
-  </si>
-  <si>
-    <t>[3.912-3.9292]</t>
-  </si>
-  <si>
-    <t>[3.9292-3.9464]</t>
-  </si>
-  <si>
-    <t>[3.9464-3.9637]</t>
-  </si>
-  <si>
-    <t>[3.9637-3.9809]</t>
-  </si>
-  <si>
-    <t>[3.9809-3.9981]</t>
-  </si>
-  <si>
-    <t>[3.9981-4.0153]</t>
-  </si>
-  <si>
-    <t>[4.0153-4.0325]</t>
-  </si>
-  <si>
-    <t>[4.0325-4.0497]</t>
-  </si>
-  <si>
-    <t>[4.0497-4.067]</t>
-  </si>
-  <si>
-    <t>[3.8687-3.893]</t>
-  </si>
-  <si>
-    <t>[3.893-3.9173]</t>
-  </si>
-  <si>
-    <t>[3.9173-3.9416]</t>
-  </si>
-  <si>
-    <t>[3.9416-3.966]</t>
-  </si>
-  <si>
-    <t>[3.966-3.9903]</t>
-  </si>
-  <si>
-    <t>[3.9903-4.0146]</t>
-  </si>
-  <si>
-    <t>[4.0146-4.0389]</t>
-  </si>
-  <si>
-    <t>[4.0389-4.0633]</t>
-  </si>
-  <si>
-    <t>[4.0633-4.0876]</t>
-  </si>
-  <si>
-    <t>[4.0876-4.1119]</t>
-  </si>
-  <si>
-    <t>[4.1119-4.1362]</t>
-  </si>
-  <si>
-    <t>[4.1362-4.1605]</t>
-  </si>
-  <si>
-    <t>[4.1605-4.1849]</t>
-  </si>
-  <si>
-    <t>[4.1849-4.2092]</t>
-  </si>
-  <si>
-    <t>[3.7924-3.8103]</t>
-  </si>
-  <si>
-    <t>[3.8103-3.8281]</t>
-  </si>
-  <si>
-    <t>[3.8281-3.846]</t>
-  </si>
-  <si>
-    <t>[3.846-3.8639]</t>
-  </si>
-  <si>
-    <t>[3.8639-3.8817]</t>
-  </si>
-  <si>
-    <t>[3.8817-3.8996]</t>
-  </si>
-  <si>
-    <t>[3.8996-3.9175]</t>
-  </si>
-  <si>
-    <t>[3.9175-3.9353]</t>
-  </si>
-  <si>
-    <t>[3.9353-3.9532]</t>
-  </si>
-  <si>
-    <t>[3.9532-3.9711]</t>
-  </si>
-  <si>
-    <t>[3.9711-3.9889]</t>
-  </si>
-  <si>
-    <t>[3.9889-4.0068]</t>
-  </si>
-  <si>
-    <t>[4.0068-4.0247]</t>
-  </si>
-  <si>
-    <t>[4.0247-4.0425]</t>
-  </si>
-  <si>
-    <t>[9.255-9.434]</t>
-  </si>
-  <si>
-    <t>[9.434-9.613]</t>
-  </si>
-  <si>
-    <t>[9.613-9.792]</t>
-  </si>
-  <si>
-    <t>[9.792-9.97]</t>
-  </si>
-  <si>
-    <t>[9.97-10.149]</t>
-  </si>
-  <si>
-    <t>[10.149-10.328]</t>
-  </si>
-  <si>
-    <t>[10.328-10.507]</t>
-  </si>
-  <si>
-    <t>[10.507-10.685]</t>
-  </si>
-  <si>
-    <t>[10.685-10.864]</t>
-  </si>
-  <si>
-    <t>[10.864-11.043]</t>
-  </si>
-  <si>
-    <t>[11.043-11.222]</t>
-  </si>
-  <si>
-    <t>[11.222-11.4]</t>
-  </si>
-  <si>
-    <t>[11.4-11.579]</t>
-  </si>
-  <si>
-    <t>[11.579-11.758]</t>
-  </si>
-  <si>
-    <t>[10.105-10.208]</t>
-  </si>
-  <si>
-    <t>[10.208-10.311]</t>
-  </si>
-  <si>
-    <t>[10.311-10.414]</t>
-  </si>
-  <si>
-    <t>[10.414-10.518]</t>
-  </si>
-  <si>
-    <t>[10.518-10.621]</t>
-  </si>
-  <si>
-    <t>[10.621-10.724]</t>
-  </si>
-  <si>
-    <t>[10.724-10.827]</t>
-  </si>
-  <si>
-    <t>[10.827-10.931]</t>
-  </si>
-  <si>
-    <t>[10.931-11.034]</t>
-  </si>
-  <si>
-    <t>[11.034-11.137]</t>
-  </si>
-  <si>
-    <t>[11.137-11.24]</t>
-  </si>
-  <si>
-    <t>[11.24-11.344]</t>
-  </si>
-  <si>
-    <t>[11.344-11.447]</t>
-  </si>
-  <si>
-    <t>[11.447-11.55]</t>
-  </si>
-  <si>
-    <t>[9.255-9.402]</t>
-  </si>
-  <si>
-    <t>[9.402-9.549]</t>
-  </si>
-  <si>
-    <t>[9.549-9.696]</t>
-  </si>
-  <si>
-    <t>[9.696-9.843]</t>
-  </si>
-  <si>
-    <t>[9.843-9.99]</t>
-  </si>
-  <si>
-    <t>[9.99-10.136]</t>
-  </si>
-  <si>
-    <t>[10.136-10.283]</t>
-  </si>
-  <si>
-    <t>[10.283-10.43]</t>
-  </si>
-  <si>
-    <t>[10.43-10.577]</t>
-  </si>
-  <si>
-    <t>[10.577-10.724]</t>
-  </si>
-  <si>
-    <t>[10.724-10.871]</t>
-  </si>
-  <si>
-    <t>[10.871-11.018]</t>
-  </si>
-  <si>
-    <t>[11.018-11.164]</t>
-  </si>
-  <si>
-    <t>[11.164-11.311]</t>
-  </si>
-  <si>
-    <t>[10.278-10.383]</t>
-  </si>
-  <si>
-    <t>[10.383-10.489]</t>
-  </si>
-  <si>
-    <t>[10.489-10.595]</t>
-  </si>
-  <si>
-    <t>[10.595-10.701]</t>
-  </si>
-  <si>
-    <t>[10.701-10.806]</t>
-  </si>
-  <si>
-    <t>[10.806-10.912]</t>
-  </si>
-  <si>
-    <t>[10.912-11.018]</t>
-  </si>
-  <si>
-    <t>[11.018-11.124]</t>
-  </si>
-  <si>
-    <t>[11.124-11.229]</t>
-  </si>
-  <si>
-    <t>[11.229-11.335]</t>
-  </si>
-  <si>
-    <t>[11.335-11.441]</t>
-  </si>
-  <si>
-    <t>[11.441-11.547]</t>
-  </si>
-  <si>
-    <t>[11.547-11.652]</t>
-  </si>
-  <si>
-    <t>[11.652-11.758]</t>
-  </si>
-  <si>
-    <t>[82.94-83.1]</t>
-  </si>
-  <si>
-    <t>[83.1-83.27]</t>
-  </si>
-  <si>
-    <t>[83.27-83.44]</t>
-  </si>
-  <si>
-    <t>[83.44-83.61]</t>
-  </si>
-  <si>
-    <t>[83.61-83.78]</t>
-  </si>
-  <si>
-    <t>[83.78-83.95]</t>
-  </si>
-  <si>
-    <t>[83.95-84.11]</t>
-  </si>
-  <si>
-    <t>[84.11-84.28]</t>
-  </si>
-  <si>
-    <t>[84.28-84.45]</t>
-  </si>
-  <si>
-    <t>[84.45-84.62]</t>
-  </si>
-  <si>
-    <t>[84.62-84.79]</t>
-  </si>
-  <si>
-    <t>[84.79-84.96]</t>
-  </si>
-  <si>
-    <t>[84.96-85.12]</t>
-  </si>
-  <si>
-    <t>[85.12-85.29]</t>
-  </si>
-  <si>
-    <t>[83.41-83.55]</t>
-  </si>
-  <si>
-    <t>[83.55-83.68]</t>
-  </si>
-  <si>
-    <t>[83.68-83.82]</t>
-  </si>
-  <si>
-    <t>[83.82-83.95]</t>
-  </si>
-  <si>
-    <t>[83.95-84.08]</t>
-  </si>
-  <si>
-    <t>[84.08-84.22]</t>
-  </si>
-  <si>
-    <t>[84.22-84.35]</t>
-  </si>
-  <si>
-    <t>[84.35-84.49]</t>
-  </si>
-  <si>
-    <t>[84.49-84.62]</t>
-  </si>
-  <si>
-    <t>[84.62-84.76]</t>
-  </si>
-  <si>
-    <t>[84.76-84.89]</t>
-  </si>
-  <si>
-    <t>[84.89-85.02]</t>
-  </si>
-  <si>
-    <t>[85.02-85.16]</t>
-  </si>
-  <si>
-    <t>[85.16-85.29]</t>
-  </si>
-  <si>
-    <t>[83.1-83.26]</t>
-  </si>
-  <si>
-    <t>[83.26-83.42]</t>
-  </si>
-  <si>
-    <t>[83.42-83.58]</t>
-  </si>
-  <si>
-    <t>[83.58-83.74]</t>
-  </si>
-  <si>
-    <t>[83.74-83.9]</t>
-  </si>
-  <si>
-    <t>[83.9-84.06]</t>
-  </si>
-  <si>
-    <t>[84.06-84.22]</t>
-  </si>
-  <si>
-    <t>[84.22-84.38]</t>
-  </si>
-  <si>
-    <t>[84.38-84.54]</t>
-  </si>
-  <si>
-    <t>[84.54-84.7]</t>
-  </si>
-  <si>
-    <t>[84.7-84.86]</t>
-  </si>
-  <si>
-    <t>[84.86-85.03]</t>
-  </si>
-  <si>
-    <t>[85.03-85.19]</t>
-  </si>
-  <si>
-    <t>[83.67-83.78]</t>
-  </si>
-  <si>
-    <t>[83.78-83.89]</t>
-  </si>
-  <si>
-    <t>[83.89-84.0]</t>
-  </si>
-  <si>
-    <t>[84.0-84.11]</t>
-  </si>
-  <si>
-    <t>[84.11-84.22]</t>
-  </si>
-  <si>
-    <t>[84.22-84.33]</t>
-  </si>
-  <si>
-    <t>[84.33-84.44]</t>
-  </si>
-  <si>
-    <t>[84.44-84.55]</t>
-  </si>
-  <si>
-    <t>[84.55-84.66]</t>
-  </si>
-  <si>
-    <t>[84.66-84.77]</t>
-  </si>
-  <si>
-    <t>[84.77-84.88]</t>
-  </si>
-  <si>
-    <t>[84.88-84.99]</t>
-  </si>
-  <si>
-    <t>[84.99-85.1]</t>
-  </si>
-  <si>
-    <t>[85.1-85.21]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="166">
+  <si>
+    <t>[3.345-3.362]</t>
+  </si>
+  <si>
+    <t>[3.362-3.38]</t>
+  </si>
+  <si>
+    <t>[3.38-3.397]</t>
+  </si>
+  <si>
+    <t>[3.397-3.414]</t>
+  </si>
+  <si>
+    <t>[3.414-3.432]</t>
+  </si>
+  <si>
+    <t>[3.432-3.449]</t>
+  </si>
+  <si>
+    <t>[3.449-3.467]</t>
+  </si>
+  <si>
+    <t>[3.467-3.484]</t>
+  </si>
+  <si>
+    <t>[3.484-3.501]</t>
+  </si>
+  <si>
+    <t>[3.501-3.519]</t>
+  </si>
+  <si>
+    <t>[3.519-3.536]</t>
+  </si>
+  <si>
+    <t>[3.536-3.554]</t>
+  </si>
+  <si>
+    <t>[3.554-3.571]</t>
+  </si>
+  <si>
+    <t>[3.571-3.588]</t>
+  </si>
+  <si>
+    <t>[3.345-3.356]</t>
+  </si>
+  <si>
+    <t>[3.356-3.366]</t>
+  </si>
+  <si>
+    <t>[3.366-3.377]</t>
+  </si>
+  <si>
+    <t>[3.377-3.388]</t>
+  </si>
+  <si>
+    <t>[3.388-3.398]</t>
+  </si>
+  <si>
+    <t>[3.398-3.409]</t>
+  </si>
+  <si>
+    <t>[3.409-3.42]</t>
+  </si>
+  <si>
+    <t>[3.42-3.43]</t>
+  </si>
+  <si>
+    <t>[3.43-3.441]</t>
+  </si>
+  <si>
+    <t>[3.441-3.452]</t>
+  </si>
+  <si>
+    <t>[3.452-3.463]</t>
+  </si>
+  <si>
+    <t>[3.463-3.473]</t>
+  </si>
+  <si>
+    <t>[3.473-3.484]</t>
+  </si>
+  <si>
+    <t>[3.484-3.495]</t>
+  </si>
+  <si>
+    <t>[3.453-3.462]</t>
+  </si>
+  <si>
+    <t>[3.462-3.472]</t>
+  </si>
+  <si>
+    <t>[3.472-3.482]</t>
+  </si>
+  <si>
+    <t>[3.482-3.492]</t>
+  </si>
+  <si>
+    <t>[3.492-3.501]</t>
+  </si>
+  <si>
+    <t>[3.501-3.511]</t>
+  </si>
+  <si>
+    <t>[3.511-3.521]</t>
+  </si>
+  <si>
+    <t>[3.521-3.53]</t>
+  </si>
+  <si>
+    <t>[3.53-3.54]</t>
+  </si>
+  <si>
+    <t>[3.54-3.55]</t>
+  </si>
+  <si>
+    <t>[3.55-3.559]</t>
+  </si>
+  <si>
+    <t>[3.559-3.569]</t>
+  </si>
+  <si>
+    <t>[3.569-3.579]</t>
+  </si>
+  <si>
+    <t>[3.579-3.588]</t>
+  </si>
+  <si>
+    <t>[3.353-3.365]</t>
+  </si>
+  <si>
+    <t>[3.365-3.378]</t>
+  </si>
+  <si>
+    <t>[3.378-3.39]</t>
+  </si>
+  <si>
+    <t>[3.39-3.402]</t>
+  </si>
+  <si>
+    <t>[3.402-3.415]</t>
+  </si>
+  <si>
+    <t>[3.415-3.427]</t>
+  </si>
+  <si>
+    <t>[3.427-3.439]</t>
+  </si>
+  <si>
+    <t>[3.439-3.451]</t>
+  </si>
+  <si>
+    <t>[3.451-3.464]</t>
+  </si>
+  <si>
+    <t>[3.464-3.476]</t>
+  </si>
+  <si>
+    <t>[3.476-3.488]</t>
+  </si>
+  <si>
+    <t>[3.488-3.501]</t>
+  </si>
+  <si>
+    <t>[3.501-3.513]</t>
+  </si>
+  <si>
+    <t>[3.513-3.525]</t>
+  </si>
+  <si>
+    <t>[11.46-11.53]</t>
+  </si>
+  <si>
+    <t>[11.53-11.6]</t>
+  </si>
+  <si>
+    <t>[11.6-11.67]</t>
+  </si>
+  <si>
+    <t>[11.67-11.74]</t>
+  </si>
+  <si>
+    <t>[11.74-11.81]</t>
+  </si>
+  <si>
+    <t>[11.81-11.87]</t>
+  </si>
+  <si>
+    <t>[11.87-11.94]</t>
+  </si>
+  <si>
+    <t>[11.94-12.01]</t>
+  </si>
+  <si>
+    <t>[12.01-12.08]</t>
+  </si>
+  <si>
+    <t>[12.08-12.15]</t>
+  </si>
+  <si>
+    <t>[12.15-12.22]</t>
+  </si>
+  <si>
+    <t>[12.22-12.29]</t>
+  </si>
+  <si>
+    <t>[12.29-12.35]</t>
+  </si>
+  <si>
+    <t>[12.35-12.42]</t>
+  </si>
+  <si>
+    <t>[11.82-11.86]</t>
+  </si>
+  <si>
+    <t>[11.86-11.91]</t>
+  </si>
+  <si>
+    <t>[11.91-11.95]</t>
+  </si>
+  <si>
+    <t>[11.95-11.99]</t>
+  </si>
+  <si>
+    <t>[11.99-12.03]</t>
+  </si>
+  <si>
+    <t>[12.03-12.08]</t>
+  </si>
+  <si>
+    <t>[12.08-12.12]</t>
+  </si>
+  <si>
+    <t>[12.12-12.16]</t>
+  </si>
+  <si>
+    <t>[12.16-12.21]</t>
+  </si>
+  <si>
+    <t>[12.21-12.25]</t>
+  </si>
+  <si>
+    <t>[12.25-12.29]</t>
+  </si>
+  <si>
+    <t>[12.29-12.34]</t>
+  </si>
+  <si>
+    <t>[12.34-12.38]</t>
+  </si>
+  <si>
+    <t>[12.38-12.42]</t>
+  </si>
+  <si>
+    <t>[11.46-11.5]</t>
+  </si>
+  <si>
+    <t>[11.5-11.54]</t>
+  </si>
+  <si>
+    <t>[11.54-11.58]</t>
+  </si>
+  <si>
+    <t>[11.58-11.62]</t>
+  </si>
+  <si>
+    <t>[11.62-11.66]</t>
+  </si>
+  <si>
+    <t>[11.66-11.7]</t>
+  </si>
+  <si>
+    <t>[11.7-11.74]</t>
+  </si>
+  <si>
+    <t>[11.74-11.78]</t>
+  </si>
+  <si>
+    <t>[11.78-11.82]</t>
+  </si>
+  <si>
+    <t>[11.82-11.85]</t>
+  </si>
+  <si>
+    <t>[11.85-11.89]</t>
+  </si>
+  <si>
+    <t>[11.89-11.93]</t>
+  </si>
+  <si>
+    <t>[11.93-11.97]</t>
+  </si>
+  <si>
+    <t>[11.97-12.01]</t>
+  </si>
+  <si>
+    <t>[11.7-11.75]</t>
+  </si>
+  <si>
+    <t>[11.75-11.8]</t>
+  </si>
+  <si>
+    <t>[11.8-11.85]</t>
+  </si>
+  <si>
+    <t>[11.89-11.94]</t>
+  </si>
+  <si>
+    <t>[11.94-11.99]</t>
+  </si>
+  <si>
+    <t>[11.99-12.04]</t>
+  </si>
+  <si>
+    <t>[12.04-12.09]</t>
+  </si>
+  <si>
+    <t>[12.09-12.14]</t>
+  </si>
+  <si>
+    <t>[12.14-12.19]</t>
+  </si>
+  <si>
+    <t>[12.19-12.24]</t>
+  </si>
+  <si>
+    <t>[12.24-12.29]</t>
+  </si>
+  <si>
+    <t>[12.34-12.39]</t>
+  </si>
+  <si>
+    <t>[75.11-75.33]</t>
+  </si>
+  <si>
+    <t>[75.33-75.54]</t>
+  </si>
+  <si>
+    <t>[75.54-75.76]</t>
+  </si>
+  <si>
+    <t>[75.76-75.97]</t>
+  </si>
+  <si>
+    <t>[75.97-76.18]</t>
+  </si>
+  <si>
+    <t>[76.18-76.4]</t>
+  </si>
+  <si>
+    <t>[76.4-76.61]</t>
+  </si>
+  <si>
+    <t>[76.61-76.83]</t>
+  </si>
+  <si>
+    <t>[76.83-77.04]</t>
+  </si>
+  <si>
+    <t>[77.04-77.26]</t>
+  </si>
+  <si>
+    <t>[77.26-77.47]</t>
+  </si>
+  <si>
+    <t>[77.47-77.69]</t>
+  </si>
+  <si>
+    <t>[77.69-77.9]</t>
+  </si>
+  <si>
+    <t>[77.9-78.11]</t>
+  </si>
+  <si>
+    <t>[76.25-76.39]</t>
+  </si>
+  <si>
+    <t>[76.39-76.52]</t>
+  </si>
+  <si>
+    <t>[76.52-76.65]</t>
+  </si>
+  <si>
+    <t>[76.65-76.79]</t>
+  </si>
+  <si>
+    <t>[76.79-76.92]</t>
+  </si>
+  <si>
+    <t>[76.92-77.05]</t>
+  </si>
+  <si>
+    <t>[77.05-77.18]</t>
+  </si>
+  <si>
+    <t>[77.18-77.32]</t>
+  </si>
+  <si>
+    <t>[77.32-77.45]</t>
+  </si>
+  <si>
+    <t>[77.45-77.58]</t>
+  </si>
+  <si>
+    <t>[77.58-77.72]</t>
+  </si>
+  <si>
+    <t>[77.72-77.85]</t>
+  </si>
+  <si>
+    <t>[77.85-77.98]</t>
+  </si>
+  <si>
+    <t>[77.98-78.11]</t>
+  </si>
+  <si>
+    <t>[75.11-75.29]</t>
+  </si>
+  <si>
+    <t>[75.29-75.47]</t>
+  </si>
+  <si>
+    <t>[75.47-75.65]</t>
+  </si>
+  <si>
+    <t>[75.65-75.83]</t>
+  </si>
+  <si>
+    <t>[75.83-76.01]</t>
+  </si>
+  <si>
+    <t>[76.01-76.19]</t>
+  </si>
+  <si>
+    <t>[76.19-76.37]</t>
+  </si>
+  <si>
+    <t>[76.37-76.55]</t>
+  </si>
+  <si>
+    <t>[76.55-76.73]</t>
+  </si>
+  <si>
+    <t>[76.73-76.91]</t>
+  </si>
+  <si>
+    <t>[76.91-77.08]</t>
+  </si>
+  <si>
+    <t>[77.08-77.26]</t>
+  </si>
+  <si>
+    <t>[77.26-77.44]</t>
+  </si>
+  <si>
+    <t>[77.44-77.62]</t>
+  </si>
+  <si>
+    <t>[76.21-76.34]</t>
+  </si>
+  <si>
+    <t>[76.34-76.47]</t>
+  </si>
+  <si>
+    <t>[76.47-76.6]</t>
+  </si>
+  <si>
+    <t>[76.6-76.73]</t>
+  </si>
+  <si>
+    <t>[76.73-76.86]</t>
+  </si>
+  <si>
+    <t>[76.86-76.99]</t>
+  </si>
+  <si>
+    <t>[76.99-77.11]</t>
+  </si>
+  <si>
+    <t>[77.11-77.24]</t>
+  </si>
+  <si>
+    <t>[77.24-77.37]</t>
+  </si>
+  <si>
+    <t>[77.37-77.5]</t>
+  </si>
+  <si>
+    <t>[77.5-77.63]</t>
+  </si>
+  <si>
+    <t>[77.63-77.76]</t>
+  </si>
+  <si>
+    <t>[77.76-77.89]</t>
+  </si>
+  <si>
+    <t>[77.89-78.02]</t>
   </si>
 </sst>
 </file>
@@ -635,31 +632,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -674,28 +671,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -822,46 +819,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[10.105-10.208]</c:v>
+                  <c:v>[11.82-11.86]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[10.208-10.311]</c:v>
+                  <c:v>[11.86-11.91]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[10.311-10.414]</c:v>
+                  <c:v>[11.91-11.95]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.414-10.518]</c:v>
+                  <c:v>[11.95-11.99]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.518-10.621]</c:v>
+                  <c:v>[11.99-12.03]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[10.621-10.724]</c:v>
+                  <c:v>[12.03-12.08]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[10.724-10.827]</c:v>
+                  <c:v>[12.08-12.12]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[10.827-10.931]</c:v>
+                  <c:v>[12.12-12.16]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[10.931-11.034]</c:v>
+                  <c:v>[12.16-12.21]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[11.034-11.137]</c:v>
+                  <c:v>[12.21-12.25]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[11.137-11.24]</c:v>
+                  <c:v>[12.25-12.29]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[11.24-11.344]</c:v>
+                  <c:v>[12.29-12.34]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[11.344-11.447]</c:v>
+                  <c:v>[12.34-12.38]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[11.447-11.55]</c:v>
+                  <c:v>[12.38-12.42]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -873,46 +870,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1049,46 +1046,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[9.255-9.402]</c:v>
+                  <c:v>[11.46-11.5]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[9.402-9.549]</c:v>
+                  <c:v>[11.5-11.54]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[9.549-9.696]</c:v>
+                  <c:v>[11.54-11.58]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[9.696-9.843]</c:v>
+                  <c:v>[11.58-11.62]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[9.843-9.99]</c:v>
+                  <c:v>[11.62-11.66]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[9.99-10.136]</c:v>
+                  <c:v>[11.66-11.7]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[10.136-10.283]</c:v>
+                  <c:v>[11.7-11.74]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[10.283-10.43]</c:v>
+                  <c:v>[11.74-11.78]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[10.43-10.577]</c:v>
+                  <c:v>[11.78-11.82]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[10.577-10.724]</c:v>
+                  <c:v>[11.82-11.85]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[10.724-10.871]</c:v>
+                  <c:v>[11.85-11.89]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[10.871-11.018]</c:v>
+                  <c:v>[11.89-11.93]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[11.018-11.164]</c:v>
+                  <c:v>[11.93-11.97]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[11.164-11.311]</c:v>
+                  <c:v>[11.97-12.01]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1100,46 +1097,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1276,46 +1273,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[10.278-10.383]</c:v>
+                  <c:v>[11.7-11.75]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[10.383-10.489]</c:v>
+                  <c:v>[11.75-11.8]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[10.489-10.595]</c:v>
+                  <c:v>[11.8-11.85]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.595-10.701]</c:v>
+                  <c:v>[11.85-11.89]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.701-10.806]</c:v>
+                  <c:v>[11.89-11.94]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[10.806-10.912]</c:v>
+                  <c:v>[11.94-11.99]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[10.912-11.018]</c:v>
+                  <c:v>[11.99-12.04]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[11.018-11.124]</c:v>
+                  <c:v>[12.04-12.09]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[11.124-11.229]</c:v>
+                  <c:v>[12.09-12.14]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[11.229-11.335]</c:v>
+                  <c:v>[12.14-12.19]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[11.335-11.441]</c:v>
+                  <c:v>[12.19-12.24]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[11.441-11.547]</c:v>
+                  <c:v>[12.24-12.29]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[11.547-11.652]</c:v>
+                  <c:v>[12.29-12.34]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[11.652-11.758]</c:v>
+                  <c:v>[12.34-12.39]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1333,40 +1330,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1503,46 +1500,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[82.94-83.1]</c:v>
+                  <c:v>[75.11-75.33]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[83.1-83.27]</c:v>
+                  <c:v>[75.33-75.54]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[83.27-83.44]</c:v>
+                  <c:v>[75.54-75.76]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[83.44-83.61]</c:v>
+                  <c:v>[75.76-75.97]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[83.61-83.78]</c:v>
+                  <c:v>[75.97-76.18]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[83.78-83.95]</c:v>
+                  <c:v>[76.18-76.4]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[83.95-84.11]</c:v>
+                  <c:v>[76.4-76.61]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[84.11-84.28]</c:v>
+                  <c:v>[76.61-76.83]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.28-84.45]</c:v>
+                  <c:v>[76.83-77.04]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.45-84.62]</c:v>
+                  <c:v>[77.04-77.26]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.62-84.79]</c:v>
+                  <c:v>[77.26-77.47]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.79-84.96]</c:v>
+                  <c:v>[77.47-77.69]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[84.96-85.12]</c:v>
+                  <c:v>[77.69-77.9]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[85.12-85.29]</c:v>
+                  <c:v>[77.9-78.11]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1554,46 +1551,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>57</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>37</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1730,46 +1727,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[83.41-83.55]</c:v>
+                  <c:v>[76.25-76.39]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[83.55-83.68]</c:v>
+                  <c:v>[76.39-76.52]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[83.68-83.82]</c:v>
+                  <c:v>[76.52-76.65]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[83.82-83.95]</c:v>
+                  <c:v>[76.65-76.79]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[83.95-84.08]</c:v>
+                  <c:v>[76.79-76.92]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[84.08-84.22]</c:v>
+                  <c:v>[76.92-77.05]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[84.22-84.35]</c:v>
+                  <c:v>[77.05-77.18]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[84.35-84.49]</c:v>
+                  <c:v>[77.18-77.32]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.49-84.62]</c:v>
+                  <c:v>[77.32-77.45]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.62-84.76]</c:v>
+                  <c:v>[77.45-77.58]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.76-84.89]</c:v>
+                  <c:v>[77.58-77.72]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.89-85.02]</c:v>
+                  <c:v>[77.72-77.85]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[85.02-85.16]</c:v>
+                  <c:v>[77.85-77.98]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[85.16-85.29]</c:v>
+                  <c:v>[77.98-78.11]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1781,46 +1778,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1957,46 +1954,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[82.94-83.1]</c:v>
+                  <c:v>[75.11-75.29]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[83.1-83.26]</c:v>
+                  <c:v>[75.29-75.47]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[83.26-83.42]</c:v>
+                  <c:v>[75.47-75.65]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[83.42-83.58]</c:v>
+                  <c:v>[75.65-75.83]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[83.58-83.74]</c:v>
+                  <c:v>[75.83-76.01]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[83.74-83.9]</c:v>
+                  <c:v>[76.01-76.19]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[83.9-84.06]</c:v>
+                  <c:v>[76.19-76.37]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[84.06-84.22]</c:v>
+                  <c:v>[76.37-76.55]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.22-84.38]</c:v>
+                  <c:v>[76.55-76.73]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.38-84.54]</c:v>
+                  <c:v>[76.73-76.91]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.54-84.7]</c:v>
+                  <c:v>[76.91-77.08]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.7-84.86]</c:v>
+                  <c:v>[77.08-77.26]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[84.86-85.03]</c:v>
+                  <c:v>[77.26-77.44]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[85.03-85.19]</c:v>
+                  <c:v>[77.44-77.62]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2008,46 +2005,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2184,46 +2181,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[83.67-83.78]</c:v>
+                  <c:v>[76.21-76.34]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[83.78-83.89]</c:v>
+                  <c:v>[76.34-76.47]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[83.89-84.0]</c:v>
+                  <c:v>[76.47-76.6]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[84.0-84.11]</c:v>
+                  <c:v>[76.6-76.73]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[84.11-84.22]</c:v>
+                  <c:v>[76.73-76.86]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[84.22-84.33]</c:v>
+                  <c:v>[76.86-76.99]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[84.33-84.44]</c:v>
+                  <c:v>[76.99-77.11]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[84.44-84.55]</c:v>
+                  <c:v>[77.11-77.24]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.55-84.66]</c:v>
+                  <c:v>[77.24-77.37]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.66-84.77]</c:v>
+                  <c:v>[77.37-77.5]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.77-84.88]</c:v>
+                  <c:v>[77.5-77.63]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.88-84.99]</c:v>
+                  <c:v>[77.63-77.76]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[84.99-85.1]</c:v>
+                  <c:v>[77.76-77.89]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[85.1-85.21]</c:v>
+                  <c:v>[77.89-78.02]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2235,46 +2232,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2412,28 +2409,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>34</c:v>
@@ -2451,28 +2448,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2600,31 +2597,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2639,28 +2636,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2788,31 +2785,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2827,25 +2824,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2</c:v>
@@ -2975,46 +2972,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.7924-3.8222]</c:v>
+                  <c:v>[3.345-3.362]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.8222-3.852]</c:v>
+                  <c:v>[3.362-3.38]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.852-3.8817]</c:v>
+                  <c:v>[3.38-3.397]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.8817-3.9115]</c:v>
+                  <c:v>[3.397-3.414]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.9115-3.9413]</c:v>
+                  <c:v>[3.414-3.432]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.9413-3.971]</c:v>
+                  <c:v>[3.432-3.449]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[3.971-4.0008]</c:v>
+                  <c:v>[3.449-3.467]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[4.0008-4.0306]</c:v>
+                  <c:v>[3.467-3.484]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[4.0306-4.0603]</c:v>
+                  <c:v>[3.484-3.501]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[4.0603-4.0901]</c:v>
+                  <c:v>[3.501-3.519]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[4.0901-4.1199]</c:v>
+                  <c:v>[3.519-3.536]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[4.1199-4.1496]</c:v>
+                  <c:v>[3.536-3.554]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.1496-4.1794]</c:v>
+                  <c:v>[3.554-3.571]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.1794-4.2092]</c:v>
+                  <c:v>[3.571-3.588]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3026,43 +3023,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -3202,46 +3199,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.8259-3.8431]</c:v>
+                  <c:v>[3.345-3.356]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.8431-3.8603]</c:v>
+                  <c:v>[3.356-3.366]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.8603-3.8776]</c:v>
+                  <c:v>[3.366-3.377]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.8776-3.8948]</c:v>
+                  <c:v>[3.377-3.388]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.8948-3.912]</c:v>
+                  <c:v>[3.388-3.398]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.912-3.9292]</c:v>
+                  <c:v>[3.398-3.409]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[3.9292-3.9464]</c:v>
+                  <c:v>[3.409-3.42]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[3.9464-3.9637]</c:v>
+                  <c:v>[3.42-3.43]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[3.9637-3.9809]</c:v>
+                  <c:v>[3.43-3.441]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[3.9809-3.9981]</c:v>
+                  <c:v>[3.441-3.452]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[3.9981-4.0153]</c:v>
+                  <c:v>[3.452-3.463]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[4.0153-4.0325]</c:v>
+                  <c:v>[3.463-3.473]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.0325-4.0497]</c:v>
+                  <c:v>[3.473-3.484]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.0497-4.067]</c:v>
+                  <c:v>[3.484-3.495]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3256,43 +3253,43 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3429,46 +3426,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.8687-3.893]</c:v>
+                  <c:v>[3.453-3.462]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.893-3.9173]</c:v>
+                  <c:v>[3.462-3.472]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.9173-3.9416]</c:v>
+                  <c:v>[3.472-3.482]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.9416-3.966]</c:v>
+                  <c:v>[3.482-3.492]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.966-3.9903]</c:v>
+                  <c:v>[3.492-3.501]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.9903-4.0146]</c:v>
+                  <c:v>[3.501-3.511]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[4.0146-4.0389]</c:v>
+                  <c:v>[3.511-3.521]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[4.0389-4.0633]</c:v>
+                  <c:v>[3.521-3.53]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[4.0633-4.0876]</c:v>
+                  <c:v>[3.53-3.54]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[4.0876-4.1119]</c:v>
+                  <c:v>[3.54-3.55]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[4.1119-4.1362]</c:v>
+                  <c:v>[3.55-3.559]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[4.1362-4.1605]</c:v>
+                  <c:v>[3.559-3.569]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.1605-4.1849]</c:v>
+                  <c:v>[3.569-3.579]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.1849-4.2092]</c:v>
+                  <c:v>[3.579-3.588]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3480,46 +3477,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3656,46 +3653,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.7924-3.8103]</c:v>
+                  <c:v>[3.353-3.365]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.8103-3.8281]</c:v>
+                  <c:v>[3.365-3.378]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.8281-3.846]</c:v>
+                  <c:v>[3.378-3.39]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.846-3.8639]</c:v>
+                  <c:v>[3.39-3.402]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.8639-3.8817]</c:v>
+                  <c:v>[3.402-3.415]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.8817-3.8996]</c:v>
+                  <c:v>[3.415-3.427]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[3.8996-3.9175]</c:v>
+                  <c:v>[3.427-3.439]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[3.9175-3.9353]</c:v>
+                  <c:v>[3.439-3.451]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[3.9353-3.9532]</c:v>
+                  <c:v>[3.451-3.464]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[3.9532-3.9711]</c:v>
+                  <c:v>[3.464-3.476]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[3.9711-3.9889]</c:v>
+                  <c:v>[3.476-3.488]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[3.9889-4.0068]</c:v>
+                  <c:v>[3.488-3.501]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.0068-4.0247]</c:v>
+                  <c:v>[3.501-3.513]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.0247-4.0425]</c:v>
+                  <c:v>[3.513-3.525]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3707,40 +3704,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -3883,46 +3880,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[9.255-9.434]</c:v>
+                  <c:v>[11.46-11.53]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[9.434-9.613]</c:v>
+                  <c:v>[11.53-11.6]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[9.613-9.792]</c:v>
+                  <c:v>[11.6-11.67]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[9.792-9.97]</c:v>
+                  <c:v>[11.67-11.74]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[9.97-10.149]</c:v>
+                  <c:v>[11.74-11.81]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[10.149-10.328]</c:v>
+                  <c:v>[11.81-11.87]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[10.328-10.507]</c:v>
+                  <c:v>[11.87-11.94]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[10.507-10.685]</c:v>
+                  <c:v>[11.94-12.01]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[10.685-10.864]</c:v>
+                  <c:v>[12.01-12.08]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[10.864-11.043]</c:v>
+                  <c:v>[12.08-12.15]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[11.043-11.222]</c:v>
+                  <c:v>[12.15-12.22]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[11.222-11.4]</c:v>
+                  <c:v>[12.22-12.29]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[11.4-11.579]</c:v>
+                  <c:v>[12.29-12.35]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[11.579-11.758]</c:v>
+                  <c:v>[12.35-12.42]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3937,43 +3934,43 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4923,7 +4920,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4931,71 +4928,71 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2">
-        <v>115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4">
-        <v>83</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5017,7 +5014,7 @@
         <v>70</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5025,7 +5022,7 @@
         <v>71</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5033,7 +5030,7 @@
         <v>72</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5041,7 +5038,7 @@
         <v>73</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5049,7 +5046,7 @@
         <v>74</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5057,7 +5054,7 @@
         <v>75</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5065,7 +5062,7 @@
         <v>76</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5073,7 +5070,7 @@
         <v>77</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5081,7 +5078,7 @@
         <v>78</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5089,7 +5086,7 @@
         <v>79</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5097,7 +5094,7 @@
         <v>80</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5105,7 +5102,7 @@
         <v>81</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5113,7 +5110,7 @@
         <v>82</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5121,7 +5118,7 @@
         <v>83</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5143,7 +5140,7 @@
         <v>84</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5151,7 +5148,7 @@
         <v>85</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5159,7 +5156,7 @@
         <v>86</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5167,7 +5164,7 @@
         <v>87</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5175,7 +5172,7 @@
         <v>88</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5183,7 +5180,7 @@
         <v>89</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5191,7 +5188,7 @@
         <v>90</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5199,7 +5196,7 @@
         <v>91</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5207,7 +5204,7 @@
         <v>92</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5215,7 +5212,7 @@
         <v>93</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5223,7 +5220,7 @@
         <v>94</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5231,7 +5228,7 @@
         <v>95</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5239,7 +5236,7 @@
         <v>96</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5247,7 +5244,7 @@
         <v>97</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5285,20 +5282,20 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -5306,74 +5303,74 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5392,114 +5389,114 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7">
-        <v>39</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B11">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B12">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5518,15 +5515,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -5534,15 +5531,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -5550,82 +5547,82 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5644,114 +5641,114 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5770,23 +5767,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5794,71 +5791,71 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -5866,18 +5863,18 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5896,7 +5893,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5904,55 +5901,55 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B2">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5963,7 +5960,7 @@
         <v>34</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5987,7 +5984,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5995,31 +5992,31 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6027,39 +6024,39 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -6078,7 +6075,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6086,63 +6083,63 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B3">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -6150,7 +6147,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -6172,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6180,7 +6177,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6188,7 +6185,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6196,7 +6193,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6204,7 +6201,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6212,7 +6209,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6220,7 +6217,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6228,7 +6225,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6236,7 +6233,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6244,7 +6241,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6252,7 +6249,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6260,7 +6257,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6268,7 +6265,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6306,7 +6303,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6314,7 +6311,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6322,7 +6319,7 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6330,7 +6327,7 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6338,7 +6335,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6346,7 +6343,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6354,7 +6351,7 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6362,7 +6359,7 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6370,7 +6367,7 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6378,7 +6375,7 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6386,7 +6383,7 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6394,7 +6391,7 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6402,7 +6399,7 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6424,7 +6421,7 @@
         <v>28</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6432,7 +6429,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6440,7 +6437,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6448,7 +6445,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6456,7 +6453,7 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6464,7 +6461,7 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6472,7 +6469,7 @@
         <v>34</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6480,7 +6477,7 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6488,7 +6485,7 @@
         <v>36</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6496,7 +6493,7 @@
         <v>37</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6504,7 +6501,7 @@
         <v>38</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6512,7 +6509,7 @@
         <v>39</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6520,7 +6517,7 @@
         <v>40</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6528,7 +6525,7 @@
         <v>41</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6550,7 +6547,7 @@
         <v>42</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6558,7 +6555,7 @@
         <v>43</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6566,7 +6563,7 @@
         <v>44</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6574,7 +6571,7 @@
         <v>45</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6582,7 +6579,7 @@
         <v>46</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6590,7 +6587,7 @@
         <v>47</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6598,7 +6595,7 @@
         <v>48</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6606,7 +6603,7 @@
         <v>49</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6614,7 +6611,7 @@
         <v>50</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6622,7 +6619,7 @@
         <v>51</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6630,7 +6627,7 @@
         <v>52</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6638,7 +6635,7 @@
         <v>53</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6684,7 +6681,7 @@
         <v>57</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6692,7 +6689,7 @@
         <v>58</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6700,7 +6697,7 @@
         <v>59</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6708,7 +6705,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6716,7 +6713,7 @@
         <v>61</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6724,7 +6721,7 @@
         <v>62</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6732,7 +6729,7 @@
         <v>63</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6740,7 +6737,7 @@
         <v>64</v>
       </c>
       <c r="B9">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6748,7 +6745,7 @@
         <v>65</v>
       </c>
       <c r="B10">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6756,7 +6753,7 @@
         <v>66</v>
       </c>
       <c r="B11">
-        <v>54</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6764,7 +6761,7 @@
         <v>67</v>
       </c>
       <c r="B12">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6772,7 +6769,7 @@
         <v>68</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6780,7 +6777,7 @@
         <v>69</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
